--- a/outputs/cb_retention_monthly.xlsx
+++ b/outputs/cb_retention_monthly.xlsx
@@ -530,10 +530,10 @@
         <v>2258.809130099965</v>
       </c>
       <c r="D2" t="n">
-        <v>2131.99442874456</v>
+        <v>2132.757206961103</v>
       </c>
       <c r="E2" t="n">
-        <v>4174.620182687257</v>
+        <v>4150.502278591963</v>
       </c>
       <c r="F2" t="n">
         <v>2258.809130099965</v>
@@ -583,10 +583,10 @@
         <v>2435.93784473139</v>
       </c>
       <c r="D3" t="n">
-        <v>1284.86922485282</v>
+        <v>1235.531689283092</v>
       </c>
       <c r="E3" t="n">
-        <v>3266.927940471746</v>
+        <v>3290.49044889333</v>
       </c>
       <c r="F3" t="n">
         <v>2435.93784473139</v>
@@ -636,10 +636,10 @@
         <v>2601.638900354337</v>
       </c>
       <c r="D4" t="n">
-        <v>2161.8750631239</v>
+        <v>2208.873073615659</v>
       </c>
       <c r="E4" t="n">
-        <v>4237.226448295518</v>
+        <v>4200.347822249325</v>
       </c>
       <c r="F4" t="n">
         <v>2601.638900354337</v>
@@ -689,10 +689,10 @@
         <v>2778.767616851108</v>
       </c>
       <c r="D5" t="n">
-        <v>1600.728797952326</v>
+        <v>1616.407114446366</v>
       </c>
       <c r="E5" t="n">
-        <v>3665.132789286934</v>
+        <v>3687.612188843777</v>
       </c>
       <c r="F5" t="n">
         <v>2778.767616851108</v>
@@ -742,10 +742,10 @@
         <v>2950.182503783469</v>
       </c>
       <c r="D6" t="n">
-        <v>1675.402896434773</v>
+        <v>1704.916657685167</v>
       </c>
       <c r="E6" t="n">
-        <v>3672.747115770444</v>
+        <v>3756.724511631307</v>
       </c>
       <c r="F6" t="n">
         <v>2950.182503783469</v>
@@ -795,10 +795,10 @@
         <v>3127.311221012696</v>
       </c>
       <c r="D7" t="n">
-        <v>2276.897225797849</v>
+        <v>2343.055733190632</v>
       </c>
       <c r="E7" t="n">
-        <v>4254.046536168456</v>
+        <v>4280.143556414064</v>
       </c>
       <c r="F7" t="n">
         <v>3127.311221012696</v>
@@ -848,10 +848,10 @@
         <v>3298.726108653885</v>
       </c>
       <c r="D8" t="n">
-        <v>1691.167979538478</v>
+        <v>1624.207840909044</v>
       </c>
       <c r="E8" t="n">
-        <v>3721.015116942114</v>
+        <v>3620.87438882495</v>
       </c>
       <c r="F8" t="n">
         <v>3298.726108653885</v>
@@ -901,10 +901,10 @@
         <v>3475.85482505839</v>
       </c>
       <c r="D9" t="n">
-        <v>2576.21989404837</v>
+        <v>2623.817279227167</v>
       </c>
       <c r="E9" t="n">
-        <v>4619.554518394201</v>
+        <v>4712.255136528029</v>
       </c>
       <c r="F9" t="n">
         <v>3475.85482505839</v>
@@ -954,10 +954,10 @@
         <v>3652.983541462896</v>
       </c>
       <c r="D10" t="n">
-        <v>2943.834346892486</v>
+        <v>2871.547886771305</v>
       </c>
       <c r="E10" t="n">
-        <v>4990.821906612848</v>
+        <v>5030.533810466749</v>
       </c>
       <c r="F10" t="n">
         <v>3652.983541462896</v>
@@ -1007,10 +1007,10 @@
         <v>3824.398429906553</v>
       </c>
       <c r="D11" t="n">
-        <v>2598.641852424934</v>
+        <v>2586.992975425411</v>
       </c>
       <c r="E11" t="n">
-        <v>4591.45352546706</v>
+        <v>4776.649041714961</v>
       </c>
       <c r="F11" t="n">
         <v>3824.398429906553</v>
@@ -1060,10 +1060,10 @@
         <v>4001.527146783743</v>
       </c>
       <c r="D12" t="n">
-        <v>2657.737470769034</v>
+        <v>2560.686975292976</v>
       </c>
       <c r="E12" t="n">
-        <v>4701.765201589252</v>
+        <v>4708.026008632277</v>
       </c>
       <c r="F12" t="n">
         <v>4001.527146783743</v>
@@ -1113,10 +1113,10 @@
         <v>4172.94203408425</v>
       </c>
       <c r="D13" t="n">
-        <v>2293.522080831373</v>
+        <v>2310.644130296352</v>
       </c>
       <c r="E13" t="n">
-        <v>4400.556516152674</v>
+        <v>4378.336268680143</v>
       </c>
       <c r="F13" t="n">
         <v>4172.94203408425</v>
@@ -1166,10 +1166,10 @@
         <v>4350.070750412907</v>
       </c>
       <c r="D14" t="n">
-        <v>3151.526728936579</v>
+        <v>3207.584307154523</v>
       </c>
       <c r="E14" t="n">
-        <v>5135.644187877715</v>
+        <v>5131.413274091784</v>
       </c>
       <c r="F14" t="n">
         <v>4350.070750412907</v>
@@ -1219,10 +1219,10 @@
         <v>4527.199466741563</v>
       </c>
       <c r="D15" t="n">
-        <v>2380.425640141624</v>
+        <v>2380.332117108143</v>
       </c>
       <c r="E15" t="n">
-        <v>4381.748294729036</v>
+        <v>4428.408045471734</v>
       </c>
       <c r="F15" t="n">
         <v>4527.199466741563</v>
@@ -1272,10 +1272,10 @@
         <v>4687.186696810436</v>
       </c>
       <c r="D16" t="n">
-        <v>3733.108406773082</v>
+        <v>3734.64653334284</v>
       </c>
       <c r="E16" t="n">
-        <v>5710.787206344163</v>
+        <v>5760.629158164067</v>
       </c>
       <c r="F16" t="n">
         <v>4687.186696810436</v>
@@ -1325,10 +1325,10 @@
         <v>4864.31541581526</v>
       </c>
       <c r="D17" t="n">
-        <v>3676.38258075106</v>
+        <v>3676.403282014914</v>
       </c>
       <c r="E17" t="n">
-        <v>5729.226753586247</v>
+        <v>5704.46857125914</v>
       </c>
       <c r="F17" t="n">
         <v>4864.31541581526</v>
@@ -1378,10 +1378,10 @@
         <v>5035.730307877251</v>
       </c>
       <c r="D18" t="n">
-        <v>4049.713993077024</v>
+        <v>4058.304895506082</v>
       </c>
       <c r="E18" t="n">
-        <v>6109.290290339244</v>
+        <v>6066.726712957293</v>
       </c>
       <c r="F18" t="n">
         <v>5035.730307877251</v>
@@ -1431,10 +1431,10 @@
         <v>5212.859029674642</v>
       </c>
       <c r="D19" t="n">
-        <v>4283.63612087027</v>
+        <v>4202.827208927101</v>
       </c>
       <c r="E19" t="n">
-        <v>6229.991714221518</v>
+        <v>6299.284384083644</v>
       </c>
       <c r="F19" t="n">
         <v>5212.859029674642</v>
@@ -1484,10 +1484,10 @@
         <v>5384.273921002788</v>
       </c>
       <c r="D20" t="n">
-        <v>3924.67265154807</v>
+        <v>3900.973807289419</v>
       </c>
       <c r="E20" t="n">
-        <v>5956.101436907171</v>
+        <v>5964.439476257488</v>
       </c>
       <c r="F20" t="n">
         <v>5384.273921002788</v>
@@ -1537,10 +1537,10 @@
         <v>5561.402642041874</v>
       </c>
       <c r="D21" t="n">
-        <v>4593.842716247267</v>
+        <v>4611.697172648369</v>
       </c>
       <c r="E21" t="n">
-        <v>6627.451236045893</v>
+        <v>6639.55742507342</v>
       </c>
       <c r="F21" t="n">
         <v>5561.402642041874</v>
@@ -1590,10 +1590,10 @@
         <v>5738.531362947459</v>
       </c>
       <c r="D22" t="n">
-        <v>4748.957548535079</v>
+        <v>4719.953416347742</v>
       </c>
       <c r="E22" t="n">
-        <v>6812.101952303477</v>
+        <v>6856.582126593028</v>
       </c>
       <c r="F22" t="n">
         <v>5738.531362947459</v>
@@ -1643,10 +1643,10 @@
         <v>5909.94625414641</v>
       </c>
       <c r="D23" t="n">
-        <v>5055.677785557964</v>
+        <v>4943.202317532483</v>
       </c>
       <c r="E23" t="n">
-        <v>7092.874513749129</v>
+        <v>7083.750841357232</v>
       </c>
       <c r="F23" t="n">
         <v>5909.94625414641</v>
@@ -1696,10 +1696,10 @@
         <v>6087.074976136194</v>
       </c>
       <c r="D24" t="n">
-        <v>4455.120776412962</v>
+        <v>4538.387774437609</v>
       </c>
       <c r="E24" t="n">
-        <v>6600.687296631752</v>
+        <v>6534.599434014932</v>
       </c>
       <c r="F24" t="n">
         <v>6087.074976136194</v>
@@ -1749,10 +1749,10 @@
         <v>6258.489868384372</v>
       </c>
       <c r="D25" t="n">
-        <v>4278.740251590893</v>
+        <v>4246.589344285968</v>
       </c>
       <c r="E25" t="n">
-        <v>6338.52136933922</v>
+        <v>6259.362200987697</v>
       </c>
       <c r="F25" t="n">
         <v>6258.489868384372</v>
@@ -1802,10 +1802,10 @@
         <v>6435.61858957735</v>
       </c>
       <c r="D26" t="n">
-        <v>5565.465785978032</v>
+        <v>5521.23971229273</v>
       </c>
       <c r="E26" t="n">
-        <v>7660.044350702849</v>
+        <v>7665.519757115198</v>
       </c>
       <c r="F26" t="n">
         <v>6435.61858957735</v>
@@ -1855,10 +1855,10 @@
         <v>6612.747311503753</v>
       </c>
       <c r="D27" t="n">
-        <v>4767.77788746652</v>
+        <v>4734.701480534238</v>
       </c>
       <c r="E27" t="n">
-        <v>6814.677532382326</v>
+        <v>6844.23979122618</v>
       </c>
       <c r="F27" t="n">
         <v>6612.747311503753</v>
@@ -1908,10 +1908,10 @@
         <v>6772.73454421147</v>
       </c>
       <c r="D28" t="n">
-        <v>5172.136202158692</v>
+        <v>5110.766251068766</v>
       </c>
       <c r="E28" t="n">
-        <v>7263.856732113173</v>
+        <v>7237.35032016781</v>
       </c>
       <c r="F28" t="n">
         <v>6772.73454421147</v>
@@ -1961,10 +1961,10 @@
         <v>6949.863265454993</v>
       </c>
       <c r="D29" t="n">
-        <v>5710.824152740065</v>
+        <v>5719.178903355327</v>
       </c>
       <c r="E29" t="n">
-        <v>7872.427158070216</v>
+        <v>7819.413652263584</v>
       </c>
       <c r="F29" t="n">
         <v>6949.863265454993</v>
@@ -2014,10 +2014,10 @@
         <v>7121.278156980983</v>
       </c>
       <c r="D30" t="n">
-        <v>6438.601805475839</v>
+        <v>6402.792457146977</v>
       </c>
       <c r="E30" t="n">
-        <v>8499.618771505829</v>
+        <v>8578.666565074889</v>
       </c>
       <c r="F30" t="n">
         <v>7121.278156980983</v>
@@ -2067,10 +2067,10 @@
         <v>7298.406878715066</v>
       </c>
       <c r="D31" t="n">
-        <v>6167.156566235585</v>
+        <v>6136.633753669354</v>
       </c>
       <c r="E31" t="n">
-        <v>8195.615326602099</v>
+        <v>8211.64184347769</v>
       </c>
       <c r="F31" t="n">
         <v>7298.406878715066</v>
@@ -2120,10 +2120,10 @@
         <v>7469.821770715792</v>
       </c>
       <c r="D32" t="n">
-        <v>6137.214979226955</v>
+        <v>6261.035719752068</v>
       </c>
       <c r="E32" t="n">
-        <v>8142.960847112633</v>
+        <v>8290.173987837827</v>
       </c>
       <c r="F32" t="n">
         <v>7469.821770715792</v>
@@ -2173,10 +2173,10 @@
         <v>7646.950491368062</v>
       </c>
       <c r="D33" t="n">
-        <v>6625.558399307179</v>
+        <v>6616.313439220447</v>
       </c>
       <c r="E33" t="n">
-        <v>8684.748261762945</v>
+        <v>8811.101236300261</v>
       </c>
       <c r="F33" t="n">
         <v>7646.950491368062</v>
@@ -2226,10 +2226,10 @@
         <v>7824.079212020332</v>
       </c>
       <c r="D34" t="n">
-        <v>6544.940171127717</v>
+        <v>6564.480139403453</v>
       </c>
       <c r="E34" t="n">
-        <v>8631.31563115537</v>
+        <v>8569.553868514478</v>
       </c>
       <c r="F34" t="n">
         <v>7824.079212020332</v>
@@ -2279,10 +2279,10 @@
         <v>7995.494100892347</v>
       </c>
       <c r="D35" t="n">
-        <v>7431.167692056611</v>
+        <v>7466.579540481725</v>
       </c>
       <c r="E35" t="n">
-        <v>9481.686610006038</v>
+        <v>9384.483218151063</v>
       </c>
       <c r="F35" t="n">
         <v>7995.494100892347</v>
@@ -2332,10 +2332,10 @@
         <v>8172.62281939343</v>
       </c>
       <c r="D36" t="n">
-        <v>6453.194741742405</v>
+        <v>6387.398057620214</v>
       </c>
       <c r="E36" t="n">
-        <v>8521.04107574762</v>
+        <v>8421.047356658562</v>
       </c>
       <c r="F36" t="n">
         <v>8172.62281939343</v>
@@ -2385,10 +2385,10 @@
         <v>8344.037452547036</v>
       </c>
       <c r="D37" t="n">
-        <v>6066.350754864845</v>
+        <v>6170.498097980336</v>
       </c>
       <c r="E37" t="n">
-        <v>8119.040444742998</v>
+        <v>8098.12140210732</v>
       </c>
       <c r="F37" t="n">
         <v>8344.037452547036</v>
@@ -2438,10 +2438,10 @@
         <v>8521.165906805762</v>
       </c>
       <c r="D38" t="n">
-        <v>7970.117469084377</v>
+        <v>8020.009730942325</v>
       </c>
       <c r="E38" t="n">
-        <v>10085.97919603595</v>
+        <v>10041.39919898629</v>
       </c>
       <c r="F38" t="n">
         <v>8521.165906805762</v>
@@ -2491,10 +2491,10 @@
         <v>8698.294136593082</v>
       </c>
       <c r="D39" t="n">
-        <v>7271.562894860705</v>
+        <v>7221.35251634147</v>
       </c>
       <c r="E39" t="n">
-        <v>9248.54190112703</v>
+        <v>9268.633059113099</v>
       </c>
       <c r="F39" t="n">
         <v>8698.294136593082</v>
@@ -2544,10 +2544,10 @@
         <v>8858.28092478808</v>
       </c>
       <c r="D40" t="n">
-        <v>6750.207952130453</v>
+        <v>6677.831417248169</v>
       </c>
       <c r="E40" t="n">
-        <v>8828.039384224749</v>
+        <v>8751.447572665578</v>
       </c>
       <c r="F40" t="n">
         <v>8858.28092478808</v>
@@ -2597,10 +2597,10 @@
         <v>9035.402587231749</v>
       </c>
       <c r="D41" t="n">
-        <v>7814.648097655761</v>
+        <v>7856.125186282191</v>
       </c>
       <c r="E41" t="n">
-        <v>9850.684826279841</v>
+        <v>9879.140337645622</v>
       </c>
       <c r="F41" t="n">
         <v>9035.402587231749</v>
@@ -2650,10 +2650,10 @@
         <v>9206.768038986358</v>
       </c>
       <c r="D42" t="n">
-        <v>8839.365928666854</v>
+        <v>8840.900530637742</v>
       </c>
       <c r="E42" t="n">
-        <v>10862.36837158043</v>
+        <v>10882.66011701438</v>
       </c>
       <c r="F42" t="n">
         <v>9206.768038986358</v>
@@ -2703,10 +2703,10 @@
         <v>9383.845672466121</v>
       </c>
       <c r="D43" t="n">
-        <v>8186.372450913408</v>
+        <v>8110.483878799633</v>
       </c>
       <c r="E43" t="n">
-        <v>10089.45344717983</v>
+        <v>10152.56627258161</v>
       </c>
       <c r="F43" t="n">
         <v>9383.845672466121</v>
@@ -2756,10 +2756,10 @@
         <v>9555.108985430861</v>
       </c>
       <c r="D44" t="n">
-        <v>8464.303517137243</v>
+        <v>8472.424347087219</v>
       </c>
       <c r="E44" t="n">
-        <v>10520.08003523049</v>
+        <v>10509.72508005371</v>
       </c>
       <c r="F44" t="n">
         <v>9555.108985430861</v>
@@ -2809,10 +2809,10 @@
         <v>9732.081075494425</v>
       </c>
       <c r="D45" t="n">
-        <v>8601.073948375459</v>
+        <v>8586.088408537309</v>
       </c>
       <c r="E45" t="n">
-        <v>10693.82184844505</v>
+        <v>10666.53982972155</v>
       </c>
       <c r="F45" t="n">
         <v>9732.081075494425</v>
@@ -2862,10 +2862,10 @@
         <v>9909.043489753583</v>
       </c>
       <c r="D46" t="n">
-        <v>8518.260388476847</v>
+        <v>8415.709889049489</v>
       </c>
       <c r="E46" t="n">
-        <v>10541.23832039714</v>
+        <v>10576.46249186015</v>
       </c>
       <c r="F46" t="n">
         <v>9909.043489753583</v>
@@ -2915,10 +2915,10 @@
         <v>10080.29743903664</v>
       </c>
       <c r="D47" t="n">
-        <v>9799.977717891006</v>
+        <v>9813.619893599083</v>
       </c>
       <c r="E47" t="n">
-        <v>11897.66274058008</v>
+        <v>11825.15046711828</v>
       </c>
       <c r="F47" t="n">
         <v>10080.29743903664</v>
@@ -2968,10 +2968,10 @@
         <v>10150.74045398299</v>
       </c>
       <c r="D48" t="n">
-        <v>8205.313862380923</v>
+        <v>8247.65251191505</v>
       </c>
       <c r="E48" t="n">
-        <v>10338.20502161517</v>
+        <v>10266.69508831757</v>
       </c>
       <c r="F48" t="n">
         <v>10150.74045398299</v>
@@ -3021,10 +3021,10 @@
         <v>10218.91111360849</v>
       </c>
       <c r="D49" t="n">
-        <v>7744.440403751677</v>
+        <v>7861.484088216523</v>
       </c>
       <c r="E49" t="n">
-        <v>9846.210080980876</v>
+        <v>9853.589314031758</v>
       </c>
       <c r="F49" t="n">
         <v>10218.91111360849</v>
@@ -3074,10 +3074,10 @@
         <v>10289.28541887127</v>
       </c>
       <c r="D50" t="n">
-        <v>10096.35195312486</v>
+        <v>10080.1930666834</v>
       </c>
       <c r="E50" t="n">
-        <v>12237.63131011236</v>
+        <v>12220.96443271418</v>
       </c>
       <c r="F50" t="n">
         <v>10289.28541887127</v>
@@ -3127,10 +3127,10 @@
         <v>10359.65972413406</v>
       </c>
       <c r="D51" t="n">
-        <v>9118.66138732977</v>
+        <v>9070.687213707246</v>
       </c>
       <c r="E51" t="n">
-        <v>11251.26079178753</v>
+        <v>11211.0563373846</v>
       </c>
       <c r="F51" t="n">
         <v>10359.65972413406</v>
@@ -3180,10 +3180,10 @@
         <v>10425.49375163796</v>
       </c>
       <c r="D52" t="n">
-        <v>10023.47738255185</v>
+        <v>9987.02511902064</v>
       </c>
       <c r="E52" t="n">
-        <v>12097.43673569172</v>
+        <v>12070.00822853205</v>
       </c>
       <c r="F52" t="n">
         <v>10425.49375163796</v>
@@ -3233,10 +3233,10 @@
         <v>10495.86805690074</v>
       </c>
       <c r="D53" t="n">
-        <v>9351.227495644906</v>
+        <v>9310.637129431921</v>
       </c>
       <c r="E53" t="n">
-        <v>11428.96059037746</v>
+        <v>11374.08780202729</v>
       </c>
       <c r="F53" t="n">
         <v>10495.86805690074</v>
@@ -3286,10 +3286,10 @@
         <v>10563.97222328408</v>
       </c>
       <c r="D54" t="n">
-        <v>9287.570579974239</v>
+        <v>9211.823747913908</v>
       </c>
       <c r="E54" t="n">
-        <v>11338.41895349661</v>
+        <v>11303.52264115528</v>
       </c>
       <c r="F54" t="n">
         <v>10563.97222328408</v>
@@ -3339,10 +3339,10 @@
         <v>10634.34652854687</v>
       </c>
       <c r="D55" t="n">
-        <v>9881.838602253256</v>
+        <v>9739.031955196991</v>
       </c>
       <c r="E55" t="n">
-        <v>11784.61917094096</v>
+        <v>11808.86905233677</v>
       </c>
       <c r="F55" t="n">
         <v>10634.34652854687</v>
@@ -3392,10 +3392,10 @@
         <v>10702.45069493021</v>
       </c>
       <c r="D56" t="n">
-        <v>9041.82081729711</v>
+        <v>8973.284071857301</v>
       </c>
       <c r="E56" t="n">
-        <v>11106.96298214834</v>
+        <v>11131.48968183637</v>
       </c>
       <c r="F56" t="n">
         <v>10702.45069493021</v>
@@ -3445,10 +3445,10 @@
         <v>10772.825000193</v>
       </c>
       <c r="D57" t="n">
-        <v>9910.429951317989</v>
+        <v>9867.709487245898</v>
       </c>
       <c r="E57" t="n">
-        <v>11967.81444586696</v>
+        <v>11908.8829137468</v>
       </c>
       <c r="F57" t="n">
         <v>10772.825000193</v>
@@ -3498,10 +3498,10 @@
         <v>10843.19930545578</v>
       </c>
       <c r="D58" t="n">
-        <v>10169.39647932836</v>
+        <v>10121.89388131684</v>
       </c>
       <c r="E58" t="n">
-        <v>12209.81264502639</v>
+        <v>12156.65397211108</v>
       </c>
       <c r="F58" t="n">
         <v>10843.19930545578</v>
@@ -3551,10 +3551,10 @@
         <v>10911.30347183913</v>
       </c>
       <c r="D59" t="n">
-        <v>9837.879057209737</v>
+        <v>9762.248875505902</v>
       </c>
       <c r="E59" t="n">
-        <v>11820.88617265922</v>
+        <v>11729.27155363054</v>
       </c>
       <c r="F59" t="n">
         <v>10911.30347183913</v>
@@ -3604,10 +3604,10 @@
         <v>10981.67777710191</v>
       </c>
       <c r="D60" t="n">
-        <v>9640.657267076085</v>
+        <v>9618.985956614264</v>
       </c>
       <c r="E60" t="n">
-        <v>11664.69552520601</v>
+        <v>11661.28980199974</v>
       </c>
       <c r="F60" t="n">
         <v>10981.67777710191</v>
@@ -3657,10 +3657,10 @@
         <v>11049.78194348525</v>
       </c>
       <c r="D61" t="n">
-        <v>9157.100471406642</v>
+        <v>9207.61838454976</v>
       </c>
       <c r="E61" t="n">
-        <v>11226.70734702204</v>
+        <v>11334.33918819781</v>
       </c>
       <c r="F61" t="n">
         <v>11049.78194348525</v>
@@ -3710,10 +3710,10 @@
         <v>11120.15624874804</v>
       </c>
       <c r="D62" t="n">
-        <v>9934.768381344498</v>
+        <v>9854.798304868254</v>
       </c>
       <c r="E62" t="n">
-        <v>11896.04078501925</v>
+        <v>11913.08257337026</v>
       </c>
       <c r="F62" t="n">
         <v>11120.15624874804</v>
@@ -3763,10 +3763,10 @@
         <v>11190.53055401083</v>
       </c>
       <c r="D63" t="n">
-        <v>9049.737249659078</v>
+        <v>9009.819388307811</v>
       </c>
       <c r="E63" t="n">
-        <v>10980.71049354948</v>
+        <v>11045.6843759531</v>
       </c>
       <c r="F63" t="n">
         <v>11190.53055401083</v>
@@ -3816,10 +3816,10 @@
         <v>11254.09444263528</v>
       </c>
       <c r="D64" t="n">
-        <v>10178.56645397522</v>
+        <v>10394.74036365417</v>
       </c>
       <c r="E64" t="n">
-        <v>12204.19673488813</v>
+        <v>12233.46325870985</v>
       </c>
       <c r="F64" t="n">
         <v>11254.09444263528</v>
@@ -3869,10 +3869,10 @@
         <v>11324.46874789807</v>
       </c>
       <c r="D65" t="n">
-        <v>10041.72524225755</v>
+        <v>10134.04844002885</v>
       </c>
       <c r="E65" t="n">
-        <v>12145.60035594679</v>
+        <v>12215.09999495654</v>
       </c>
       <c r="F65" t="n">
         <v>11324.46874789807</v>
@@ -3922,10 +3922,10 @@
         <v>11392.57291428141</v>
       </c>
       <c r="D66" t="n">
-        <v>10441.83818306688</v>
+        <v>10370.428058774</v>
       </c>
       <c r="E66" t="n">
-        <v>12456.98412691186</v>
+        <v>12454.34780778527</v>
       </c>
       <c r="F66" t="n">
         <v>11392.57291428141</v>
@@ -3975,10 +3975,10 @@
         <v>11462.94721954419</v>
       </c>
       <c r="D67" t="n">
-        <v>10388.70331621328</v>
+        <v>10519.20180613306</v>
       </c>
       <c r="E67" t="n">
-        <v>12529.11384805336</v>
+        <v>12501.8825844889</v>
       </c>
       <c r="F67" t="n">
         <v>11462.94721954419</v>
@@ -4028,10 +4028,10 @@
         <v>11531.05138592753</v>
       </c>
       <c r="D68" t="n">
-        <v>10097.75535431726</v>
+        <v>10046.29219271167</v>
       </c>
       <c r="E68" t="n">
-        <v>12127.98760306062</v>
+        <v>12089.47255631935</v>
       </c>
       <c r="F68" t="n">
         <v>11531.05138592753</v>
@@ -4081,10 +4081,10 @@
         <v>11601.42569119032</v>
       </c>
       <c r="D69" t="n">
-        <v>10650.63036720809</v>
+        <v>10608.11008628426</v>
       </c>
       <c r="E69" t="n">
-        <v>12627.11891160793</v>
+        <v>12602.27418778125</v>
       </c>
       <c r="F69" t="n">
         <v>11601.42569119032</v>
@@ -4134,10 +4134,10 @@
         <v>11671.79999645311</v>
       </c>
       <c r="D70" t="n">
-        <v>10675.27908693868</v>
+        <v>10708.83408514511</v>
       </c>
       <c r="E70" t="n">
-        <v>12776.8568800487</v>
+        <v>12758.13486707737</v>
       </c>
       <c r="F70" t="n">
         <v>11671.79999645311</v>
@@ -4187,10 +4187,10 @@
         <v>11739.90416283645</v>
       </c>
       <c r="D71" t="n">
-        <v>10885.38294037131</v>
+        <v>10922.08551134402</v>
       </c>
       <c r="E71" t="n">
-        <v>12917.98099107321</v>
+        <v>12915.2471876699</v>
       </c>
       <c r="F71" t="n">
         <v>11739.90416283645</v>
@@ -4240,10 +4240,10 @@
         <v>11810.27846809924</v>
       </c>
       <c r="D72" t="n">
-        <v>10255.9543901868</v>
+        <v>10159.76135034798</v>
       </c>
       <c r="E72" t="n">
-        <v>12280.79897033484</v>
+        <v>12225.9476265578</v>
       </c>
       <c r="F72" t="n">
         <v>11810.27846809924</v>
@@ -4293,10 +4293,10 @@
         <v>11878.38263448258</v>
       </c>
       <c r="D73" t="n">
-        <v>9822.636258527533</v>
+        <v>9848.814057444419</v>
       </c>
       <c r="E73" t="n">
-        <v>11874.84458920122</v>
+        <v>11965.67110571529</v>
       </c>
       <c r="F73" t="n">
         <v>11878.38263448258</v>
@@ -4346,10 +4346,10 @@
         <v>11948.75693974537</v>
       </c>
       <c r="D74" t="n">
-        <v>11143.76659958821</v>
+        <v>11131.60291966296</v>
       </c>
       <c r="E74" t="n">
-        <v>13081.58780648815</v>
+        <v>13229.81019264621</v>
       </c>
       <c r="F74" t="n">
         <v>11948.75693974537</v>
@@ -4399,10 +4399,10 @@
         <v>12019.13124500815</v>
       </c>
       <c r="D75" t="n">
-        <v>10224.70805444173</v>
+        <v>10240.69936829785</v>
       </c>
       <c r="E75" t="n">
-        <v>12206.48906945857</v>
+        <v>12248.17358863967</v>
       </c>
       <c r="F75" t="n">
         <v>12019.13124500815</v>
@@ -4452,10 +4452,10 @@
         <v>12082.6951336326</v>
       </c>
       <c r="D76" t="n">
-        <v>10450.78638921452</v>
+        <v>10525.44229328722</v>
       </c>
       <c r="E76" t="n">
-        <v>12605.55070281509</v>
+        <v>12568.9630708434</v>
       </c>
       <c r="F76" t="n">
         <v>12082.6951336326</v>
@@ -4505,10 +4505,10 @@
         <v>12153.06943889539</v>
       </c>
       <c r="D77" t="n">
-        <v>10945.59483138426</v>
+        <v>10921.19724044618</v>
       </c>
       <c r="E77" t="n">
-        <v>13002.44333738533</v>
+        <v>12902.66218110982</v>
       </c>
       <c r="F77" t="n">
         <v>12153.06943889539</v>
@@ -4558,16 +4558,16 @@
         <v>12221.17360527873</v>
       </c>
       <c r="D78" t="n">
-        <v>11622.96832670808</v>
+        <v>11588.91771898985</v>
       </c>
       <c r="E78" t="n">
-        <v>13634.91416884876</v>
+        <v>13614.2622533356</v>
       </c>
       <c r="F78" t="n">
-        <v>12220.56057033539</v>
+        <v>12220.23006060058</v>
       </c>
       <c r="G78" t="n">
-        <v>12221.62204571022</v>
+        <v>12221.31303398482</v>
       </c>
       <c r="H78" t="n">
         <v>370.8448889299762</v>
@@ -4611,16 +4611,16 @@
         <v>12291.54791054152</v>
       </c>
       <c r="D79" t="n">
-        <v>11135.02495242396</v>
+        <v>11183.40888094518</v>
       </c>
       <c r="E79" t="n">
-        <v>13207.63661490264</v>
+        <v>13206.18093046023</v>
       </c>
       <c r="F79" t="n">
-        <v>12286.62640331033</v>
+        <v>12286.65555879765</v>
       </c>
       <c r="G79" t="n">
-        <v>12295.3636473171</v>
+        <v>12295.08645188906</v>
       </c>
       <c r="H79" t="n">
         <v>-112.3861740187115</v>
@@ -4664,16 +4664,16 @@
         <v>12359.65207692486</v>
       </c>
       <c r="D80" t="n">
-        <v>11124.90741432446</v>
+        <v>11142.83803044261</v>
       </c>
       <c r="E80" t="n">
-        <v>13124.33720338064</v>
+        <v>13164.13453431545</v>
       </c>
       <c r="F80" t="n">
-        <v>12349.96387580108</v>
+        <v>12349.30546283631</v>
       </c>
       <c r="G80" t="n">
-        <v>12368.23237435292</v>
+        <v>12368.06667852854</v>
       </c>
       <c r="H80" t="n">
         <v>-235.3602958259787</v>
@@ -4717,16 +4717,16 @@
         <v>12430.02638218765</v>
       </c>
       <c r="D81" t="n">
-        <v>11462.6870639784</v>
+        <v>11439.56269004185</v>
       </c>
       <c r="E81" t="n">
-        <v>13438.27239628351</v>
+        <v>13393.66313352888</v>
       </c>
       <c r="F81" t="n">
-        <v>12413.99902639107</v>
+        <v>12412.40173803604</v>
       </c>
       <c r="G81" t="n">
-        <v>12444.69785759369</v>
+        <v>12444.6870273943</v>
       </c>
       <c r="H81" t="n">
         <v>2.535060996088392</v>
@@ -4770,16 +4770,16 @@
         <v>12500.40068745043</v>
       </c>
       <c r="D82" t="n">
-        <v>11314.78736884551</v>
+        <v>11335.10910730815</v>
       </c>
       <c r="E82" t="n">
-        <v>13297.34661362231</v>
+        <v>13297.76006052046</v>
       </c>
       <c r="F82" t="n">
-        <v>12474.96409334191</v>
+        <v>12474.20464435097</v>
       </c>
       <c r="G82" t="n">
-        <v>12520.93485328095</v>
+        <v>12522.15061816265</v>
       </c>
       <c r="H82" t="n">
         <v>-167.6604449072264</v>
@@ -4823,16 +4823,16 @@
         <v>12568.50485383377</v>
       </c>
       <c r="D83" t="n">
-        <v>11935.33264907958</v>
+        <v>11993.43649567789</v>
       </c>
       <c r="E83" t="n">
-        <v>13988.89854555858</v>
+        <v>14038.59780461459</v>
       </c>
       <c r="F83" t="n">
-        <v>12534.81072339616</v>
+        <v>12533.77045677684</v>
       </c>
       <c r="G83" t="n">
-        <v>12597.27312155483</v>
+        <v>12599.38582533662</v>
       </c>
       <c r="H83" t="n">
         <v>454.348660464126</v>
@@ -4876,16 +4876,16 @@
         <v>12638.87915909656</v>
       </c>
       <c r="D84" t="n">
-        <v>10859.25888536969</v>
+        <v>10866.67287904748</v>
       </c>
       <c r="E84" t="n">
-        <v>12860.91313097661</v>
+        <v>12919.64777572746</v>
       </c>
       <c r="F84" t="n">
-        <v>12595.53982262132</v>
+        <v>12595.17495054073</v>
       </c>
       <c r="G84" t="n">
-        <v>12675.45412227478</v>
+        <v>12677.16705026322</v>
       </c>
       <c r="H84" t="n">
         <v>-752.2027190719862</v>
@@ -4929,16 +4929,16 @@
         <v>12706.9833254799</v>
       </c>
       <c r="D85" t="n">
-        <v>10454.43015614431</v>
+        <v>10475.31183200682</v>
       </c>
       <c r="E85" t="n">
-        <v>12581.88945095486</v>
+        <v>12494.87607186165</v>
       </c>
       <c r="F85" t="n">
-        <v>12651.78570076451</v>
+        <v>12654.89253648913</v>
       </c>
       <c r="G85" t="n">
-        <v>12753.6376382244</v>
+        <v>12754.20254430085</v>
       </c>
       <c r="H85" t="n">
         <v>-1226.582986267778</v>
@@ -4982,16 +4982,16 @@
         <v>12777.35763074269</v>
       </c>
       <c r="D86" t="n">
-        <v>12244.24014509196</v>
+        <v>12328.91483841534</v>
       </c>
       <c r="E86" t="n">
-        <v>14345.0946618638</v>
+        <v>14337.70849958432</v>
       </c>
       <c r="F86" t="n">
-        <v>12711.1015391297</v>
+        <v>12714.56254657248</v>
       </c>
       <c r="G86" t="n">
-        <v>12832.66470246116</v>
+        <v>12834.88756215941</v>
       </c>
       <c r="H86" t="n">
         <v>530.6703421305062</v>
@@ -5035,16 +5035,16 @@
         <v>12847.73193600548</v>
       </c>
       <c r="D87" t="n">
-        <v>11367.24673779483</v>
+        <v>11364.17658693646</v>
       </c>
       <c r="E87" t="n">
-        <v>13342.34862885111</v>
+        <v>13369.31952627441</v>
       </c>
       <c r="F87" t="n">
-        <v>12767.40713926628</v>
+        <v>12776.17471369792</v>
       </c>
       <c r="G87" t="n">
-        <v>12914.11571372674</v>
+        <v>12917.47868786038</v>
       </c>
       <c r="H87" t="n">
         <v>-481.057237443874</v>
@@ -5088,16 +5088,16 @@
         <v>12911.29582462993</v>
       </c>
       <c r="D88" t="n">
-        <v>10746.73992184247</v>
+        <v>10822.89678026021</v>
       </c>
       <c r="E88" t="n">
-        <v>12713.02020870417</v>
+        <v>12742.56629338404</v>
       </c>
       <c r="F88" t="n">
-        <v>12820.19332943701</v>
+        <v>12828.41818658188</v>
       </c>
       <c r="G88" t="n">
-        <v>12989.5732940509</v>
+        <v>12992.50240421632</v>
       </c>
       <c r="H88" t="n">
         <v>-1151.563100738007</v>
@@ -5141,16 +5141,16 @@
         <v>12981.67012989271</v>
       </c>
       <c r="D89" t="n">
-        <v>11781.26372141525</v>
+        <v>11779.24660634083</v>
       </c>
       <c r="E89" t="n">
-        <v>13855.12761130513</v>
+        <v>13825.20900130576</v>
       </c>
       <c r="F89" t="n">
-        <v>12878.84769220116</v>
+        <v>12885.55637318105</v>
       </c>
       <c r="G89" t="n">
-        <v>13074.13438313572</v>
+        <v>13075.07520579904</v>
       </c>
       <c r="H89" t="n">
         <v>-208.1141720787707</v>
@@ -5194,16 +5194,16 @@
         <v>13049.77429627606</v>
       </c>
       <c r="D90" t="n">
-        <v>12644.78446429238</v>
+        <v>12740.12766589614</v>
       </c>
       <c r="E90" t="n">
-        <v>14706.22764163832</v>
+        <v>14767.17032977271</v>
       </c>
       <c r="F90" t="n">
-        <v>12932.53474747747</v>
+        <v>12944.34846549348</v>
       </c>
       <c r="G90" t="n">
-        <v>13156.19928679235</v>
+        <v>13154.44832415172</v>
       </c>
       <c r="H90" t="n">
         <v>683.5362896655689</v>
@@ -5247,16 +5247,16 @@
         <v>13120.14860153884</v>
       </c>
       <c r="D91" t="n">
-        <v>11864.77676215172</v>
+        <v>11739.29239058522</v>
       </c>
       <c r="E91" t="n">
-        <v>13872.99599416453</v>
+        <v>13918.1994367998</v>
       </c>
       <c r="F91" t="n">
-        <v>12986.80509770615</v>
+        <v>13003.2608061545</v>
       </c>
       <c r="G91" t="n">
-        <v>13237.11684683341</v>
+        <v>13237.33955995695</v>
       </c>
       <c r="H91" t="n">
         <v>-249.2542054713462</v>
@@ -5300,16 +5300,16 @@
         <v>13188.25276792218</v>
       </c>
       <c r="D92" t="n">
-        <v>12144.65987733289</v>
+        <v>12114.87819769794</v>
       </c>
       <c r="E92" t="n">
-        <v>14181.64198254507</v>
+        <v>14133.94110069191</v>
       </c>
       <c r="F92" t="n">
-        <v>13039.14599505724</v>
+        <v>13057.16620452692</v>
       </c>
       <c r="G92" t="n">
-        <v>13316.91169196992</v>
+        <v>13319.78837613361</v>
       </c>
       <c r="H92" t="n">
         <v>-37.37464238098636</v>
@@ -5353,16 +5353,16 @@
         <v>13258.62707318497</v>
       </c>
       <c r="D93" t="n">
-        <v>12206.55281600922</v>
+        <v>12188.64757725839</v>
       </c>
       <c r="E93" t="n">
-        <v>14185.85264963978</v>
+        <v>14268.94243142842</v>
       </c>
       <c r="F93" t="n">
-        <v>13091.52059660069</v>
+        <v>13114.21658324743</v>
       </c>
       <c r="G93" t="n">
-        <v>13405.32426179543</v>
+        <v>13404.5629700489</v>
       </c>
       <c r="H93" t="n">
         <v>-81.20370777462983</v>
@@ -5406,16 +5406,16 @@
         <v>13329.00137844776</v>
       </c>
       <c r="D94" t="n">
-        <v>11899.24847047749</v>
+        <v>11978.37913158096</v>
       </c>
       <c r="E94" t="n">
-        <v>13964.39492080744</v>
+        <v>14031.41292836607</v>
       </c>
       <c r="F94" t="n">
-        <v>13146.22144186272</v>
+        <v>13171.79317829578</v>
       </c>
       <c r="G94" t="n">
-        <v>13489.31577048127</v>
+        <v>13489.67827726233</v>
       </c>
       <c r="H94" t="n">
         <v>-395.4271940286777</v>

--- a/outputs/cb_retention_monthly.xlsx
+++ b/outputs/cb_retention_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q94"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,40 +524,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>42370</v>
+        <v>42736</v>
       </c>
       <c r="C2" t="n">
-        <v>2258.809130099965</v>
+        <v>3339.828349914878</v>
       </c>
       <c r="D2" t="n">
-        <v>2132.757206961103</v>
+        <v>2508.469095358979</v>
       </c>
       <c r="E2" t="n">
-        <v>4150.502278591963</v>
+        <v>4137.438823414063</v>
       </c>
       <c r="F2" t="n">
-        <v>2258.809130099965</v>
+        <v>3339.828349914878</v>
       </c>
       <c r="G2" t="n">
-        <v>2258.809130099965</v>
+        <v>3339.828349914878</v>
       </c>
       <c r="H2" t="n">
-        <v>904.5580894250368</v>
+        <v>-46.40253717429881</v>
       </c>
       <c r="I2" t="n">
-        <v>904.5580894250368</v>
+        <v>-46.40253717429881</v>
       </c>
       <c r="J2" t="n">
-        <v>904.5580894250368</v>
+        <v>-46.40253717429881</v>
       </c>
       <c r="K2" t="n">
-        <v>904.5580894250368</v>
+        <v>-46.40253717429881</v>
       </c>
       <c r="L2" t="n">
-        <v>904.5580894250368</v>
+        <v>-46.40253717429881</v>
       </c>
       <c r="M2" t="n">
-        <v>904.5580894250368</v>
+        <v>-46.40253717429881</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3163.367219525002</v>
+        <v>3293.42581274058</v>
       </c>
     </row>
     <row r="3">
@@ -577,40 +577,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>42401</v>
+        <v>42767</v>
       </c>
       <c r="C3" t="n">
-        <v>2435.93784473139</v>
+        <v>3566.217521715294</v>
       </c>
       <c r="D3" t="n">
-        <v>1235.531689283092</v>
+        <v>1951.18248635311</v>
       </c>
       <c r="E3" t="n">
-        <v>3290.49044889333</v>
+        <v>3662.894059907403</v>
       </c>
       <c r="F3" t="n">
-        <v>2435.93784473139</v>
+        <v>3566.217521715294</v>
       </c>
       <c r="G3" t="n">
-        <v>2435.93784473139</v>
+        <v>3566.217521715294</v>
       </c>
       <c r="H3" t="n">
-        <v>-162.522024342087</v>
+        <v>-757.8464016428666</v>
       </c>
       <c r="I3" t="n">
-        <v>-162.522024342087</v>
+        <v>-757.8464016428666</v>
       </c>
       <c r="J3" t="n">
-        <v>-162.522024342087</v>
+        <v>-757.8464016428666</v>
       </c>
       <c r="K3" t="n">
-        <v>-162.522024342087</v>
+        <v>-757.8464016428666</v>
       </c>
       <c r="L3" t="n">
-        <v>-162.522024342087</v>
+        <v>-757.8464016428666</v>
       </c>
       <c r="M3" t="n">
-        <v>-162.522024342087</v>
+        <v>-757.8464016428666</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>2273.415820389303</v>
+        <v>2808.371120072427</v>
       </c>
     </row>
     <row r="4">
@@ -630,40 +630,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>42430</v>
+        <v>42795</v>
       </c>
       <c r="C4" t="n">
-        <v>2601.638900354337</v>
+        <v>3770.698063986636</v>
       </c>
       <c r="D4" t="n">
-        <v>2208.873073615659</v>
+        <v>3270.113025535236</v>
       </c>
       <c r="E4" t="n">
-        <v>4200.347822249325</v>
+        <v>4908.909287903045</v>
       </c>
       <c r="F4" t="n">
-        <v>2601.638900354337</v>
+        <v>3770.698063986636</v>
       </c>
       <c r="G4" t="n">
-        <v>2601.638900354337</v>
+        <v>3770.698063986636</v>
       </c>
       <c r="H4" t="n">
-        <v>610.1924306217107</v>
+        <v>288.1846144635223</v>
       </c>
       <c r="I4" t="n">
-        <v>610.1924306217107</v>
+        <v>288.1846144635223</v>
       </c>
       <c r="J4" t="n">
-        <v>610.1924306217107</v>
+        <v>288.1846144635223</v>
       </c>
       <c r="K4" t="n">
-        <v>610.1924306217107</v>
+        <v>288.1846144635223</v>
       </c>
       <c r="L4" t="n">
-        <v>610.1924306217107</v>
+        <v>288.1846144635223</v>
       </c>
       <c r="M4" t="n">
-        <v>610.1924306217107</v>
+        <v>288.1846144635223</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3211.831330976047</v>
+        <v>4058.882678450158</v>
       </c>
     </row>
     <row r="5">
@@ -683,40 +683,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>42461</v>
+        <v>42826</v>
       </c>
       <c r="C5" t="n">
-        <v>2778.767616851108</v>
+        <v>3997.087235926103</v>
       </c>
       <c r="D5" t="n">
-        <v>1616.407114446366</v>
+        <v>3472.046940085086</v>
       </c>
       <c r="E5" t="n">
-        <v>3687.612188843777</v>
+        <v>5196.66030287912</v>
       </c>
       <c r="F5" t="n">
-        <v>2778.767616851108</v>
+        <v>3997.087235926103</v>
       </c>
       <c r="G5" t="n">
-        <v>2778.767616851108</v>
+        <v>3997.087235926103</v>
       </c>
       <c r="H5" t="n">
-        <v>-131.0178033489072</v>
+        <v>378.2061631396339</v>
       </c>
       <c r="I5" t="n">
-        <v>-131.0178033489072</v>
+        <v>378.2061631396339</v>
       </c>
       <c r="J5" t="n">
-        <v>-131.0178033489072</v>
+        <v>378.2061631396339</v>
       </c>
       <c r="K5" t="n">
-        <v>-131.0178033489072</v>
+        <v>378.2061631396339</v>
       </c>
       <c r="L5" t="n">
-        <v>-131.0178033489072</v>
+        <v>378.2061631396339</v>
       </c>
       <c r="M5" t="n">
-        <v>-131.0178033489072</v>
+        <v>378.2061631396339</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>2647.749813502201</v>
+        <v>4375.293399065738</v>
       </c>
     </row>
     <row r="6">
@@ -736,40 +736,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>42491</v>
+        <v>42856</v>
       </c>
       <c r="C6" t="n">
-        <v>2950.182503783469</v>
+        <v>4216.173531351395</v>
       </c>
       <c r="D6" t="n">
-        <v>1704.916657685167</v>
+        <v>3543.111056007303</v>
       </c>
       <c r="E6" t="n">
-        <v>3756.724511631307</v>
+        <v>5238.242149985836</v>
       </c>
       <c r="F6" t="n">
-        <v>2950.182503783469</v>
+        <v>4216.173531351395</v>
       </c>
       <c r="G6" t="n">
-        <v>2950.182503783469</v>
+        <v>4216.173531351395</v>
       </c>
       <c r="H6" t="n">
-        <v>-251.0207661823656</v>
+        <v>145.4900992598909</v>
       </c>
       <c r="I6" t="n">
-        <v>-251.0207661823656</v>
+        <v>145.4900992598909</v>
       </c>
       <c r="J6" t="n">
-        <v>-251.0207661823656</v>
+        <v>145.4900992598909</v>
       </c>
       <c r="K6" t="n">
-        <v>-251.0207661823656</v>
+        <v>145.4900992598909</v>
       </c>
       <c r="L6" t="n">
-        <v>-251.0207661823656</v>
+        <v>145.4900992598909</v>
       </c>
       <c r="M6" t="n">
-        <v>-251.0207661823656</v>
+        <v>145.4900992598909</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2699.161737601103</v>
+        <v>4361.663630611285</v>
       </c>
     </row>
     <row r="7">
@@ -789,40 +789,40 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>42522</v>
+        <v>42887</v>
       </c>
       <c r="C7" t="n">
-        <v>3127.311221012696</v>
+        <v>4442.562703200626</v>
       </c>
       <c r="D7" t="n">
-        <v>2343.055733190632</v>
+        <v>3735.561608818725</v>
       </c>
       <c r="E7" t="n">
-        <v>4280.143556414064</v>
+        <v>5415.461709044958</v>
       </c>
       <c r="F7" t="n">
-        <v>3127.311221012696</v>
+        <v>4442.562703200626</v>
       </c>
       <c r="G7" t="n">
-        <v>3127.311221012696</v>
+        <v>4442.562703200626</v>
       </c>
       <c r="H7" t="n">
-        <v>157.5706923308072</v>
+        <v>102.4666798701185</v>
       </c>
       <c r="I7" t="n">
-        <v>157.5706923308072</v>
+        <v>102.4666798701185</v>
       </c>
       <c r="J7" t="n">
-        <v>157.5706923308072</v>
+        <v>102.4666798701185</v>
       </c>
       <c r="K7" t="n">
-        <v>157.5706923308072</v>
+        <v>102.4666798701185</v>
       </c>
       <c r="L7" t="n">
-        <v>157.5706923308072</v>
+        <v>102.4666798701185</v>
       </c>
       <c r="M7" t="n">
-        <v>157.5706923308072</v>
+        <v>102.4666798701185</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3284.881913343504</v>
+        <v>4545.029383070744</v>
       </c>
     </row>
     <row r="8">
@@ -842,40 +842,40 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>42552</v>
+        <v>42917</v>
       </c>
       <c r="C8" t="n">
-        <v>3298.726108653885</v>
+        <v>4661.648998538592</v>
       </c>
       <c r="D8" t="n">
-        <v>1624.207840909044</v>
+        <v>3731.413149294108</v>
       </c>
       <c r="E8" t="n">
-        <v>3620.87438882495</v>
+        <v>5376.535620321572</v>
       </c>
       <c r="F8" t="n">
-        <v>3298.726108653885</v>
+        <v>4661.648998538592</v>
       </c>
       <c r="G8" t="n">
-        <v>3298.726108653885</v>
+        <v>4661.648998538592</v>
       </c>
       <c r="H8" t="n">
-        <v>-635.3416162544786</v>
+        <v>-108.0172913962511</v>
       </c>
       <c r="I8" t="n">
-        <v>-635.3416162544786</v>
+        <v>-108.0172913962511</v>
       </c>
       <c r="J8" t="n">
-        <v>-635.3416162544786</v>
+        <v>-108.0172913962511</v>
       </c>
       <c r="K8" t="n">
-        <v>-635.3416162544786</v>
+        <v>-108.0172913962511</v>
       </c>
       <c r="L8" t="n">
-        <v>-635.3416162544786</v>
+        <v>-108.0172913962511</v>
       </c>
       <c r="M8" t="n">
-        <v>-635.3416162544786</v>
+        <v>-108.0172913962511</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>2663.384492399406</v>
+        <v>4553.63170714234</v>
       </c>
     </row>
     <row r="9">
@@ -895,40 +895,40 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>42583</v>
+        <v>42948</v>
       </c>
       <c r="C9" t="n">
-        <v>3475.85482505839</v>
+        <v>4888.038170301641</v>
       </c>
       <c r="D9" t="n">
-        <v>2623.817279227167</v>
+        <v>4085.762917319038</v>
       </c>
       <c r="E9" t="n">
-        <v>4712.255136528029</v>
+        <v>5799.258741035511</v>
       </c>
       <c r="F9" t="n">
-        <v>3475.85482505839</v>
+        <v>4888.038170301641</v>
       </c>
       <c r="G9" t="n">
-        <v>3475.85482505839</v>
+        <v>4888.038170301641</v>
       </c>
       <c r="H9" t="n">
-        <v>154.1796854544566</v>
+        <v>46.27241350191102</v>
       </c>
       <c r="I9" t="n">
-        <v>154.1796854544566</v>
+        <v>46.27241350191102</v>
       </c>
       <c r="J9" t="n">
-        <v>154.1796854544566</v>
+        <v>46.27241350191102</v>
       </c>
       <c r="K9" t="n">
-        <v>154.1796854544566</v>
+        <v>46.27241350191102</v>
       </c>
       <c r="L9" t="n">
-        <v>154.1796854544566</v>
+        <v>46.27241350191102</v>
       </c>
       <c r="M9" t="n">
-        <v>154.1796854544566</v>
+        <v>46.27241350191102</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3630.034510512847</v>
+        <v>4934.310583803552</v>
       </c>
     </row>
     <row r="10">
@@ -948,40 +948,40 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>42614</v>
+        <v>42979</v>
       </c>
       <c r="C10" t="n">
-        <v>3652.983541462896</v>
+        <v>5114.427342064692</v>
       </c>
       <c r="D10" t="n">
-        <v>2871.547886771305</v>
+        <v>4424.566776901851</v>
       </c>
       <c r="E10" t="n">
-        <v>5030.533810466749</v>
+        <v>6176.458913105021</v>
       </c>
       <c r="F10" t="n">
-        <v>3652.983541462896</v>
+        <v>5114.427342064692</v>
       </c>
       <c r="G10" t="n">
-        <v>3652.983541462896</v>
+        <v>5114.427342064692</v>
       </c>
       <c r="H10" t="n">
-        <v>297.2604551313322</v>
+        <v>193.8504124169175</v>
       </c>
       <c r="I10" t="n">
-        <v>297.2604551313322</v>
+        <v>193.8504124169175</v>
       </c>
       <c r="J10" t="n">
-        <v>297.2604551313322</v>
+        <v>193.8504124169175</v>
       </c>
       <c r="K10" t="n">
-        <v>297.2604551313322</v>
+        <v>193.8504124169175</v>
       </c>
       <c r="L10" t="n">
-        <v>297.2604551313322</v>
+        <v>193.8504124169175</v>
       </c>
       <c r="M10" t="n">
-        <v>297.2604551313322</v>
+        <v>193.8504124169175</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3950.243996594228</v>
+        <v>5308.27775448161</v>
       </c>
     </row>
     <row r="11">
@@ -1001,40 +1001,40 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>42644</v>
+        <v>43009</v>
       </c>
       <c r="C11" t="n">
-        <v>3824.398429906553</v>
+        <v>5333.513637226505</v>
       </c>
       <c r="D11" t="n">
-        <v>2586.992975425411</v>
+        <v>4844.797103329382</v>
       </c>
       <c r="E11" t="n">
-        <v>4776.649041714961</v>
+        <v>6493.118666180067</v>
       </c>
       <c r="F11" t="n">
-        <v>3824.398429906553</v>
+        <v>5333.513637226505</v>
       </c>
       <c r="G11" t="n">
-        <v>3824.398429906553</v>
+        <v>5333.513637226505</v>
       </c>
       <c r="H11" t="n">
-        <v>-161.6361769029531</v>
+        <v>352.7854238447568</v>
       </c>
       <c r="I11" t="n">
-        <v>-161.6361769029531</v>
+        <v>352.7854238447568</v>
       </c>
       <c r="J11" t="n">
-        <v>-161.6361769029531</v>
+        <v>352.7854238447568</v>
       </c>
       <c r="K11" t="n">
-        <v>-161.6361769029531</v>
+        <v>352.7854238447568</v>
       </c>
       <c r="L11" t="n">
-        <v>-161.6361769029531</v>
+        <v>352.7854238447568</v>
       </c>
       <c r="M11" t="n">
-        <v>-161.6361769029531</v>
+        <v>352.7854238447568</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>3662.7622530036</v>
+        <v>5686.299061071262</v>
       </c>
     </row>
     <row r="12">
@@ -1054,40 +1054,40 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>42675</v>
+        <v>43040</v>
       </c>
       <c r="C12" t="n">
-        <v>4001.527146783743</v>
+        <v>5559.902808893712</v>
       </c>
       <c r="D12" t="n">
-        <v>2560.686975292976</v>
+        <v>4155.321208240822</v>
       </c>
       <c r="E12" t="n">
-        <v>4708.026008632277</v>
+        <v>5838.044911234974</v>
       </c>
       <c r="F12" t="n">
-        <v>4001.527146783743</v>
+        <v>5559.902808893712</v>
       </c>
       <c r="G12" t="n">
-        <v>4001.527146783743</v>
+        <v>5559.902808893712</v>
       </c>
       <c r="H12" t="n">
-        <v>-332.032472247021</v>
+        <v>-573.6309595559575</v>
       </c>
       <c r="I12" t="n">
-        <v>-332.032472247021</v>
+        <v>-573.6309595559575</v>
       </c>
       <c r="J12" t="n">
-        <v>-332.032472247021</v>
+        <v>-573.6309595559575</v>
       </c>
       <c r="K12" t="n">
-        <v>-332.032472247021</v>
+        <v>-573.6309595559575</v>
       </c>
       <c r="L12" t="n">
-        <v>-332.032472247021</v>
+        <v>-573.6309595559575</v>
       </c>
       <c r="M12" t="n">
-        <v>-332.032472247021</v>
+        <v>-573.6309595559575</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>3669.494674536722</v>
+        <v>4986.271849337754</v>
       </c>
     </row>
     <row r="13">
@@ -1107,40 +1107,40 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>42705</v>
+        <v>43070</v>
       </c>
       <c r="C13" t="n">
-        <v>4172.94203408425</v>
+        <v>5778.989103995333</v>
       </c>
       <c r="D13" t="n">
-        <v>2310.644130296352</v>
+        <v>3962.630633248413</v>
       </c>
       <c r="E13" t="n">
-        <v>4378.336268680143</v>
+        <v>5644.857621620165</v>
       </c>
       <c r="F13" t="n">
-        <v>4172.94203408425</v>
+        <v>5778.989103995333</v>
       </c>
       <c r="G13" t="n">
-        <v>4172.94203408425</v>
+        <v>5778.989103995333</v>
       </c>
       <c r="H13" t="n">
-        <v>-811.1192736764949</v>
+        <v>-980.5417225184294</v>
       </c>
       <c r="I13" t="n">
-        <v>-811.1192736764949</v>
+        <v>-980.5417225184294</v>
       </c>
       <c r="J13" t="n">
-        <v>-811.1192736764949</v>
+        <v>-980.5417225184294</v>
       </c>
       <c r="K13" t="n">
-        <v>-811.1192736764949</v>
+        <v>-980.5417225184294</v>
       </c>
       <c r="L13" t="n">
-        <v>-811.1192736764949</v>
+        <v>-980.5417225184294</v>
       </c>
       <c r="M13" t="n">
-        <v>-811.1192736764949</v>
+        <v>-980.5417225184294</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3361.822760407755</v>
+        <v>4798.447381476904</v>
       </c>
     </row>
     <row r="14">
@@ -1160,40 +1160,40 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="C14" t="n">
-        <v>4350.070750412907</v>
+        <v>6005.37827560034</v>
       </c>
       <c r="D14" t="n">
-        <v>3207.584307154523</v>
+        <v>5600.973737078437</v>
       </c>
       <c r="E14" t="n">
-        <v>5131.413274091784</v>
+        <v>7276.351461229936</v>
       </c>
       <c r="F14" t="n">
-        <v>4350.070750412907</v>
+        <v>6005.37827560034</v>
       </c>
       <c r="G14" t="n">
-        <v>4350.070750412907</v>
+        <v>6005.37827560034</v>
       </c>
       <c r="H14" t="n">
-        <v>-201.3124638526238</v>
+        <v>417.3895804849775</v>
       </c>
       <c r="I14" t="n">
-        <v>-201.3124638526238</v>
+        <v>417.3895804849775</v>
       </c>
       <c r="J14" t="n">
-        <v>-201.3124638526238</v>
+        <v>417.3895804849775</v>
       </c>
       <c r="K14" t="n">
-        <v>-201.3124638526238</v>
+        <v>417.3895804849775</v>
       </c>
       <c r="L14" t="n">
-        <v>-201.3124638526238</v>
+        <v>417.3895804849775</v>
       </c>
       <c r="M14" t="n">
-        <v>-201.3124638526238</v>
+        <v>417.3895804849775</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>4148.758286560283</v>
+        <v>6422.767856085317</v>
       </c>
     </row>
     <row r="15">
@@ -1213,40 +1213,40 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>42767</v>
+        <v>43132</v>
       </c>
       <c r="C15" t="n">
-        <v>4527.199466741563</v>
+        <v>6231.767447195142</v>
       </c>
       <c r="D15" t="n">
-        <v>2380.332117108143</v>
+        <v>4596.601161747432</v>
       </c>
       <c r="E15" t="n">
-        <v>4428.408045471734</v>
+        <v>6267.652681444803</v>
       </c>
       <c r="F15" t="n">
-        <v>4527.199466741563</v>
+        <v>6231.767447195142</v>
       </c>
       <c r="G15" t="n">
-        <v>4527.199466741563</v>
+        <v>6231.767447195142</v>
       </c>
       <c r="H15" t="n">
-        <v>-1150.922021548291</v>
+        <v>-757.6453534958052</v>
       </c>
       <c r="I15" t="n">
-        <v>-1150.922021548291</v>
+        <v>-757.6453534958052</v>
       </c>
       <c r="J15" t="n">
-        <v>-1150.922021548291</v>
+        <v>-757.6453534958052</v>
       </c>
       <c r="K15" t="n">
-        <v>-1150.922021548291</v>
+        <v>-757.6453534958052</v>
       </c>
       <c r="L15" t="n">
-        <v>-1150.922021548291</v>
+        <v>-757.6453534958052</v>
       </c>
       <c r="M15" t="n">
-        <v>-1150.922021548291</v>
+        <v>-757.6453534958052</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>3376.277445193271</v>
+        <v>5474.122093699337</v>
       </c>
     </row>
     <row r="16">
@@ -1266,40 +1266,40 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>42795</v>
+        <v>43160</v>
       </c>
       <c r="C16" t="n">
-        <v>4687.186696810436</v>
+        <v>6436.24798928077</v>
       </c>
       <c r="D16" t="n">
-        <v>3734.64653334284</v>
+        <v>5512.241450383684</v>
       </c>
       <c r="E16" t="n">
-        <v>5760.629158164067</v>
+        <v>7245.253259038214</v>
       </c>
       <c r="F16" t="n">
-        <v>4687.186696810436</v>
+        <v>6436.24798928077</v>
       </c>
       <c r="G16" t="n">
-        <v>4687.186696810436</v>
+        <v>6436.24798928077</v>
       </c>
       <c r="H16" t="n">
-        <v>26.12738670629554</v>
+        <v>-67.49263083025518</v>
       </c>
       <c r="I16" t="n">
-        <v>26.12738670629554</v>
+        <v>-67.49263083025518</v>
       </c>
       <c r="J16" t="n">
-        <v>26.12738670629554</v>
+        <v>-67.49263083025518</v>
       </c>
       <c r="K16" t="n">
-        <v>26.12738670629554</v>
+        <v>-67.49263083025518</v>
       </c>
       <c r="L16" t="n">
-        <v>26.12738670629554</v>
+        <v>-67.49263083025518</v>
       </c>
       <c r="M16" t="n">
-        <v>26.12738670629554</v>
+        <v>-67.49263083025518</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>4713.314083516731</v>
+        <v>6368.755358450514</v>
       </c>
     </row>
     <row r="17">
@@ -1319,40 +1319,40 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="C17" t="n">
-        <v>4864.31541581526</v>
+        <v>6662.637160752368</v>
       </c>
       <c r="D17" t="n">
-        <v>3676.403282014914</v>
+        <v>5995.118795133526</v>
       </c>
       <c r="E17" t="n">
-        <v>5704.46857125914</v>
+        <v>7722.19910822982</v>
       </c>
       <c r="F17" t="n">
-        <v>4864.31541581526</v>
+        <v>6662.637160752368</v>
       </c>
       <c r="G17" t="n">
-        <v>4864.31541581526</v>
+        <v>6662.637160752368</v>
       </c>
       <c r="H17" t="n">
-        <v>-167.7227893985225</v>
+        <v>246.7022353201461</v>
       </c>
       <c r="I17" t="n">
-        <v>-167.7227893985225</v>
+        <v>246.7022353201461</v>
       </c>
       <c r="J17" t="n">
-        <v>-167.7227893985225</v>
+        <v>246.7022353201461</v>
       </c>
       <c r="K17" t="n">
-        <v>-167.7227893985225</v>
+        <v>246.7022353201461</v>
       </c>
       <c r="L17" t="n">
-        <v>-167.7227893985225</v>
+        <v>246.7022353201461</v>
       </c>
       <c r="M17" t="n">
-        <v>-167.7227893985225</v>
+        <v>246.7022353201461</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4696.592626416737</v>
+        <v>6909.339396072514</v>
       </c>
     </row>
     <row r="18">
@@ -1372,40 +1372,40 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>42856</v>
+        <v>43221</v>
       </c>
       <c r="C18" t="n">
-        <v>5035.730307877251</v>
+        <v>6881.723455724884</v>
       </c>
       <c r="D18" t="n">
-        <v>4058.304895506082</v>
+        <v>6610.099600477321</v>
       </c>
       <c r="E18" t="n">
-        <v>6066.726712957293</v>
+        <v>8388.893265309656</v>
       </c>
       <c r="F18" t="n">
-        <v>5035.730307877251</v>
+        <v>6881.723455724884</v>
       </c>
       <c r="G18" t="n">
-        <v>5035.730307877251</v>
+        <v>6881.723455724884</v>
       </c>
       <c r="H18" t="n">
-        <v>59.21756728597605</v>
+        <v>613.010201749516</v>
       </c>
       <c r="I18" t="n">
-        <v>59.21756728597605</v>
+        <v>613.010201749516</v>
       </c>
       <c r="J18" t="n">
-        <v>59.21756728597605</v>
+        <v>613.010201749516</v>
       </c>
       <c r="K18" t="n">
-        <v>59.21756728597605</v>
+        <v>613.010201749516</v>
       </c>
       <c r="L18" t="n">
-        <v>59.21756728597605</v>
+        <v>613.010201749516</v>
       </c>
       <c r="M18" t="n">
-        <v>59.21756728597605</v>
+        <v>613.010201749516</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>5094.947875163227</v>
+        <v>7494.7336574744</v>
       </c>
     </row>
     <row r="19">
@@ -1425,40 +1425,40 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>42887</v>
+        <v>43252</v>
       </c>
       <c r="C19" t="n">
-        <v>5212.859029674642</v>
+        <v>7108.112627182015</v>
       </c>
       <c r="D19" t="n">
-        <v>4202.827208927101</v>
+        <v>6208.754830887849</v>
       </c>
       <c r="E19" t="n">
-        <v>6299.284384083644</v>
+        <v>7998.613556274516</v>
       </c>
       <c r="F19" t="n">
-        <v>5212.859029674642</v>
+        <v>7108.112627182015</v>
       </c>
       <c r="G19" t="n">
-        <v>5212.859029674642</v>
+        <v>7108.112627182015</v>
       </c>
       <c r="H19" t="n">
-        <v>23.22513575919398</v>
+        <v>-3.214714440821625</v>
       </c>
       <c r="I19" t="n">
-        <v>23.22513575919398</v>
+        <v>-3.214714440821625</v>
       </c>
       <c r="J19" t="n">
-        <v>23.22513575919398</v>
+        <v>-3.214714440821625</v>
       </c>
       <c r="K19" t="n">
-        <v>23.22513575919398</v>
+        <v>-3.214714440821625</v>
       </c>
       <c r="L19" t="n">
-        <v>23.22513575919398</v>
+        <v>-3.214714440821625</v>
       </c>
       <c r="M19" t="n">
-        <v>23.22513575919398</v>
+        <v>-3.214714440821625</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>5236.084165433836</v>
+        <v>7104.897912741193</v>
       </c>
     </row>
     <row r="20">
@@ -1478,40 +1478,40 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>42917</v>
+        <v>43282</v>
       </c>
       <c r="C20" t="n">
-        <v>5384.273921002788</v>
+        <v>7327.198922140531</v>
       </c>
       <c r="D20" t="n">
-        <v>3900.973807289419</v>
+        <v>6398.194023302904</v>
       </c>
       <c r="E20" t="n">
-        <v>5964.439476257488</v>
+        <v>8003.463853508323</v>
       </c>
       <c r="F20" t="n">
-        <v>5384.273921002788</v>
+        <v>7327.198922140531</v>
       </c>
       <c r="G20" t="n">
-        <v>5384.273921002788</v>
+        <v>7327.198922140531</v>
       </c>
       <c r="H20" t="n">
-        <v>-434.7434436083743</v>
+        <v>-103.55486519374</v>
       </c>
       <c r="I20" t="n">
-        <v>-434.7434436083743</v>
+        <v>-103.55486519374</v>
       </c>
       <c r="J20" t="n">
-        <v>-434.7434436083743</v>
+        <v>-103.55486519374</v>
       </c>
       <c r="K20" t="n">
-        <v>-434.7434436083743</v>
+        <v>-103.55486519374</v>
       </c>
       <c r="L20" t="n">
-        <v>-434.7434436083743</v>
+        <v>-103.55486519374</v>
       </c>
       <c r="M20" t="n">
-        <v>-434.7434436083743</v>
+        <v>-103.55486519374</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>4949.530477394414</v>
+        <v>7223.644056946791</v>
       </c>
     </row>
     <row r="21">
@@ -1531,40 +1531,40 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>42948</v>
+        <v>43313</v>
       </c>
       <c r="C21" t="n">
-        <v>5561.402642041874</v>
+        <v>7553.588093499796</v>
       </c>
       <c r="D21" t="n">
-        <v>4611.697172648369</v>
+        <v>6771.668229374241</v>
       </c>
       <c r="E21" t="n">
-        <v>6639.55742507342</v>
+        <v>8489.762007228881</v>
       </c>
       <c r="F21" t="n">
-        <v>5561.402642041874</v>
+        <v>7553.588093499796</v>
       </c>
       <c r="G21" t="n">
-        <v>5561.402642041874</v>
+        <v>7553.588093499796</v>
       </c>
       <c r="H21" t="n">
-        <v>81.02807106600541</v>
+        <v>60.1448952586593</v>
       </c>
       <c r="I21" t="n">
-        <v>81.02807106600541</v>
+        <v>60.1448952586593</v>
       </c>
       <c r="J21" t="n">
-        <v>81.02807106600541</v>
+        <v>60.1448952586593</v>
       </c>
       <c r="K21" t="n">
-        <v>81.02807106600541</v>
+        <v>60.1448952586593</v>
       </c>
       <c r="L21" t="n">
-        <v>81.02807106600541</v>
+        <v>60.1448952586593</v>
       </c>
       <c r="M21" t="n">
-        <v>81.02807106600541</v>
+        <v>60.1448952586593</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>5642.430713107879</v>
+        <v>7613.732988758456</v>
       </c>
     </row>
     <row r="22">
@@ -1584,40 +1584,40 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>42979</v>
+        <v>43344</v>
       </c>
       <c r="C22" t="n">
-        <v>5738.531362947459</v>
+        <v>7779.977264859062</v>
       </c>
       <c r="D22" t="n">
-        <v>4719.953416347742</v>
+        <v>6796.478275635041</v>
       </c>
       <c r="E22" t="n">
-        <v>6856.582126593028</v>
+        <v>8541.684308822929</v>
       </c>
       <c r="F22" t="n">
-        <v>5738.531362947459</v>
+        <v>7779.977264859062</v>
       </c>
       <c r="G22" t="n">
-        <v>5738.531362947459</v>
+        <v>7779.977264859062</v>
       </c>
       <c r="H22" t="n">
-        <v>63.30751352830661</v>
+        <v>-64.28762326116426</v>
       </c>
       <c r="I22" t="n">
-        <v>63.30751352830661</v>
+        <v>-64.28762326116426</v>
       </c>
       <c r="J22" t="n">
-        <v>63.30751352830661</v>
+        <v>-64.28762326116426</v>
       </c>
       <c r="K22" t="n">
-        <v>63.30751352830661</v>
+        <v>-64.28762326116426</v>
       </c>
       <c r="L22" t="n">
-        <v>63.30751352830661</v>
+        <v>-64.28762326116426</v>
       </c>
       <c r="M22" t="n">
-        <v>63.30751352830661</v>
+        <v>-64.28762326116426</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>5801.838876475766</v>
+        <v>7715.689641597898</v>
       </c>
     </row>
     <row r="23">
@@ -1637,40 +1637,40 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="C23" t="n">
-        <v>5909.94625414641</v>
+        <v>7999.063559824118</v>
       </c>
       <c r="D23" t="n">
-        <v>4943.202317532483</v>
+        <v>7797.405826238667</v>
       </c>
       <c r="E23" t="n">
-        <v>7083.750841357232</v>
+        <v>9485.911116208936</v>
       </c>
       <c r="F23" t="n">
-        <v>5909.94625414641</v>
+        <v>7999.063559824118</v>
       </c>
       <c r="G23" t="n">
-        <v>5909.94625414641</v>
+        <v>7999.063559824118</v>
       </c>
       <c r="H23" t="n">
-        <v>146.5214056142072</v>
+        <v>594.6617648818391</v>
       </c>
       <c r="I23" t="n">
-        <v>146.5214056142072</v>
+        <v>594.6617648818391</v>
       </c>
       <c r="J23" t="n">
-        <v>146.5214056142072</v>
+        <v>594.6617648818391</v>
       </c>
       <c r="K23" t="n">
-        <v>146.5214056142072</v>
+        <v>594.6617648818391</v>
       </c>
       <c r="L23" t="n">
-        <v>146.5214056142072</v>
+        <v>594.6617648818391</v>
       </c>
       <c r="M23" t="n">
-        <v>146.5214056142072</v>
+        <v>594.6617648818391</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>6056.467659760618</v>
+        <v>8593.725324705956</v>
       </c>
     </row>
     <row r="24">
@@ -1690,40 +1690,40 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>43040</v>
+        <v>43405</v>
       </c>
       <c r="C24" t="n">
-        <v>6087.074976136194</v>
+        <v>8225.452731288009</v>
       </c>
       <c r="D24" t="n">
-        <v>4538.387774437609</v>
+        <v>6722.887525881541</v>
       </c>
       <c r="E24" t="n">
-        <v>6534.599434014932</v>
+        <v>8367.643025560827</v>
       </c>
       <c r="F24" t="n">
-        <v>6087.074976136194</v>
+        <v>8225.452731288009</v>
       </c>
       <c r="G24" t="n">
-        <v>6087.074976136194</v>
+        <v>8225.452731288009</v>
       </c>
       <c r="H24" t="n">
-        <v>-540.0391267017133</v>
+        <v>-660.8538184150398</v>
       </c>
       <c r="I24" t="n">
-        <v>-540.0391267017133</v>
+        <v>-660.8538184150398</v>
       </c>
       <c r="J24" t="n">
-        <v>-540.0391267017133</v>
+        <v>-660.8538184150398</v>
       </c>
       <c r="K24" t="n">
-        <v>-540.0391267017133</v>
+        <v>-660.8538184150398</v>
       </c>
       <c r="L24" t="n">
-        <v>-540.0391267017133</v>
+        <v>-660.8538184150398</v>
       </c>
       <c r="M24" t="n">
-        <v>-540.0391267017133</v>
+        <v>-660.8538184150398</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>5547.035849434481</v>
+        <v>7564.598912872969</v>
       </c>
     </row>
     <row r="25">
@@ -1743,40 +1743,40 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>43070</v>
+        <v>43435</v>
       </c>
       <c r="C25" t="n">
-        <v>6258.489868384372</v>
+        <v>8444.539026085509</v>
       </c>
       <c r="D25" t="n">
-        <v>4246.589344285968</v>
+        <v>6440.003022899758</v>
       </c>
       <c r="E25" t="n">
-        <v>6259.362200987697</v>
+        <v>8081.339853295844</v>
       </c>
       <c r="F25" t="n">
-        <v>6258.489868384372</v>
+        <v>8444.539026085509</v>
       </c>
       <c r="G25" t="n">
-        <v>6258.489868384372</v>
+        <v>8444.539026085509</v>
       </c>
       <c r="H25" t="n">
-        <v>-1023.137177534583</v>
+        <v>-1163.937278608016</v>
       </c>
       <c r="I25" t="n">
-        <v>-1023.137177534583</v>
+        <v>-1163.937278608016</v>
       </c>
       <c r="J25" t="n">
-        <v>-1023.137177534583</v>
+        <v>-1163.937278608016</v>
       </c>
       <c r="K25" t="n">
-        <v>-1023.137177534583</v>
+        <v>-1163.937278608016</v>
       </c>
       <c r="L25" t="n">
-        <v>-1023.137177534583</v>
+        <v>-1163.937278608016</v>
       </c>
       <c r="M25" t="n">
-        <v>-1023.137177534583</v>
+        <v>-1163.937278608016</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>5235.35269084979</v>
+        <v>7280.601747477494</v>
       </c>
     </row>
     <row r="26">
@@ -1796,40 +1796,40 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="C26" t="n">
-        <v>6435.61858957735</v>
+        <v>8670.928197376261</v>
       </c>
       <c r="D26" t="n">
-        <v>5521.23971229273</v>
+        <v>8762.715203737524</v>
       </c>
       <c r="E26" t="n">
-        <v>7665.519757115198</v>
+        <v>10387.8022994238</v>
       </c>
       <c r="F26" t="n">
-        <v>6435.61858957735</v>
+        <v>8670.928197376261</v>
       </c>
       <c r="G26" t="n">
-        <v>6435.61858957735</v>
+        <v>8670.928197376261</v>
       </c>
       <c r="H26" t="n">
-        <v>161.891154132171</v>
+        <v>881.5828668376874</v>
       </c>
       <c r="I26" t="n">
-        <v>161.891154132171</v>
+        <v>881.5828668376874</v>
       </c>
       <c r="J26" t="n">
-        <v>161.891154132171</v>
+        <v>881.5828668376874</v>
       </c>
       <c r="K26" t="n">
-        <v>161.891154132171</v>
+        <v>881.5828668376874</v>
       </c>
       <c r="L26" t="n">
-        <v>161.891154132171</v>
+        <v>881.5828668376874</v>
       </c>
       <c r="M26" t="n">
-        <v>161.891154132171</v>
+        <v>881.5828668376874</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>6597.509743709521</v>
+        <v>9552.511064213948</v>
       </c>
     </row>
     <row r="27">
@@ -1849,40 +1849,40 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43132</v>
+        <v>43497</v>
       </c>
       <c r="C27" t="n">
-        <v>6612.747311503753</v>
+        <v>8897.317368514266</v>
       </c>
       <c r="D27" t="n">
-        <v>4734.701480534238</v>
+        <v>7313.385021226671</v>
       </c>
       <c r="E27" t="n">
-        <v>6844.23979122618</v>
+        <v>8977.976397880799</v>
       </c>
       <c r="F27" t="n">
-        <v>6612.747311503753</v>
+        <v>8897.317368514266</v>
       </c>
       <c r="G27" t="n">
-        <v>6612.747311503753</v>
+        <v>8897.317368514266</v>
       </c>
       <c r="H27" t="n">
-        <v>-810.6483101637787</v>
+        <v>-767.6667460766978</v>
       </c>
       <c r="I27" t="n">
-        <v>-810.6483101637787</v>
+        <v>-767.6667460766978</v>
       </c>
       <c r="J27" t="n">
-        <v>-810.6483101637787</v>
+        <v>-767.6667460766978</v>
       </c>
       <c r="K27" t="n">
-        <v>-810.6483101637787</v>
+        <v>-767.6667460766978</v>
       </c>
       <c r="L27" t="n">
-        <v>-810.6483101637787</v>
+        <v>-767.6667460766978</v>
       </c>
       <c r="M27" t="n">
-        <v>-810.6483101637787</v>
+        <v>-767.6667460766978</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>5802.099001339974</v>
+        <v>8129.650622437569</v>
       </c>
     </row>
     <row r="28">
@@ -1902,40 +1902,40 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43160</v>
+        <v>43525</v>
       </c>
       <c r="C28" t="n">
-        <v>6772.73454421147</v>
+        <v>9101.797910187302</v>
       </c>
       <c r="D28" t="n">
-        <v>5110.766251068766</v>
+        <v>7858.929076192907</v>
       </c>
       <c r="E28" t="n">
-        <v>7237.35032016781</v>
+        <v>9501.260095531103</v>
       </c>
       <c r="F28" t="n">
-        <v>6772.73454421147</v>
+        <v>9101.797910187302</v>
       </c>
       <c r="G28" t="n">
-        <v>6772.73454421147</v>
+        <v>9101.797910187302</v>
       </c>
       <c r="H28" t="n">
-        <v>-561.3411665759054</v>
+        <v>-422.9437993967435</v>
       </c>
       <c r="I28" t="n">
-        <v>-561.3411665759054</v>
+        <v>-422.9437993967435</v>
       </c>
       <c r="J28" t="n">
-        <v>-561.3411665759054</v>
+        <v>-422.9437993967435</v>
       </c>
       <c r="K28" t="n">
-        <v>-561.3411665759054</v>
+        <v>-422.9437993967435</v>
       </c>
       <c r="L28" t="n">
-        <v>-561.3411665759054</v>
+        <v>-422.9437993967435</v>
       </c>
       <c r="M28" t="n">
-        <v>-561.3411665759054</v>
+        <v>-422.9437993967435</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>6211.393377635564</v>
+        <v>8678.854110790558</v>
       </c>
     </row>
     <row r="29">
@@ -1955,40 +1955,40 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="C29" t="n">
-        <v>6949.863265454993</v>
+        <v>9328.187081325308</v>
       </c>
       <c r="D29" t="n">
-        <v>5719.178903355327</v>
+        <v>8632.975443739155</v>
       </c>
       <c r="E29" t="n">
-        <v>7819.413652263584</v>
+        <v>10217.03079956053</v>
       </c>
       <c r="F29" t="n">
-        <v>6949.863265454993</v>
+        <v>9328.187081325308</v>
       </c>
       <c r="G29" t="n">
-        <v>6949.863265454993</v>
+        <v>9328.187081325308</v>
       </c>
       <c r="H29" t="n">
-        <v>-193.4636514371421</v>
+        <v>126.3918135989758</v>
       </c>
       <c r="I29" t="n">
-        <v>-193.4636514371421</v>
+        <v>126.3918135989758</v>
       </c>
       <c r="J29" t="n">
-        <v>-193.4636514371421</v>
+        <v>126.3918135989758</v>
       </c>
       <c r="K29" t="n">
-        <v>-193.4636514371421</v>
+        <v>126.3918135989758</v>
       </c>
       <c r="L29" t="n">
-        <v>-193.4636514371421</v>
+        <v>126.3918135989758</v>
       </c>
       <c r="M29" t="n">
-        <v>-193.4636514371421</v>
+        <v>126.3918135989758</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>6756.399614017851</v>
+        <v>9454.578894924283</v>
       </c>
     </row>
     <row r="30">
@@ -2008,40 +2008,40 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43221</v>
+        <v>43586</v>
       </c>
       <c r="C30" t="n">
-        <v>7121.278156980983</v>
+        <v>9547.273375781684</v>
       </c>
       <c r="D30" t="n">
-        <v>6402.792457146977</v>
+        <v>9708.524989107218</v>
       </c>
       <c r="E30" t="n">
-        <v>8578.666565074889</v>
+        <v>11436.72184639495</v>
       </c>
       <c r="F30" t="n">
-        <v>7121.278156980983</v>
+        <v>9547.273375781684</v>
       </c>
       <c r="G30" t="n">
-        <v>7121.278156980983</v>
+        <v>9547.273375781684</v>
       </c>
       <c r="H30" t="n">
-        <v>370.8448889283919</v>
+        <v>1081.825148502593</v>
       </c>
       <c r="I30" t="n">
-        <v>370.8448889283919</v>
+        <v>1081.825148502593</v>
       </c>
       <c r="J30" t="n">
-        <v>370.8448889283919</v>
+        <v>1081.825148502593</v>
       </c>
       <c r="K30" t="n">
-        <v>370.8448889283919</v>
+        <v>1081.825148502593</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8448889283919</v>
+        <v>1081.825148502593</v>
       </c>
       <c r="M30" t="n">
-        <v>370.8448889283919</v>
+        <v>1081.825148502593</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>7492.123045909375</v>
+        <v>10629.09852428428</v>
       </c>
     </row>
     <row r="31">
@@ -2061,40 +2061,40 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>43252</v>
+        <v>43617</v>
       </c>
       <c r="C31" t="n">
-        <v>7298.406878715066</v>
+        <v>9773.662546719939</v>
       </c>
       <c r="D31" t="n">
-        <v>6136.633753669354</v>
+        <v>8816.289241414313</v>
       </c>
       <c r="E31" t="n">
-        <v>8211.64184347769</v>
+        <v>10489.01481501565</v>
       </c>
       <c r="F31" t="n">
-        <v>7298.406878715066</v>
+        <v>9773.662546719939</v>
       </c>
       <c r="G31" t="n">
-        <v>7298.406878715066</v>
+        <v>9773.662546719939</v>
       </c>
       <c r="H31" t="n">
-        <v>-112.3861740208946</v>
+        <v>-114.6369277345073</v>
       </c>
       <c r="I31" t="n">
-        <v>-112.3861740208946</v>
+        <v>-114.6369277345073</v>
       </c>
       <c r="J31" t="n">
-        <v>-112.3861740208946</v>
+        <v>-114.6369277345073</v>
       </c>
       <c r="K31" t="n">
-        <v>-112.3861740208946</v>
+        <v>-114.6369277345073</v>
       </c>
       <c r="L31" t="n">
-        <v>-112.3861740208946</v>
+        <v>-114.6369277345073</v>
       </c>
       <c r="M31" t="n">
-        <v>-112.3861740208946</v>
+        <v>-114.6369277345073</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>7186.020704694171</v>
+        <v>9659.025618985432</v>
       </c>
     </row>
     <row r="32">
@@ -2114,40 +2114,40 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="C32" t="n">
-        <v>7469.821770715792</v>
+        <v>9992.748841085957</v>
       </c>
       <c r="D32" t="n">
-        <v>6261.035719752068</v>
+        <v>9011.463822189786</v>
       </c>
       <c r="E32" t="n">
-        <v>8290.173987837827</v>
+        <v>10760.55931972339</v>
       </c>
       <c r="F32" t="n">
-        <v>7469.821770715792</v>
+        <v>9992.748841085957</v>
       </c>
       <c r="G32" t="n">
-        <v>7469.821770715792</v>
+        <v>9992.748841085957</v>
       </c>
       <c r="H32" t="n">
-        <v>-235.3602958249845</v>
+        <v>-100.2753351185763</v>
       </c>
       <c r="I32" t="n">
-        <v>-235.3602958249845</v>
+        <v>-100.2753351185763</v>
       </c>
       <c r="J32" t="n">
-        <v>-235.3602958249845</v>
+        <v>-100.2753351185763</v>
       </c>
       <c r="K32" t="n">
-        <v>-235.3602958249845</v>
+        <v>-100.2753351185763</v>
       </c>
       <c r="L32" t="n">
-        <v>-235.3602958249845</v>
+        <v>-100.2753351185763</v>
       </c>
       <c r="M32" t="n">
-        <v>-235.3602958249845</v>
+        <v>-100.2753351185763</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>7234.461474890807</v>
+        <v>9892.47350596738</v>
       </c>
     </row>
     <row r="33">
@@ -2167,40 +2167,40 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>43313</v>
+        <v>43678</v>
       </c>
       <c r="C33" t="n">
-        <v>7646.950491368062</v>
+        <v>10219.13801193084</v>
       </c>
       <c r="D33" t="n">
-        <v>6616.313439220447</v>
+        <v>9451.989017744576</v>
       </c>
       <c r="E33" t="n">
-        <v>8811.101236300261</v>
+        <v>11201.78133736256</v>
       </c>
       <c r="F33" t="n">
-        <v>7646.950491368062</v>
+        <v>10219.13801193084</v>
       </c>
       <c r="G33" t="n">
-        <v>7646.950491368062</v>
+        <v>10219.13801193084</v>
       </c>
       <c r="H33" t="n">
-        <v>2.535060996089977</v>
+        <v>70.82598256627972</v>
       </c>
       <c r="I33" t="n">
-        <v>2.535060996089977</v>
+        <v>70.82598256627972</v>
       </c>
       <c r="J33" t="n">
-        <v>2.535060996089977</v>
+        <v>70.82598256627972</v>
       </c>
       <c r="K33" t="n">
-        <v>2.535060996089977</v>
+        <v>70.82598256627972</v>
       </c>
       <c r="L33" t="n">
-        <v>2.535060996089977</v>
+        <v>70.82598256627972</v>
       </c>
       <c r="M33" t="n">
-        <v>2.535060996089977</v>
+        <v>70.82598256627972</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>7649.485552364152</v>
+        <v>10289.96399449712</v>
       </c>
     </row>
     <row r="34">
@@ -2220,40 +2220,40 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>43344</v>
+        <v>43709</v>
       </c>
       <c r="C34" t="n">
-        <v>7824.079212020332</v>
+        <v>10445.5271800648</v>
       </c>
       <c r="D34" t="n">
-        <v>6564.480139403453</v>
+        <v>9231.962180137651</v>
       </c>
       <c r="E34" t="n">
-        <v>8569.553868514478</v>
+        <v>10960.82080525287</v>
       </c>
       <c r="F34" t="n">
-        <v>7824.079212020332</v>
+        <v>10445.5271800648</v>
       </c>
       <c r="G34" t="n">
-        <v>7824.079212020332</v>
+        <v>10445.5271800648</v>
       </c>
       <c r="H34" t="n">
-        <v>-167.6604449048293</v>
+        <v>-319.8735042644693</v>
       </c>
       <c r="I34" t="n">
-        <v>-167.6604449048293</v>
+        <v>-319.8735042644693</v>
       </c>
       <c r="J34" t="n">
-        <v>-167.6604449048293</v>
+        <v>-319.8735042644693</v>
       </c>
       <c r="K34" t="n">
-        <v>-167.6604449048293</v>
+        <v>-319.8735042644693</v>
       </c>
       <c r="L34" t="n">
-        <v>-167.6604449048293</v>
+        <v>-319.8735042644693</v>
       </c>
       <c r="M34" t="n">
-        <v>-167.6604449048293</v>
+        <v>-319.8735042644693</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>7656.418767115503</v>
+        <v>10125.65367580033</v>
       </c>
     </row>
     <row r="35">
@@ -2273,40 +2273,40 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="C35" t="n">
-        <v>7995.494100892347</v>
+        <v>10664.61347180734</v>
       </c>
       <c r="D35" t="n">
-        <v>7466.579540481725</v>
+        <v>10631.76435680011</v>
       </c>
       <c r="E35" t="n">
-        <v>9384.483218151063</v>
+        <v>12398.17475106668</v>
       </c>
       <c r="F35" t="n">
-        <v>7995.494100892347</v>
+        <v>10664.61347180734</v>
       </c>
       <c r="G35" t="n">
-        <v>7995.494100892347</v>
+        <v>10664.61347180734</v>
       </c>
       <c r="H35" t="n">
-        <v>454.3486604666773</v>
+        <v>838.3036021492521</v>
       </c>
       <c r="I35" t="n">
-        <v>454.3486604666773</v>
+        <v>838.3036021492521</v>
       </c>
       <c r="J35" t="n">
-        <v>454.3486604666773</v>
+        <v>838.3036021492521</v>
       </c>
       <c r="K35" t="n">
-        <v>454.3486604666773</v>
+        <v>838.3036021492521</v>
       </c>
       <c r="L35" t="n">
-        <v>454.3486604666773</v>
+        <v>838.3036021492521</v>
       </c>
       <c r="M35" t="n">
-        <v>454.3486604666773</v>
+        <v>838.3036021492521</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>8449.842761359025</v>
+        <v>11502.9170739566</v>
       </c>
     </row>
     <row r="36">
@@ -2326,40 +2326,40 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>43405</v>
+        <v>43770</v>
       </c>
       <c r="C36" t="n">
-        <v>8172.62281939343</v>
+        <v>10890.97767239891</v>
       </c>
       <c r="D36" t="n">
-        <v>6387.398057620214</v>
+        <v>9238.283919779386</v>
       </c>
       <c r="E36" t="n">
-        <v>8421.047356658562</v>
+        <v>10997.37494508499</v>
       </c>
       <c r="F36" t="n">
-        <v>8172.62281939343</v>
+        <v>10890.97767239891</v>
       </c>
       <c r="G36" t="n">
-        <v>8172.62281939343</v>
+        <v>10890.97767239891</v>
       </c>
       <c r="H36" t="n">
-        <v>-752.2027190710437</v>
+        <v>-750.6333078423869</v>
       </c>
       <c r="I36" t="n">
-        <v>-752.2027190710437</v>
+        <v>-750.6333078423869</v>
       </c>
       <c r="J36" t="n">
-        <v>-752.2027190710437</v>
+        <v>-750.6333078423869</v>
       </c>
       <c r="K36" t="n">
-        <v>-752.2027190710437</v>
+        <v>-750.6333078423869</v>
       </c>
       <c r="L36" t="n">
-        <v>-752.2027190710437</v>
+        <v>-750.6333078423869</v>
       </c>
       <c r="M36" t="n">
-        <v>-752.2027190710437</v>
+        <v>-750.6333078423869</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>7420.420100322386</v>
+        <v>10140.34436455653</v>
       </c>
     </row>
     <row r="37">
@@ -2379,40 +2379,40 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>43435</v>
+        <v>43800</v>
       </c>
       <c r="C37" t="n">
-        <v>8344.037452547036</v>
+        <v>11110.03980200366</v>
       </c>
       <c r="D37" t="n">
-        <v>6170.498097980336</v>
+        <v>8932.349232451401</v>
       </c>
       <c r="E37" t="n">
-        <v>8098.12140210732</v>
+        <v>10654.42743862578</v>
       </c>
       <c r="F37" t="n">
-        <v>8344.037452547036</v>
+        <v>11110.03980200366</v>
       </c>
       <c r="G37" t="n">
-        <v>8344.037452547036</v>
+        <v>11110.03980200366</v>
       </c>
       <c r="H37" t="n">
-        <v>-1226.58298627001</v>
+        <v>-1340.319959510355</v>
       </c>
       <c r="I37" t="n">
-        <v>-1226.58298627001</v>
+        <v>-1340.319959510355</v>
       </c>
       <c r="J37" t="n">
-        <v>-1226.58298627001</v>
+        <v>-1340.319959510355</v>
       </c>
       <c r="K37" t="n">
-        <v>-1226.58298627001</v>
+        <v>-1340.319959510355</v>
       </c>
       <c r="L37" t="n">
-        <v>-1226.58298627001</v>
+        <v>-1340.319959510355</v>
       </c>
       <c r="M37" t="n">
-        <v>-1226.58298627001</v>
+        <v>-1340.319959510355</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>7117.454466277026</v>
+        <v>9769.719842493307</v>
       </c>
     </row>
     <row r="38">
@@ -2432,40 +2432,40 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="C38" t="n">
-        <v>8521.165906805762</v>
+        <v>11336.29941301152</v>
       </c>
       <c r="D38" t="n">
-        <v>8020.009730942325</v>
+        <v>11855.25047503722</v>
       </c>
       <c r="E38" t="n">
-        <v>10041.39919898629</v>
+        <v>13593.61200145004</v>
       </c>
       <c r="F38" t="n">
-        <v>8521.165906805762</v>
+        <v>11336.29941301152</v>
       </c>
       <c r="G38" t="n">
-        <v>8521.165906805762</v>
+        <v>11336.29941301152</v>
       </c>
       <c r="H38" t="n">
-        <v>530.6703421304031</v>
+        <v>1345.688730186218</v>
       </c>
       <c r="I38" t="n">
-        <v>530.6703421304031</v>
+        <v>1345.688730186218</v>
       </c>
       <c r="J38" t="n">
-        <v>530.6703421304031</v>
+        <v>1345.688730186218</v>
       </c>
       <c r="K38" t="n">
-        <v>530.6703421304031</v>
+        <v>1345.688730186218</v>
       </c>
       <c r="L38" t="n">
-        <v>530.6703421304031</v>
+        <v>1345.688730186218</v>
       </c>
       <c r="M38" t="n">
-        <v>530.6703421304031</v>
+        <v>1345.688730186218</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9051.836248936164</v>
+        <v>12681.98814319774</v>
       </c>
     </row>
     <row r="39">
@@ -2485,40 +2485,40 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>43497</v>
+        <v>43862</v>
       </c>
       <c r="C39" t="n">
-        <v>8698.294136593082</v>
+        <v>11562.55902401939</v>
       </c>
       <c r="D39" t="n">
-        <v>7221.35251634147</v>
+        <v>9957.661579796713</v>
       </c>
       <c r="E39" t="n">
-        <v>9268.633059113099</v>
+        <v>11518.78502366891</v>
       </c>
       <c r="F39" t="n">
-        <v>8698.294136593082</v>
+        <v>11562.55902401939</v>
       </c>
       <c r="G39" t="n">
-        <v>8698.294136593082</v>
+        <v>11562.55902401939</v>
       </c>
       <c r="H39" t="n">
-        <v>-481.0572374460581</v>
+        <v>-787.9465170124273</v>
       </c>
       <c r="I39" t="n">
-        <v>-481.0572374460581</v>
+        <v>-787.9465170124273</v>
       </c>
       <c r="J39" t="n">
-        <v>-481.0572374460581</v>
+        <v>-787.9465170124273</v>
       </c>
       <c r="K39" t="n">
-        <v>-481.0572374460581</v>
+        <v>-787.9465170124273</v>
       </c>
       <c r="L39" t="n">
-        <v>-481.0572374460581</v>
+        <v>-787.9465170124273</v>
       </c>
       <c r="M39" t="n">
-        <v>-481.0572374460581</v>
+        <v>-787.9465170124273</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>8217.236899147023</v>
+        <v>10774.61250700696</v>
       </c>
     </row>
     <row r="40">
@@ -2538,40 +2538,40 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>43525</v>
+        <v>43891</v>
       </c>
       <c r="C40" t="n">
-        <v>8858.28092478808</v>
+        <v>11774.11680385802</v>
       </c>
       <c r="D40" t="n">
-        <v>6677.831417248169</v>
+        <v>11570.66844496783</v>
       </c>
       <c r="E40" t="n">
-        <v>8751.447572665578</v>
+        <v>13278.84236622177</v>
       </c>
       <c r="F40" t="n">
-        <v>8858.28092478808</v>
+        <v>11774.11680385802</v>
       </c>
       <c r="G40" t="n">
-        <v>8858.28092478808</v>
+        <v>11774.11680385802</v>
       </c>
       <c r="H40" t="n">
-        <v>-1151.563100737514</v>
+        <v>643.6169437861673</v>
       </c>
       <c r="I40" t="n">
-        <v>-1151.563100737514</v>
+        <v>643.6169437861673</v>
       </c>
       <c r="J40" t="n">
-        <v>-1151.563100737514</v>
+        <v>643.6169437861673</v>
       </c>
       <c r="K40" t="n">
-        <v>-1151.563100737514</v>
+        <v>643.6169437861673</v>
       </c>
       <c r="L40" t="n">
-        <v>-1151.563100737514</v>
+        <v>643.6169437861673</v>
       </c>
       <c r="M40" t="n">
-        <v>-1151.563100737514</v>
+        <v>643.6169437861673</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>7706.717824050565</v>
+        <v>12417.73374764419</v>
       </c>
     </row>
     <row r="41">
@@ -2591,40 +2591,40 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="C41" t="n">
-        <v>9035.402587231749</v>
+        <v>12000.26477540966</v>
       </c>
       <c r="D41" t="n">
-        <v>7856.125186282191</v>
+        <v>11709.74159058564</v>
       </c>
       <c r="E41" t="n">
-        <v>9879.140337645622</v>
+        <v>13380.71805023629</v>
       </c>
       <c r="F41" t="n">
-        <v>9035.402587231749</v>
+        <v>12000.26477540966</v>
       </c>
       <c r="G41" t="n">
-        <v>9035.402587231749</v>
+        <v>12000.26477540966</v>
       </c>
       <c r="H41" t="n">
-        <v>-208.1141720808978</v>
+        <v>520.7600690449586</v>
       </c>
       <c r="I41" t="n">
-        <v>-208.1141720808978</v>
+        <v>520.7600690449586</v>
       </c>
       <c r="J41" t="n">
-        <v>-208.1141720808978</v>
+        <v>520.7600690449586</v>
       </c>
       <c r="K41" t="n">
-        <v>-208.1141720808978</v>
+        <v>520.7600690449586</v>
       </c>
       <c r="L41" t="n">
-        <v>-208.1141720808978</v>
+        <v>520.7600690449586</v>
       </c>
       <c r="M41" t="n">
-        <v>-208.1141720808978</v>
+        <v>520.7600690449586</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>8827.288415150852</v>
+        <v>12521.02484445462</v>
       </c>
     </row>
     <row r="42">
@@ -2644,40 +2644,40 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>43586</v>
+        <v>43952</v>
       </c>
       <c r="C42" t="n">
-        <v>9206.768038986358</v>
+        <v>11980.91055178179</v>
       </c>
       <c r="D42" t="n">
-        <v>8840.900530637742</v>
+        <v>10757.2170263831</v>
       </c>
       <c r="E42" t="n">
-        <v>10882.66011701438</v>
+        <v>12519.21408163972</v>
       </c>
       <c r="F42" t="n">
-        <v>9206.768038986358</v>
+        <v>11980.91055178179</v>
       </c>
       <c r="G42" t="n">
-        <v>9206.768038986358</v>
+        <v>11980.91055178179</v>
       </c>
       <c r="H42" t="n">
-        <v>683.5362896680656</v>
+        <v>-320.2422585258299</v>
       </c>
       <c r="I42" t="n">
-        <v>683.5362896680656</v>
+        <v>-320.2422585258299</v>
       </c>
       <c r="J42" t="n">
-        <v>683.5362896680656</v>
+        <v>-320.2422585258299</v>
       </c>
       <c r="K42" t="n">
-        <v>683.5362896680656</v>
+        <v>-320.2422585258299</v>
       </c>
       <c r="L42" t="n">
-        <v>683.5362896680656</v>
+        <v>-320.2422585258299</v>
       </c>
       <c r="M42" t="n">
-        <v>683.5362896680656</v>
+        <v>-320.2422585258299</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>9890.304328654423</v>
+        <v>11660.66829325596</v>
       </c>
     </row>
     <row r="43">
@@ -2697,40 +2697,40 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>43617</v>
+        <v>43983</v>
       </c>
       <c r="C43" t="n">
-        <v>9383.845672466121</v>
+        <v>11960.91118736632</v>
       </c>
       <c r="D43" t="n">
-        <v>8110.483878799633</v>
+        <v>11290.03651328258</v>
       </c>
       <c r="E43" t="n">
-        <v>10152.56627258161</v>
+        <v>12977.19940567098</v>
       </c>
       <c r="F43" t="n">
-        <v>9383.845672466121</v>
+        <v>11960.91118736632</v>
       </c>
       <c r="G43" t="n">
-        <v>9383.845672466121</v>
+        <v>11960.91118736632</v>
       </c>
       <c r="H43" t="n">
-        <v>-249.2542054749959</v>
+        <v>202.4280477937556</v>
       </c>
       <c r="I43" t="n">
-        <v>-249.2542054749959</v>
+        <v>202.4280477937556</v>
       </c>
       <c r="J43" t="n">
-        <v>-249.2542054749959</v>
+        <v>202.4280477937556</v>
       </c>
       <c r="K43" t="n">
-        <v>-249.2542054749959</v>
+        <v>202.4280477937556</v>
       </c>
       <c r="L43" t="n">
-        <v>-249.2542054749959</v>
+        <v>202.4280477937556</v>
       </c>
       <c r="M43" t="n">
-        <v>-249.2542054749959</v>
+        <v>202.4280477937556</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>9134.591466991125</v>
+        <v>12163.33923516008</v>
       </c>
     </row>
     <row r="44">
@@ -2750,40 +2750,40 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="C44" t="n">
-        <v>9555.108985430861</v>
+        <v>11941.38255189666</v>
       </c>
       <c r="D44" t="n">
-        <v>8472.424347087219</v>
+        <v>10956.20516333892</v>
       </c>
       <c r="E44" t="n">
-        <v>10509.72508005371</v>
+        <v>12705.16397729124</v>
       </c>
       <c r="F44" t="n">
-        <v>9555.108985430861</v>
+        <v>11941.38255189666</v>
       </c>
       <c r="G44" t="n">
-        <v>9555.108985430861</v>
+        <v>11941.38255189666</v>
       </c>
       <c r="H44" t="n">
-        <v>-37.37464238053855</v>
+        <v>-113.6809700182057</v>
       </c>
       <c r="I44" t="n">
-        <v>-37.37464238053855</v>
+        <v>-113.6809700182057</v>
       </c>
       <c r="J44" t="n">
-        <v>-37.37464238053855</v>
+        <v>-113.6809700182057</v>
       </c>
       <c r="K44" t="n">
-        <v>-37.37464238053855</v>
+        <v>-113.6809700182057</v>
       </c>
       <c r="L44" t="n">
-        <v>-37.37464238053855</v>
+        <v>-113.6809700182057</v>
       </c>
       <c r="M44" t="n">
-        <v>-37.37464238053855</v>
+        <v>-113.6809700182057</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9517.734343050322</v>
+        <v>11827.70158187846</v>
       </c>
     </row>
     <row r="45">
@@ -2803,40 +2803,40 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>43678</v>
+        <v>44044</v>
       </c>
       <c r="C45" t="n">
-        <v>9732.081075494425</v>
+        <v>11921.20296191135</v>
       </c>
       <c r="D45" t="n">
-        <v>8586.088408537309</v>
+        <v>11104.15500761836</v>
       </c>
       <c r="E45" t="n">
-        <v>10666.53982972155</v>
+        <v>12802.61245083164</v>
       </c>
       <c r="F45" t="n">
-        <v>9732.081075494425</v>
+        <v>11921.20296191135</v>
       </c>
       <c r="G45" t="n">
-        <v>9732.081075494425</v>
+        <v>11921.20296191135</v>
       </c>
       <c r="H45" t="n">
-        <v>-81.20370777462033</v>
+        <v>29.1489492157449</v>
       </c>
       <c r="I45" t="n">
-        <v>-81.20370777462033</v>
+        <v>29.1489492157449</v>
       </c>
       <c r="J45" t="n">
-        <v>-81.20370777462033</v>
+        <v>29.1489492157449</v>
       </c>
       <c r="K45" t="n">
-        <v>-81.20370777462033</v>
+        <v>29.1489492157449</v>
       </c>
       <c r="L45" t="n">
-        <v>-81.20370777462033</v>
+        <v>29.1489492157449</v>
       </c>
       <c r="M45" t="n">
-        <v>-81.20370777462033</v>
+        <v>29.1489492157449</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>9650.877367719804</v>
+        <v>11950.3519111271</v>
       </c>
     </row>
     <row r="46">
@@ -2856,40 +2856,40 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>43709</v>
+        <v>44075</v>
       </c>
       <c r="C46" t="n">
-        <v>9909.043489753583</v>
+        <v>11900.89205465025</v>
       </c>
       <c r="D46" t="n">
-        <v>8415.709889049489</v>
+        <v>11443.4504906281</v>
       </c>
       <c r="E46" t="n">
-        <v>10576.46249186015</v>
+        <v>13237.35072982612</v>
       </c>
       <c r="F46" t="n">
-        <v>9909.043489753583</v>
+        <v>11900.89205465025</v>
       </c>
       <c r="G46" t="n">
-        <v>9909.043489753583</v>
+        <v>11900.89205465025</v>
       </c>
       <c r="H46" t="n">
-        <v>-395.427194031522</v>
+        <v>454.2954537688985</v>
       </c>
       <c r="I46" t="n">
-        <v>-395.427194031522</v>
+        <v>454.2954537688985</v>
       </c>
       <c r="J46" t="n">
-        <v>-395.427194031522</v>
+        <v>454.2954537688985</v>
       </c>
       <c r="K46" t="n">
-        <v>-395.427194031522</v>
+        <v>454.2954537688985</v>
       </c>
       <c r="L46" t="n">
-        <v>-395.427194031522</v>
+        <v>454.2954537688985</v>
       </c>
       <c r="M46" t="n">
-        <v>-395.427194031522</v>
+        <v>454.2954537688985</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>9513.616295722062</v>
+        <v>12355.18750841915</v>
       </c>
     </row>
     <row r="47">
@@ -2909,40 +2909,40 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="C47" t="n">
-        <v>10080.29743903664</v>
+        <v>11881.23633794597</v>
       </c>
       <c r="D47" t="n">
-        <v>9813.619893599083</v>
+        <v>11110.12265941476</v>
       </c>
       <c r="E47" t="n">
-        <v>11825.15046711828</v>
+        <v>12810.05490495498</v>
       </c>
       <c r="F47" t="n">
-        <v>10080.29743903664</v>
+        <v>11881.23633794597</v>
       </c>
       <c r="G47" t="n">
-        <v>10080.29743903664</v>
+        <v>11881.23633794597</v>
       </c>
       <c r="H47" t="n">
-        <v>761.6245211742853</v>
+        <v>112.8530239270754</v>
       </c>
       <c r="I47" t="n">
-        <v>761.6245211742853</v>
+        <v>112.8530239270754</v>
       </c>
       <c r="J47" t="n">
-        <v>761.6245211742853</v>
+        <v>112.8530239270754</v>
       </c>
       <c r="K47" t="n">
-        <v>761.6245211742853</v>
+        <v>112.8530239270754</v>
       </c>
       <c r="L47" t="n">
-        <v>761.6245211742853</v>
+        <v>112.8530239270754</v>
       </c>
       <c r="M47" t="n">
-        <v>761.6245211742853</v>
+        <v>112.8530239270754</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>10841.92196021093</v>
+        <v>11994.08936187304</v>
       </c>
     </row>
     <row r="48">
@@ -2962,40 +2962,40 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>43770</v>
+        <v>44136</v>
       </c>
       <c r="C48" t="n">
-        <v>10150.74045398299</v>
+        <v>11860.78574843081</v>
       </c>
       <c r="D48" t="n">
-        <v>8247.65251191505</v>
+        <v>10485.99897017777</v>
       </c>
       <c r="E48" t="n">
-        <v>10266.69508831757</v>
+        <v>12262.47237255337</v>
       </c>
       <c r="F48" t="n">
-        <v>10150.74045398299</v>
+        <v>11860.78574843081</v>
       </c>
       <c r="G48" t="n">
-        <v>10150.74045398299</v>
+        <v>11860.78574843081</v>
       </c>
       <c r="H48" t="n">
-        <v>-968.2921933761537</v>
+        <v>-489.0539972703835</v>
       </c>
       <c r="I48" t="n">
-        <v>-968.2921933761537</v>
+        <v>-489.0539972703835</v>
       </c>
       <c r="J48" t="n">
-        <v>-968.2921933761537</v>
+        <v>-489.0539972703835</v>
       </c>
       <c r="K48" t="n">
-        <v>-968.2921933761537</v>
+        <v>-489.0539972703835</v>
       </c>
       <c r="L48" t="n">
-        <v>-968.2921933761537</v>
+        <v>-489.0539972703835</v>
       </c>
       <c r="M48" t="n">
-        <v>-968.2921933761537</v>
+        <v>-489.0539972703835</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>9182.448260606834</v>
+        <v>11371.73175116043</v>
       </c>
     </row>
     <row r="49">
@@ -3015,40 +3015,40 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>43800</v>
+        <v>44166</v>
       </c>
       <c r="C49" t="n">
-        <v>10218.91111360849</v>
+        <v>11840.99485535163</v>
       </c>
       <c r="D49" t="n">
-        <v>7861.484088216523</v>
+        <v>10232.14379941293</v>
       </c>
       <c r="E49" t="n">
-        <v>9853.589314031758</v>
+        <v>11916.08020001183</v>
       </c>
       <c r="F49" t="n">
-        <v>10218.91111360849</v>
+        <v>11840.99485535163</v>
       </c>
       <c r="G49" t="n">
-        <v>10218.91111360849</v>
+        <v>11840.99485535163</v>
       </c>
       <c r="H49" t="n">
-        <v>-1421.293950920567</v>
+        <v>-790.2164717838117</v>
       </c>
       <c r="I49" t="n">
-        <v>-1421.293950920567</v>
+        <v>-790.2164717838117</v>
       </c>
       <c r="J49" t="n">
-        <v>-1421.293950920567</v>
+        <v>-790.2164717838117</v>
       </c>
       <c r="K49" t="n">
-        <v>-1421.293950920567</v>
+        <v>-790.2164717838117</v>
       </c>
       <c r="L49" t="n">
-        <v>-1421.293950920567</v>
+        <v>-790.2164717838117</v>
       </c>
       <c r="M49" t="n">
-        <v>-1421.293950920567</v>
+        <v>-790.2164717838117</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>8797.61716268792</v>
+        <v>11050.77838356782</v>
       </c>
     </row>
     <row r="50">
@@ -3068,40 +3068,40 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C50" t="n">
-        <v>10289.28541887127</v>
+        <v>11820.49290516392</v>
       </c>
       <c r="D50" t="n">
-        <v>10080.1930666834</v>
+        <v>10868.03102676012</v>
       </c>
       <c r="E50" t="n">
-        <v>12220.96443271418</v>
+        <v>12651.36849195243</v>
       </c>
       <c r="F50" t="n">
-        <v>10289.28541887127</v>
+        <v>11820.49290516392</v>
       </c>
       <c r="G50" t="n">
-        <v>10289.28541887127</v>
+        <v>11820.49290516392</v>
       </c>
       <c r="H50" t="n">
-        <v>904.558089422928</v>
+        <v>-46.40253717444279</v>
       </c>
       <c r="I50" t="n">
-        <v>904.558089422928</v>
+        <v>-46.40253717444279</v>
       </c>
       <c r="J50" t="n">
-        <v>904.558089422928</v>
+        <v>-46.40253717444279</v>
       </c>
       <c r="K50" t="n">
-        <v>904.558089422928</v>
+        <v>-46.40253717444279</v>
       </c>
       <c r="L50" t="n">
-        <v>904.558089422928</v>
+        <v>-46.40253717444279</v>
       </c>
       <c r="M50" t="n">
-        <v>904.558089422928</v>
+        <v>-46.40253717444279</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>11193.8435082942</v>
+        <v>11774.09036798947</v>
       </c>
     </row>
     <row r="51">
@@ -3121,40 +3121,40 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>43862</v>
+        <v>44228</v>
       </c>
       <c r="C51" t="n">
-        <v>10359.65972413406</v>
+        <v>11799.99095497621</v>
       </c>
       <c r="D51" t="n">
-        <v>9070.687213707246</v>
+        <v>10187.14128612067</v>
       </c>
       <c r="E51" t="n">
-        <v>11211.0563373846</v>
+        <v>11846.53234840568</v>
       </c>
       <c r="F51" t="n">
-        <v>10359.65972413406</v>
+        <v>11799.99095497621</v>
       </c>
       <c r="G51" t="n">
-        <v>10359.65972413406</v>
+        <v>11799.99095497621</v>
       </c>
       <c r="H51" t="n">
-        <v>-162.5220243410343</v>
+        <v>-757.8464016429314</v>
       </c>
       <c r="I51" t="n">
-        <v>-162.5220243410343</v>
+        <v>-757.8464016429314</v>
       </c>
       <c r="J51" t="n">
-        <v>-162.5220243410343</v>
+        <v>-757.8464016429314</v>
       </c>
       <c r="K51" t="n">
-        <v>-162.5220243410343</v>
+        <v>-757.8464016429314</v>
       </c>
       <c r="L51" t="n">
-        <v>-162.5220243410343</v>
+        <v>-757.8464016429314</v>
       </c>
       <c r="M51" t="n">
-        <v>-162.5220243410343</v>
+        <v>-757.8464016429314</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>10197.13769979302</v>
+        <v>11042.14455333328</v>
       </c>
     </row>
     <row r="52">
@@ -3174,40 +3174,40 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>43891</v>
+        <v>44256</v>
       </c>
       <c r="C52" t="n">
-        <v>10425.49375163796</v>
+        <v>11781.42860461621</v>
       </c>
       <c r="D52" t="n">
-        <v>9987.02511902064</v>
+        <v>11251.38184689956</v>
       </c>
       <c r="E52" t="n">
-        <v>12070.00822853205</v>
+        <v>12911.13316783813</v>
       </c>
       <c r="F52" t="n">
-        <v>10425.49375163796</v>
+        <v>11781.42860461621</v>
       </c>
       <c r="G52" t="n">
-        <v>10425.49375163796</v>
+        <v>11781.42860461621</v>
       </c>
       <c r="H52" t="n">
-        <v>610.192430617533</v>
+        <v>288.1846144630239</v>
       </c>
       <c r="I52" t="n">
-        <v>610.192430617533</v>
+        <v>288.1846144630239</v>
       </c>
       <c r="J52" t="n">
-        <v>610.192430617533</v>
+        <v>288.1846144630239</v>
       </c>
       <c r="K52" t="n">
-        <v>610.192430617533</v>
+        <v>288.1846144630239</v>
       </c>
       <c r="L52" t="n">
-        <v>610.192430617533</v>
+        <v>288.1846144630239</v>
       </c>
       <c r="M52" t="n">
-        <v>610.192430617533</v>
+        <v>288.1846144630239</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>11035.68618225549</v>
+        <v>12069.61321907923</v>
       </c>
     </row>
     <row r="53">
@@ -3227,40 +3227,40 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>43922</v>
+        <v>44287</v>
       </c>
       <c r="C53" t="n">
-        <v>10495.86805690074</v>
+        <v>11760.87743100335</v>
       </c>
       <c r="D53" t="n">
-        <v>9310.637129431921</v>
+        <v>11314.03783219235</v>
       </c>
       <c r="E53" t="n">
-        <v>11374.08780202729</v>
+        <v>12961.26749565044</v>
       </c>
       <c r="F53" t="n">
-        <v>10495.86805690074</v>
+        <v>11760.87743100335</v>
       </c>
       <c r="G53" t="n">
-        <v>10495.86805690074</v>
+        <v>11760.87743100335</v>
       </c>
       <c r="H53" t="n">
-        <v>-131.0178033465386</v>
+        <v>378.2061631393706</v>
       </c>
       <c r="I53" t="n">
-        <v>-131.0178033465386</v>
+        <v>378.2061631393706</v>
       </c>
       <c r="J53" t="n">
-        <v>-131.0178033465386</v>
+        <v>378.2061631393706</v>
       </c>
       <c r="K53" t="n">
-        <v>-131.0178033465386</v>
+        <v>378.2061631393706</v>
       </c>
       <c r="L53" t="n">
-        <v>-131.0178033465386</v>
+        <v>378.2061631393706</v>
       </c>
       <c r="M53" t="n">
-        <v>-131.0178033465386</v>
+        <v>378.2061631393706</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>10364.8502535542</v>
+        <v>12139.08359414272</v>
       </c>
     </row>
     <row r="54">
@@ -3280,40 +3280,40 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>43952</v>
+        <v>44317</v>
       </c>
       <c r="C54" t="n">
-        <v>10563.97222328408</v>
+        <v>11740.98762560126</v>
       </c>
       <c r="D54" t="n">
-        <v>9211.823747913908</v>
+        <v>11002.23895067611</v>
       </c>
       <c r="E54" t="n">
-        <v>11303.52264115528</v>
+        <v>12778.52308737418</v>
       </c>
       <c r="F54" t="n">
-        <v>10563.97222328408</v>
+        <v>11740.98762560126</v>
       </c>
       <c r="G54" t="n">
-        <v>10563.97222328408</v>
+        <v>11740.98762560126</v>
       </c>
       <c r="H54" t="n">
-        <v>-251.0207661834844</v>
+        <v>145.4900992619138</v>
       </c>
       <c r="I54" t="n">
-        <v>-251.0207661834844</v>
+        <v>145.4900992619138</v>
       </c>
       <c r="J54" t="n">
-        <v>-251.0207661834844</v>
+        <v>145.4900992619138</v>
       </c>
       <c r="K54" t="n">
-        <v>-251.0207661834844</v>
+        <v>145.4900992619138</v>
       </c>
       <c r="L54" t="n">
-        <v>-251.0207661834844</v>
+        <v>145.4900992619138</v>
       </c>
       <c r="M54" t="n">
-        <v>-251.0207661834844</v>
+        <v>145.4900992619138</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>10312.9514571006</v>
+        <v>11886.47772486317</v>
       </c>
     </row>
     <row r="55">
@@ -3333,40 +3333,40 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>43983</v>
+        <v>44348</v>
       </c>
       <c r="C55" t="n">
-        <v>10634.34652854687</v>
+        <v>11720.43482668578</v>
       </c>
       <c r="D55" t="n">
-        <v>9739.031955196991</v>
+        <v>10977.31473986556</v>
       </c>
       <c r="E55" t="n">
-        <v>11808.86905233677</v>
+        <v>12671.66839039638</v>
       </c>
       <c r="F55" t="n">
-        <v>10634.34652854687</v>
+        <v>11720.43482668578</v>
       </c>
       <c r="G55" t="n">
-        <v>10634.34652854687</v>
+        <v>11720.43482668578</v>
       </c>
       <c r="H55" t="n">
-        <v>157.5706923300479</v>
+        <v>102.4666798672545</v>
       </c>
       <c r="I55" t="n">
-        <v>157.5706923300479</v>
+        <v>102.4666798672545</v>
       </c>
       <c r="J55" t="n">
-        <v>157.5706923300479</v>
+        <v>102.4666798672545</v>
       </c>
       <c r="K55" t="n">
-        <v>157.5706923300479</v>
+        <v>102.4666798672545</v>
       </c>
       <c r="L55" t="n">
-        <v>157.5706923300479</v>
+        <v>102.4666798672545</v>
       </c>
       <c r="M55" t="n">
-        <v>157.5706923300479</v>
+        <v>102.4666798672545</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>10791.91722087692</v>
+        <v>11822.90150655303</v>
       </c>
     </row>
     <row r="56">
@@ -3386,40 +3386,40 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>44013</v>
+        <v>44378</v>
       </c>
       <c r="C56" t="n">
-        <v>10702.45069493021</v>
+        <v>11700.54502128369</v>
       </c>
       <c r="D56" t="n">
-        <v>8973.284071857301</v>
+        <v>10724.8018051179</v>
       </c>
       <c r="E56" t="n">
-        <v>11131.48968183637</v>
+        <v>12396.28662645265</v>
       </c>
       <c r="F56" t="n">
-        <v>10702.45069493021</v>
+        <v>11700.54502128369</v>
       </c>
       <c r="G56" t="n">
-        <v>10702.45069493021</v>
+        <v>11700.54502128369</v>
       </c>
       <c r="H56" t="n">
-        <v>-635.341616251465</v>
+        <v>-108.0172913950022</v>
       </c>
       <c r="I56" t="n">
-        <v>-635.341616251465</v>
+        <v>-108.0172913950022</v>
       </c>
       <c r="J56" t="n">
-        <v>-635.341616251465</v>
+        <v>-108.0172913950022</v>
       </c>
       <c r="K56" t="n">
-        <v>-635.341616251465</v>
+        <v>-108.0172913950022</v>
       </c>
       <c r="L56" t="n">
-        <v>-635.341616251465</v>
+        <v>-108.0172913950022</v>
       </c>
       <c r="M56" t="n">
-        <v>-635.341616251465</v>
+        <v>-108.0172913950022</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>10067.10907867875</v>
+        <v>11592.52772988869</v>
       </c>
     </row>
     <row r="57">
@@ -3439,40 +3439,40 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>44044</v>
+        <v>44409</v>
       </c>
       <c r="C57" t="n">
-        <v>10772.825000193</v>
+        <v>11679.9922223682</v>
       </c>
       <c r="D57" t="n">
-        <v>9867.709487245898</v>
+        <v>10871.84625784752</v>
       </c>
       <c r="E57" t="n">
-        <v>11908.8829137468</v>
+        <v>12571.71148284914</v>
       </c>
       <c r="F57" t="n">
-        <v>10772.825000193</v>
+        <v>11679.9922223682</v>
       </c>
       <c r="G57" t="n">
-        <v>10772.825000193</v>
+        <v>11679.9922223682</v>
       </c>
       <c r="H57" t="n">
-        <v>154.1796854542866</v>
+        <v>46.27241350216764</v>
       </c>
       <c r="I57" t="n">
-        <v>154.1796854542866</v>
+        <v>46.27241350216764</v>
       </c>
       <c r="J57" t="n">
-        <v>154.1796854542866</v>
+        <v>46.27241350216764</v>
       </c>
       <c r="K57" t="n">
-        <v>154.1796854542866</v>
+        <v>46.27241350216764</v>
       </c>
       <c r="L57" t="n">
-        <v>154.1796854542866</v>
+        <v>46.27241350216764</v>
       </c>
       <c r="M57" t="n">
-        <v>154.1796854542866</v>
+        <v>46.27241350216764</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>10927.00468564729</v>
+        <v>11726.26463587037</v>
       </c>
     </row>
     <row r="58">
@@ -3492,40 +3492,40 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>44075</v>
+        <v>44440</v>
       </c>
       <c r="C58" t="n">
-        <v>10843.19930545578</v>
+        <v>11659.43942345272</v>
       </c>
       <c r="D58" t="n">
-        <v>10121.89388131684</v>
+        <v>10914.95738132455</v>
       </c>
       <c r="E58" t="n">
-        <v>12156.65397211108</v>
+        <v>12631.93627267352</v>
       </c>
       <c r="F58" t="n">
-        <v>10843.19930545578</v>
+        <v>11659.43942345272</v>
       </c>
       <c r="G58" t="n">
-        <v>10843.19930545578</v>
+        <v>11659.43942345272</v>
       </c>
       <c r="H58" t="n">
-        <v>297.2604551303697</v>
+        <v>193.8504124139902</v>
       </c>
       <c r="I58" t="n">
-        <v>297.2604551303697</v>
+        <v>193.8504124139902</v>
       </c>
       <c r="J58" t="n">
-        <v>297.2604551303697</v>
+        <v>193.8504124139902</v>
       </c>
       <c r="K58" t="n">
-        <v>297.2604551303697</v>
+        <v>193.8504124139902</v>
       </c>
       <c r="L58" t="n">
-        <v>297.2604551303697</v>
+        <v>193.8504124139902</v>
       </c>
       <c r="M58" t="n">
-        <v>297.2604551303697</v>
+        <v>193.8504124139902</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>11140.45976058615</v>
+        <v>11853.28983586671</v>
       </c>
     </row>
     <row r="59">
@@ -3545,40 +3545,40 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>44105</v>
+        <v>44470</v>
       </c>
       <c r="C59" t="n">
-        <v>10911.30347183913</v>
+        <v>11639.54961805063</v>
       </c>
       <c r="D59" t="n">
-        <v>9762.248875505902</v>
+        <v>11083.04450070731</v>
       </c>
       <c r="E59" t="n">
-        <v>11729.27155363054</v>
+        <v>12831.37861409722</v>
       </c>
       <c r="F59" t="n">
-        <v>10911.30347183913</v>
+        <v>11639.54961805063</v>
       </c>
       <c r="G59" t="n">
-        <v>10911.30347183913</v>
+        <v>11639.54961805063</v>
       </c>
       <c r="H59" t="n">
-        <v>-161.6361769020339</v>
+        <v>352.7854238428039</v>
       </c>
       <c r="I59" t="n">
-        <v>-161.6361769020339</v>
+        <v>352.7854238428039</v>
       </c>
       <c r="J59" t="n">
-        <v>-161.6361769020339</v>
+        <v>352.7854238428039</v>
       </c>
       <c r="K59" t="n">
-        <v>-161.6361769020339</v>
+        <v>352.7854238428039</v>
       </c>
       <c r="L59" t="n">
-        <v>-161.6361769020339</v>
+        <v>352.7854238428039</v>
       </c>
       <c r="M59" t="n">
-        <v>-161.6361769020339</v>
+        <v>352.7854238428039</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>10749.66729493709</v>
+        <v>11992.33504189344</v>
       </c>
     </row>
     <row r="60">
@@ -3598,40 +3598,40 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44136</v>
+        <v>44501</v>
       </c>
       <c r="C60" t="n">
-        <v>10981.67777710191</v>
+        <v>11618.99681913515</v>
       </c>
       <c r="D60" t="n">
-        <v>9618.985956614264</v>
+        <v>10171.15775799808</v>
       </c>
       <c r="E60" t="n">
-        <v>11661.28980199974</v>
+        <v>11919.03855298533</v>
       </c>
       <c r="F60" t="n">
-        <v>10981.67777710191</v>
+        <v>11618.99681913515</v>
       </c>
       <c r="G60" t="n">
-        <v>10981.67777710191</v>
+        <v>11618.99681913515</v>
       </c>
       <c r="H60" t="n">
-        <v>-332.0324722445932</v>
+        <v>-573.6309595556935</v>
       </c>
       <c r="I60" t="n">
-        <v>-332.0324722445932</v>
+        <v>-573.6309595556935</v>
       </c>
       <c r="J60" t="n">
-        <v>-332.0324722445932</v>
+        <v>-573.6309595556935</v>
       </c>
       <c r="K60" t="n">
-        <v>-332.0324722445932</v>
+        <v>-573.6309595556935</v>
       </c>
       <c r="L60" t="n">
-        <v>-332.0324722445932</v>
+        <v>-573.6309595556935</v>
       </c>
       <c r="M60" t="n">
-        <v>-332.0324722445932</v>
+        <v>-573.6309595556935</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>10649.64530485732</v>
+        <v>11045.36585957945</v>
       </c>
     </row>
     <row r="61">
@@ -3651,40 +3651,40 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44166</v>
+        <v>44531</v>
       </c>
       <c r="C61" t="n">
-        <v>11049.78194348525</v>
+        <v>11599.10701373306</v>
       </c>
       <c r="D61" t="n">
-        <v>9207.61838454976</v>
+        <v>9787.862388646256</v>
       </c>
       <c r="E61" t="n">
-        <v>11334.33918819781</v>
+        <v>11473.64320083493</v>
       </c>
       <c r="F61" t="n">
-        <v>11049.78194348525</v>
+        <v>11599.10701373306</v>
       </c>
       <c r="G61" t="n">
-        <v>11049.78194348525</v>
+        <v>11599.10701373306</v>
       </c>
       <c r="H61" t="n">
-        <v>-811.1192736790099</v>
+        <v>-980.5417225161125</v>
       </c>
       <c r="I61" t="n">
-        <v>-811.1192736790099</v>
+        <v>-980.5417225161125</v>
       </c>
       <c r="J61" t="n">
-        <v>-811.1192736790099</v>
+        <v>-980.5417225161125</v>
       </c>
       <c r="K61" t="n">
-        <v>-811.1192736790099</v>
+        <v>-980.5417225161125</v>
       </c>
       <c r="L61" t="n">
-        <v>-811.1192736790099</v>
+        <v>-980.5417225161125</v>
       </c>
       <c r="M61" t="n">
-        <v>-811.1192736790099</v>
+        <v>-980.5417225161125</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>10238.66266980624</v>
+        <v>10618.56529121695</v>
       </c>
     </row>
     <row r="62">
@@ -3704,40 +3704,40 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="C62" t="n">
-        <v>11120.15624874804</v>
+        <v>11578.55421481758</v>
       </c>
       <c r="D62" t="n">
-        <v>9854.798304868254</v>
+        <v>11168.94069116231</v>
       </c>
       <c r="E62" t="n">
-        <v>11913.08257337026</v>
+        <v>12778.61070671512</v>
       </c>
       <c r="F62" t="n">
-        <v>11120.15624874804</v>
+        <v>11578.55421481758</v>
       </c>
       <c r="G62" t="n">
-        <v>11120.15624874804</v>
+        <v>11578.55421481758</v>
       </c>
       <c r="H62" t="n">
-        <v>-201.3124638539207</v>
+        <v>417.3895804842774</v>
       </c>
       <c r="I62" t="n">
-        <v>-201.3124638539207</v>
+        <v>417.3895804842774</v>
       </c>
       <c r="J62" t="n">
-        <v>-201.3124638539207</v>
+        <v>417.3895804842774</v>
       </c>
       <c r="K62" t="n">
-        <v>-201.3124638539207</v>
+        <v>417.3895804842774</v>
       </c>
       <c r="L62" t="n">
-        <v>-201.3124638539207</v>
+        <v>417.3895804842774</v>
       </c>
       <c r="M62" t="n">
-        <v>-201.3124638539207</v>
+        <v>417.3895804842774</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>10918.84378489412</v>
+        <v>11995.94379530186</v>
       </c>
     </row>
     <row r="63">
@@ -3757,40 +3757,40 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44228</v>
+        <v>44593</v>
       </c>
       <c r="C63" t="n">
-        <v>11190.53055401083</v>
+        <v>11558.00141590209</v>
       </c>
       <c r="D63" t="n">
-        <v>9009.819388307811</v>
+        <v>10005.4362420753</v>
       </c>
       <c r="E63" t="n">
-        <v>11045.6843759531</v>
+        <v>11665.54125873444</v>
       </c>
       <c r="F63" t="n">
-        <v>11190.53055401083</v>
+        <v>11558.00141590209</v>
       </c>
       <c r="G63" t="n">
-        <v>11190.53055401083</v>
+        <v>11558.00141590209</v>
       </c>
       <c r="H63" t="n">
-        <v>-1150.922021547934</v>
+        <v>-757.6453534942368</v>
       </c>
       <c r="I63" t="n">
-        <v>-1150.922021547934</v>
+        <v>-757.6453534942368</v>
       </c>
       <c r="J63" t="n">
-        <v>-1150.922021547934</v>
+        <v>-757.6453534942368</v>
       </c>
       <c r="K63" t="n">
-        <v>-1150.922021547934</v>
+        <v>-757.6453534942368</v>
       </c>
       <c r="L63" t="n">
-        <v>-1150.922021547934</v>
+        <v>-757.6453534942368</v>
       </c>
       <c r="M63" t="n">
-        <v>-1150.922021547934</v>
+        <v>-757.6453534942368</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>10039.60853246289</v>
+        <v>10800.35606240785</v>
       </c>
     </row>
     <row r="64">
@@ -3810,40 +3810,40 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>44256</v>
+        <v>44621</v>
       </c>
       <c r="C64" t="n">
-        <v>11254.09444263528</v>
+        <v>11539.43759752681</v>
       </c>
       <c r="D64" t="n">
-        <v>10394.74036365417</v>
+        <v>10598.85106292918</v>
       </c>
       <c r="E64" t="n">
-        <v>12233.46325870985</v>
+        <v>12369.51143049512</v>
       </c>
       <c r="F64" t="n">
-        <v>11254.09444263528</v>
+        <v>11539.43759752681</v>
       </c>
       <c r="G64" t="n">
-        <v>11254.09444263528</v>
+        <v>11539.43759752681</v>
       </c>
       <c r="H64" t="n">
-        <v>26.12738670687854</v>
+        <v>-67.49263082829107</v>
       </c>
       <c r="I64" t="n">
-        <v>26.12738670687854</v>
+        <v>-67.49263082829107</v>
       </c>
       <c r="J64" t="n">
-        <v>26.12738670687854</v>
+        <v>-67.49263082829107</v>
       </c>
       <c r="K64" t="n">
-        <v>26.12738670687854</v>
+        <v>-67.49263082829107</v>
       </c>
       <c r="L64" t="n">
-        <v>26.12738670687854</v>
+        <v>-67.49263082829107</v>
       </c>
       <c r="M64" t="n">
-        <v>26.12738670687854</v>
+        <v>-67.49263082829107</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>11280.22182934216</v>
+        <v>11471.94496669852</v>
       </c>
     </row>
     <row r="65">
@@ -3863,40 +3863,40 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44287</v>
+        <v>44652</v>
       </c>
       <c r="C65" t="n">
-        <v>11324.46874789807</v>
+        <v>11518.88479861133</v>
       </c>
       <c r="D65" t="n">
-        <v>10134.04844002885</v>
+        <v>10939.29263528609</v>
       </c>
       <c r="E65" t="n">
-        <v>12215.09999495654</v>
+        <v>12651.47615109029</v>
       </c>
       <c r="F65" t="n">
-        <v>11324.46874789807</v>
+        <v>11518.88479861133</v>
       </c>
       <c r="G65" t="n">
-        <v>11324.46874789807</v>
+        <v>11518.88479861133</v>
       </c>
       <c r="H65" t="n">
-        <v>-167.7227893985493</v>
+        <v>246.7022353193453</v>
       </c>
       <c r="I65" t="n">
-        <v>-167.7227893985493</v>
+        <v>246.7022353193453</v>
       </c>
       <c r="J65" t="n">
-        <v>-167.7227893985493</v>
+        <v>246.7022353193453</v>
       </c>
       <c r="K65" t="n">
-        <v>-167.7227893985493</v>
+        <v>246.7022353193453</v>
       </c>
       <c r="L65" t="n">
-        <v>-167.7227893985493</v>
+        <v>246.7022353193453</v>
       </c>
       <c r="M65" t="n">
-        <v>-167.7227893985493</v>
+        <v>246.7022353193453</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>11156.74595849952</v>
+        <v>11765.58703393067</v>
       </c>
     </row>
     <row r="66">
@@ -3916,40 +3916,40 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>44317</v>
+        <v>44682</v>
       </c>
       <c r="C66" t="n">
-        <v>11392.57291428141</v>
+        <v>11498.99499320924</v>
       </c>
       <c r="D66" t="n">
-        <v>10370.428058774</v>
+        <v>11301.28001753324</v>
       </c>
       <c r="E66" t="n">
-        <v>12454.34780778527</v>
+        <v>12954.32833797883</v>
       </c>
       <c r="F66" t="n">
-        <v>11392.57291428141</v>
+        <v>11498.99499320924</v>
       </c>
       <c r="G66" t="n">
-        <v>11392.57291428141</v>
+        <v>11498.99499320924</v>
       </c>
       <c r="H66" t="n">
-        <v>59.21756728741735</v>
+        <v>613.0102017507572</v>
       </c>
       <c r="I66" t="n">
-        <v>59.21756728741735</v>
+        <v>613.0102017507572</v>
       </c>
       <c r="J66" t="n">
-        <v>59.21756728741735</v>
+        <v>613.0102017507572</v>
       </c>
       <c r="K66" t="n">
-        <v>59.21756728741735</v>
+        <v>613.0102017507572</v>
       </c>
       <c r="L66" t="n">
-        <v>59.21756728741735</v>
+        <v>613.0102017507572</v>
       </c>
       <c r="M66" t="n">
-        <v>59.21756728741735</v>
+        <v>613.0102017507572</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>11451.79048156883</v>
+        <v>12112.00519496</v>
       </c>
     </row>
     <row r="67">
@@ -3969,40 +3969,40 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>44348</v>
+        <v>44713</v>
       </c>
       <c r="C67" t="n">
-        <v>11462.94721954419</v>
+        <v>11478.44219429376</v>
       </c>
       <c r="D67" t="n">
-        <v>10519.20180613306</v>
+        <v>10583.00745354964</v>
       </c>
       <c r="E67" t="n">
-        <v>12501.8825844889</v>
+        <v>12315.21828907009</v>
       </c>
       <c r="F67" t="n">
-        <v>11462.94721954419</v>
+        <v>11476.86791919895</v>
       </c>
       <c r="G67" t="n">
-        <v>11462.94721954419</v>
+        <v>11480.44822058562</v>
       </c>
       <c r="H67" t="n">
-        <v>23.22513575628849</v>
+        <v>-3.214714438709106</v>
       </c>
       <c r="I67" t="n">
-        <v>23.22513575628849</v>
+        <v>-3.214714438709106</v>
       </c>
       <c r="J67" t="n">
-        <v>23.22513575628849</v>
+        <v>-3.214714438709106</v>
       </c>
       <c r="K67" t="n">
-        <v>23.22513575628849</v>
+        <v>-3.214714438709106</v>
       </c>
       <c r="L67" t="n">
-        <v>23.22513575628849</v>
+        <v>-3.214714438709106</v>
       </c>
       <c r="M67" t="n">
-        <v>23.22513575628849</v>
+        <v>-3.214714438709106</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>11486.17235530048</v>
+        <v>11475.22747985505</v>
       </c>
     </row>
     <row r="68">
@@ -4022,40 +4022,40 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>44378</v>
+        <v>44743</v>
       </c>
       <c r="C68" t="n">
-        <v>11531.05138592753</v>
+        <v>11458.55238889167</v>
       </c>
       <c r="D68" t="n">
-        <v>10046.29219271167</v>
+        <v>10465.51089821854</v>
       </c>
       <c r="E68" t="n">
-        <v>12089.47255631935</v>
+        <v>12231.72138339858</v>
       </c>
       <c r="F68" t="n">
-        <v>11531.05138592753</v>
+        <v>11447.26663496565</v>
       </c>
       <c r="G68" t="n">
-        <v>11531.05138592753</v>
+        <v>11470.15765412135</v>
       </c>
       <c r="H68" t="n">
-        <v>-434.7434436064627</v>
+        <v>-103.5548651943473</v>
       </c>
       <c r="I68" t="n">
-        <v>-434.7434436064627</v>
+        <v>-103.5548651943473</v>
       </c>
       <c r="J68" t="n">
-        <v>-434.7434436064627</v>
+        <v>-103.5548651943473</v>
       </c>
       <c r="K68" t="n">
-        <v>-434.7434436064627</v>
+        <v>-103.5548651943473</v>
       </c>
       <c r="L68" t="n">
-        <v>-434.7434436064627</v>
+        <v>-103.5548651943473</v>
       </c>
       <c r="M68" t="n">
-        <v>-434.7434436064627</v>
+        <v>-103.5548651943473</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>11096.30794232107</v>
+        <v>11354.99752369732</v>
       </c>
     </row>
     <row r="69">
@@ -4075,40 +4075,40 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>44409</v>
+        <v>44774</v>
       </c>
       <c r="C69" t="n">
-        <v>11601.42569119032</v>
+        <v>11437.99958997619</v>
       </c>
       <c r="D69" t="n">
-        <v>10608.11008628426</v>
+        <v>10635.51046661693</v>
       </c>
       <c r="E69" t="n">
-        <v>12602.27418778125</v>
+        <v>12339.58567663318</v>
       </c>
       <c r="F69" t="n">
-        <v>11601.42569119032</v>
+        <v>11413.34799600097</v>
       </c>
       <c r="G69" t="n">
-        <v>11601.42569119032</v>
+        <v>11464.40889495533</v>
       </c>
       <c r="H69" t="n">
-        <v>81.02807106554775</v>
+        <v>60.1448952574795</v>
       </c>
       <c r="I69" t="n">
-        <v>81.02807106554775</v>
+        <v>60.1448952574795</v>
       </c>
       <c r="J69" t="n">
-        <v>81.02807106554775</v>
+        <v>60.1448952574795</v>
       </c>
       <c r="K69" t="n">
-        <v>81.02807106554775</v>
+        <v>60.1448952574795</v>
       </c>
       <c r="L69" t="n">
-        <v>81.02807106554775</v>
+        <v>60.1448952574795</v>
       </c>
       <c r="M69" t="n">
-        <v>81.02807106554775</v>
+        <v>60.1448952574795</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>11682.45376225587</v>
+        <v>11498.14448523366</v>
       </c>
     </row>
     <row r="70">
@@ -4128,40 +4128,40 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="C70" t="n">
-        <v>11671.79999645311</v>
+        <v>11417.4467910607</v>
       </c>
       <c r="D70" t="n">
-        <v>10708.83408514511</v>
+        <v>10558.41442154312</v>
       </c>
       <c r="E70" t="n">
-        <v>12758.13486707737</v>
+        <v>12180.14118735351</v>
       </c>
       <c r="F70" t="n">
-        <v>11671.79999645311</v>
+        <v>11377.42688165945</v>
       </c>
       <c r="G70" t="n">
-        <v>11671.79999645311</v>
+        <v>11459.7055050977</v>
       </c>
       <c r="H70" t="n">
-        <v>63.30751352647911</v>
+        <v>-64.28762326333927</v>
       </c>
       <c r="I70" t="n">
-        <v>63.30751352647911</v>
+        <v>-64.28762326333927</v>
       </c>
       <c r="J70" t="n">
-        <v>63.30751352647911</v>
+        <v>-64.28762326333927</v>
       </c>
       <c r="K70" t="n">
-        <v>63.30751352647911</v>
+        <v>-64.28762326333927</v>
       </c>
       <c r="L70" t="n">
-        <v>63.30751352647911</v>
+        <v>-64.28762326333927</v>
       </c>
       <c r="M70" t="n">
-        <v>63.30751352647911</v>
+        <v>-64.28762326333927</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>11735.10750997959</v>
+        <v>11353.15916779736</v>
       </c>
     </row>
     <row r="71">
@@ -4181,40 +4181,40 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>44470</v>
+        <v>44835</v>
       </c>
       <c r="C71" t="n">
-        <v>11739.90416283645</v>
+        <v>11397.55698565862</v>
       </c>
       <c r="D71" t="n">
-        <v>10922.08551134402</v>
+        <v>11132.7404711839</v>
       </c>
       <c r="E71" t="n">
-        <v>12915.2471876699</v>
+        <v>12825.21234844534</v>
       </c>
       <c r="F71" t="n">
-        <v>11739.90416283645</v>
+        <v>11340.2220572593</v>
       </c>
       <c r="G71" t="n">
-        <v>11739.90416283645</v>
+        <v>11461.53019889104</v>
       </c>
       <c r="H71" t="n">
-        <v>146.5214056124413</v>
+        <v>594.661764879836</v>
       </c>
       <c r="I71" t="n">
-        <v>146.5214056124413</v>
+        <v>594.661764879836</v>
       </c>
       <c r="J71" t="n">
-        <v>146.5214056124413</v>
+        <v>594.661764879836</v>
       </c>
       <c r="K71" t="n">
-        <v>146.5214056124413</v>
+        <v>594.661764879836</v>
       </c>
       <c r="L71" t="n">
-        <v>146.5214056124413</v>
+        <v>594.661764879836</v>
       </c>
       <c r="M71" t="n">
-        <v>146.5214056124413</v>
+        <v>594.661764879836</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>11886.42556844889</v>
+        <v>11992.21875053845</v>
       </c>
     </row>
     <row r="72">
@@ -4234,40 +4234,40 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>44501</v>
+        <v>44866</v>
       </c>
       <c r="C72" t="n">
-        <v>11810.27846809924</v>
+        <v>11377.00418674313</v>
       </c>
       <c r="D72" t="n">
-        <v>10159.76135034798</v>
+        <v>9847.816775115285</v>
       </c>
       <c r="E72" t="n">
-        <v>12225.9476265578</v>
+        <v>11574.17306443127</v>
       </c>
       <c r="F72" t="n">
-        <v>11810.27846809924</v>
+        <v>11296.23960006115</v>
       </c>
       <c r="G72" t="n">
-        <v>11810.27846809924</v>
+        <v>11458.91235793446</v>
       </c>
       <c r="H72" t="n">
-        <v>-540.0391267021533</v>
+        <v>-660.8538184158309</v>
       </c>
       <c r="I72" t="n">
-        <v>-540.0391267021533</v>
+        <v>-660.8538184158309</v>
       </c>
       <c r="J72" t="n">
-        <v>-540.0391267021533</v>
+        <v>-660.8538184158309</v>
       </c>
       <c r="K72" t="n">
-        <v>-540.0391267021533</v>
+        <v>-660.8538184158309</v>
       </c>
       <c r="L72" t="n">
-        <v>-540.0391267021533</v>
+        <v>-660.8538184158309</v>
       </c>
       <c r="M72" t="n">
-        <v>-540.0391267021533</v>
+        <v>-660.8538184158309</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>11270.23934139708</v>
+        <v>10716.1503683273</v>
       </c>
     </row>
     <row r="73">
@@ -4287,40 +4287,40 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="C73" t="n">
-        <v>11878.38263448258</v>
+        <v>11357.11438134104</v>
       </c>
       <c r="D73" t="n">
-        <v>9848.814057444419</v>
+        <v>9300.406477591163</v>
       </c>
       <c r="E73" t="n">
-        <v>11965.67110571529</v>
+        <v>11145.55441207936</v>
       </c>
       <c r="F73" t="n">
-        <v>11878.38263448258</v>
+        <v>11255.91852680227</v>
       </c>
       <c r="G73" t="n">
-        <v>11878.38263448258</v>
+        <v>11463.66491713244</v>
       </c>
       <c r="H73" t="n">
-        <v>-1023.137177532211</v>
+        <v>-1163.937278606674</v>
       </c>
       <c r="I73" t="n">
-        <v>-1023.137177532211</v>
+        <v>-1163.937278606674</v>
       </c>
       <c r="J73" t="n">
-        <v>-1023.137177532211</v>
+        <v>-1163.937278606674</v>
       </c>
       <c r="K73" t="n">
-        <v>-1023.137177532211</v>
+        <v>-1163.937278606674</v>
       </c>
       <c r="L73" t="n">
-        <v>-1023.137177532211</v>
+        <v>-1163.937278606674</v>
       </c>
       <c r="M73" t="n">
-        <v>-1023.137177532211</v>
+        <v>-1163.937278606674</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>10855.24545695037</v>
+        <v>10193.17710273437</v>
       </c>
     </row>
     <row r="74">
@@ -4340,40 +4340,40 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>44562</v>
+        <v>44927</v>
       </c>
       <c r="C74" t="n">
-        <v>11948.75693974537</v>
+        <v>11336.56158242556</v>
       </c>
       <c r="D74" t="n">
-        <v>11131.60291966296</v>
+        <v>11380.51301605152</v>
       </c>
       <c r="E74" t="n">
-        <v>13229.81019264621</v>
+        <v>13037.6955446216</v>
       </c>
       <c r="F74" t="n">
-        <v>11948.75693974537</v>
+        <v>11209.32474639394</v>
       </c>
       <c r="G74" t="n">
-        <v>11948.75693974537</v>
+        <v>11467.07538303882</v>
       </c>
       <c r="H74" t="n">
-        <v>161.8911541319661</v>
+        <v>881.5828668376403</v>
       </c>
       <c r="I74" t="n">
-        <v>161.8911541319661</v>
+        <v>881.5828668376403</v>
       </c>
       <c r="J74" t="n">
-        <v>161.8911541319661</v>
+        <v>881.5828668376403</v>
       </c>
       <c r="K74" t="n">
-        <v>161.8911541319661</v>
+        <v>881.5828668376403</v>
       </c>
       <c r="L74" t="n">
-        <v>161.8911541319661</v>
+        <v>881.5828668376403</v>
       </c>
       <c r="M74" t="n">
-        <v>161.8911541319661</v>
+        <v>881.5828668376403</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>12110.64809387733</v>
+        <v>12218.1444492632</v>
       </c>
     </row>
     <row r="75">
@@ -4393,40 +4393,40 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>44593</v>
+        <v>44958</v>
       </c>
       <c r="C75" t="n">
-        <v>12019.13124500815</v>
+        <v>11316.00878351007</v>
       </c>
       <c r="D75" t="n">
-        <v>10240.69936829785</v>
+        <v>9670.6085205171</v>
       </c>
       <c r="E75" t="n">
-        <v>12248.17358863967</v>
+        <v>11467.92566965837</v>
       </c>
       <c r="F75" t="n">
-        <v>12019.13124500815</v>
+        <v>11162.64661580624</v>
       </c>
       <c r="G75" t="n">
-        <v>12019.13124500815</v>
+        <v>11473.77732434555</v>
       </c>
       <c r="H75" t="n">
-        <v>-810.6483101625633</v>
+        <v>-767.6667460757699</v>
       </c>
       <c r="I75" t="n">
-        <v>-810.6483101625633</v>
+        <v>-767.6667460757699</v>
       </c>
       <c r="J75" t="n">
-        <v>-810.6483101625633</v>
+        <v>-767.6667460757699</v>
       </c>
       <c r="K75" t="n">
-        <v>-810.6483101625633</v>
+        <v>-767.6667460757699</v>
       </c>
       <c r="L75" t="n">
-        <v>-810.6483101625633</v>
+        <v>-767.6667460757699</v>
       </c>
       <c r="M75" t="n">
-        <v>-810.6483101625633</v>
+        <v>-767.6667460757699</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>11208.48293484559</v>
+        <v>10548.3420374343</v>
       </c>
     </row>
     <row r="76">
@@ -4446,40 +4446,40 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>44621</v>
+        <v>44986</v>
       </c>
       <c r="C76" t="n">
-        <v>12082.6951336326</v>
+        <v>11297.44496513479</v>
       </c>
       <c r="D76" t="n">
-        <v>10525.44229328722</v>
+        <v>10009.19488889821</v>
       </c>
       <c r="E76" t="n">
-        <v>12568.9630708434</v>
+        <v>11751.24527382362</v>
       </c>
       <c r="F76" t="n">
-        <v>12082.6951336326</v>
+        <v>11121.29380310337</v>
       </c>
       <c r="G76" t="n">
-        <v>12082.6951336326</v>
+        <v>11480.23878213811</v>
       </c>
       <c r="H76" t="n">
-        <v>-561.3411665740733</v>
+        <v>-422.9437993968564</v>
       </c>
       <c r="I76" t="n">
-        <v>-561.3411665740733</v>
+        <v>-422.9437993968564</v>
       </c>
       <c r="J76" t="n">
-        <v>-561.3411665740733</v>
+        <v>-422.9437993968564</v>
       </c>
       <c r="K76" t="n">
-        <v>-561.3411665740733</v>
+        <v>-422.9437993968564</v>
       </c>
       <c r="L76" t="n">
-        <v>-561.3411665740733</v>
+        <v>-422.9437993968564</v>
       </c>
       <c r="M76" t="n">
-        <v>-561.3411665740733</v>
+        <v>-422.9437993968564</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>11521.35396705853</v>
+        <v>10874.50116573794</v>
       </c>
     </row>
     <row r="77">
@@ -4499,40 +4499,40 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>44652</v>
+        <v>45017</v>
       </c>
       <c r="C77" t="n">
-        <v>12153.06943889539</v>
+        <v>11276.89216621931</v>
       </c>
       <c r="D77" t="n">
-        <v>10921.19724044618</v>
+        <v>10461.08307460819</v>
       </c>
       <c r="E77" t="n">
-        <v>12902.66218110982</v>
+        <v>12277.43653541629</v>
       </c>
       <c r="F77" t="n">
-        <v>12153.06943889539</v>
+        <v>11078.6057913606</v>
       </c>
       <c r="G77" t="n">
-        <v>12153.06943889539</v>
+        <v>11490.65511480062</v>
       </c>
       <c r="H77" t="n">
-        <v>-193.4636514382046</v>
+        <v>126.3918136009148</v>
       </c>
       <c r="I77" t="n">
-        <v>-193.4636514382046</v>
+        <v>126.3918136009148</v>
       </c>
       <c r="J77" t="n">
-        <v>-193.4636514382046</v>
+        <v>126.3918136009148</v>
       </c>
       <c r="K77" t="n">
-        <v>-193.4636514382046</v>
+        <v>126.3918136009148</v>
       </c>
       <c r="L77" t="n">
-        <v>-193.4636514382046</v>
+        <v>126.3918136009148</v>
       </c>
       <c r="M77" t="n">
-        <v>-193.4636514382046</v>
+        <v>126.3918136009148</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>11959.60578745719</v>
+        <v>11403.28397982022</v>
       </c>
     </row>
     <row r="78">
@@ -4552,40 +4552,40 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>44682</v>
+        <v>45047</v>
       </c>
       <c r="C78" t="n">
-        <v>12221.17360527873</v>
+        <v>11257.00236081722</v>
       </c>
       <c r="D78" t="n">
-        <v>11588.91771898985</v>
+        <v>11462.0784106094</v>
       </c>
       <c r="E78" t="n">
-        <v>13614.2622533356</v>
+        <v>13181.84789864465</v>
       </c>
       <c r="F78" t="n">
-        <v>12220.23006060058</v>
+        <v>11027.94156825225</v>
       </c>
       <c r="G78" t="n">
-        <v>12221.31303398482</v>
+        <v>11501.02603968906</v>
       </c>
       <c r="H78" t="n">
-        <v>370.8448889299762</v>
+        <v>1081.825148500281</v>
       </c>
       <c r="I78" t="n">
-        <v>370.8448889299762</v>
+        <v>1081.825148500281</v>
       </c>
       <c r="J78" t="n">
-        <v>370.8448889299762</v>
+        <v>1081.825148500281</v>
       </c>
       <c r="K78" t="n">
-        <v>370.8448889299762</v>
+        <v>1081.825148500281</v>
       </c>
       <c r="L78" t="n">
-        <v>370.8448889299762</v>
+        <v>1081.825148500281</v>
       </c>
       <c r="M78" t="n">
-        <v>370.8448889299762</v>
+        <v>1081.825148500281</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>12592.01849420871</v>
+        <v>12338.8275093175</v>
       </c>
     </row>
     <row r="79">
@@ -4605,40 +4605,40 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>44713</v>
+        <v>45078</v>
       </c>
       <c r="C79" t="n">
-        <v>12291.54791054152</v>
+        <v>11236.44956190174</v>
       </c>
       <c r="D79" t="n">
-        <v>11183.40888094518</v>
+        <v>10256.97714689642</v>
       </c>
       <c r="E79" t="n">
-        <v>13206.18093046023</v>
+        <v>12036.89566834829</v>
       </c>
       <c r="F79" t="n">
-        <v>12286.65555879765</v>
+        <v>10966.32325734859</v>
       </c>
       <c r="G79" t="n">
-        <v>12295.08645188906</v>
+        <v>11513.82586076639</v>
       </c>
       <c r="H79" t="n">
-        <v>-112.3861740187115</v>
+        <v>-114.6369277317389</v>
       </c>
       <c r="I79" t="n">
-        <v>-112.3861740187115</v>
+        <v>-114.6369277317389</v>
       </c>
       <c r="J79" t="n">
-        <v>-112.3861740187115</v>
+        <v>-114.6369277317389</v>
       </c>
       <c r="K79" t="n">
-        <v>-112.3861740187115</v>
+        <v>-114.6369277317389</v>
       </c>
       <c r="L79" t="n">
-        <v>-112.3861740187115</v>
+        <v>-114.6369277317389</v>
       </c>
       <c r="M79" t="n">
-        <v>-112.3861740187115</v>
+        <v>-114.6369277317389</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>12179.16173652281</v>
+        <v>11121.81263417</v>
       </c>
     </row>
     <row r="80">
@@ -4658,40 +4658,40 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>44743</v>
+        <v>45108</v>
       </c>
       <c r="C80" t="n">
-        <v>12359.65207692486</v>
+        <v>11216.55975649965</v>
       </c>
       <c r="D80" t="n">
-        <v>11142.83803044261</v>
+        <v>10199.29097886455</v>
       </c>
       <c r="E80" t="n">
-        <v>13164.13453431545</v>
+        <v>12005.17917155468</v>
       </c>
       <c r="F80" t="n">
-        <v>12349.30546283631</v>
+        <v>10913.96959351584</v>
       </c>
       <c r="G80" t="n">
-        <v>12368.06667852854</v>
+        <v>11527.25741111742</v>
       </c>
       <c r="H80" t="n">
-        <v>-235.3602958259787</v>
+        <v>-100.2753351185965</v>
       </c>
       <c r="I80" t="n">
-        <v>-235.3602958259787</v>
+        <v>-100.2753351185965</v>
       </c>
       <c r="J80" t="n">
-        <v>-235.3602958259787</v>
+        <v>-100.2753351185965</v>
       </c>
       <c r="K80" t="n">
-        <v>-235.3602958259787</v>
+        <v>-100.2753351185965</v>
       </c>
       <c r="L80" t="n">
-        <v>-235.3602958259787</v>
+        <v>-100.2753351185965</v>
       </c>
       <c r="M80" t="n">
-        <v>-235.3602958259787</v>
+        <v>-100.2753351185965</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>12124.29178109888</v>
+        <v>11116.28442138105</v>
       </c>
     </row>
     <row r="81">
@@ -4711,40 +4711,40 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>44774</v>
+        <v>45139</v>
       </c>
       <c r="C81" t="n">
-        <v>12430.02638218765</v>
+        <v>11196.00695758416</v>
       </c>
       <c r="D81" t="n">
-        <v>11439.56269004185</v>
+        <v>10276.92206571824</v>
       </c>
       <c r="E81" t="n">
-        <v>13393.66313352888</v>
+        <v>12213.83729249384</v>
       </c>
       <c r="F81" t="n">
-        <v>12412.40173803604</v>
+        <v>10853.00235132422</v>
       </c>
       <c r="G81" t="n">
-        <v>12444.6870273943</v>
+        <v>11538.48933594556</v>
       </c>
       <c r="H81" t="n">
-        <v>2.535060996088392</v>
+        <v>70.82598256508963</v>
       </c>
       <c r="I81" t="n">
-        <v>2.535060996088392</v>
+        <v>70.82598256508963</v>
       </c>
       <c r="J81" t="n">
-        <v>2.535060996088392</v>
+        <v>70.82598256508963</v>
       </c>
       <c r="K81" t="n">
-        <v>2.535060996088392</v>
+        <v>70.82598256508963</v>
       </c>
       <c r="L81" t="n">
-        <v>2.535060996088392</v>
+        <v>70.82598256508963</v>
       </c>
       <c r="M81" t="n">
-        <v>2.535060996088392</v>
+        <v>70.82598256508963</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>12432.56144318373</v>
+        <v>11266.83294014925</v>
       </c>
     </row>
     <row r="82">
@@ -4764,40 +4764,40 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>44805</v>
+        <v>45170</v>
       </c>
       <c r="C82" t="n">
-        <v>12500.40068745043</v>
+        <v>11175.45415866868</v>
       </c>
       <c r="D82" t="n">
-        <v>11335.10910730815</v>
+        <v>9928.304733661073</v>
       </c>
       <c r="E82" t="n">
-        <v>13297.76006052046</v>
+        <v>11776.21097680881</v>
       </c>
       <c r="F82" t="n">
-        <v>12474.20464435097</v>
+        <v>10787.7876252944</v>
       </c>
       <c r="G82" t="n">
-        <v>12522.15061816265</v>
+        <v>11541.12936097529</v>
       </c>
       <c r="H82" t="n">
-        <v>-167.6604449072264</v>
+        <v>-319.8735042639079</v>
       </c>
       <c r="I82" t="n">
-        <v>-167.6604449072264</v>
+        <v>-319.8735042639079</v>
       </c>
       <c r="J82" t="n">
-        <v>-167.6604449072264</v>
+        <v>-319.8735042639079</v>
       </c>
       <c r="K82" t="n">
-        <v>-167.6604449072264</v>
+        <v>-319.8735042639079</v>
       </c>
       <c r="L82" t="n">
-        <v>-167.6604449072264</v>
+        <v>-319.8735042639079</v>
       </c>
       <c r="M82" t="n">
-        <v>-167.6604449072264</v>
+        <v>-319.8735042639079</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>12332.74024254321</v>
+        <v>10855.58065440477</v>
       </c>
     </row>
     <row r="83">
@@ -4817,40 +4817,40 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>44835</v>
+        <v>45200</v>
       </c>
       <c r="C83" t="n">
-        <v>12568.50485383377</v>
+        <v>11155.56435326659</v>
       </c>
       <c r="D83" t="n">
-        <v>11993.43649567789</v>
+        <v>10999.73818098012</v>
       </c>
       <c r="E83" t="n">
-        <v>14038.59780461459</v>
+        <v>12953.2646969402</v>
       </c>
       <c r="F83" t="n">
-        <v>12533.77045677684</v>
+        <v>10728.13222198343</v>
       </c>
       <c r="G83" t="n">
-        <v>12599.38582533662</v>
+        <v>11563.2135243873</v>
       </c>
       <c r="H83" t="n">
-        <v>454.348660464126</v>
+        <v>838.3036021495883</v>
       </c>
       <c r="I83" t="n">
-        <v>454.348660464126</v>
+        <v>838.3036021495883</v>
       </c>
       <c r="J83" t="n">
-        <v>454.348660464126</v>
+        <v>838.3036021495883</v>
       </c>
       <c r="K83" t="n">
-        <v>454.348660464126</v>
+        <v>838.3036021495883</v>
       </c>
       <c r="L83" t="n">
-        <v>454.348660464126</v>
+        <v>838.3036021495883</v>
       </c>
       <c r="M83" t="n">
-        <v>454.348660464126</v>
+        <v>838.3036021495883</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -4862,590 +4862,7 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>13022.8535142979</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" s="2" t="n">
-        <v>44866</v>
-      </c>
-      <c r="C84" t="n">
-        <v>12638.87915909656</v>
-      </c>
-      <c r="D84" t="n">
-        <v>10866.67287904748</v>
-      </c>
-      <c r="E84" t="n">
-        <v>12919.64777572746</v>
-      </c>
-      <c r="F84" t="n">
-        <v>12595.17495054073</v>
-      </c>
-      <c r="G84" t="n">
-        <v>12677.16705026322</v>
-      </c>
-      <c r="H84" t="n">
-        <v>-752.2027190719862</v>
-      </c>
-      <c r="I84" t="n">
-        <v>-752.2027190719862</v>
-      </c>
-      <c r="J84" t="n">
-        <v>-752.2027190719862</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-752.2027190719862</v>
-      </c>
-      <c r="L84" t="n">
-        <v>-752.2027190719862</v>
-      </c>
-      <c r="M84" t="n">
-        <v>-752.2027190719862</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>11886.67644002458</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" s="2" t="n">
-        <v>44896</v>
-      </c>
-      <c r="C85" t="n">
-        <v>12706.9833254799</v>
-      </c>
-      <c r="D85" t="n">
-        <v>10475.31183200682</v>
-      </c>
-      <c r="E85" t="n">
-        <v>12494.87607186165</v>
-      </c>
-      <c r="F85" t="n">
-        <v>12654.89253648913</v>
-      </c>
-      <c r="G85" t="n">
-        <v>12754.20254430085</v>
-      </c>
-      <c r="H85" t="n">
-        <v>-1226.582986267778</v>
-      </c>
-      <c r="I85" t="n">
-        <v>-1226.582986267778</v>
-      </c>
-      <c r="J85" t="n">
-        <v>-1226.582986267778</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-1226.582986267778</v>
-      </c>
-      <c r="L85" t="n">
-        <v>-1226.582986267778</v>
-      </c>
-      <c r="M85" t="n">
-        <v>-1226.582986267778</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>11480.40033921212</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" s="2" t="n">
-        <v>44927</v>
-      </c>
-      <c r="C86" t="n">
-        <v>12777.35763074269</v>
-      </c>
-      <c r="D86" t="n">
-        <v>12328.91483841534</v>
-      </c>
-      <c r="E86" t="n">
-        <v>14337.70849958432</v>
-      </c>
-      <c r="F86" t="n">
-        <v>12714.56254657248</v>
-      </c>
-      <c r="G86" t="n">
-        <v>12834.88756215941</v>
-      </c>
-      <c r="H86" t="n">
-        <v>530.6703421305062</v>
-      </c>
-      <c r="I86" t="n">
-        <v>530.6703421305062</v>
-      </c>
-      <c r="J86" t="n">
-        <v>530.6703421305062</v>
-      </c>
-      <c r="K86" t="n">
-        <v>530.6703421305062</v>
-      </c>
-      <c r="L86" t="n">
-        <v>530.6703421305062</v>
-      </c>
-      <c r="M86" t="n">
-        <v>530.6703421305062</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0</v>
-      </c>
-      <c r="P86" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>13308.02797287319</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" s="2" t="n">
-        <v>44958</v>
-      </c>
-      <c r="C87" t="n">
-        <v>12847.73193600548</v>
-      </c>
-      <c r="D87" t="n">
-        <v>11364.17658693646</v>
-      </c>
-      <c r="E87" t="n">
-        <v>13369.31952627441</v>
-      </c>
-      <c r="F87" t="n">
-        <v>12776.17471369792</v>
-      </c>
-      <c r="G87" t="n">
-        <v>12917.47868786038</v>
-      </c>
-      <c r="H87" t="n">
-        <v>-481.057237443874</v>
-      </c>
-      <c r="I87" t="n">
-        <v>-481.057237443874</v>
-      </c>
-      <c r="J87" t="n">
-        <v>-481.057237443874</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-481.057237443874</v>
-      </c>
-      <c r="L87" t="n">
-        <v>-481.057237443874</v>
-      </c>
-      <c r="M87" t="n">
-        <v>-481.057237443874</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>12366.6746985616</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" s="2" t="n">
-        <v>44986</v>
-      </c>
-      <c r="C88" t="n">
-        <v>12911.29582462993</v>
-      </c>
-      <c r="D88" t="n">
-        <v>10822.89678026021</v>
-      </c>
-      <c r="E88" t="n">
-        <v>12742.56629338404</v>
-      </c>
-      <c r="F88" t="n">
-        <v>12828.41818658188</v>
-      </c>
-      <c r="G88" t="n">
-        <v>12992.50240421632</v>
-      </c>
-      <c r="H88" t="n">
-        <v>-1151.563100738007</v>
-      </c>
-      <c r="I88" t="n">
-        <v>-1151.563100738007</v>
-      </c>
-      <c r="J88" t="n">
-        <v>-1151.563100738007</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-1151.563100738007</v>
-      </c>
-      <c r="L88" t="n">
-        <v>-1151.563100738007</v>
-      </c>
-      <c r="M88" t="n">
-        <v>-1151.563100738007</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>11759.73272389192</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="C89" t="n">
-        <v>12981.67012989271</v>
-      </c>
-      <c r="D89" t="n">
-        <v>11779.24660634083</v>
-      </c>
-      <c r="E89" t="n">
-        <v>13825.20900130576</v>
-      </c>
-      <c r="F89" t="n">
-        <v>12885.55637318105</v>
-      </c>
-      <c r="G89" t="n">
-        <v>13075.07520579904</v>
-      </c>
-      <c r="H89" t="n">
-        <v>-208.1141720787707</v>
-      </c>
-      <c r="I89" t="n">
-        <v>-208.1141720787707</v>
-      </c>
-      <c r="J89" t="n">
-        <v>-208.1141720787707</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-208.1141720787707</v>
-      </c>
-      <c r="L89" t="n">
-        <v>-208.1141720787707</v>
-      </c>
-      <c r="M89" t="n">
-        <v>-208.1141720787707</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0</v>
-      </c>
-      <c r="P89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>12773.55595781394</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="C90" t="n">
-        <v>13049.77429627606</v>
-      </c>
-      <c r="D90" t="n">
-        <v>12740.12766589614</v>
-      </c>
-      <c r="E90" t="n">
-        <v>14767.17032977271</v>
-      </c>
-      <c r="F90" t="n">
-        <v>12944.34846549348</v>
-      </c>
-      <c r="G90" t="n">
-        <v>13154.44832415172</v>
-      </c>
-      <c r="H90" t="n">
-        <v>683.5362896655689</v>
-      </c>
-      <c r="I90" t="n">
-        <v>683.5362896655689</v>
-      </c>
-      <c r="J90" t="n">
-        <v>683.5362896655689</v>
-      </c>
-      <c r="K90" t="n">
-        <v>683.5362896655689</v>
-      </c>
-      <c r="L90" t="n">
-        <v>683.5362896655689</v>
-      </c>
-      <c r="M90" t="n">
-        <v>683.5362896655689</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0</v>
-      </c>
-      <c r="O90" t="n">
-        <v>0</v>
-      </c>
-      <c r="P90" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>13733.31058594163</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" s="2" t="n">
-        <v>45078</v>
-      </c>
-      <c r="C91" t="n">
-        <v>13120.14860153884</v>
-      </c>
-      <c r="D91" t="n">
-        <v>11739.29239058522</v>
-      </c>
-      <c r="E91" t="n">
-        <v>13918.1994367998</v>
-      </c>
-      <c r="F91" t="n">
-        <v>13003.2608061545</v>
-      </c>
-      <c r="G91" t="n">
-        <v>13237.33955995695</v>
-      </c>
-      <c r="H91" t="n">
-        <v>-249.2542054713462</v>
-      </c>
-      <c r="I91" t="n">
-        <v>-249.2542054713462</v>
-      </c>
-      <c r="J91" t="n">
-        <v>-249.2542054713462</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-249.2542054713462</v>
-      </c>
-      <c r="L91" t="n">
-        <v>-249.2542054713462</v>
-      </c>
-      <c r="M91" t="n">
-        <v>-249.2542054713462</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0</v>
-      </c>
-      <c r="P91" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>12870.8943960675</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" s="2" t="n">
-        <v>45108</v>
-      </c>
-      <c r="C92" t="n">
-        <v>13188.25276792218</v>
-      </c>
-      <c r="D92" t="n">
-        <v>12114.87819769794</v>
-      </c>
-      <c r="E92" t="n">
-        <v>14133.94110069191</v>
-      </c>
-      <c r="F92" t="n">
-        <v>13057.16620452692</v>
-      </c>
-      <c r="G92" t="n">
-        <v>13319.78837613361</v>
-      </c>
-      <c r="H92" t="n">
-        <v>-37.37464238098636</v>
-      </c>
-      <c r="I92" t="n">
-        <v>-37.37464238098636</v>
-      </c>
-      <c r="J92" t="n">
-        <v>-37.37464238098636</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-37.37464238098636</v>
-      </c>
-      <c r="L92" t="n">
-        <v>-37.37464238098636</v>
-      </c>
-      <c r="M92" t="n">
-        <v>-37.37464238098636</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0</v>
-      </c>
-      <c r="P92" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>13150.8781255412</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" s="2" t="n">
-        <v>45139</v>
-      </c>
-      <c r="C93" t="n">
-        <v>13258.62707318497</v>
-      </c>
-      <c r="D93" t="n">
-        <v>12188.64757725839</v>
-      </c>
-      <c r="E93" t="n">
-        <v>14268.94243142842</v>
-      </c>
-      <c r="F93" t="n">
-        <v>13114.21658324743</v>
-      </c>
-      <c r="G93" t="n">
-        <v>13404.5629700489</v>
-      </c>
-      <c r="H93" t="n">
-        <v>-81.20370777462983</v>
-      </c>
-      <c r="I93" t="n">
-        <v>-81.20370777462983</v>
-      </c>
-      <c r="J93" t="n">
-        <v>-81.20370777462983</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-81.20370777462983</v>
-      </c>
-      <c r="L93" t="n">
-        <v>-81.20370777462983</v>
-      </c>
-      <c r="M93" t="n">
-        <v>-81.20370777462983</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0</v>
-      </c>
-      <c r="P93" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>13177.42336541034</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" s="2" t="n">
-        <v>45170</v>
-      </c>
-      <c r="C94" t="n">
-        <v>13329.00137844776</v>
-      </c>
-      <c r="D94" t="n">
-        <v>11978.37913158096</v>
-      </c>
-      <c r="E94" t="n">
-        <v>14031.41292836607</v>
-      </c>
-      <c r="F94" t="n">
-        <v>13171.79317829578</v>
-      </c>
-      <c r="G94" t="n">
-        <v>13489.67827726233</v>
-      </c>
-      <c r="H94" t="n">
-        <v>-395.4271940286777</v>
-      </c>
-      <c r="I94" t="n">
-        <v>-395.4271940286777</v>
-      </c>
-      <c r="J94" t="n">
-        <v>-395.4271940286777</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-395.4271940286777</v>
-      </c>
-      <c r="L94" t="n">
-        <v>-395.4271940286777</v>
-      </c>
-      <c r="M94" t="n">
-        <v>-395.4271940286777</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0</v>
-      </c>
-      <c r="P94" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>12933.57418441908</v>
+        <v>11993.86795541618</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/cb_retention_monthly.xlsx
+++ b/outputs/cb_retention_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,37 +527,37 @@
         <v>42736</v>
       </c>
       <c r="C2" t="n">
-        <v>3339.828349914878</v>
+        <v>6753.985116731125</v>
       </c>
       <c r="D2" t="n">
-        <v>2508.469095358979</v>
+        <v>5086.255290860799</v>
       </c>
       <c r="E2" t="n">
-        <v>4137.438823414063</v>
+        <v>8683.087599501991</v>
       </c>
       <c r="F2" t="n">
-        <v>3339.828349914878</v>
+        <v>6753.985116731125</v>
       </c>
       <c r="G2" t="n">
-        <v>3339.828349914878</v>
+        <v>6753.985116731125</v>
       </c>
       <c r="H2" t="n">
-        <v>-46.40253717429881</v>
+        <v>-2.065412870122692</v>
       </c>
       <c r="I2" t="n">
-        <v>-46.40253717429881</v>
+        <v>-2.065412870122692</v>
       </c>
       <c r="J2" t="n">
-        <v>-46.40253717429881</v>
+        <v>-2.065412870122692</v>
       </c>
       <c r="K2" t="n">
-        <v>-46.40253717429881</v>
+        <v>-2.065412870122692</v>
       </c>
       <c r="L2" t="n">
-        <v>-46.40253717429881</v>
+        <v>-2.065412870122692</v>
       </c>
       <c r="M2" t="n">
-        <v>-46.40253717429881</v>
+        <v>-2.065412870122692</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3293.42581274058</v>
+        <v>6751.919703861003</v>
       </c>
     </row>
     <row r="3">
@@ -580,37 +580,37 @@
         <v>42767</v>
       </c>
       <c r="C3" t="n">
-        <v>3566.217521715294</v>
+        <v>7198.496888781088</v>
       </c>
       <c r="D3" t="n">
-        <v>1951.18248635311</v>
+        <v>4031.443209690432</v>
       </c>
       <c r="E3" t="n">
-        <v>3662.894059907403</v>
+        <v>7410.86694858855</v>
       </c>
       <c r="F3" t="n">
-        <v>3566.217521715294</v>
+        <v>7198.496888781088</v>
       </c>
       <c r="G3" t="n">
-        <v>3566.217521715294</v>
+        <v>7198.496888781088</v>
       </c>
       <c r="H3" t="n">
-        <v>-757.8464016428666</v>
+        <v>-1391.208996606197</v>
       </c>
       <c r="I3" t="n">
-        <v>-757.8464016428666</v>
+        <v>-1391.208996606197</v>
       </c>
       <c r="J3" t="n">
-        <v>-757.8464016428666</v>
+        <v>-1391.208996606197</v>
       </c>
       <c r="K3" t="n">
-        <v>-757.8464016428666</v>
+        <v>-1391.208996606197</v>
       </c>
       <c r="L3" t="n">
-        <v>-757.8464016428666</v>
+        <v>-1391.208996606197</v>
       </c>
       <c r="M3" t="n">
-        <v>-757.8464016428666</v>
+        <v>-1391.208996606197</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>2808.371120072427</v>
+        <v>5807.287892174892</v>
       </c>
     </row>
     <row r="4">
@@ -633,37 +633,37 @@
         <v>42795</v>
       </c>
       <c r="C4" t="n">
-        <v>3770.698063986636</v>
+        <v>7599.991392568152</v>
       </c>
       <c r="D4" t="n">
-        <v>3270.113025535236</v>
+        <v>6605.34155045888</v>
       </c>
       <c r="E4" t="n">
-        <v>4908.909287903045</v>
+        <v>10004.32843666229</v>
       </c>
       <c r="F4" t="n">
-        <v>3770.698063986636</v>
+        <v>7599.991392568152</v>
       </c>
       <c r="G4" t="n">
-        <v>3770.698063986636</v>
+        <v>7599.991392568152</v>
       </c>
       <c r="H4" t="n">
-        <v>288.1846144635223</v>
+        <v>758.0808305190881</v>
       </c>
       <c r="I4" t="n">
-        <v>288.1846144635223</v>
+        <v>758.0808305190881</v>
       </c>
       <c r="J4" t="n">
-        <v>288.1846144635223</v>
+        <v>758.0808305190881</v>
       </c>
       <c r="K4" t="n">
-        <v>288.1846144635223</v>
+        <v>758.0808305190881</v>
       </c>
       <c r="L4" t="n">
-        <v>288.1846144635223</v>
+        <v>758.0808305190881</v>
       </c>
       <c r="M4" t="n">
-        <v>288.1846144635223</v>
+        <v>758.0808305190881</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4058.882678450158</v>
+        <v>8358.07222308724</v>
       </c>
     </row>
     <row r="5">
@@ -686,37 +686,37 @@
         <v>42826</v>
       </c>
       <c r="C5" t="n">
-        <v>3997.087235926103</v>
+        <v>8044.503164992747</v>
       </c>
       <c r="D5" t="n">
-        <v>3472.046940085086</v>
+        <v>7471.134452037006</v>
       </c>
       <c r="E5" t="n">
-        <v>5196.66030287912</v>
+        <v>10643.46950656231</v>
       </c>
       <c r="F5" t="n">
-        <v>3997.087235926103</v>
+        <v>8044.503164992747</v>
       </c>
       <c r="G5" t="n">
-        <v>3997.087235926103</v>
+        <v>8044.503164992747</v>
       </c>
       <c r="H5" t="n">
-        <v>378.2061631396339</v>
+        <v>961.2564565663785</v>
       </c>
       <c r="I5" t="n">
-        <v>378.2061631396339</v>
+        <v>961.2564565663785</v>
       </c>
       <c r="J5" t="n">
-        <v>378.2061631396339</v>
+        <v>961.2564565663785</v>
       </c>
       <c r="K5" t="n">
-        <v>378.2061631396339</v>
+        <v>961.2564565663785</v>
       </c>
       <c r="L5" t="n">
-        <v>378.2061631396339</v>
+        <v>961.2564565663785</v>
       </c>
       <c r="M5" t="n">
-        <v>378.2061631396339</v>
+        <v>961.2564565663785</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>4375.293399065738</v>
+        <v>9005.759621559126</v>
       </c>
     </row>
     <row r="6">
@@ -739,37 +739,37 @@
         <v>42856</v>
       </c>
       <c r="C6" t="n">
-        <v>4216.173531351395</v>
+        <v>8474.67584798429</v>
       </c>
       <c r="D6" t="n">
-        <v>3543.111056007303</v>
+        <v>7216.468269758369</v>
       </c>
       <c r="E6" t="n">
-        <v>5238.242149985836</v>
+        <v>10454.29682574002</v>
       </c>
       <c r="F6" t="n">
-        <v>4216.173531351395</v>
+        <v>8474.67584798429</v>
       </c>
       <c r="G6" t="n">
-        <v>4216.173531351395</v>
+        <v>8474.67584798429</v>
       </c>
       <c r="H6" t="n">
-        <v>145.4900992598909</v>
+        <v>386.8156494871748</v>
       </c>
       <c r="I6" t="n">
-        <v>145.4900992598909</v>
+        <v>386.8156494871748</v>
       </c>
       <c r="J6" t="n">
-        <v>145.4900992598909</v>
+        <v>386.8156494871748</v>
       </c>
       <c r="K6" t="n">
-        <v>145.4900992598909</v>
+        <v>386.8156494871748</v>
       </c>
       <c r="L6" t="n">
-        <v>145.4900992598909</v>
+        <v>386.8156494871748</v>
       </c>
       <c r="M6" t="n">
-        <v>145.4900992598909</v>
+        <v>386.8156494871748</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>4361.663630611285</v>
+        <v>8861.491497471465</v>
       </c>
     </row>
     <row r="7">
@@ -792,37 +792,37 @@
         <v>42887</v>
       </c>
       <c r="C7" t="n">
-        <v>4442.562703200626</v>
+        <v>8919.187621028848</v>
       </c>
       <c r="D7" t="n">
-        <v>3735.561608818725</v>
+        <v>6637.627678555885</v>
       </c>
       <c r="E7" t="n">
-        <v>5415.461709044958</v>
+        <v>10118.51525088685</v>
       </c>
       <c r="F7" t="n">
-        <v>4442.562703200626</v>
+        <v>8919.187621028848</v>
       </c>
       <c r="G7" t="n">
-        <v>4442.562703200626</v>
+        <v>8919.187621028848</v>
       </c>
       <c r="H7" t="n">
-        <v>102.4666798701185</v>
+        <v>-448.0059329230309</v>
       </c>
       <c r="I7" t="n">
-        <v>102.4666798701185</v>
+        <v>-448.0059329230309</v>
       </c>
       <c r="J7" t="n">
-        <v>102.4666798701185</v>
+        <v>-448.0059329230309</v>
       </c>
       <c r="K7" t="n">
-        <v>102.4666798701185</v>
+        <v>-448.0059329230309</v>
       </c>
       <c r="L7" t="n">
-        <v>102.4666798701185</v>
+        <v>-448.0059329230309</v>
       </c>
       <c r="M7" t="n">
-        <v>102.4666798701185</v>
+        <v>-448.0059329230309</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>4545.029383070744</v>
+        <v>8471.181688105817</v>
       </c>
     </row>
     <row r="8">
@@ -845,37 +845,37 @@
         <v>42917</v>
       </c>
       <c r="C8" t="n">
-        <v>4661.648998538592</v>
+        <v>9349.360304620359</v>
       </c>
       <c r="D8" t="n">
-        <v>3731.413149294108</v>
+        <v>7198.084586900145</v>
       </c>
       <c r="E8" t="n">
-        <v>5376.535620321572</v>
+        <v>10733.40029284487</v>
       </c>
       <c r="F8" t="n">
-        <v>4661.648998538592</v>
+        <v>9349.360304620359</v>
       </c>
       <c r="G8" t="n">
-        <v>4661.648998538592</v>
+        <v>9349.360304620359</v>
       </c>
       <c r="H8" t="n">
-        <v>-108.0172913962511</v>
+        <v>-301.6924089076023</v>
       </c>
       <c r="I8" t="n">
-        <v>-108.0172913962511</v>
+        <v>-301.6924089076023</v>
       </c>
       <c r="J8" t="n">
-        <v>-108.0172913962511</v>
+        <v>-301.6924089076023</v>
       </c>
       <c r="K8" t="n">
-        <v>-108.0172913962511</v>
+        <v>-301.6924089076023</v>
       </c>
       <c r="L8" t="n">
-        <v>-108.0172913962511</v>
+        <v>-301.6924089076023</v>
       </c>
       <c r="M8" t="n">
-        <v>-108.0172913962511</v>
+        <v>-301.6924089076023</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>4553.63170714234</v>
+        <v>9047.667895712757</v>
       </c>
     </row>
     <row r="9">
@@ -898,37 +898,37 @@
         <v>42948</v>
       </c>
       <c r="C9" t="n">
-        <v>4888.038170301641</v>
+        <v>9793.872077388694</v>
       </c>
       <c r="D9" t="n">
-        <v>4085.762917319038</v>
+        <v>8093.736757995677</v>
       </c>
       <c r="E9" t="n">
-        <v>5799.258741035511</v>
+        <v>11469.87527952062</v>
       </c>
       <c r="F9" t="n">
-        <v>4888.038170301641</v>
+        <v>9793.872077388694</v>
       </c>
       <c r="G9" t="n">
-        <v>4888.038170301641</v>
+        <v>9793.872077388694</v>
       </c>
       <c r="H9" t="n">
-        <v>46.27241350191102</v>
+        <v>60.15814294172256</v>
       </c>
       <c r="I9" t="n">
-        <v>46.27241350191102</v>
+        <v>60.15814294172256</v>
       </c>
       <c r="J9" t="n">
-        <v>46.27241350191102</v>
+        <v>60.15814294172256</v>
       </c>
       <c r="K9" t="n">
-        <v>46.27241350191102</v>
+        <v>60.15814294172256</v>
       </c>
       <c r="L9" t="n">
-        <v>46.27241350191102</v>
+        <v>60.15814294172256</v>
       </c>
       <c r="M9" t="n">
-        <v>46.27241350191102</v>
+        <v>60.15814294172256</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>4934.310583803552</v>
+        <v>9854.030220330416</v>
       </c>
     </row>
     <row r="10">
@@ -951,37 +951,37 @@
         <v>42979</v>
       </c>
       <c r="C10" t="n">
-        <v>5114.427342064692</v>
+        <v>10238.38385015703</v>
       </c>
       <c r="D10" t="n">
-        <v>4424.566776901851</v>
+        <v>9003.902265612522</v>
       </c>
       <c r="E10" t="n">
-        <v>6176.458913105021</v>
+        <v>12303.07223683377</v>
       </c>
       <c r="F10" t="n">
-        <v>5114.427342064692</v>
+        <v>10238.38385015703</v>
       </c>
       <c r="G10" t="n">
-        <v>5114.427342064692</v>
+        <v>10238.38385015703</v>
       </c>
       <c r="H10" t="n">
-        <v>193.8504124169175</v>
+        <v>408.2881584131234</v>
       </c>
       <c r="I10" t="n">
-        <v>193.8504124169175</v>
+        <v>408.2881584131234</v>
       </c>
       <c r="J10" t="n">
-        <v>193.8504124169175</v>
+        <v>408.2881584131234</v>
       </c>
       <c r="K10" t="n">
-        <v>193.8504124169175</v>
+        <v>408.2881584131234</v>
       </c>
       <c r="L10" t="n">
-        <v>193.8504124169175</v>
+        <v>408.2881584131234</v>
       </c>
       <c r="M10" t="n">
-        <v>193.8504124169175</v>
+        <v>408.2881584131234</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>5308.27775448161</v>
+        <v>10646.67200857015</v>
       </c>
     </row>
     <row r="11">
@@ -1004,37 +1004,37 @@
         <v>43009</v>
       </c>
       <c r="C11" t="n">
-        <v>5333.513637226505</v>
+        <v>10668.5565328389</v>
       </c>
       <c r="D11" t="n">
-        <v>4844.797103329382</v>
+        <v>9750.002621314525</v>
       </c>
       <c r="E11" t="n">
-        <v>6493.118666180067</v>
+        <v>12965.01675856703</v>
       </c>
       <c r="F11" t="n">
-        <v>5333.513637226505</v>
+        <v>10668.5565328389</v>
       </c>
       <c r="G11" t="n">
-        <v>5333.513637226505</v>
+        <v>10668.5565328389</v>
       </c>
       <c r="H11" t="n">
-        <v>352.7854238447568</v>
+        <v>769.2373626717365</v>
       </c>
       <c r="I11" t="n">
-        <v>352.7854238447568</v>
+        <v>769.2373626717365</v>
       </c>
       <c r="J11" t="n">
-        <v>352.7854238447568</v>
+        <v>769.2373626717365</v>
       </c>
       <c r="K11" t="n">
-        <v>352.7854238447568</v>
+        <v>769.2373626717365</v>
       </c>
       <c r="L11" t="n">
-        <v>352.7854238447568</v>
+        <v>769.2373626717365</v>
       </c>
       <c r="M11" t="n">
-        <v>352.7854238447568</v>
+        <v>769.2373626717365</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>5686.299061071262</v>
+        <v>11437.79389551064</v>
       </c>
     </row>
     <row r="12">
@@ -1057,37 +1057,37 @@
         <v>43040</v>
       </c>
       <c r="C12" t="n">
-        <v>5559.902808893712</v>
+        <v>11113.0683049435</v>
       </c>
       <c r="D12" t="n">
-        <v>4155.321208240822</v>
+        <v>8423.273322586376</v>
       </c>
       <c r="E12" t="n">
-        <v>5838.044911234974</v>
+        <v>11620.58744666684</v>
       </c>
       <c r="F12" t="n">
-        <v>5559.902808893712</v>
+        <v>11113.0683049435</v>
       </c>
       <c r="G12" t="n">
-        <v>5559.902808893712</v>
+        <v>11113.0683049435</v>
       </c>
       <c r="H12" t="n">
-        <v>-573.6309595559575</v>
+        <v>-1044.616878621316</v>
       </c>
       <c r="I12" t="n">
-        <v>-573.6309595559575</v>
+        <v>-1044.616878621316</v>
       </c>
       <c r="J12" t="n">
-        <v>-573.6309595559575</v>
+        <v>-1044.616878621316</v>
       </c>
       <c r="K12" t="n">
-        <v>-573.6309595559575</v>
+        <v>-1044.616878621316</v>
       </c>
       <c r="L12" t="n">
-        <v>-573.6309595559575</v>
+        <v>-1044.616878621316</v>
       </c>
       <c r="M12" t="n">
-        <v>-573.6309595559575</v>
+        <v>-1044.616878621316</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>4986.271849337754</v>
+        <v>10068.45142632218</v>
       </c>
     </row>
     <row r="13">
@@ -1110,37 +1110,37 @@
         <v>43070</v>
       </c>
       <c r="C13" t="n">
-        <v>5778.989103995333</v>
+        <v>11543.24098718324</v>
       </c>
       <c r="D13" t="n">
-        <v>3962.630633248413</v>
+        <v>8081.966583928698</v>
       </c>
       <c r="E13" t="n">
-        <v>5644.857621620165</v>
+        <v>11389.59674794919</v>
       </c>
       <c r="F13" t="n">
-        <v>5778.989103995333</v>
+        <v>11543.24098718324</v>
       </c>
       <c r="G13" t="n">
-        <v>5778.989103995333</v>
+        <v>11543.24098718324</v>
       </c>
       <c r="H13" t="n">
-        <v>-980.5417225184294</v>
+        <v>-1826.634517320137</v>
       </c>
       <c r="I13" t="n">
-        <v>-980.5417225184294</v>
+        <v>-1826.634517320137</v>
       </c>
       <c r="J13" t="n">
-        <v>-980.5417225184294</v>
+        <v>-1826.634517320137</v>
       </c>
       <c r="K13" t="n">
-        <v>-980.5417225184294</v>
+        <v>-1826.634517320137</v>
       </c>
       <c r="L13" t="n">
-        <v>-980.5417225184294</v>
+        <v>-1826.634517320137</v>
       </c>
       <c r="M13" t="n">
-        <v>-980.5417225184294</v>
+        <v>-1826.634517320137</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>4798.447381476904</v>
+        <v>9716.6064698631</v>
       </c>
     </row>
     <row r="14">
@@ -1163,37 +1163,37 @@
         <v>43101</v>
       </c>
       <c r="C14" t="n">
-        <v>6005.37827560034</v>
+        <v>11987.75275883097</v>
       </c>
       <c r="D14" t="n">
-        <v>5600.973737078437</v>
+        <v>11189.77515866206</v>
       </c>
       <c r="E14" t="n">
-        <v>7276.351461229936</v>
+        <v>14627.11471395046</v>
       </c>
       <c r="F14" t="n">
-        <v>6005.37827560034</v>
+        <v>11987.75275883097</v>
       </c>
       <c r="G14" t="n">
-        <v>6005.37827560034</v>
+        <v>11987.75275883097</v>
       </c>
       <c r="H14" t="n">
-        <v>417.3895804849775</v>
+        <v>948.8177959605673</v>
       </c>
       <c r="I14" t="n">
-        <v>417.3895804849775</v>
+        <v>948.8177959605673</v>
       </c>
       <c r="J14" t="n">
-        <v>417.3895804849775</v>
+        <v>948.8177959605673</v>
       </c>
       <c r="K14" t="n">
-        <v>417.3895804849775</v>
+        <v>948.8177959605673</v>
       </c>
       <c r="L14" t="n">
-        <v>417.3895804849775</v>
+        <v>948.8177959605673</v>
       </c>
       <c r="M14" t="n">
-        <v>417.3895804849775</v>
+        <v>948.8177959605673</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>6422.767856085317</v>
+        <v>12936.57055479153</v>
       </c>
     </row>
     <row r="15">
@@ -1216,37 +1216,37 @@
         <v>43132</v>
       </c>
       <c r="C15" t="n">
-        <v>6231.767447195142</v>
+        <v>12432.26453063896</v>
       </c>
       <c r="D15" t="n">
-        <v>4596.601161747432</v>
+        <v>9397.139293232678</v>
       </c>
       <c r="E15" t="n">
-        <v>6267.652681444803</v>
+        <v>12782.48646716216</v>
       </c>
       <c r="F15" t="n">
-        <v>6231.767447195142</v>
+        <v>12432.26453063896</v>
       </c>
       <c r="G15" t="n">
-        <v>6231.767447195142</v>
+        <v>12432.26453063896</v>
       </c>
       <c r="H15" t="n">
-        <v>-757.6453534958052</v>
+        <v>-1369.953872896061</v>
       </c>
       <c r="I15" t="n">
-        <v>-757.6453534958052</v>
+        <v>-1369.953872896061</v>
       </c>
       <c r="J15" t="n">
-        <v>-757.6453534958052</v>
+        <v>-1369.953872896061</v>
       </c>
       <c r="K15" t="n">
-        <v>-757.6453534958052</v>
+        <v>-1369.953872896061</v>
       </c>
       <c r="L15" t="n">
-        <v>-757.6453534958052</v>
+        <v>-1369.953872896061</v>
       </c>
       <c r="M15" t="n">
-        <v>-757.6453534958052</v>
+        <v>-1369.953872896061</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>5474.122093699337</v>
+        <v>11062.3106577429</v>
       </c>
     </row>
     <row r="16">
@@ -1269,37 +1269,37 @@
         <v>43160</v>
       </c>
       <c r="C16" t="n">
-        <v>6436.24798928077</v>
+        <v>12833.75903420748</v>
       </c>
       <c r="D16" t="n">
-        <v>5512.241450383684</v>
+        <v>11233.99282520656</v>
       </c>
       <c r="E16" t="n">
-        <v>7245.253259038214</v>
+        <v>14583.12009366348</v>
       </c>
       <c r="F16" t="n">
-        <v>6436.24798928077</v>
+        <v>12833.75903420748</v>
       </c>
       <c r="G16" t="n">
-        <v>6436.24798928077</v>
+        <v>12833.75903420748</v>
       </c>
       <c r="H16" t="n">
-        <v>-67.49263083025518</v>
+        <v>33.27690208468916</v>
       </c>
       <c r="I16" t="n">
-        <v>-67.49263083025518</v>
+        <v>33.27690208468916</v>
       </c>
       <c r="J16" t="n">
-        <v>-67.49263083025518</v>
+        <v>33.27690208468916</v>
       </c>
       <c r="K16" t="n">
-        <v>-67.49263083025518</v>
+        <v>33.27690208468916</v>
       </c>
       <c r="L16" t="n">
-        <v>-67.49263083025518</v>
+        <v>33.27690208468916</v>
       </c>
       <c r="M16" t="n">
-        <v>-67.49263083025518</v>
+        <v>33.27690208468916</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>6368.755358450514</v>
+        <v>12867.03593629217</v>
       </c>
     </row>
     <row r="17">
@@ -1322,37 +1322,37 @@
         <v>43191</v>
       </c>
       <c r="C17" t="n">
-        <v>6662.637160752368</v>
+        <v>13278.27080530898</v>
       </c>
       <c r="D17" t="n">
-        <v>5995.118795133526</v>
+        <v>12211.25219686995</v>
       </c>
       <c r="E17" t="n">
-        <v>7722.19910822982</v>
+        <v>15767.24250483426</v>
       </c>
       <c r="F17" t="n">
-        <v>6662.637160752368</v>
+        <v>13278.27080530898</v>
       </c>
       <c r="G17" t="n">
-        <v>6662.637160752368</v>
+        <v>13278.27080530898</v>
       </c>
       <c r="H17" t="n">
-        <v>246.7022353201461</v>
+        <v>697.6413746184168</v>
       </c>
       <c r="I17" t="n">
-        <v>246.7022353201461</v>
+        <v>697.6413746184168</v>
       </c>
       <c r="J17" t="n">
-        <v>246.7022353201461</v>
+        <v>697.6413746184168</v>
       </c>
       <c r="K17" t="n">
-        <v>246.7022353201461</v>
+        <v>697.6413746184168</v>
       </c>
       <c r="L17" t="n">
-        <v>246.7022353201461</v>
+        <v>697.6413746184168</v>
       </c>
       <c r="M17" t="n">
-        <v>246.7022353201461</v>
+        <v>697.6413746184168</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>6909.339396072514</v>
+        <v>13975.91217992739</v>
       </c>
     </row>
     <row r="18">
@@ -1375,37 +1375,37 @@
         <v>43221</v>
       </c>
       <c r="C18" t="n">
-        <v>6881.723455724884</v>
+        <v>13708.4434870201</v>
       </c>
       <c r="D18" t="n">
-        <v>6610.099600477321</v>
+        <v>13375.44050970026</v>
       </c>
       <c r="E18" t="n">
-        <v>8388.893265309656</v>
+        <v>16855.70798019939</v>
       </c>
       <c r="F18" t="n">
-        <v>6881.723455724884</v>
+        <v>13708.4434870201</v>
       </c>
       <c r="G18" t="n">
-        <v>6881.723455724884</v>
+        <v>13708.4434870201</v>
       </c>
       <c r="H18" t="n">
-        <v>613.010201749516</v>
+        <v>1440.556461788435</v>
       </c>
       <c r="I18" t="n">
-        <v>613.010201749516</v>
+        <v>1440.556461788435</v>
       </c>
       <c r="J18" t="n">
-        <v>613.010201749516</v>
+        <v>1440.556461788435</v>
       </c>
       <c r="K18" t="n">
-        <v>613.010201749516</v>
+        <v>1440.556461788435</v>
       </c>
       <c r="L18" t="n">
-        <v>613.010201749516</v>
+        <v>1440.556461788435</v>
       </c>
       <c r="M18" t="n">
-        <v>613.010201749516</v>
+        <v>1440.556461788435</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>7494.7336574744</v>
+        <v>15148.99994880854</v>
       </c>
     </row>
     <row r="19">
@@ -1428,37 +1428,37 @@
         <v>43252</v>
       </c>
       <c r="C19" t="n">
-        <v>7108.112627182015</v>
+        <v>14152.95525809998</v>
       </c>
       <c r="D19" t="n">
-        <v>6208.754830887849</v>
+        <v>11582.70319669601</v>
       </c>
       <c r="E19" t="n">
-        <v>7998.613556274516</v>
+        <v>15010.60549099025</v>
       </c>
       <c r="F19" t="n">
-        <v>7108.112627182015</v>
+        <v>14152.95525809998</v>
       </c>
       <c r="G19" t="n">
-        <v>7108.112627182015</v>
+        <v>14152.95525809998</v>
       </c>
       <c r="H19" t="n">
-        <v>-3.214714440821625</v>
+        <v>-903.0245955988921</v>
       </c>
       <c r="I19" t="n">
-        <v>-3.214714440821625</v>
+        <v>-903.0245955988921</v>
       </c>
       <c r="J19" t="n">
-        <v>-3.214714440821625</v>
+        <v>-903.0245955988921</v>
       </c>
       <c r="K19" t="n">
-        <v>-3.214714440821625</v>
+        <v>-903.0245955988921</v>
       </c>
       <c r="L19" t="n">
-        <v>-3.214714440821625</v>
+        <v>-903.0245955988921</v>
       </c>
       <c r="M19" t="n">
-        <v>-3.214714440821625</v>
+        <v>-903.0245955988921</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>7104.897912741193</v>
+        <v>13249.93066250109</v>
       </c>
     </row>
     <row r="20">
@@ -1481,37 +1481,37 @@
         <v>43282</v>
       </c>
       <c r="C20" t="n">
-        <v>7327.198922140531</v>
+        <v>14583.12793979018</v>
       </c>
       <c r="D20" t="n">
-        <v>6398.194023302904</v>
+        <v>12782.9051390883</v>
       </c>
       <c r="E20" t="n">
-        <v>8003.463853508323</v>
+        <v>16100.11216882655</v>
       </c>
       <c r="F20" t="n">
-        <v>7327.198922140531</v>
+        <v>14583.12793979018</v>
       </c>
       <c r="G20" t="n">
-        <v>7327.198922140531</v>
+        <v>14583.12793979018</v>
       </c>
       <c r="H20" t="n">
-        <v>-103.55486519374</v>
+        <v>-191.1659119471973</v>
       </c>
       <c r="I20" t="n">
-        <v>-103.55486519374</v>
+        <v>-191.1659119471973</v>
       </c>
       <c r="J20" t="n">
-        <v>-103.55486519374</v>
+        <v>-191.1659119471973</v>
       </c>
       <c r="K20" t="n">
-        <v>-103.55486519374</v>
+        <v>-191.1659119471973</v>
       </c>
       <c r="L20" t="n">
-        <v>-103.55486519374</v>
+        <v>-191.1659119471973</v>
       </c>
       <c r="M20" t="n">
-        <v>-103.55486519374</v>
+        <v>-191.1659119471973</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>7223.644056946791</v>
+        <v>14391.96202784299</v>
       </c>
     </row>
     <row r="21">
@@ -1534,37 +1534,37 @@
         <v>43313</v>
       </c>
       <c r="C21" t="n">
-        <v>7553.588093499796</v>
+        <v>15027.6397104238</v>
       </c>
       <c r="D21" t="n">
-        <v>6771.668229374241</v>
+        <v>13507.15514653893</v>
       </c>
       <c r="E21" t="n">
-        <v>8489.762007228881</v>
+        <v>16759.31278672772</v>
       </c>
       <c r="F21" t="n">
-        <v>7553.588093499796</v>
+        <v>15027.6397104238</v>
       </c>
       <c r="G21" t="n">
-        <v>7553.588093499796</v>
+        <v>15027.6397104238</v>
       </c>
       <c r="H21" t="n">
-        <v>60.1448952586593</v>
+        <v>145.0933983553257</v>
       </c>
       <c r="I21" t="n">
-        <v>60.1448952586593</v>
+        <v>145.0933983553257</v>
       </c>
       <c r="J21" t="n">
-        <v>60.1448952586593</v>
+        <v>145.0933983553257</v>
       </c>
       <c r="K21" t="n">
-        <v>60.1448952586593</v>
+        <v>145.0933983553257</v>
       </c>
       <c r="L21" t="n">
-        <v>60.1448952586593</v>
+        <v>145.0933983553257</v>
       </c>
       <c r="M21" t="n">
-        <v>60.1448952586593</v>
+        <v>145.0933983553257</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>7613.732988758456</v>
+        <v>15172.73310877913</v>
       </c>
     </row>
     <row r="22">
@@ -1587,37 +1587,37 @@
         <v>43344</v>
       </c>
       <c r="C22" t="n">
-        <v>7779.977264859062</v>
+        <v>15472.15148105743</v>
       </c>
       <c r="D22" t="n">
-        <v>6796.478275635041</v>
+        <v>13665.23274527533</v>
       </c>
       <c r="E22" t="n">
-        <v>8541.684308822929</v>
+        <v>17101.58626426912</v>
       </c>
       <c r="F22" t="n">
-        <v>7779.977264859062</v>
+        <v>15472.15148105743</v>
       </c>
       <c r="G22" t="n">
-        <v>7779.977264859062</v>
+        <v>15472.15148105743</v>
       </c>
       <c r="H22" t="n">
-        <v>-64.28762326116426</v>
+        <v>-97.37379396574056</v>
       </c>
       <c r="I22" t="n">
-        <v>-64.28762326116426</v>
+        <v>-97.37379396574056</v>
       </c>
       <c r="J22" t="n">
-        <v>-64.28762326116426</v>
+        <v>-97.37379396574056</v>
       </c>
       <c r="K22" t="n">
-        <v>-64.28762326116426</v>
+        <v>-97.37379396574056</v>
       </c>
       <c r="L22" t="n">
-        <v>-64.28762326116426</v>
+        <v>-97.37379396574056</v>
       </c>
       <c r="M22" t="n">
-        <v>-64.28762326116426</v>
+        <v>-97.37379396574056</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>7715.689641597898</v>
+        <v>15374.77768709169</v>
       </c>
     </row>
     <row r="23">
@@ -1640,37 +1640,37 @@
         <v>43374</v>
       </c>
       <c r="C23" t="n">
-        <v>7999.063559824118</v>
+        <v>15902.32416175789</v>
       </c>
       <c r="D23" t="n">
-        <v>7797.405826238667</v>
+        <v>15424.09833819869</v>
       </c>
       <c r="E23" t="n">
-        <v>9485.911116208936</v>
+        <v>18905.76193117446</v>
       </c>
       <c r="F23" t="n">
-        <v>7999.063559824118</v>
+        <v>15902.32416175789</v>
       </c>
       <c r="G23" t="n">
-        <v>7999.063559824118</v>
+        <v>15902.32416175789</v>
       </c>
       <c r="H23" t="n">
-        <v>594.6617648818391</v>
+        <v>1236.463130932977</v>
       </c>
       <c r="I23" t="n">
-        <v>594.6617648818391</v>
+        <v>1236.463130932977</v>
       </c>
       <c r="J23" t="n">
-        <v>594.6617648818391</v>
+        <v>1236.463130932977</v>
       </c>
       <c r="K23" t="n">
-        <v>594.6617648818391</v>
+        <v>1236.463130932977</v>
       </c>
       <c r="L23" t="n">
-        <v>594.6617648818391</v>
+        <v>1236.463130932977</v>
       </c>
       <c r="M23" t="n">
-        <v>594.6617648818391</v>
+        <v>1236.463130932977</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>8593.725324705956</v>
+        <v>17138.78729269086</v>
       </c>
     </row>
     <row r="24">
@@ -1693,37 +1693,37 @@
         <v>43405</v>
       </c>
       <c r="C24" t="n">
-        <v>8225.452731288009</v>
+        <v>16346.83593181504</v>
       </c>
       <c r="D24" t="n">
-        <v>6722.887525881541</v>
+        <v>13321.46174069794</v>
       </c>
       <c r="E24" t="n">
-        <v>8367.643025560827</v>
+        <v>16739.12830512162</v>
       </c>
       <c r="F24" t="n">
-        <v>8225.452731288009</v>
+        <v>16346.83593181504</v>
       </c>
       <c r="G24" t="n">
-        <v>8225.452731288009</v>
+        <v>16346.83593181504</v>
       </c>
       <c r="H24" t="n">
-        <v>-660.8538184150398</v>
+        <v>-1248.026553646652</v>
       </c>
       <c r="I24" t="n">
-        <v>-660.8538184150398</v>
+        <v>-1248.026553646652</v>
       </c>
       <c r="J24" t="n">
-        <v>-660.8538184150398</v>
+        <v>-1248.026553646652</v>
       </c>
       <c r="K24" t="n">
-        <v>-660.8538184150398</v>
+        <v>-1248.026553646652</v>
       </c>
       <c r="L24" t="n">
-        <v>-660.8538184150398</v>
+        <v>-1248.026553646652</v>
       </c>
       <c r="M24" t="n">
-        <v>-660.8538184150398</v>
+        <v>-1248.026553646652</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>7564.598912872969</v>
+        <v>15098.80937816838</v>
       </c>
     </row>
     <row r="25">
@@ -1746,37 +1746,37 @@
         <v>43435</v>
       </c>
       <c r="C25" t="n">
-        <v>8444.539026085509</v>
+        <v>16777.00861236714</v>
       </c>
       <c r="D25" t="n">
-        <v>6440.003022899758</v>
+        <v>12898.93899528685</v>
       </c>
       <c r="E25" t="n">
-        <v>8081.339853295844</v>
+        <v>16332.30670567482</v>
       </c>
       <c r="F25" t="n">
-        <v>8444.539026085509</v>
+        <v>16777.00861236714</v>
       </c>
       <c r="G25" t="n">
-        <v>8444.539026085509</v>
+        <v>16777.00861236714</v>
       </c>
       <c r="H25" t="n">
-        <v>-1163.937278608016</v>
+        <v>-2221.51661249633</v>
       </c>
       <c r="I25" t="n">
-        <v>-1163.937278608016</v>
+        <v>-2221.51661249633</v>
       </c>
       <c r="J25" t="n">
-        <v>-1163.937278608016</v>
+        <v>-2221.51661249633</v>
       </c>
       <c r="K25" t="n">
-        <v>-1163.937278608016</v>
+        <v>-2221.51661249633</v>
       </c>
       <c r="L25" t="n">
-        <v>-1163.937278608016</v>
+        <v>-2221.51661249633</v>
       </c>
       <c r="M25" t="n">
-        <v>-1163.937278608016</v>
+        <v>-2221.51661249633</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>7280.601747477494</v>
+        <v>14555.49199987081</v>
       </c>
     </row>
     <row r="26">
@@ -1799,37 +1799,37 @@
         <v>43466</v>
       </c>
       <c r="C26" t="n">
-        <v>8670.928197376261</v>
+        <v>17221.52038227098</v>
       </c>
       <c r="D26" t="n">
-        <v>8762.715203737524</v>
+        <v>17480.82329586587</v>
       </c>
       <c r="E26" t="n">
-        <v>10387.8022994238</v>
+        <v>20635.40975501302</v>
       </c>
       <c r="F26" t="n">
-        <v>8670.928197376261</v>
+        <v>17221.52038227098</v>
       </c>
       <c r="G26" t="n">
-        <v>8670.928197376261</v>
+        <v>17221.52038227098</v>
       </c>
       <c r="H26" t="n">
-        <v>881.5828668376874</v>
+        <v>1901.457166372056</v>
       </c>
       <c r="I26" t="n">
-        <v>881.5828668376874</v>
+        <v>1901.457166372056</v>
       </c>
       <c r="J26" t="n">
-        <v>881.5828668376874</v>
+        <v>1901.457166372056</v>
       </c>
       <c r="K26" t="n">
-        <v>881.5828668376874</v>
+        <v>1901.457166372056</v>
       </c>
       <c r="L26" t="n">
-        <v>881.5828668376874</v>
+        <v>1901.457166372056</v>
       </c>
       <c r="M26" t="n">
-        <v>881.5828668376874</v>
+        <v>1901.457166372056</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9552.511064213948</v>
+        <v>19122.97754864304</v>
       </c>
     </row>
     <row r="27">
@@ -1852,37 +1852,37 @@
         <v>43497</v>
       </c>
       <c r="C27" t="n">
-        <v>8897.317368514266</v>
+        <v>17666.03215237106</v>
       </c>
       <c r="D27" t="n">
-        <v>7313.385021226671</v>
+        <v>14649.23289676317</v>
       </c>
       <c r="E27" t="n">
-        <v>8977.976397880799</v>
+        <v>17930.96384638712</v>
       </c>
       <c r="F27" t="n">
-        <v>8897.317368514266</v>
+        <v>17666.03215237106</v>
       </c>
       <c r="G27" t="n">
-        <v>8897.317368514266</v>
+        <v>17666.03215237106</v>
       </c>
       <c r="H27" t="n">
-        <v>-767.6667460766978</v>
+        <v>-1369.266196191381</v>
       </c>
       <c r="I27" t="n">
-        <v>-767.6667460766978</v>
+        <v>-1369.266196191381</v>
       </c>
       <c r="J27" t="n">
-        <v>-767.6667460766978</v>
+        <v>-1369.266196191381</v>
       </c>
       <c r="K27" t="n">
-        <v>-767.6667460766978</v>
+        <v>-1369.266196191381</v>
       </c>
       <c r="L27" t="n">
-        <v>-767.6667460766978</v>
+        <v>-1369.266196191381</v>
       </c>
       <c r="M27" t="n">
-        <v>-767.6667460766978</v>
+        <v>-1369.266196191381</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>8129.650622437569</v>
+        <v>16296.76595617968</v>
       </c>
     </row>
     <row r="28">
@@ -1905,37 +1905,37 @@
         <v>43525</v>
       </c>
       <c r="C28" t="n">
-        <v>9101.797910187302</v>
+        <v>18067.52665439692</v>
       </c>
       <c r="D28" t="n">
-        <v>7858.929076192907</v>
+        <v>15802.50584826999</v>
       </c>
       <c r="E28" t="n">
-        <v>9501.260095531103</v>
+        <v>19132.42469179761</v>
       </c>
       <c r="F28" t="n">
-        <v>9101.797910187302</v>
+        <v>18067.52665439692</v>
       </c>
       <c r="G28" t="n">
-        <v>9101.797910187302</v>
+        <v>18067.52665439692</v>
       </c>
       <c r="H28" t="n">
-        <v>-422.9437993967435</v>
+        <v>-691.2284013733963</v>
       </c>
       <c r="I28" t="n">
-        <v>-422.9437993967435</v>
+        <v>-691.2284013733963</v>
       </c>
       <c r="J28" t="n">
-        <v>-422.9437993967435</v>
+        <v>-691.2284013733963</v>
       </c>
       <c r="K28" t="n">
-        <v>-422.9437993967435</v>
+        <v>-691.2284013733963</v>
       </c>
       <c r="L28" t="n">
-        <v>-422.9437993967435</v>
+        <v>-691.2284013733963</v>
       </c>
       <c r="M28" t="n">
-        <v>-422.9437993967435</v>
+        <v>-691.2284013733963</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>8678.854110790558</v>
+        <v>17376.29825302353</v>
       </c>
     </row>
     <row r="29">
@@ -1958,37 +1958,37 @@
         <v>43556</v>
       </c>
       <c r="C29" t="n">
-        <v>9328.187081325308</v>
+        <v>18512.03842449699</v>
       </c>
       <c r="D29" t="n">
-        <v>8632.975443739155</v>
+        <v>17197.45661615576</v>
       </c>
       <c r="E29" t="n">
-        <v>10217.03079956053</v>
+        <v>20624.95255142168</v>
       </c>
       <c r="F29" t="n">
-        <v>9328.187081325308</v>
+        <v>18512.03842449699</v>
       </c>
       <c r="G29" t="n">
-        <v>9328.187081325308</v>
+        <v>18512.03842449699</v>
       </c>
       <c r="H29" t="n">
-        <v>126.3918135989758</v>
+        <v>457.1002944538656</v>
       </c>
       <c r="I29" t="n">
-        <v>126.3918135989758</v>
+        <v>457.1002944538656</v>
       </c>
       <c r="J29" t="n">
-        <v>126.3918135989758</v>
+        <v>457.1002944538656</v>
       </c>
       <c r="K29" t="n">
-        <v>126.3918135989758</v>
+        <v>457.1002944538656</v>
       </c>
       <c r="L29" t="n">
-        <v>126.3918135989758</v>
+        <v>457.1002944538656</v>
       </c>
       <c r="M29" t="n">
-        <v>126.3918135989758</v>
+        <v>457.1002944538656</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9454.578894924283</v>
+        <v>18969.13871895086</v>
       </c>
     </row>
     <row r="30">
@@ -2011,37 +2011,37 @@
         <v>43586</v>
       </c>
       <c r="C30" t="n">
-        <v>9547.273375781684</v>
+        <v>18942.21110290817</v>
       </c>
       <c r="D30" t="n">
-        <v>9708.524989107218</v>
+        <v>19820.24573291232</v>
       </c>
       <c r="E30" t="n">
-        <v>11436.72184639495</v>
+        <v>23031.35360275606</v>
       </c>
       <c r="F30" t="n">
-        <v>9547.273375781684</v>
+        <v>18942.21110290817</v>
       </c>
       <c r="G30" t="n">
-        <v>9547.273375781684</v>
+        <v>18942.21110290817</v>
       </c>
       <c r="H30" t="n">
-        <v>1081.825148502593</v>
+        <v>2493.72028974064</v>
       </c>
       <c r="I30" t="n">
-        <v>1081.825148502593</v>
+        <v>2493.72028974064</v>
       </c>
       <c r="J30" t="n">
-        <v>1081.825148502593</v>
+        <v>2493.72028974064</v>
       </c>
       <c r="K30" t="n">
-        <v>1081.825148502593</v>
+        <v>2493.72028974064</v>
       </c>
       <c r="L30" t="n">
-        <v>1081.825148502593</v>
+        <v>2493.72028974064</v>
       </c>
       <c r="M30" t="n">
-        <v>1081.825148502593</v>
+        <v>2493.72028974064</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>10629.09852428428</v>
+        <v>21435.93139264881</v>
       </c>
     </row>
     <row r="31">
@@ -2064,37 +2064,37 @@
         <v>43617</v>
       </c>
       <c r="C31" t="n">
-        <v>9773.662546719939</v>
+        <v>19386.72287059972</v>
       </c>
       <c r="D31" t="n">
-        <v>8816.289241414313</v>
+        <v>16365.36692396974</v>
       </c>
       <c r="E31" t="n">
-        <v>10489.01481501565</v>
+        <v>19611.46627442509</v>
       </c>
       <c r="F31" t="n">
-        <v>9773.662546719939</v>
+        <v>19386.72287059972</v>
       </c>
       <c r="G31" t="n">
-        <v>9773.662546719939</v>
+        <v>19386.72287059972</v>
       </c>
       <c r="H31" t="n">
-        <v>-114.6369277345073</v>
+        <v>-1369.22330364033</v>
       </c>
       <c r="I31" t="n">
-        <v>-114.6369277345073</v>
+        <v>-1369.22330364033</v>
       </c>
       <c r="J31" t="n">
-        <v>-114.6369277345073</v>
+        <v>-1369.22330364033</v>
       </c>
       <c r="K31" t="n">
-        <v>-114.6369277345073</v>
+        <v>-1369.22330364033</v>
       </c>
       <c r="L31" t="n">
-        <v>-114.6369277345073</v>
+        <v>-1369.22330364033</v>
       </c>
       <c r="M31" t="n">
-        <v>-114.6369277345073</v>
+        <v>-1369.22330364033</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>9659.025618985432</v>
+        <v>18017.49956695939</v>
       </c>
     </row>
     <row r="32">
@@ -2117,37 +2117,37 @@
         <v>43647</v>
       </c>
       <c r="C32" t="n">
-        <v>9992.748841085957</v>
+        <v>19816.87457442971</v>
       </c>
       <c r="D32" t="n">
-        <v>9011.463822189786</v>
+        <v>18145.96926442559</v>
       </c>
       <c r="E32" t="n">
-        <v>10760.55931972339</v>
+        <v>21421.21142818235</v>
       </c>
       <c r="F32" t="n">
-        <v>9992.748841085957</v>
+        <v>19816.87457442971</v>
       </c>
       <c r="G32" t="n">
-        <v>9992.748841085957</v>
+        <v>19816.87457442971</v>
       </c>
       <c r="H32" t="n">
-        <v>-100.2753351185763</v>
+        <v>-79.40280618451408</v>
       </c>
       <c r="I32" t="n">
-        <v>-100.2753351185763</v>
+        <v>-79.40280618451408</v>
       </c>
       <c r="J32" t="n">
-        <v>-100.2753351185763</v>
+        <v>-79.40280618451408</v>
       </c>
       <c r="K32" t="n">
-        <v>-100.2753351185763</v>
+        <v>-79.40280618451408</v>
       </c>
       <c r="L32" t="n">
-        <v>-100.2753351185763</v>
+        <v>-79.40280618451408</v>
       </c>
       <c r="M32" t="n">
-        <v>-100.2753351185763</v>
+        <v>-79.40280618451408</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9892.47350596738</v>
+        <v>19737.4717682452</v>
       </c>
     </row>
     <row r="33">
@@ -2170,37 +2170,37 @@
         <v>43678</v>
       </c>
       <c r="C33" t="n">
-        <v>10219.13801193084</v>
+        <v>20261.36466838737</v>
       </c>
       <c r="D33" t="n">
-        <v>9451.989017744576</v>
+        <v>18858.61295680992</v>
       </c>
       <c r="E33" t="n">
-        <v>11201.78133736256</v>
+        <v>22139.91470705319</v>
       </c>
       <c r="F33" t="n">
-        <v>10219.13801193084</v>
+        <v>20261.36466838737</v>
       </c>
       <c r="G33" t="n">
-        <v>10219.13801193084</v>
+        <v>20261.36466838737</v>
       </c>
       <c r="H33" t="n">
-        <v>70.82598256627972</v>
+        <v>223.1758589637917</v>
       </c>
       <c r="I33" t="n">
-        <v>70.82598256627972</v>
+        <v>223.1758589637917</v>
       </c>
       <c r="J33" t="n">
-        <v>70.82598256627972</v>
+        <v>223.1758589637917</v>
       </c>
       <c r="K33" t="n">
-        <v>70.82598256627972</v>
+        <v>223.1758589637917</v>
       </c>
       <c r="L33" t="n">
-        <v>70.82598256627972</v>
+        <v>223.1758589637917</v>
       </c>
       <c r="M33" t="n">
-        <v>70.82598256627972</v>
+        <v>223.1758589637917</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>10289.96399449712</v>
+        <v>20484.54052735116</v>
       </c>
     </row>
     <row r="34">
@@ -2223,37 +2223,37 @@
         <v>43709</v>
       </c>
       <c r="C34" t="n">
-        <v>10445.5271800648</v>
+        <v>20705.8547567332</v>
       </c>
       <c r="D34" t="n">
-        <v>9231.962180137651</v>
+        <v>18315.90395604099</v>
       </c>
       <c r="E34" t="n">
-        <v>10960.82080525287</v>
+        <v>21793.1154778675</v>
       </c>
       <c r="F34" t="n">
-        <v>10445.5271800648</v>
+        <v>20705.8547567332</v>
       </c>
       <c r="G34" t="n">
-        <v>10445.5271800648</v>
+        <v>20705.8547567332</v>
       </c>
       <c r="H34" t="n">
-        <v>-319.8735042644693</v>
+        <v>-599.3081961356394</v>
       </c>
       <c r="I34" t="n">
-        <v>-319.8735042644693</v>
+        <v>-599.3081961356394</v>
       </c>
       <c r="J34" t="n">
-        <v>-319.8735042644693</v>
+        <v>-599.3081961356394</v>
       </c>
       <c r="K34" t="n">
-        <v>-319.8735042644693</v>
+        <v>-599.3081961356394</v>
       </c>
       <c r="L34" t="n">
-        <v>-319.8735042644693</v>
+        <v>-599.3081961356394</v>
       </c>
       <c r="M34" t="n">
-        <v>-319.8735042644693</v>
+        <v>-599.3081961356394</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>10125.65367580033</v>
+        <v>20106.54656059756</v>
       </c>
     </row>
     <row r="35">
@@ -2276,37 +2276,37 @@
         <v>43739</v>
       </c>
       <c r="C35" t="n">
-        <v>10664.61347180734</v>
+        <v>21136.00645513239</v>
       </c>
       <c r="D35" t="n">
-        <v>10631.76435680011</v>
+        <v>21208.18699165057</v>
       </c>
       <c r="E35" t="n">
-        <v>12398.17475106668</v>
+        <v>24508.13473454364</v>
       </c>
       <c r="F35" t="n">
-        <v>10664.61347180734</v>
+        <v>21136.00645513239</v>
       </c>
       <c r="G35" t="n">
-        <v>10664.61347180734</v>
+        <v>21136.00645513239</v>
       </c>
       <c r="H35" t="n">
-        <v>838.3036021492521</v>
+        <v>1706.192897067422</v>
       </c>
       <c r="I35" t="n">
-        <v>838.3036021492521</v>
+        <v>1706.192897067422</v>
       </c>
       <c r="J35" t="n">
-        <v>838.3036021492521</v>
+        <v>1706.192897067422</v>
       </c>
       <c r="K35" t="n">
-        <v>838.3036021492521</v>
+        <v>1706.192897067422</v>
       </c>
       <c r="L35" t="n">
-        <v>838.3036021492521</v>
+        <v>1706.192897067422</v>
       </c>
       <c r="M35" t="n">
-        <v>838.3036021492521</v>
+        <v>1706.192897067422</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>11502.9170739566</v>
+        <v>22842.19935219982</v>
       </c>
     </row>
     <row r="36">
@@ -2329,37 +2329,37 @@
         <v>43770</v>
       </c>
       <c r="C36" t="n">
-        <v>10890.97767239891</v>
+        <v>21580.44232403922</v>
       </c>
       <c r="D36" t="n">
-        <v>9238.283919779386</v>
+        <v>18314.83564753358</v>
       </c>
       <c r="E36" t="n">
-        <v>10997.37494508499</v>
+        <v>21676.27049308408</v>
       </c>
       <c r="F36" t="n">
-        <v>10890.97767239891</v>
+        <v>21580.44232403922</v>
       </c>
       <c r="G36" t="n">
-        <v>10890.97767239891</v>
+        <v>21580.44232403922</v>
       </c>
       <c r="H36" t="n">
-        <v>-750.6333078423869</v>
+        <v>-1456.798636020787</v>
       </c>
       <c r="I36" t="n">
-        <v>-750.6333078423869</v>
+        <v>-1456.798636020787</v>
       </c>
       <c r="J36" t="n">
-        <v>-750.6333078423869</v>
+        <v>-1456.798636020787</v>
       </c>
       <c r="K36" t="n">
-        <v>-750.6333078423869</v>
+        <v>-1456.798636020787</v>
       </c>
       <c r="L36" t="n">
-        <v>-750.6333078423869</v>
+        <v>-1456.798636020787</v>
       </c>
       <c r="M36" t="n">
-        <v>-750.6333078423869</v>
+        <v>-1456.798636020787</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>10140.34436455653</v>
+        <v>20123.64368801843</v>
       </c>
     </row>
     <row r="37">
@@ -2382,37 +2382,37 @@
         <v>43800</v>
       </c>
       <c r="C37" t="n">
-        <v>11110.03980200366</v>
+        <v>22010.54155201356</v>
       </c>
       <c r="D37" t="n">
-        <v>8932.349232451401</v>
+        <v>17716.28310933324</v>
       </c>
       <c r="E37" t="n">
-        <v>10654.42743862578</v>
+        <v>21139.61596475176</v>
       </c>
       <c r="F37" t="n">
-        <v>11110.03980200366</v>
+        <v>22010.54155201356</v>
       </c>
       <c r="G37" t="n">
-        <v>11110.03980200366</v>
+        <v>22010.54155201356</v>
       </c>
       <c r="H37" t="n">
-        <v>-1340.319959510355</v>
+        <v>-2601.404031378449</v>
       </c>
       <c r="I37" t="n">
-        <v>-1340.319959510355</v>
+        <v>-2601.404031378449</v>
       </c>
       <c r="J37" t="n">
-        <v>-1340.319959510355</v>
+        <v>-2601.404031378449</v>
       </c>
       <c r="K37" t="n">
-        <v>-1340.319959510355</v>
+        <v>-2601.404031378449</v>
       </c>
       <c r="L37" t="n">
-        <v>-1340.319959510355</v>
+        <v>-2601.404031378449</v>
       </c>
       <c r="M37" t="n">
-        <v>-1340.319959510355</v>
+        <v>-2601.404031378449</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>9769.719842493307</v>
+        <v>19409.13752063511</v>
       </c>
     </row>
     <row r="38">
@@ -2435,37 +2435,37 @@
         <v>43831</v>
       </c>
       <c r="C38" t="n">
-        <v>11336.29941301152</v>
+        <v>22454.97491138143</v>
       </c>
       <c r="D38" t="n">
-        <v>11855.25047503722</v>
+        <v>23677.53686199693</v>
       </c>
       <c r="E38" t="n">
-        <v>13593.61200145004</v>
+        <v>26996.36509579065</v>
       </c>
       <c r="F38" t="n">
-        <v>11336.29941301152</v>
+        <v>22454.97491138143</v>
       </c>
       <c r="G38" t="n">
-        <v>11336.29941301152</v>
+        <v>22454.97491138143</v>
       </c>
       <c r="H38" t="n">
-        <v>1345.688730186218</v>
+        <v>2854.850139968656</v>
       </c>
       <c r="I38" t="n">
-        <v>1345.688730186218</v>
+        <v>2854.850139968656</v>
       </c>
       <c r="J38" t="n">
-        <v>1345.688730186218</v>
+        <v>2854.850139968656</v>
       </c>
       <c r="K38" t="n">
-        <v>1345.688730186218</v>
+        <v>2854.850139968656</v>
       </c>
       <c r="L38" t="n">
-        <v>1345.688730186218</v>
+        <v>2854.850139968656</v>
       </c>
       <c r="M38" t="n">
-        <v>1345.688730186218</v>
+        <v>2854.850139968656</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>12681.98814319774</v>
+        <v>25309.82505135008</v>
       </c>
     </row>
     <row r="39">
@@ -2488,37 +2488,37 @@
         <v>43862</v>
       </c>
       <c r="C39" t="n">
-        <v>11562.55902401939</v>
+        <v>22899.40827074929</v>
       </c>
       <c r="D39" t="n">
-        <v>9957.661579796713</v>
+        <v>19841.68863232093</v>
       </c>
       <c r="E39" t="n">
-        <v>11518.78502366891</v>
+        <v>23217.43850556238</v>
       </c>
       <c r="F39" t="n">
-        <v>11562.55902401939</v>
+        <v>22899.40827074929</v>
       </c>
       <c r="G39" t="n">
-        <v>11562.55902401939</v>
+        <v>22899.40827074929</v>
       </c>
       <c r="H39" t="n">
-        <v>-787.9465170124273</v>
+        <v>-1389.24802267148</v>
       </c>
       <c r="I39" t="n">
-        <v>-787.9465170124273</v>
+        <v>-1389.24802267148</v>
       </c>
       <c r="J39" t="n">
-        <v>-787.9465170124273</v>
+        <v>-1389.24802267148</v>
       </c>
       <c r="K39" t="n">
-        <v>-787.9465170124273</v>
+        <v>-1389.24802267148</v>
       </c>
       <c r="L39" t="n">
-        <v>-787.9465170124273</v>
+        <v>-1389.24802267148</v>
       </c>
       <c r="M39" t="n">
-        <v>-787.9465170124273</v>
+        <v>-1389.24802267148</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>10774.61250700696</v>
+        <v>21510.16024807781</v>
       </c>
     </row>
     <row r="40">
@@ -2541,37 +2541,37 @@
         <v>43891</v>
       </c>
       <c r="C40" t="n">
-        <v>11774.11680385802</v>
+        <v>23315.16681852849</v>
       </c>
       <c r="D40" t="n">
-        <v>11570.66844496783</v>
+        <v>23222.0775411281</v>
       </c>
       <c r="E40" t="n">
-        <v>13278.84236622177</v>
+        <v>26497.82975183872</v>
       </c>
       <c r="F40" t="n">
-        <v>11774.11680385802</v>
+        <v>23315.16681852849</v>
       </c>
       <c r="G40" t="n">
-        <v>11774.11680385802</v>
+        <v>23315.16681852849</v>
       </c>
       <c r="H40" t="n">
-        <v>643.6169437861673</v>
+        <v>1482.235582006194</v>
       </c>
       <c r="I40" t="n">
-        <v>643.6169437861673</v>
+        <v>1482.235582006194</v>
       </c>
       <c r="J40" t="n">
-        <v>643.6169437861673</v>
+        <v>1482.235582006194</v>
       </c>
       <c r="K40" t="n">
-        <v>643.6169437861673</v>
+        <v>1482.235582006194</v>
       </c>
       <c r="L40" t="n">
-        <v>643.6169437861673</v>
+        <v>1482.235582006194</v>
       </c>
       <c r="M40" t="n">
-        <v>643.6169437861673</v>
+        <v>1482.235582006194</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>12417.73374764419</v>
+        <v>24797.40240053468</v>
       </c>
     </row>
     <row r="41">
@@ -2594,37 +2594,37 @@
         <v>43922</v>
       </c>
       <c r="C41" t="n">
-        <v>12000.26477540966</v>
+        <v>23759.5983696028</v>
       </c>
       <c r="D41" t="n">
-        <v>11709.74159058564</v>
+        <v>23354.41810305071</v>
       </c>
       <c r="E41" t="n">
-        <v>13380.71805023629</v>
+        <v>26753.91406027122</v>
       </c>
       <c r="F41" t="n">
-        <v>12000.26477540966</v>
+        <v>23759.5983696028</v>
       </c>
       <c r="G41" t="n">
-        <v>12000.26477540966</v>
+        <v>23759.5983696028</v>
       </c>
       <c r="H41" t="n">
-        <v>520.7600690449586</v>
+        <v>1247.682797059137</v>
       </c>
       <c r="I41" t="n">
-        <v>520.7600690449586</v>
+        <v>1247.682797059137</v>
       </c>
       <c r="J41" t="n">
-        <v>520.7600690449586</v>
+        <v>1247.682797059137</v>
       </c>
       <c r="K41" t="n">
-        <v>520.7600690449586</v>
+        <v>1247.682797059137</v>
       </c>
       <c r="L41" t="n">
-        <v>520.7600690449586</v>
+        <v>1247.682797059137</v>
       </c>
       <c r="M41" t="n">
-        <v>520.7600690449586</v>
+        <v>1247.682797059137</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>12521.02484445462</v>
+        <v>25007.28116666194</v>
       </c>
     </row>
     <row r="42">
@@ -2647,37 +2647,37 @@
         <v>43952</v>
       </c>
       <c r="C42" t="n">
-        <v>11980.91055178179</v>
+        <v>24189.36487974894</v>
       </c>
       <c r="D42" t="n">
-        <v>10757.2170263831</v>
+        <v>21797.69433902457</v>
       </c>
       <c r="E42" t="n">
-        <v>12519.21408163972</v>
+        <v>25262.00409151984</v>
       </c>
       <c r="F42" t="n">
-        <v>11980.91055178179</v>
+        <v>24189.36487974894</v>
       </c>
       <c r="G42" t="n">
-        <v>11980.91055178179</v>
+        <v>24189.36487974894</v>
       </c>
       <c r="H42" t="n">
-        <v>-320.2422585258299</v>
+        <v>-666.454589546364</v>
       </c>
       <c r="I42" t="n">
-        <v>-320.2422585258299</v>
+        <v>-666.454589546364</v>
       </c>
       <c r="J42" t="n">
-        <v>-320.2422585258299</v>
+        <v>-666.454589546364</v>
       </c>
       <c r="K42" t="n">
-        <v>-320.2422585258299</v>
+        <v>-666.454589546364</v>
       </c>
       <c r="L42" t="n">
-        <v>-320.2422585258299</v>
+        <v>-666.454589546364</v>
       </c>
       <c r="M42" t="n">
-        <v>-320.2422585258299</v>
+        <v>-666.454589546364</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>11660.66829325596</v>
+        <v>23522.91029020257</v>
       </c>
     </row>
     <row r="43">
@@ -2700,37 +2700,37 @@
         <v>43983</v>
       </c>
       <c r="C43" t="n">
-        <v>11960.91118736632</v>
+        <v>24633.45694023329</v>
       </c>
       <c r="D43" t="n">
-        <v>11290.03651328258</v>
+        <v>23011.11515556476</v>
       </c>
       <c r="E43" t="n">
-        <v>12977.19940567098</v>
+        <v>26201.32197205435</v>
       </c>
       <c r="F43" t="n">
-        <v>11960.91118736632</v>
+        <v>24633.45694023329</v>
       </c>
       <c r="G43" t="n">
-        <v>11960.91118736632</v>
+        <v>24633.45694023329</v>
       </c>
       <c r="H43" t="n">
-        <v>202.4280477937556</v>
+        <v>-4.356684923104504</v>
       </c>
       <c r="I43" t="n">
-        <v>202.4280477937556</v>
+        <v>-4.356684923104504</v>
       </c>
       <c r="J43" t="n">
-        <v>202.4280477937556</v>
+        <v>-4.356684923104504</v>
       </c>
       <c r="K43" t="n">
-        <v>202.4280477937556</v>
+        <v>-4.356684923104504</v>
       </c>
       <c r="L43" t="n">
-        <v>202.4280477937556</v>
+        <v>-4.356684923104504</v>
       </c>
       <c r="M43" t="n">
-        <v>202.4280477937556</v>
+        <v>-4.356684923104504</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>12163.33923516008</v>
+        <v>24629.10025531019</v>
       </c>
     </row>
     <row r="44">
@@ -2753,37 +2753,37 @@
         <v>44013</v>
       </c>
       <c r="C44" t="n">
-        <v>11941.38255189666</v>
+        <v>24524.36157853444</v>
       </c>
       <c r="D44" t="n">
-        <v>10956.20516333892</v>
+        <v>22433.11312574265</v>
       </c>
       <c r="E44" t="n">
-        <v>12705.16397729124</v>
+        <v>25896.09094296453</v>
       </c>
       <c r="F44" t="n">
-        <v>11941.38255189666</v>
+        <v>24524.36157853444</v>
       </c>
       <c r="G44" t="n">
-        <v>11941.38255189666</v>
+        <v>24524.36157853444</v>
       </c>
       <c r="H44" t="n">
-        <v>-113.6809700182057</v>
+        <v>-410.9397309442445</v>
       </c>
       <c r="I44" t="n">
-        <v>-113.6809700182057</v>
+        <v>-410.9397309442445</v>
       </c>
       <c r="J44" t="n">
-        <v>-113.6809700182057</v>
+        <v>-410.9397309442445</v>
       </c>
       <c r="K44" t="n">
-        <v>-113.6809700182057</v>
+        <v>-410.9397309442445</v>
       </c>
       <c r="L44" t="n">
-        <v>-113.6809700182057</v>
+        <v>-410.9397309442445</v>
       </c>
       <c r="M44" t="n">
-        <v>-113.6809700182057</v>
+        <v>-410.9397309442445</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>11827.70158187846</v>
+        <v>24113.42184759019</v>
       </c>
     </row>
     <row r="45">
@@ -2806,37 +2806,37 @@
         <v>44044</v>
       </c>
       <c r="C45" t="n">
-        <v>11921.20296191135</v>
+        <v>24411.62970477896</v>
       </c>
       <c r="D45" t="n">
-        <v>11104.15500761836</v>
+        <v>22670.82034571807</v>
       </c>
       <c r="E45" t="n">
-        <v>12802.61245083164</v>
+        <v>26120.69066155297</v>
       </c>
       <c r="F45" t="n">
-        <v>11921.20296191135</v>
+        <v>24411.62970477896</v>
       </c>
       <c r="G45" t="n">
-        <v>11921.20296191135</v>
+        <v>24411.62970477896</v>
       </c>
       <c r="H45" t="n">
-        <v>29.1489492157449</v>
+        <v>-31.65170845269945</v>
       </c>
       <c r="I45" t="n">
-        <v>29.1489492157449</v>
+        <v>-31.65170845269945</v>
       </c>
       <c r="J45" t="n">
-        <v>29.1489492157449</v>
+        <v>-31.65170845269945</v>
       </c>
       <c r="K45" t="n">
-        <v>29.1489492157449</v>
+        <v>-31.65170845269945</v>
       </c>
       <c r="L45" t="n">
-        <v>29.1489492157449</v>
+        <v>-31.65170845269945</v>
       </c>
       <c r="M45" t="n">
-        <v>29.1489492157449</v>
+        <v>-31.65170845269945</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>11950.3519111271</v>
+        <v>24379.97799632626</v>
       </c>
     </row>
     <row r="46">
@@ -2859,37 +2859,37 @@
         <v>44075</v>
       </c>
       <c r="C46" t="n">
-        <v>11900.89205465025</v>
+        <v>24298.56218976541</v>
       </c>
       <c r="D46" t="n">
-        <v>11443.4504906281</v>
+        <v>23550.92030249214</v>
       </c>
       <c r="E46" t="n">
-        <v>13237.35072982612</v>
+        <v>26808.85884845984</v>
       </c>
       <c r="F46" t="n">
-        <v>11900.89205465025</v>
+        <v>24298.56218976541</v>
       </c>
       <c r="G46" t="n">
-        <v>11900.89205465025</v>
+        <v>24298.56218976541</v>
       </c>
       <c r="H46" t="n">
-        <v>454.2954537688985</v>
+        <v>917.218541699205</v>
       </c>
       <c r="I46" t="n">
-        <v>454.2954537688985</v>
+        <v>917.218541699205</v>
       </c>
       <c r="J46" t="n">
-        <v>454.2954537688985</v>
+        <v>917.218541699205</v>
       </c>
       <c r="K46" t="n">
-        <v>454.2954537688985</v>
+        <v>917.218541699205</v>
       </c>
       <c r="L46" t="n">
-        <v>454.2954537688985</v>
+        <v>917.218541699205</v>
       </c>
       <c r="M46" t="n">
-        <v>454.2954537688985</v>
+        <v>917.218541699205</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>12355.18750841915</v>
+        <v>25215.78073146461</v>
       </c>
     </row>
     <row r="47">
@@ -2912,37 +2912,37 @@
         <v>44105</v>
       </c>
       <c r="C47" t="n">
-        <v>11881.23633794597</v>
+        <v>24189.14201394584</v>
       </c>
       <c r="D47" t="n">
-        <v>11110.12265941476</v>
+        <v>22826.96695151946</v>
       </c>
       <c r="E47" t="n">
-        <v>12810.05490495498</v>
+        <v>26133.38361587571</v>
       </c>
       <c r="F47" t="n">
-        <v>11881.23633794597</v>
+        <v>24189.14201394584</v>
       </c>
       <c r="G47" t="n">
-        <v>11881.23633794597</v>
+        <v>24189.14201394584</v>
       </c>
       <c r="H47" t="n">
-        <v>112.8530239270754</v>
+        <v>304.8466650168721</v>
       </c>
       <c r="I47" t="n">
-        <v>112.8530239270754</v>
+        <v>304.8466650168721</v>
       </c>
       <c r="J47" t="n">
-        <v>112.8530239270754</v>
+        <v>304.8466650168721</v>
       </c>
       <c r="K47" t="n">
-        <v>112.8530239270754</v>
+        <v>304.8466650168721</v>
       </c>
       <c r="L47" t="n">
-        <v>112.8530239270754</v>
+        <v>304.8466650168721</v>
       </c>
       <c r="M47" t="n">
-        <v>112.8530239270754</v>
+        <v>304.8466650168721</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>11994.08936187304</v>
+        <v>24493.98867896271</v>
       </c>
     </row>
     <row r="48">
@@ -2965,37 +2965,37 @@
         <v>44136</v>
       </c>
       <c r="C48" t="n">
-        <v>11860.78574843081</v>
+        <v>24075.98026358671</v>
       </c>
       <c r="D48" t="n">
-        <v>10485.99897017777</v>
+        <v>21481.19005074806</v>
       </c>
       <c r="E48" t="n">
-        <v>12262.47237255337</v>
+        <v>24958.73005226793</v>
       </c>
       <c r="F48" t="n">
-        <v>11860.78574843081</v>
+        <v>24075.98026358671</v>
       </c>
       <c r="G48" t="n">
-        <v>11860.78574843081</v>
+        <v>24075.98026358671</v>
       </c>
       <c r="H48" t="n">
-        <v>-489.0539972703835</v>
+        <v>-846.7969790027868</v>
       </c>
       <c r="I48" t="n">
-        <v>-489.0539972703835</v>
+        <v>-846.7969790027868</v>
       </c>
       <c r="J48" t="n">
-        <v>-489.0539972703835</v>
+        <v>-846.7969790027868</v>
       </c>
       <c r="K48" t="n">
-        <v>-489.0539972703835</v>
+        <v>-846.7969790027868</v>
       </c>
       <c r="L48" t="n">
-        <v>-489.0539972703835</v>
+        <v>-846.7969790027868</v>
       </c>
       <c r="M48" t="n">
-        <v>-489.0539972703835</v>
+        <v>-846.7969790027868</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>11371.73175116043</v>
+        <v>23229.18328458392</v>
       </c>
     </row>
     <row r="49">
@@ -3018,37 +3018,37 @@
         <v>44166</v>
       </c>
       <c r="C49" t="n">
-        <v>11840.99485535163</v>
+        <v>23966.46889227142</v>
       </c>
       <c r="D49" t="n">
-        <v>10232.14379941293</v>
+        <v>20894.59518643911</v>
       </c>
       <c r="E49" t="n">
-        <v>11916.08020001183</v>
+        <v>24300.36492931957</v>
       </c>
       <c r="F49" t="n">
-        <v>11840.99485535163</v>
+        <v>23966.46889227142</v>
       </c>
       <c r="G49" t="n">
-        <v>11840.99485535163</v>
+        <v>23966.46889227142</v>
       </c>
       <c r="H49" t="n">
-        <v>-790.2164717838117</v>
+        <v>-1416.959820779273</v>
       </c>
       <c r="I49" t="n">
-        <v>-790.2164717838117</v>
+        <v>-1416.959820779273</v>
       </c>
       <c r="J49" t="n">
-        <v>-790.2164717838117</v>
+        <v>-1416.959820779273</v>
       </c>
       <c r="K49" t="n">
-        <v>-790.2164717838117</v>
+        <v>-1416.959820779273</v>
       </c>
       <c r="L49" t="n">
-        <v>-790.2164717838117</v>
+        <v>-1416.959820779273</v>
       </c>
       <c r="M49" t="n">
-        <v>-790.2164717838117</v>
+        <v>-1416.959820779273</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>11050.77838356782</v>
+        <v>22549.50907149215</v>
       </c>
     </row>
     <row r="50">
@@ -3071,37 +3071,37 @@
         <v>44197</v>
       </c>
       <c r="C50" t="n">
-        <v>11820.49290516392</v>
+        <v>23853.05077510329</v>
       </c>
       <c r="D50" t="n">
-        <v>10868.03102676012</v>
+        <v>22133.73854393037</v>
       </c>
       <c r="E50" t="n">
-        <v>12651.36849195243</v>
+        <v>25426.40151881838</v>
       </c>
       <c r="F50" t="n">
-        <v>11820.49290516392</v>
+        <v>23853.05077510329</v>
       </c>
       <c r="G50" t="n">
-        <v>11820.49290516392</v>
+        <v>23853.05077510329</v>
       </c>
       <c r="H50" t="n">
-        <v>-46.40253717444279</v>
+        <v>-2.065412870901376</v>
       </c>
       <c r="I50" t="n">
-        <v>-46.40253717444279</v>
+        <v>-2.065412870901376</v>
       </c>
       <c r="J50" t="n">
-        <v>-46.40253717444279</v>
+        <v>-2.065412870901376</v>
       </c>
       <c r="K50" t="n">
-        <v>-46.40253717444279</v>
+        <v>-2.065412870901376</v>
       </c>
       <c r="L50" t="n">
-        <v>-46.40253717444279</v>
+        <v>-2.065412870901376</v>
       </c>
       <c r="M50" t="n">
-        <v>-46.40253717444279</v>
+        <v>-2.065412870901376</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>11774.09036798947</v>
+        <v>23850.98536223239</v>
       </c>
     </row>
     <row r="51">
@@ -3124,37 +3124,37 @@
         <v>44228</v>
       </c>
       <c r="C51" t="n">
-        <v>11799.99095497621</v>
+        <v>23739.63265793517</v>
       </c>
       <c r="D51" t="n">
-        <v>10187.14128612067</v>
+        <v>20621.62313679589</v>
       </c>
       <c r="E51" t="n">
-        <v>11846.53234840568</v>
+        <v>24035.40954680747</v>
       </c>
       <c r="F51" t="n">
-        <v>11799.99095497621</v>
+        <v>23739.63265793517</v>
       </c>
       <c r="G51" t="n">
-        <v>11799.99095497621</v>
+        <v>23739.63265793517</v>
       </c>
       <c r="H51" t="n">
-        <v>-757.8464016429314</v>
+        <v>-1391.208996605964</v>
       </c>
       <c r="I51" t="n">
-        <v>-757.8464016429314</v>
+        <v>-1391.208996605964</v>
       </c>
       <c r="J51" t="n">
-        <v>-757.8464016429314</v>
+        <v>-1391.208996605964</v>
       </c>
       <c r="K51" t="n">
-        <v>-757.8464016429314</v>
+        <v>-1391.208996605964</v>
       </c>
       <c r="L51" t="n">
-        <v>-757.8464016429314</v>
+        <v>-1391.208996605964</v>
       </c>
       <c r="M51" t="n">
-        <v>-757.8464016429314</v>
+        <v>-1391.208996605964</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>11042.14455333328</v>
+        <v>22348.42366132921</v>
       </c>
     </row>
     <row r="52">
@@ -3177,37 +3177,37 @@
         <v>44256</v>
       </c>
       <c r="C52" t="n">
-        <v>11781.42860461621</v>
+        <v>23637.10410267885</v>
       </c>
       <c r="D52" t="n">
-        <v>11251.38184689956</v>
+        <v>22639.99820971482</v>
       </c>
       <c r="E52" t="n">
-        <v>12911.13316783813</v>
+        <v>26049.62505326146</v>
       </c>
       <c r="F52" t="n">
-        <v>11781.42860461621</v>
+        <v>23637.10410267885</v>
       </c>
       <c r="G52" t="n">
-        <v>11781.42860461621</v>
+        <v>23637.10410267885</v>
       </c>
       <c r="H52" t="n">
-        <v>288.1846144630239</v>
+        <v>758.0808305184491</v>
       </c>
       <c r="I52" t="n">
-        <v>288.1846144630239</v>
+        <v>758.0808305184491</v>
       </c>
       <c r="J52" t="n">
-        <v>288.1846144630239</v>
+        <v>758.0808305184491</v>
       </c>
       <c r="K52" t="n">
-        <v>288.1846144630239</v>
+        <v>758.0808305184491</v>
       </c>
       <c r="L52" t="n">
-        <v>288.1846144630239</v>
+        <v>758.0808305184491</v>
       </c>
       <c r="M52" t="n">
-        <v>288.1846144630239</v>
+        <v>758.0808305184491</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>12069.61321907923</v>
+        <v>24395.1849331973</v>
       </c>
     </row>
     <row r="53">
@@ -3230,37 +3230,37 @@
         <v>44287</v>
       </c>
       <c r="C53" t="n">
-        <v>11760.87743100335</v>
+        <v>23523.59034507364</v>
       </c>
       <c r="D53" t="n">
-        <v>11314.03783219235</v>
+        <v>22775.86230217646</v>
       </c>
       <c r="E53" t="n">
-        <v>12961.26749565044</v>
+        <v>26283.93962525937</v>
       </c>
       <c r="F53" t="n">
-        <v>11760.87743100335</v>
+        <v>23523.59034507364</v>
       </c>
       <c r="G53" t="n">
-        <v>11760.87743100335</v>
+        <v>23523.59034507364</v>
       </c>
       <c r="H53" t="n">
-        <v>378.2061631393706</v>
+        <v>961.256456565602</v>
       </c>
       <c r="I53" t="n">
-        <v>378.2061631393706</v>
+        <v>961.256456565602</v>
       </c>
       <c r="J53" t="n">
-        <v>378.2061631393706</v>
+        <v>961.256456565602</v>
       </c>
       <c r="K53" t="n">
-        <v>378.2061631393706</v>
+        <v>961.256456565602</v>
       </c>
       <c r="L53" t="n">
-        <v>378.2061631393706</v>
+        <v>961.256456565602</v>
       </c>
       <c r="M53" t="n">
-        <v>378.2061631393706</v>
+        <v>961.256456565602</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>12139.08359414272</v>
+        <v>24484.84680163924</v>
       </c>
     </row>
     <row r="54">
@@ -3283,37 +3283,37 @@
         <v>44317</v>
       </c>
       <c r="C54" t="n">
-        <v>11740.98762560126</v>
+        <v>23413.70808276728</v>
       </c>
       <c r="D54" t="n">
-        <v>11002.23895067611</v>
+        <v>22092.16156559979</v>
       </c>
       <c r="E54" t="n">
-        <v>12778.52308737418</v>
+        <v>25583.49866803141</v>
       </c>
       <c r="F54" t="n">
-        <v>11740.98762560126</v>
+        <v>23413.70808276728</v>
       </c>
       <c r="G54" t="n">
-        <v>11740.98762560126</v>
+        <v>23413.70808276728</v>
       </c>
       <c r="H54" t="n">
-        <v>145.4900992619138</v>
+        <v>386.8156494912976</v>
       </c>
       <c r="I54" t="n">
-        <v>145.4900992619138</v>
+        <v>386.8156494912976</v>
       </c>
       <c r="J54" t="n">
-        <v>145.4900992619138</v>
+        <v>386.8156494912976</v>
       </c>
       <c r="K54" t="n">
-        <v>145.4900992619138</v>
+        <v>386.8156494912976</v>
       </c>
       <c r="L54" t="n">
-        <v>145.4900992619138</v>
+        <v>386.8156494912976</v>
       </c>
       <c r="M54" t="n">
-        <v>145.4900992619138</v>
+        <v>386.8156494912976</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>11886.47772486317</v>
+        <v>23800.52373225857</v>
       </c>
     </row>
     <row r="55">
@@ -3336,37 +3336,37 @@
         <v>44348</v>
       </c>
       <c r="C55" t="n">
-        <v>11720.43482668578</v>
+        <v>23300.16307838403</v>
       </c>
       <c r="D55" t="n">
-        <v>10977.31473986556</v>
+        <v>21105.02152347407</v>
       </c>
       <c r="E55" t="n">
-        <v>12671.66839039638</v>
+        <v>24556.85925729991</v>
       </c>
       <c r="F55" t="n">
-        <v>11720.43482668578</v>
+        <v>23300.16307838403</v>
       </c>
       <c r="G55" t="n">
-        <v>11720.43482668578</v>
+        <v>23300.16307838403</v>
       </c>
       <c r="H55" t="n">
-        <v>102.4666798672545</v>
+        <v>-448.0059329288324</v>
       </c>
       <c r="I55" t="n">
-        <v>102.4666798672545</v>
+        <v>-448.0059329288324</v>
       </c>
       <c r="J55" t="n">
-        <v>102.4666798672545</v>
+        <v>-448.0059329288324</v>
       </c>
       <c r="K55" t="n">
-        <v>102.4666798672545</v>
+        <v>-448.0059329288324</v>
       </c>
       <c r="L55" t="n">
-        <v>102.4666798672545</v>
+        <v>-448.0059329288324</v>
       </c>
       <c r="M55" t="n">
-        <v>102.4666798672545</v>
+        <v>-448.0059329288324</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>11822.90150655303</v>
+        <v>22852.1571454552</v>
       </c>
     </row>
     <row r="56">
@@ -3389,37 +3389,37 @@
         <v>44378</v>
       </c>
       <c r="C56" t="n">
-        <v>11700.54502128369</v>
+        <v>23190.28081607767</v>
       </c>
       <c r="D56" t="n">
-        <v>10724.8018051179</v>
+        <v>21163.15719078808</v>
       </c>
       <c r="E56" t="n">
-        <v>12396.28662645265</v>
+        <v>24676.93797420036</v>
       </c>
       <c r="F56" t="n">
-        <v>11700.54502128369</v>
+        <v>23190.28081607767</v>
       </c>
       <c r="G56" t="n">
-        <v>11700.54502128369</v>
+        <v>23190.28081607767</v>
       </c>
       <c r="H56" t="n">
-        <v>-108.0172913950022</v>
+        <v>-301.6924089046597</v>
       </c>
       <c r="I56" t="n">
-        <v>-108.0172913950022</v>
+        <v>-301.6924089046597</v>
       </c>
       <c r="J56" t="n">
-        <v>-108.0172913950022</v>
+        <v>-301.6924089046597</v>
       </c>
       <c r="K56" t="n">
-        <v>-108.0172913950022</v>
+        <v>-301.6924089046597</v>
       </c>
       <c r="L56" t="n">
-        <v>-108.0172913950022</v>
+        <v>-301.6924089046597</v>
       </c>
       <c r="M56" t="n">
-        <v>-108.0172913950022</v>
+        <v>-301.6924089046597</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>11592.52772988869</v>
+        <v>22888.58840717301</v>
       </c>
     </row>
     <row r="57">
@@ -3442,37 +3442,37 @@
         <v>44409</v>
       </c>
       <c r="C57" t="n">
-        <v>11679.9922223682</v>
+        <v>23076.73581169442</v>
       </c>
       <c r="D57" t="n">
-        <v>10871.84625784752</v>
+        <v>21483.47053472397</v>
       </c>
       <c r="E57" t="n">
-        <v>12571.71148284914</v>
+        <v>24906.36377731814</v>
       </c>
       <c r="F57" t="n">
-        <v>11679.9922223682</v>
+        <v>23076.73581169442</v>
       </c>
       <c r="G57" t="n">
-        <v>11679.9922223682</v>
+        <v>23076.73581169442</v>
       </c>
       <c r="H57" t="n">
-        <v>46.27241350216764</v>
+        <v>60.15814294268801</v>
       </c>
       <c r="I57" t="n">
-        <v>46.27241350216764</v>
+        <v>60.15814294268801</v>
       </c>
       <c r="J57" t="n">
-        <v>46.27241350216764</v>
+        <v>60.15814294268801</v>
       </c>
       <c r="K57" t="n">
-        <v>46.27241350216764</v>
+        <v>60.15814294268801</v>
       </c>
       <c r="L57" t="n">
-        <v>46.27241350216764</v>
+        <v>60.15814294268801</v>
       </c>
       <c r="M57" t="n">
-        <v>46.27241350216764</v>
+        <v>60.15814294268801</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>11726.26463587037</v>
+        <v>23136.89395463711</v>
       </c>
     </row>
     <row r="58">
@@ -3495,37 +3495,37 @@
         <v>44440</v>
       </c>
       <c r="C58" t="n">
-        <v>11659.43942345272</v>
+        <v>22963.19080731118</v>
       </c>
       <c r="D58" t="n">
-        <v>10914.95738132455</v>
+        <v>21709.7226252779</v>
       </c>
       <c r="E58" t="n">
-        <v>12631.93627267352</v>
+        <v>25058.61849235495</v>
       </c>
       <c r="F58" t="n">
-        <v>11659.43942345272</v>
+        <v>22963.19080731118</v>
       </c>
       <c r="G58" t="n">
-        <v>11659.43942345272</v>
+        <v>22963.19080731118</v>
       </c>
       <c r="H58" t="n">
-        <v>193.8504124139902</v>
+        <v>408.2881584069142</v>
       </c>
       <c r="I58" t="n">
-        <v>193.8504124139902</v>
+        <v>408.2881584069142</v>
       </c>
       <c r="J58" t="n">
-        <v>193.8504124139902</v>
+        <v>408.2881584069142</v>
       </c>
       <c r="K58" t="n">
-        <v>193.8504124139902</v>
+        <v>408.2881584069142</v>
       </c>
       <c r="L58" t="n">
-        <v>193.8504124139902</v>
+        <v>408.2881584069142</v>
       </c>
       <c r="M58" t="n">
-        <v>193.8504124139902</v>
+        <v>408.2881584069142</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>11853.28983586671</v>
+        <v>23371.4789657181</v>
       </c>
     </row>
     <row r="59">
@@ -3548,37 +3548,37 @@
         <v>44470</v>
       </c>
       <c r="C59" t="n">
-        <v>11639.54961805063</v>
+        <v>22853.30854500482</v>
       </c>
       <c r="D59" t="n">
-        <v>11083.04450070731</v>
+        <v>21932.68987548868</v>
       </c>
       <c r="E59" t="n">
-        <v>12831.37861409722</v>
+        <v>25313.39299898421</v>
       </c>
       <c r="F59" t="n">
-        <v>11639.54961805063</v>
+        <v>22853.30854500482</v>
       </c>
       <c r="G59" t="n">
-        <v>11639.54961805063</v>
+        <v>22853.30854500482</v>
       </c>
       <c r="H59" t="n">
-        <v>352.7854238428039</v>
+        <v>769.2373626674269</v>
       </c>
       <c r="I59" t="n">
-        <v>352.7854238428039</v>
+        <v>769.2373626674269</v>
       </c>
       <c r="J59" t="n">
-        <v>352.7854238428039</v>
+        <v>769.2373626674269</v>
       </c>
       <c r="K59" t="n">
-        <v>352.7854238428039</v>
+        <v>769.2373626674269</v>
       </c>
       <c r="L59" t="n">
-        <v>352.7854238428039</v>
+        <v>769.2373626674269</v>
       </c>
       <c r="M59" t="n">
-        <v>352.7854238428039</v>
+        <v>769.2373626674269</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>11992.33504189344</v>
+        <v>23622.54590767224</v>
       </c>
     </row>
     <row r="60">
@@ -3601,37 +3601,37 @@
         <v>44501</v>
       </c>
       <c r="C60" t="n">
-        <v>11618.99681913515</v>
+        <v>22739.76354062157</v>
       </c>
       <c r="D60" t="n">
-        <v>10171.15775799808</v>
+        <v>20011.22586106051</v>
       </c>
       <c r="E60" t="n">
-        <v>11919.03855298533</v>
+        <v>23372.62688692189</v>
       </c>
       <c r="F60" t="n">
-        <v>11618.99681913515</v>
+        <v>22739.76354062157</v>
       </c>
       <c r="G60" t="n">
-        <v>11618.99681913515</v>
+        <v>22739.76354062157</v>
       </c>
       <c r="H60" t="n">
-        <v>-573.6309595556935</v>
+        <v>-1044.616878620666</v>
       </c>
       <c r="I60" t="n">
-        <v>-573.6309595556935</v>
+        <v>-1044.616878620666</v>
       </c>
       <c r="J60" t="n">
-        <v>-573.6309595556935</v>
+        <v>-1044.616878620666</v>
       </c>
       <c r="K60" t="n">
-        <v>-573.6309595556935</v>
+        <v>-1044.616878620666</v>
       </c>
       <c r="L60" t="n">
-        <v>-573.6309595556935</v>
+        <v>-1044.616878620666</v>
       </c>
       <c r="M60" t="n">
-        <v>-573.6309595556935</v>
+        <v>-1044.616878620666</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>11045.36585957945</v>
+        <v>21695.14666200091</v>
       </c>
     </row>
     <row r="61">
@@ -3654,37 +3654,37 @@
         <v>44531</v>
       </c>
       <c r="C61" t="n">
-        <v>11599.10701373306</v>
+        <v>22629.88127831521</v>
       </c>
       <c r="D61" t="n">
-        <v>9787.862388646256</v>
+        <v>19136.20493472952</v>
       </c>
       <c r="E61" t="n">
-        <v>11473.64320083493</v>
+        <v>22484.76353865296</v>
       </c>
       <c r="F61" t="n">
-        <v>11599.10701373306</v>
+        <v>22629.88127831521</v>
       </c>
       <c r="G61" t="n">
-        <v>11599.10701373306</v>
+        <v>22629.88127831521</v>
       </c>
       <c r="H61" t="n">
-        <v>-980.5417225161125</v>
+        <v>-1826.634517314415</v>
       </c>
       <c r="I61" t="n">
-        <v>-980.5417225161125</v>
+        <v>-1826.634517314415</v>
       </c>
       <c r="J61" t="n">
-        <v>-980.5417225161125</v>
+        <v>-1826.634517314415</v>
       </c>
       <c r="K61" t="n">
-        <v>-980.5417225161125</v>
+        <v>-1826.634517314415</v>
       </c>
       <c r="L61" t="n">
-        <v>-980.5417225161125</v>
+        <v>-1826.634517314415</v>
       </c>
       <c r="M61" t="n">
-        <v>-980.5417225161125</v>
+        <v>-1826.634517314415</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>10618.56529121695</v>
+        <v>20803.2467610008</v>
       </c>
     </row>
     <row r="62">
@@ -3707,37 +3707,37 @@
         <v>44562</v>
       </c>
       <c r="C62" t="n">
-        <v>11578.55421481758</v>
+        <v>22516.33627393196</v>
       </c>
       <c r="D62" t="n">
-        <v>11168.94069116231</v>
+        <v>21866.33114706453</v>
       </c>
       <c r="E62" t="n">
-        <v>12778.61070671512</v>
+        <v>25191.23464955293</v>
       </c>
       <c r="F62" t="n">
-        <v>11578.55421481758</v>
+        <v>22516.33627393196</v>
       </c>
       <c r="G62" t="n">
-        <v>11578.55421481758</v>
+        <v>22516.33627393196</v>
       </c>
       <c r="H62" t="n">
-        <v>417.3895804842774</v>
+        <v>948.817795958389</v>
       </c>
       <c r="I62" t="n">
-        <v>417.3895804842774</v>
+        <v>948.817795958389</v>
       </c>
       <c r="J62" t="n">
-        <v>417.3895804842774</v>
+        <v>948.817795958389</v>
       </c>
       <c r="K62" t="n">
-        <v>417.3895804842774</v>
+        <v>948.817795958389</v>
       </c>
       <c r="L62" t="n">
-        <v>417.3895804842774</v>
+        <v>948.817795958389</v>
       </c>
       <c r="M62" t="n">
-        <v>417.3895804842774</v>
+        <v>948.817795958389</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>11995.94379530186</v>
+        <v>23465.15406989035</v>
       </c>
     </row>
     <row r="63">
@@ -3760,37 +3760,37 @@
         <v>44593</v>
       </c>
       <c r="C63" t="n">
-        <v>11558.00141590209</v>
+        <v>22402.79126954872</v>
       </c>
       <c r="D63" t="n">
-        <v>10005.4362420753</v>
+        <v>19383.16213283875</v>
       </c>
       <c r="E63" t="n">
-        <v>11665.54125873444</v>
+        <v>22821.46214253985</v>
       </c>
       <c r="F63" t="n">
-        <v>11558.00141590209</v>
+        <v>22402.79126954872</v>
       </c>
       <c r="G63" t="n">
-        <v>11558.00141590209</v>
+        <v>22402.79126954872</v>
       </c>
       <c r="H63" t="n">
-        <v>-757.6453534942368</v>
+        <v>-1369.953872893291</v>
       </c>
       <c r="I63" t="n">
-        <v>-757.6453534942368</v>
+        <v>-1369.953872893291</v>
       </c>
       <c r="J63" t="n">
-        <v>-757.6453534942368</v>
+        <v>-1369.953872893291</v>
       </c>
       <c r="K63" t="n">
-        <v>-757.6453534942368</v>
+        <v>-1369.953872893291</v>
       </c>
       <c r="L63" t="n">
-        <v>-757.6453534942368</v>
+        <v>-1369.953872893291</v>
       </c>
       <c r="M63" t="n">
-        <v>-757.6453534942368</v>
+        <v>-1369.953872893291</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>10800.35606240785</v>
+        <v>21032.83739665544</v>
       </c>
     </row>
     <row r="64">
@@ -3813,37 +3813,37 @@
         <v>44621</v>
       </c>
       <c r="C64" t="n">
-        <v>11539.43759752681</v>
+        <v>22300.23449139611</v>
       </c>
       <c r="D64" t="n">
-        <v>10598.85106292918</v>
+        <v>20591.17913936269</v>
       </c>
       <c r="E64" t="n">
-        <v>12369.51143049512</v>
+        <v>23915.96989882996</v>
       </c>
       <c r="F64" t="n">
-        <v>11539.43759752681</v>
+        <v>22300.23449139611</v>
       </c>
       <c r="G64" t="n">
-        <v>11539.43759752681</v>
+        <v>22300.23449139611</v>
       </c>
       <c r="H64" t="n">
-        <v>-67.49263082829107</v>
+        <v>33.27690208912684</v>
       </c>
       <c r="I64" t="n">
-        <v>-67.49263082829107</v>
+        <v>33.27690208912684</v>
       </c>
       <c r="J64" t="n">
-        <v>-67.49263082829107</v>
+        <v>33.27690208912684</v>
       </c>
       <c r="K64" t="n">
-        <v>-67.49263082829107</v>
+        <v>33.27690208912684</v>
       </c>
       <c r="L64" t="n">
-        <v>-67.49263082829107</v>
+        <v>33.27690208912684</v>
       </c>
       <c r="M64" t="n">
-        <v>-67.49263082829107</v>
+        <v>33.27690208912684</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>11471.94496669852</v>
+        <v>22333.51139348524</v>
       </c>
     </row>
     <row r="65">
@@ -3866,37 +3866,37 @@
         <v>44652</v>
       </c>
       <c r="C65" t="n">
-        <v>11518.88479861133</v>
+        <v>22186.68948701287</v>
       </c>
       <c r="D65" t="n">
-        <v>10939.29263528609</v>
+        <v>21134.95814144807</v>
       </c>
       <c r="E65" t="n">
-        <v>12651.47615109029</v>
+        <v>24636.85567035702</v>
       </c>
       <c r="F65" t="n">
-        <v>11518.88479861133</v>
+        <v>22186.68948701287</v>
       </c>
       <c r="G65" t="n">
-        <v>11518.88479861133</v>
+        <v>22186.68948701287</v>
       </c>
       <c r="H65" t="n">
-        <v>246.7022353193453</v>
+        <v>697.6413746169742</v>
       </c>
       <c r="I65" t="n">
-        <v>246.7022353193453</v>
+        <v>697.6413746169742</v>
       </c>
       <c r="J65" t="n">
-        <v>246.7022353193453</v>
+        <v>697.6413746169742</v>
       </c>
       <c r="K65" t="n">
-        <v>246.7022353193453</v>
+        <v>697.6413746169742</v>
       </c>
       <c r="L65" t="n">
-        <v>246.7022353193453</v>
+        <v>697.6413746169742</v>
       </c>
       <c r="M65" t="n">
-        <v>246.7022353193453</v>
+        <v>697.6413746169742</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>11765.58703393067</v>
+        <v>22884.33086162985</v>
       </c>
     </row>
     <row r="66">
@@ -3919,37 +3919,37 @@
         <v>44682</v>
       </c>
       <c r="C66" t="n">
-        <v>11498.99499320924</v>
+        <v>22076.80722470651</v>
       </c>
       <c r="D66" t="n">
-        <v>11301.28001753324</v>
+        <v>21855.32521232593</v>
       </c>
       <c r="E66" t="n">
-        <v>12954.32833797883</v>
+        <v>25241.24393015025</v>
       </c>
       <c r="F66" t="n">
-        <v>11498.99499320924</v>
+        <v>22076.80722470651</v>
       </c>
       <c r="G66" t="n">
-        <v>11498.99499320924</v>
+        <v>22076.80722470651</v>
       </c>
       <c r="H66" t="n">
-        <v>613.0102017507572</v>
+        <v>1440.556461791529</v>
       </c>
       <c r="I66" t="n">
-        <v>613.0102017507572</v>
+        <v>1440.556461791529</v>
       </c>
       <c r="J66" t="n">
-        <v>613.0102017507572</v>
+        <v>1440.556461791529</v>
       </c>
       <c r="K66" t="n">
-        <v>613.0102017507572</v>
+        <v>1440.556461791529</v>
       </c>
       <c r="L66" t="n">
-        <v>613.0102017507572</v>
+        <v>1440.556461791529</v>
       </c>
       <c r="M66" t="n">
-        <v>613.0102017507572</v>
+        <v>1440.556461791529</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>12112.00519496</v>
+        <v>23517.36368649804</v>
       </c>
     </row>
     <row r="67">
@@ -3972,37 +3972,37 @@
         <v>44713</v>
       </c>
       <c r="C67" t="n">
-        <v>11478.44219429376</v>
+        <v>21963.26222032326</v>
       </c>
       <c r="D67" t="n">
-        <v>10583.00745354964</v>
+        <v>19343.37874430828</v>
       </c>
       <c r="E67" t="n">
-        <v>12315.21828907009</v>
+        <v>22741.19300423814</v>
       </c>
       <c r="F67" t="n">
-        <v>11476.86791919895</v>
+        <v>21963.26222032326</v>
       </c>
       <c r="G67" t="n">
-        <v>11480.44822058562</v>
+        <v>21963.26222032326</v>
       </c>
       <c r="H67" t="n">
-        <v>-3.214714438709106</v>
+        <v>-903.024595593342</v>
       </c>
       <c r="I67" t="n">
-        <v>-3.214714438709106</v>
+        <v>-903.024595593342</v>
       </c>
       <c r="J67" t="n">
-        <v>-3.214714438709106</v>
+        <v>-903.024595593342</v>
       </c>
       <c r="K67" t="n">
-        <v>-3.214714438709106</v>
+        <v>-903.024595593342</v>
       </c>
       <c r="L67" t="n">
-        <v>-3.214714438709106</v>
+        <v>-903.024595593342</v>
       </c>
       <c r="M67" t="n">
-        <v>-3.214714438709106</v>
+        <v>-903.024595593342</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>11475.22747985505</v>
+        <v>21060.23762472992</v>
       </c>
     </row>
     <row r="68">
@@ -4025,37 +4025,37 @@
         <v>44743</v>
       </c>
       <c r="C68" t="n">
-        <v>11458.55238889167</v>
+        <v>21853.3799580169</v>
       </c>
       <c r="D68" t="n">
-        <v>10465.51089821854</v>
+        <v>19976.82122907222</v>
       </c>
       <c r="E68" t="n">
-        <v>12231.72138339858</v>
+        <v>23384.63650944366</v>
       </c>
       <c r="F68" t="n">
-        <v>11447.26663496565</v>
+        <v>21848.01893999947</v>
       </c>
       <c r="G68" t="n">
-        <v>11470.15765412135</v>
+        <v>21856.66723114013</v>
       </c>
       <c r="H68" t="n">
-        <v>-103.5548651943473</v>
+        <v>-191.165911948354</v>
       </c>
       <c r="I68" t="n">
-        <v>-103.5548651943473</v>
+        <v>-191.165911948354</v>
       </c>
       <c r="J68" t="n">
-        <v>-103.5548651943473</v>
+        <v>-191.165911948354</v>
       </c>
       <c r="K68" t="n">
-        <v>-103.5548651943473</v>
+        <v>-191.165911948354</v>
       </c>
       <c r="L68" t="n">
-        <v>-103.5548651943473</v>
+        <v>-191.165911948354</v>
       </c>
       <c r="M68" t="n">
-        <v>-103.5548651943473</v>
+        <v>-191.165911948354</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>11354.99752369732</v>
+        <v>21662.21404606854</v>
       </c>
     </row>
     <row r="69">
@@ -4078,37 +4078,37 @@
         <v>44774</v>
       </c>
       <c r="C69" t="n">
-        <v>11437.99958997619</v>
+        <v>21739.83495363365</v>
       </c>
       <c r="D69" t="n">
-        <v>10635.51046661693</v>
+        <v>20230.02044809205</v>
       </c>
       <c r="E69" t="n">
-        <v>12339.58567663318</v>
+        <v>23554.1945408702</v>
       </c>
       <c r="F69" t="n">
-        <v>11413.34799600097</v>
+        <v>21709.85309451336</v>
       </c>
       <c r="G69" t="n">
-        <v>11464.40889495533</v>
+        <v>21761.42183424853</v>
       </c>
       <c r="H69" t="n">
-        <v>60.1448952574795</v>
+        <v>145.093398352808</v>
       </c>
       <c r="I69" t="n">
-        <v>60.1448952574795</v>
+        <v>145.093398352808</v>
       </c>
       <c r="J69" t="n">
-        <v>60.1448952574795</v>
+        <v>145.093398352808</v>
       </c>
       <c r="K69" t="n">
-        <v>60.1448952574795</v>
+        <v>145.093398352808</v>
       </c>
       <c r="L69" t="n">
-        <v>60.1448952574795</v>
+        <v>145.093398352808</v>
       </c>
       <c r="M69" t="n">
-        <v>60.1448952574795</v>
+        <v>145.093398352808</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>11498.14448523366</v>
+        <v>21884.92835198646</v>
       </c>
     </row>
     <row r="70">
@@ -4131,37 +4131,37 @@
         <v>44805</v>
       </c>
       <c r="C70" t="n">
-        <v>11417.4467910607</v>
+        <v>21626.28994925041</v>
       </c>
       <c r="D70" t="n">
-        <v>10558.41442154312</v>
+        <v>19872.18378951239</v>
       </c>
       <c r="E70" t="n">
-        <v>12180.14118735351</v>
+        <v>23294.16473089555</v>
       </c>
       <c r="F70" t="n">
-        <v>11377.42688165945</v>
+        <v>21560.56891754812</v>
       </c>
       <c r="G70" t="n">
-        <v>11459.7055050977</v>
+        <v>21680.49350009871</v>
       </c>
       <c r="H70" t="n">
-        <v>-64.28762326333927</v>
+        <v>-97.37379397054097</v>
       </c>
       <c r="I70" t="n">
-        <v>-64.28762326333927</v>
+        <v>-97.37379397054097</v>
       </c>
       <c r="J70" t="n">
-        <v>-64.28762326333927</v>
+        <v>-97.37379397054097</v>
       </c>
       <c r="K70" t="n">
-        <v>-64.28762326333927</v>
+        <v>-97.37379397054097</v>
       </c>
       <c r="L70" t="n">
-        <v>-64.28762326333927</v>
+        <v>-97.37379397054097</v>
       </c>
       <c r="M70" t="n">
-        <v>-64.28762326333927</v>
+        <v>-97.37379397054097</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>11353.15916779736</v>
+        <v>21528.91615527987</v>
       </c>
     </row>
     <row r="71">
@@ -4184,37 +4184,37 @@
         <v>44835</v>
       </c>
       <c r="C71" t="n">
-        <v>11397.55698565862</v>
+        <v>21516.40768694405</v>
       </c>
       <c r="D71" t="n">
-        <v>11132.7404711839</v>
+        <v>21138.38151676012</v>
       </c>
       <c r="E71" t="n">
-        <v>12825.21234844534</v>
+        <v>24366.77095170603</v>
       </c>
       <c r="F71" t="n">
-        <v>11340.2220572593</v>
+        <v>21400.18042731659</v>
       </c>
       <c r="G71" t="n">
-        <v>11461.53019889104</v>
+        <v>21601.54824708382</v>
       </c>
       <c r="H71" t="n">
-        <v>594.661764879836</v>
+        <v>1236.463130928738</v>
       </c>
       <c r="I71" t="n">
-        <v>594.661764879836</v>
+        <v>1236.463130928738</v>
       </c>
       <c r="J71" t="n">
-        <v>594.661764879836</v>
+        <v>1236.463130928738</v>
       </c>
       <c r="K71" t="n">
-        <v>594.661764879836</v>
+        <v>1236.463130928738</v>
       </c>
       <c r="L71" t="n">
-        <v>594.661764879836</v>
+        <v>1236.463130928738</v>
       </c>
       <c r="M71" t="n">
-        <v>594.661764879836</v>
+        <v>1236.463130928738</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>11992.21875053845</v>
+        <v>22752.87081787279</v>
       </c>
     </row>
     <row r="72">
@@ -4237,37 +4237,37 @@
         <v>44866</v>
       </c>
       <c r="C72" t="n">
-        <v>11377.00418674313</v>
+        <v>21402.8626825608</v>
       </c>
       <c r="D72" t="n">
-        <v>9847.816775115285</v>
+        <v>18535.3087257377</v>
       </c>
       <c r="E72" t="n">
-        <v>11574.17306443127</v>
+        <v>21864.15083739475</v>
       </c>
       <c r="F72" t="n">
-        <v>11296.23960006115</v>
+        <v>21243.4287811746</v>
       </c>
       <c r="G72" t="n">
-        <v>11458.91235793446</v>
+        <v>21524.38857592259</v>
       </c>
       <c r="H72" t="n">
-        <v>-660.8538184158309</v>
+        <v>-1248.026553648137</v>
       </c>
       <c r="I72" t="n">
-        <v>-660.8538184158309</v>
+        <v>-1248.026553648137</v>
       </c>
       <c r="J72" t="n">
-        <v>-660.8538184158309</v>
+        <v>-1248.026553648137</v>
       </c>
       <c r="K72" t="n">
-        <v>-660.8538184158309</v>
+        <v>-1248.026553648137</v>
       </c>
       <c r="L72" t="n">
-        <v>-660.8538184158309</v>
+        <v>-1248.026553648137</v>
       </c>
       <c r="M72" t="n">
-        <v>-660.8538184158309</v>
+        <v>-1248.026553648137</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>10716.1503683273</v>
+        <v>20154.83612891267</v>
       </c>
     </row>
     <row r="73">
@@ -4290,37 +4290,37 @@
         <v>44896</v>
       </c>
       <c r="C73" t="n">
-        <v>11357.11438134104</v>
+        <v>21292.98042025444</v>
       </c>
       <c r="D73" t="n">
-        <v>9300.406477591163</v>
+        <v>17324.61489122195</v>
       </c>
       <c r="E73" t="n">
-        <v>11145.55441207936</v>
+        <v>20820.77770328309</v>
       </c>
       <c r="F73" t="n">
-        <v>11255.91852680227</v>
+        <v>21083.16313710992</v>
       </c>
       <c r="G73" t="n">
-        <v>11463.66491713244</v>
+        <v>21455.52699532297</v>
       </c>
       <c r="H73" t="n">
-        <v>-1163.937278606674</v>
+        <v>-2221.516612493162</v>
       </c>
       <c r="I73" t="n">
-        <v>-1163.937278606674</v>
+        <v>-2221.516612493162</v>
       </c>
       <c r="J73" t="n">
-        <v>-1163.937278606674</v>
+        <v>-2221.516612493162</v>
       </c>
       <c r="K73" t="n">
-        <v>-1163.937278606674</v>
+        <v>-2221.516612493162</v>
       </c>
       <c r="L73" t="n">
-        <v>-1163.937278606674</v>
+        <v>-2221.516612493162</v>
       </c>
       <c r="M73" t="n">
-        <v>-1163.937278606674</v>
+        <v>-2221.516612493162</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>10193.17710273437</v>
+        <v>19071.46380776128</v>
       </c>
     </row>
     <row r="74">
@@ -4343,37 +4343,37 @@
         <v>44927</v>
       </c>
       <c r="C74" t="n">
-        <v>11336.56158242556</v>
+        <v>21179.43541587119</v>
       </c>
       <c r="D74" t="n">
-        <v>11380.51301605152</v>
+        <v>21325.37640219256</v>
       </c>
       <c r="E74" t="n">
-        <v>13037.6955446216</v>
+        <v>24799.28394696932</v>
       </c>
       <c r="F74" t="n">
-        <v>11209.32474639394</v>
+        <v>20916.31009836184</v>
       </c>
       <c r="G74" t="n">
-        <v>11467.07538303882</v>
+        <v>21395.45097688208</v>
       </c>
       <c r="H74" t="n">
-        <v>881.5828668376403</v>
+        <v>1901.457166372301</v>
       </c>
       <c r="I74" t="n">
-        <v>881.5828668376403</v>
+        <v>1901.457166372301</v>
       </c>
       <c r="J74" t="n">
-        <v>881.5828668376403</v>
+        <v>1901.457166372301</v>
       </c>
       <c r="K74" t="n">
-        <v>881.5828668376403</v>
+        <v>1901.457166372301</v>
       </c>
       <c r="L74" t="n">
-        <v>881.5828668376403</v>
+        <v>1901.457166372301</v>
       </c>
       <c r="M74" t="n">
-        <v>881.5828668376403</v>
+        <v>1901.457166372301</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>12218.1444492632</v>
+        <v>23080.89258224349</v>
       </c>
     </row>
     <row r="75">
@@ -4396,37 +4396,37 @@
         <v>44958</v>
       </c>
       <c r="C75" t="n">
-        <v>11316.00878351007</v>
+        <v>21065.89041148795</v>
       </c>
       <c r="D75" t="n">
-        <v>9670.6085205171</v>
+        <v>17846.61421127393</v>
       </c>
       <c r="E75" t="n">
-        <v>11467.92566965837</v>
+        <v>21476.02917951951</v>
       </c>
       <c r="F75" t="n">
-        <v>11162.64661580624</v>
+        <v>20741.86938460551</v>
       </c>
       <c r="G75" t="n">
-        <v>11473.77732434555</v>
+        <v>21345.4484251573</v>
       </c>
       <c r="H75" t="n">
-        <v>-767.6667460757699</v>
+        <v>-1369.266196190354</v>
       </c>
       <c r="I75" t="n">
-        <v>-767.6667460757699</v>
+        <v>-1369.266196190354</v>
       </c>
       <c r="J75" t="n">
-        <v>-767.6667460757699</v>
+        <v>-1369.266196190354</v>
       </c>
       <c r="K75" t="n">
-        <v>-767.6667460757699</v>
+        <v>-1369.266196190354</v>
       </c>
       <c r="L75" t="n">
-        <v>-767.6667460757699</v>
+        <v>-1369.266196190354</v>
       </c>
       <c r="M75" t="n">
-        <v>-767.6667460757699</v>
+        <v>-1369.266196190354</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>10548.3420374343</v>
+        <v>19696.6242152976</v>
       </c>
     </row>
     <row r="76">
@@ -4449,37 +4449,37 @@
         <v>44986</v>
       </c>
       <c r="C76" t="n">
-        <v>11297.44496513479</v>
+        <v>20963.33363333535</v>
       </c>
       <c r="D76" t="n">
-        <v>10009.19488889821</v>
+        <v>18575.31283341497</v>
       </c>
       <c r="E76" t="n">
-        <v>11751.24527382362</v>
+        <v>21892.56713157636</v>
       </c>
       <c r="F76" t="n">
-        <v>11121.29380310337</v>
+        <v>20585.67297460186</v>
       </c>
       <c r="G76" t="n">
-        <v>11480.23878213811</v>
+        <v>21291.9730902492</v>
       </c>
       <c r="H76" t="n">
-        <v>-422.9437993968564</v>
+        <v>-691.2284013742947</v>
       </c>
       <c r="I76" t="n">
-        <v>-422.9437993968564</v>
+        <v>-691.2284013742947</v>
       </c>
       <c r="J76" t="n">
-        <v>-422.9437993968564</v>
+        <v>-691.2284013742947</v>
       </c>
       <c r="K76" t="n">
-        <v>-422.9437993968564</v>
+        <v>-691.2284013742947</v>
       </c>
       <c r="L76" t="n">
-        <v>-422.9437993968564</v>
+        <v>-691.2284013742947</v>
       </c>
       <c r="M76" t="n">
-        <v>-422.9437993968564</v>
+        <v>-691.2284013742947</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>10874.50116573794</v>
+        <v>20272.10523196105</v>
       </c>
     </row>
     <row r="77">
@@ -4502,37 +4502,37 @@
         <v>45017</v>
       </c>
       <c r="C77" t="n">
-        <v>11276.89216621931</v>
+        <v>20849.7886289521</v>
       </c>
       <c r="D77" t="n">
-        <v>10461.08307460819</v>
+        <v>19606.89902806135</v>
       </c>
       <c r="E77" t="n">
-        <v>12277.43653541629</v>
+        <v>22951.9551612303</v>
       </c>
       <c r="F77" t="n">
-        <v>11078.6057913606</v>
+        <v>20397.92045791405</v>
       </c>
       <c r="G77" t="n">
-        <v>11490.65511480062</v>
+        <v>21226.57696863839</v>
       </c>
       <c r="H77" t="n">
-        <v>126.3918136009148</v>
+        <v>457.1002944579892</v>
       </c>
       <c r="I77" t="n">
-        <v>126.3918136009148</v>
+        <v>457.1002944579892</v>
       </c>
       <c r="J77" t="n">
-        <v>126.3918136009148</v>
+        <v>457.1002944579892</v>
       </c>
       <c r="K77" t="n">
-        <v>126.3918136009148</v>
+        <v>457.1002944579892</v>
       </c>
       <c r="L77" t="n">
-        <v>126.3918136009148</v>
+        <v>457.1002944579892</v>
       </c>
       <c r="M77" t="n">
-        <v>126.3918136009148</v>
+        <v>457.1002944579892</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>11403.28397982022</v>
+        <v>21306.88892341009</v>
       </c>
     </row>
     <row r="78">
@@ -4555,37 +4555,37 @@
         <v>45047</v>
       </c>
       <c r="C78" t="n">
-        <v>11257.00236081722</v>
+        <v>20739.90636664574</v>
       </c>
       <c r="D78" t="n">
-        <v>11462.0784106094</v>
+        <v>21452.04304760548</v>
       </c>
       <c r="E78" t="n">
-        <v>13181.84789864465</v>
+        <v>25091.79350576598</v>
       </c>
       <c r="F78" t="n">
-        <v>11027.94156825225</v>
+        <v>20214.72297607774</v>
       </c>
       <c r="G78" t="n">
-        <v>11501.02603968906</v>
+        <v>21185.05973822406</v>
       </c>
       <c r="H78" t="n">
-        <v>1081.825148500281</v>
+        <v>2493.720289735936</v>
       </c>
       <c r="I78" t="n">
-        <v>1081.825148500281</v>
+        <v>2493.720289735936</v>
       </c>
       <c r="J78" t="n">
-        <v>1081.825148500281</v>
+        <v>2493.720289735936</v>
       </c>
       <c r="K78" t="n">
-        <v>1081.825148500281</v>
+        <v>2493.720289735936</v>
       </c>
       <c r="L78" t="n">
-        <v>1081.825148500281</v>
+        <v>2493.720289735936</v>
       </c>
       <c r="M78" t="n">
-        <v>1081.825148500281</v>
+        <v>2493.720289735936</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>12338.8275093175</v>
+        <v>23233.62665638167</v>
       </c>
     </row>
     <row r="79">
@@ -4608,37 +4608,37 @@
         <v>45078</v>
       </c>
       <c r="C79" t="n">
-        <v>11236.44956190174</v>
+        <v>20626.36136226249</v>
       </c>
       <c r="D79" t="n">
-        <v>10256.97714689642</v>
+        <v>17470.33113638623</v>
       </c>
       <c r="E79" t="n">
-        <v>12036.89566834829</v>
+        <v>20997.89920371942</v>
       </c>
       <c r="F79" t="n">
-        <v>10966.32325734859</v>
+        <v>20029.10668182792</v>
       </c>
       <c r="G79" t="n">
-        <v>11513.82586076639</v>
+        <v>21146.17671728434</v>
       </c>
       <c r="H79" t="n">
-        <v>-114.6369277317389</v>
+        <v>-1369.223303634826</v>
       </c>
       <c r="I79" t="n">
-        <v>-114.6369277317389</v>
+        <v>-1369.223303634826</v>
       </c>
       <c r="J79" t="n">
-        <v>-114.6369277317389</v>
+        <v>-1369.223303634826</v>
       </c>
       <c r="K79" t="n">
-        <v>-114.6369277317389</v>
+        <v>-1369.223303634826</v>
       </c>
       <c r="L79" t="n">
-        <v>-114.6369277317389</v>
+        <v>-1369.223303634826</v>
       </c>
       <c r="M79" t="n">
-        <v>-114.6369277317389</v>
+        <v>-1369.223303634826</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>11121.81263417</v>
+        <v>19257.13805862767</v>
       </c>
     </row>
     <row r="80">
@@ -4661,37 +4661,37 @@
         <v>45108</v>
       </c>
       <c r="C80" t="n">
-        <v>11216.55975649965</v>
+        <v>20516.47909995613</v>
       </c>
       <c r="D80" t="n">
-        <v>10199.29097886455</v>
+        <v>18539.06802979324</v>
       </c>
       <c r="E80" t="n">
-        <v>12005.17917155468</v>
+        <v>22266.79455478519</v>
       </c>
       <c r="F80" t="n">
-        <v>10913.96959351584</v>
+        <v>19843.18591914659</v>
       </c>
       <c r="G80" t="n">
-        <v>11527.25741111742</v>
+        <v>21111.29672985089</v>
       </c>
       <c r="H80" t="n">
-        <v>-100.2753351185965</v>
+        <v>-79.40280618471702</v>
       </c>
       <c r="I80" t="n">
-        <v>-100.2753351185965</v>
+        <v>-79.40280618471702</v>
       </c>
       <c r="J80" t="n">
-        <v>-100.2753351185965</v>
+        <v>-79.40280618471702</v>
       </c>
       <c r="K80" t="n">
-        <v>-100.2753351185965</v>
+        <v>-79.40280618471702</v>
       </c>
       <c r="L80" t="n">
-        <v>-100.2753351185965</v>
+        <v>-79.40280618471702</v>
       </c>
       <c r="M80" t="n">
-        <v>-100.2753351185965</v>
+        <v>-79.40280618471702</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>11116.28442138105</v>
+        <v>20437.07629377141</v>
       </c>
     </row>
     <row r="81">
@@ -4714,37 +4714,37 @@
         <v>45139</v>
       </c>
       <c r="C81" t="n">
-        <v>11196.00695758416</v>
+        <v>20402.93409557289</v>
       </c>
       <c r="D81" t="n">
-        <v>10276.92206571824</v>
+        <v>18739.91576245727</v>
       </c>
       <c r="E81" t="n">
-        <v>12213.83729249384</v>
+        <v>22526.61334829012</v>
       </c>
       <c r="F81" t="n">
-        <v>10853.00235132422</v>
+        <v>19666.76585607522</v>
       </c>
       <c r="G81" t="n">
-        <v>11538.48933594556</v>
+        <v>21061.11655780479</v>
       </c>
       <c r="H81" t="n">
-        <v>70.82598256508963</v>
+        <v>223.1758589612814</v>
       </c>
       <c r="I81" t="n">
-        <v>70.82598256508963</v>
+        <v>223.1758589612814</v>
       </c>
       <c r="J81" t="n">
-        <v>70.82598256508963</v>
+        <v>223.1758589612814</v>
       </c>
       <c r="K81" t="n">
-        <v>70.82598256508963</v>
+        <v>223.1758589612814</v>
       </c>
       <c r="L81" t="n">
-        <v>70.82598256508963</v>
+        <v>223.1758589612814</v>
       </c>
       <c r="M81" t="n">
-        <v>70.82598256508963</v>
+        <v>223.1758589612814</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>11266.83294014925</v>
+        <v>20626.10995453417</v>
       </c>
     </row>
     <row r="82">
@@ -4767,37 +4767,37 @@
         <v>45170</v>
       </c>
       <c r="C82" t="n">
-        <v>11175.45415866868</v>
+        <v>20289.38909118965</v>
       </c>
       <c r="D82" t="n">
-        <v>9928.304733661073</v>
+        <v>17735.680092739</v>
       </c>
       <c r="E82" t="n">
-        <v>11776.21097680881</v>
+        <v>21518.05699242298</v>
       </c>
       <c r="F82" t="n">
-        <v>10787.7876252944</v>
+        <v>19458.61612234799</v>
       </c>
       <c r="G82" t="n">
-        <v>11541.12936097529</v>
+        <v>21044.973762047</v>
       </c>
       <c r="H82" t="n">
-        <v>-319.8735042639079</v>
+        <v>-599.3081961343721</v>
       </c>
       <c r="I82" t="n">
-        <v>-319.8735042639079</v>
+        <v>-599.3081961343721</v>
       </c>
       <c r="J82" t="n">
-        <v>-319.8735042639079</v>
+        <v>-599.3081961343721</v>
       </c>
       <c r="K82" t="n">
-        <v>-319.8735042639079</v>
+        <v>-599.3081961343721</v>
       </c>
       <c r="L82" t="n">
-        <v>-319.8735042639079</v>
+        <v>-599.3081961343721</v>
       </c>
       <c r="M82" t="n">
-        <v>-319.8735042639079</v>
+        <v>-599.3081961343721</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>10855.58065440477</v>
+        <v>19690.08089505527</v>
       </c>
     </row>
     <row r="83">
@@ -4820,37 +4820,37 @@
         <v>45200</v>
       </c>
       <c r="C83" t="n">
-        <v>11155.56435326659</v>
+        <v>20179.50682888328</v>
       </c>
       <c r="D83" t="n">
-        <v>10999.73818098012</v>
+        <v>19874.66702500824</v>
       </c>
       <c r="E83" t="n">
-        <v>12953.2646969402</v>
+        <v>23865.74582965967</v>
       </c>
       <c r="F83" t="n">
-        <v>10728.13222198343</v>
+        <v>19261.85497766912</v>
       </c>
       <c r="G83" t="n">
-        <v>11563.2135243873</v>
+        <v>20997.82514975868</v>
       </c>
       <c r="H83" t="n">
-        <v>838.3036021495883</v>
+        <v>1706.19289706705</v>
       </c>
       <c r="I83" t="n">
-        <v>838.3036021495883</v>
+        <v>1706.19289706705</v>
       </c>
       <c r="J83" t="n">
-        <v>838.3036021495883</v>
+        <v>1706.19289706705</v>
       </c>
       <c r="K83" t="n">
-        <v>838.3036021495883</v>
+        <v>1706.19289706705</v>
       </c>
       <c r="L83" t="n">
-        <v>838.3036021495883</v>
+        <v>1706.19289706705</v>
       </c>
       <c r="M83" t="n">
-        <v>838.3036021495883</v>
+        <v>1706.19289706705</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -4862,7 +4862,60 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>11993.86795541618</v>
+        <v>21885.69972595033</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C84" t="n">
+        <v>20065.96182450003</v>
+      </c>
+      <c r="D84" t="n">
+        <v>16731.72622320606</v>
+      </c>
+      <c r="E84" t="n">
+        <v>20589.54826366926</v>
+      </c>
+      <c r="F84" t="n">
+        <v>19054.17974979434</v>
+      </c>
+      <c r="G84" t="n">
+        <v>20957.70010484395</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-1456.798636015505</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-1456.798636015505</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1456.798636015505</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-1456.798636015505</v>
+      </c>
+      <c r="L84" t="n">
+        <v>-1456.798636015505</v>
+      </c>
+      <c r="M84" t="n">
+        <v>-1456.798636015505</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>18609.16318848453</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/cb_retention_monthly.xlsx
+++ b/outputs/cb_retention_monthly.xlsx
@@ -527,37 +527,37 @@
         <v>42736</v>
       </c>
       <c r="C2" t="n">
-        <v>6753.985116731125</v>
+        <v>3498.753186303366</v>
       </c>
       <c r="D2" t="n">
-        <v>5086.255290860799</v>
+        <v>2504.742917587787</v>
       </c>
       <c r="E2" t="n">
-        <v>8683.087599501991</v>
+        <v>4157.624755831306</v>
       </c>
       <c r="F2" t="n">
-        <v>6753.985116731125</v>
+        <v>3498.753186303366</v>
       </c>
       <c r="G2" t="n">
-        <v>6753.985116731125</v>
+        <v>3498.753186303366</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.065412870122692</v>
+        <v>-169.1411768435839</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.065412870122692</v>
+        <v>-169.1411768435839</v>
       </c>
       <c r="J2" t="n">
-        <v>-2.065412870122692</v>
+        <v>-169.1411768435839</v>
       </c>
       <c r="K2" t="n">
-        <v>-2.065412870122692</v>
+        <v>-169.1411768435839</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.065412870122692</v>
+        <v>-169.1411768435839</v>
       </c>
       <c r="M2" t="n">
-        <v>-2.065412870122692</v>
+        <v>-169.1411768435839</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>6751.919703861003</v>
+        <v>3329.612009459782</v>
       </c>
     </row>
     <row r="3">
@@ -580,37 +580,37 @@
         <v>42767</v>
       </c>
       <c r="C3" t="n">
-        <v>7198.496888781088</v>
+        <v>3716.948414280274</v>
       </c>
       <c r="D3" t="n">
-        <v>4031.443209690432</v>
+        <v>2055.731073837596</v>
       </c>
       <c r="E3" t="n">
-        <v>7410.86694858855</v>
+        <v>3678.211816895792</v>
       </c>
       <c r="F3" t="n">
-        <v>7198.496888781088</v>
+        <v>3716.948414280274</v>
       </c>
       <c r="G3" t="n">
-        <v>7198.496888781088</v>
+        <v>3716.948414280274</v>
       </c>
       <c r="H3" t="n">
-        <v>-1391.208996606197</v>
+        <v>-878.1979053115468</v>
       </c>
       <c r="I3" t="n">
-        <v>-1391.208996606197</v>
+        <v>-878.1979053115468</v>
       </c>
       <c r="J3" t="n">
-        <v>-1391.208996606197</v>
+        <v>-878.1979053115468</v>
       </c>
       <c r="K3" t="n">
-        <v>-1391.208996606197</v>
+        <v>-878.1979053115468</v>
       </c>
       <c r="L3" t="n">
-        <v>-1391.208996606197</v>
+        <v>-878.1979053115468</v>
       </c>
       <c r="M3" t="n">
-        <v>-1391.208996606197</v>
+        <v>-878.1979053115468</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>5807.287892174892</v>
+        <v>2838.750508968727</v>
       </c>
     </row>
     <row r="4">
@@ -633,37 +633,37 @@
         <v>42795</v>
       </c>
       <c r="C4" t="n">
-        <v>7599.991392568152</v>
+        <v>3914.02797503361</v>
       </c>
       <c r="D4" t="n">
-        <v>6605.34155045888</v>
+        <v>3335.987957479196</v>
       </c>
       <c r="E4" t="n">
-        <v>10004.32843666229</v>
+        <v>5065.562975969376</v>
       </c>
       <c r="F4" t="n">
-        <v>7599.991392568152</v>
+        <v>3914.02797503361</v>
       </c>
       <c r="G4" t="n">
-        <v>7599.991392568152</v>
+        <v>3914.02797503361</v>
       </c>
       <c r="H4" t="n">
-        <v>758.0808305190881</v>
+        <v>275.0182021941752</v>
       </c>
       <c r="I4" t="n">
-        <v>758.0808305190881</v>
+        <v>275.0182021941752</v>
       </c>
       <c r="J4" t="n">
-        <v>758.0808305190881</v>
+        <v>275.0182021941752</v>
       </c>
       <c r="K4" t="n">
-        <v>758.0808305190881</v>
+        <v>275.0182021941752</v>
       </c>
       <c r="L4" t="n">
-        <v>758.0808305190881</v>
+        <v>275.0182021941752</v>
       </c>
       <c r="M4" t="n">
-        <v>758.0808305190881</v>
+        <v>275.0182021941752</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>8358.07222308724</v>
+        <v>4189.046177227786</v>
       </c>
     </row>
     <row r="5">
@@ -686,37 +686,37 @@
         <v>42826</v>
       </c>
       <c r="C5" t="n">
-        <v>8044.503164992747</v>
+        <v>4132.223206418612</v>
       </c>
       <c r="D5" t="n">
-        <v>7471.134452037006</v>
+        <v>3666.33950946976</v>
       </c>
       <c r="E5" t="n">
-        <v>10643.46950656231</v>
+        <v>5331.075792374016</v>
       </c>
       <c r="F5" t="n">
-        <v>8044.503164992747</v>
+        <v>4132.223206418612</v>
       </c>
       <c r="G5" t="n">
-        <v>8044.503164992747</v>
+        <v>4132.223206418612</v>
       </c>
       <c r="H5" t="n">
-        <v>961.2564565663785</v>
+        <v>373.6483429505576</v>
       </c>
       <c r="I5" t="n">
-        <v>961.2564565663785</v>
+        <v>373.6483429505576</v>
       </c>
       <c r="J5" t="n">
-        <v>961.2564565663785</v>
+        <v>373.6483429505576</v>
       </c>
       <c r="K5" t="n">
-        <v>961.2564565663785</v>
+        <v>373.6483429505576</v>
       </c>
       <c r="L5" t="n">
-        <v>961.2564565663785</v>
+        <v>373.6483429505576</v>
       </c>
       <c r="M5" t="n">
-        <v>961.2564565663785</v>
+        <v>373.6483429505576</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9005.759621559126</v>
+        <v>4505.87154936917</v>
       </c>
     </row>
     <row r="6">
@@ -739,37 +739,37 @@
         <v>42856</v>
       </c>
       <c r="C6" t="n">
-        <v>8474.67584798429</v>
+        <v>4343.379881952483</v>
       </c>
       <c r="D6" t="n">
-        <v>7216.468269758369</v>
+        <v>3593.968205166516</v>
       </c>
       <c r="E6" t="n">
-        <v>10454.29682574002</v>
+        <v>5251.390990278344</v>
       </c>
       <c r="F6" t="n">
-        <v>8474.67584798429</v>
+        <v>4343.379881952483</v>
       </c>
       <c r="G6" t="n">
-        <v>8474.67584798429</v>
+        <v>4343.379881952483</v>
       </c>
       <c r="H6" t="n">
-        <v>386.8156494871748</v>
+        <v>84.51733433670752</v>
       </c>
       <c r="I6" t="n">
-        <v>386.8156494871748</v>
+        <v>84.51733433670752</v>
       </c>
       <c r="J6" t="n">
-        <v>386.8156494871748</v>
+        <v>84.51733433670752</v>
       </c>
       <c r="K6" t="n">
-        <v>386.8156494871748</v>
+        <v>84.51733433670752</v>
       </c>
       <c r="L6" t="n">
-        <v>386.8156494871748</v>
+        <v>84.51733433670752</v>
       </c>
       <c r="M6" t="n">
-        <v>386.8156494871748</v>
+        <v>84.51733433670752</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>8861.491497471465</v>
+        <v>4427.897216289191</v>
       </c>
     </row>
     <row r="7">
@@ -792,37 +792,37 @@
         <v>42887</v>
       </c>
       <c r="C7" t="n">
-        <v>8919.187621028848</v>
+        <v>4561.575109714968</v>
       </c>
       <c r="D7" t="n">
-        <v>6637.627678555885</v>
+        <v>3831.6159127584</v>
       </c>
       <c r="E7" t="n">
-        <v>10118.51525088685</v>
+        <v>5599.331961119128</v>
       </c>
       <c r="F7" t="n">
-        <v>8919.187621028848</v>
+        <v>4561.575109714968</v>
       </c>
       <c r="G7" t="n">
-        <v>8919.187621028848</v>
+        <v>4561.575109714968</v>
       </c>
       <c r="H7" t="n">
-        <v>-448.0059329230309</v>
+        <v>134.6375625281982</v>
       </c>
       <c r="I7" t="n">
-        <v>-448.0059329230309</v>
+        <v>134.6375625281982</v>
       </c>
       <c r="J7" t="n">
-        <v>-448.0059329230309</v>
+        <v>134.6375625281982</v>
       </c>
       <c r="K7" t="n">
-        <v>-448.0059329230309</v>
+        <v>134.6375625281982</v>
       </c>
       <c r="L7" t="n">
-        <v>-448.0059329230309</v>
+        <v>134.6375625281982</v>
       </c>
       <c r="M7" t="n">
-        <v>-448.0059329230309</v>
+        <v>134.6375625281982</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>8471.181688105817</v>
+        <v>4696.212672243166</v>
       </c>
     </row>
     <row r="8">
@@ -845,37 +845,37 @@
         <v>42917</v>
       </c>
       <c r="C8" t="n">
-        <v>9349.360304620359</v>
+        <v>4772.731781743179</v>
       </c>
       <c r="D8" t="n">
-        <v>7198.084586900145</v>
+        <v>3713.665115489554</v>
       </c>
       <c r="E8" t="n">
-        <v>10733.40029284487</v>
+        <v>5419.993185264102</v>
       </c>
       <c r="F8" t="n">
-        <v>9349.360304620359</v>
+        <v>4772.731781743179</v>
       </c>
       <c r="G8" t="n">
-        <v>9349.360304620359</v>
+        <v>4772.731781743179</v>
       </c>
       <c r="H8" t="n">
-        <v>-301.6924089076023</v>
+        <v>-207.1453788018232</v>
       </c>
       <c r="I8" t="n">
-        <v>-301.6924089076023</v>
+        <v>-207.1453788018232</v>
       </c>
       <c r="J8" t="n">
-        <v>-301.6924089076023</v>
+        <v>-207.1453788018232</v>
       </c>
       <c r="K8" t="n">
-        <v>-301.6924089076023</v>
+        <v>-207.1453788018232</v>
       </c>
       <c r="L8" t="n">
-        <v>-301.6924089076023</v>
+        <v>-207.1453788018232</v>
       </c>
       <c r="M8" t="n">
-        <v>-301.6924089076023</v>
+        <v>-207.1453788018232</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9047.667895712757</v>
+        <v>4565.586402941355</v>
       </c>
     </row>
     <row r="9">
@@ -898,37 +898,37 @@
         <v>42948</v>
       </c>
       <c r="C9" t="n">
-        <v>9793.872077388694</v>
+        <v>4990.927005596295</v>
       </c>
       <c r="D9" t="n">
-        <v>8093.736757995677</v>
+        <v>4149.899651606219</v>
       </c>
       <c r="E9" t="n">
-        <v>11469.87527952062</v>
+        <v>5788.661401160414</v>
       </c>
       <c r="F9" t="n">
-        <v>9793.872077388694</v>
+        <v>4990.927005596295</v>
       </c>
       <c r="G9" t="n">
-        <v>9793.872077388694</v>
+        <v>4990.927005596295</v>
       </c>
       <c r="H9" t="n">
-        <v>60.15814294172256</v>
+        <v>-39.15100728599506</v>
       </c>
       <c r="I9" t="n">
-        <v>60.15814294172256</v>
+        <v>-39.15100728599506</v>
       </c>
       <c r="J9" t="n">
-        <v>60.15814294172256</v>
+        <v>-39.15100728599506</v>
       </c>
       <c r="K9" t="n">
-        <v>60.15814294172256</v>
+        <v>-39.15100728599506</v>
       </c>
       <c r="L9" t="n">
-        <v>60.15814294172256</v>
+        <v>-39.15100728599506</v>
       </c>
       <c r="M9" t="n">
-        <v>60.15814294172256</v>
+        <v>-39.15100728599506</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9854.030220330416</v>
+        <v>4951.775998310301</v>
       </c>
     </row>
     <row r="10">
@@ -951,37 +951,37 @@
         <v>42979</v>
       </c>
       <c r="C10" t="n">
-        <v>10238.38385015703</v>
+        <v>5209.122229449414</v>
       </c>
       <c r="D10" t="n">
-        <v>9003.902265612522</v>
+        <v>4543.992154274492</v>
       </c>
       <c r="E10" t="n">
-        <v>12303.07223683377</v>
+        <v>6169.131882887866</v>
       </c>
       <c r="F10" t="n">
-        <v>10238.38385015703</v>
+        <v>5209.122229449414</v>
       </c>
       <c r="G10" t="n">
-        <v>10238.38385015703</v>
+        <v>5209.122229449414</v>
       </c>
       <c r="H10" t="n">
-        <v>408.2881584131234</v>
+        <v>122.8281024497748</v>
       </c>
       <c r="I10" t="n">
-        <v>408.2881584131234</v>
+        <v>122.8281024497748</v>
       </c>
       <c r="J10" t="n">
-        <v>408.2881584131234</v>
+        <v>122.8281024497748</v>
       </c>
       <c r="K10" t="n">
-        <v>408.2881584131234</v>
+        <v>122.8281024497748</v>
       </c>
       <c r="L10" t="n">
-        <v>408.2881584131234</v>
+        <v>122.8281024497748</v>
       </c>
       <c r="M10" t="n">
-        <v>408.2881584131234</v>
+        <v>122.8281024497748</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>10646.67200857015</v>
+        <v>5331.950331899188</v>
       </c>
     </row>
     <row r="11">
@@ -1004,37 +1004,37 @@
         <v>43009</v>
       </c>
       <c r="C11" t="n">
-        <v>10668.5565328389</v>
+        <v>5420.278898929353</v>
       </c>
       <c r="D11" t="n">
-        <v>9750.002621314525</v>
+        <v>4839.242439264798</v>
       </c>
       <c r="E11" t="n">
-        <v>12965.01675856703</v>
+        <v>6559.951925396901</v>
       </c>
       <c r="F11" t="n">
-        <v>10668.5565328389</v>
+        <v>5420.278898929353</v>
       </c>
       <c r="G11" t="n">
-        <v>10668.5565328389</v>
+        <v>5420.278898929353</v>
       </c>
       <c r="H11" t="n">
-        <v>769.2373626717365</v>
+        <v>288.511290008386</v>
       </c>
       <c r="I11" t="n">
-        <v>769.2373626717365</v>
+        <v>288.511290008386</v>
       </c>
       <c r="J11" t="n">
-        <v>769.2373626717365</v>
+        <v>288.511290008386</v>
       </c>
       <c r="K11" t="n">
-        <v>769.2373626717365</v>
+        <v>288.511290008386</v>
       </c>
       <c r="L11" t="n">
-        <v>769.2373626717365</v>
+        <v>288.511290008386</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2373626717365</v>
+        <v>288.511290008386</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>11437.79389551064</v>
+        <v>5708.790188937739</v>
       </c>
     </row>
     <row r="12">
@@ -1057,37 +1057,37 @@
         <v>43040</v>
       </c>
       <c r="C12" t="n">
-        <v>11113.0683049435</v>
+        <v>5638.474124058625</v>
       </c>
       <c r="D12" t="n">
-        <v>8423.273322586376</v>
+        <v>4124.394237515874</v>
       </c>
       <c r="E12" t="n">
-        <v>11620.58744666684</v>
+        <v>5742.955928789427</v>
       </c>
       <c r="F12" t="n">
-        <v>11113.0683049435</v>
+        <v>5638.474124058625</v>
       </c>
       <c r="G12" t="n">
-        <v>11113.0683049435</v>
+        <v>5638.474124058625</v>
       </c>
       <c r="H12" t="n">
-        <v>-1044.616878621316</v>
+        <v>-635.2447119356225</v>
       </c>
       <c r="I12" t="n">
-        <v>-1044.616878621316</v>
+        <v>-635.2447119356225</v>
       </c>
       <c r="J12" t="n">
-        <v>-1044.616878621316</v>
+        <v>-635.2447119356225</v>
       </c>
       <c r="K12" t="n">
-        <v>-1044.616878621316</v>
+        <v>-635.2447119356225</v>
       </c>
       <c r="L12" t="n">
-        <v>-1044.616878621316</v>
+        <v>-635.2447119356225</v>
       </c>
       <c r="M12" t="n">
-        <v>-1044.616878621316</v>
+        <v>-635.2447119356225</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>10068.45142632218</v>
+        <v>5003.229412123002</v>
       </c>
     </row>
     <row r="13">
@@ -1110,37 +1110,37 @@
         <v>43070</v>
       </c>
       <c r="C13" t="n">
-        <v>11543.24098718324</v>
+        <v>5849.630788975967</v>
       </c>
       <c r="D13" t="n">
-        <v>8081.966583928698</v>
+        <v>3992.966100766369</v>
       </c>
       <c r="E13" t="n">
-        <v>11389.59674794919</v>
+        <v>5605.713417090739</v>
       </c>
       <c r="F13" t="n">
-        <v>11543.24098718324</v>
+        <v>5849.630788975967</v>
       </c>
       <c r="G13" t="n">
-        <v>11543.24098718324</v>
+        <v>5849.630788975967</v>
       </c>
       <c r="H13" t="n">
-        <v>-1826.634517320137</v>
+        <v>-1042.681171974139</v>
       </c>
       <c r="I13" t="n">
-        <v>-1826.634517320137</v>
+        <v>-1042.681171974139</v>
       </c>
       <c r="J13" t="n">
-        <v>-1826.634517320137</v>
+        <v>-1042.681171974139</v>
       </c>
       <c r="K13" t="n">
-        <v>-1826.634517320137</v>
+        <v>-1042.681171974139</v>
       </c>
       <c r="L13" t="n">
-        <v>-1826.634517320137</v>
+        <v>-1042.681171974139</v>
       </c>
       <c r="M13" t="n">
-        <v>-1826.634517320137</v>
+        <v>-1042.681171974139</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>9716.6064698631</v>
+        <v>4806.949617001828</v>
       </c>
     </row>
     <row r="14">
@@ -1163,37 +1163,37 @@
         <v>43101</v>
       </c>
       <c r="C14" t="n">
-        <v>11987.75275883097</v>
+        <v>6067.826009390556</v>
       </c>
       <c r="D14" t="n">
-        <v>11189.77515866206</v>
+        <v>5573.823435204758</v>
       </c>
       <c r="E14" t="n">
-        <v>14627.11471395046</v>
+        <v>7232.326552947045</v>
       </c>
       <c r="F14" t="n">
-        <v>11987.75275883097</v>
+        <v>6067.826009390556</v>
       </c>
       <c r="G14" t="n">
-        <v>11987.75275883097</v>
+        <v>6067.826009390556</v>
       </c>
       <c r="H14" t="n">
-        <v>948.8177959605673</v>
+        <v>343.6817024248817</v>
       </c>
       <c r="I14" t="n">
-        <v>948.8177959605673</v>
+        <v>343.6817024248817</v>
       </c>
       <c r="J14" t="n">
-        <v>948.8177959605673</v>
+        <v>343.6817024248817</v>
       </c>
       <c r="K14" t="n">
-        <v>948.8177959605673</v>
+        <v>343.6817024248817</v>
       </c>
       <c r="L14" t="n">
-        <v>948.8177959605673</v>
+        <v>343.6817024248817</v>
       </c>
       <c r="M14" t="n">
-        <v>948.8177959605673</v>
+        <v>343.6817024248817</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>12936.57055479153</v>
+        <v>6411.507711815437</v>
       </c>
     </row>
     <row r="15">
@@ -1216,37 +1216,37 @@
         <v>43132</v>
       </c>
       <c r="C15" t="n">
-        <v>12432.26453063896</v>
+        <v>6286.02122421677</v>
       </c>
       <c r="D15" t="n">
-        <v>9397.139293232678</v>
+        <v>4702.842871472178</v>
       </c>
       <c r="E15" t="n">
-        <v>12782.48646716216</v>
+        <v>6276.500711452237</v>
       </c>
       <c r="F15" t="n">
-        <v>12432.26453063896</v>
+        <v>6286.02122421677</v>
       </c>
       <c r="G15" t="n">
-        <v>12432.26453063896</v>
+        <v>6286.02122421677</v>
       </c>
       <c r="H15" t="n">
-        <v>-1369.953872896061</v>
+        <v>-821.5870138471173</v>
       </c>
       <c r="I15" t="n">
-        <v>-1369.953872896061</v>
+        <v>-821.5870138471173</v>
       </c>
       <c r="J15" t="n">
-        <v>-1369.953872896061</v>
+        <v>-821.5870138471173</v>
       </c>
       <c r="K15" t="n">
-        <v>-1369.953872896061</v>
+        <v>-821.5870138471173</v>
       </c>
       <c r="L15" t="n">
-        <v>-1369.953872896061</v>
+        <v>-821.5870138471173</v>
       </c>
       <c r="M15" t="n">
-        <v>-1369.953872896061</v>
+        <v>-821.5870138471173</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>11062.3106577429</v>
+        <v>5464.434210369653</v>
       </c>
     </row>
     <row r="16">
@@ -1269,37 +1269,37 @@
         <v>43160</v>
       </c>
       <c r="C16" t="n">
-        <v>12833.75903420748</v>
+        <v>6483.100773092061</v>
       </c>
       <c r="D16" t="n">
-        <v>11233.99282520656</v>
+        <v>5474.130952105799</v>
       </c>
       <c r="E16" t="n">
-        <v>14583.12009366348</v>
+        <v>7180.917000514925</v>
       </c>
       <c r="F16" t="n">
-        <v>12833.75903420748</v>
+        <v>6483.100773092061</v>
       </c>
       <c r="G16" t="n">
-        <v>12833.75903420748</v>
+        <v>6483.100773092061</v>
       </c>
       <c r="H16" t="n">
-        <v>33.27690208468916</v>
+        <v>-148.5525413862296</v>
       </c>
       <c r="I16" t="n">
-        <v>33.27690208468916</v>
+        <v>-148.5525413862296</v>
       </c>
       <c r="J16" t="n">
-        <v>33.27690208468916</v>
+        <v>-148.5525413862296</v>
       </c>
       <c r="K16" t="n">
-        <v>33.27690208468916</v>
+        <v>-148.5525413862296</v>
       </c>
       <c r="L16" t="n">
-        <v>33.27690208468916</v>
+        <v>-148.5525413862296</v>
       </c>
       <c r="M16" t="n">
-        <v>33.27690208468916</v>
+        <v>-148.5525413862296</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>12867.03593629217</v>
+        <v>6334.548231705831</v>
       </c>
     </row>
     <row r="17">
@@ -1322,37 +1322,37 @@
         <v>43191</v>
       </c>
       <c r="C17" t="n">
-        <v>13278.27080530898</v>
+        <v>6701.295983565635</v>
       </c>
       <c r="D17" t="n">
-        <v>12211.25219686995</v>
+        <v>6013.002952441168</v>
       </c>
       <c r="E17" t="n">
-        <v>15767.24250483426</v>
+        <v>7700.191441744308</v>
       </c>
       <c r="F17" t="n">
-        <v>13278.27080530898</v>
+        <v>6701.295983565635</v>
       </c>
       <c r="G17" t="n">
-        <v>13278.27080530898</v>
+        <v>6701.295983565635</v>
       </c>
       <c r="H17" t="n">
-        <v>697.6413746184168</v>
+        <v>174.2175411523156</v>
       </c>
       <c r="I17" t="n">
-        <v>697.6413746184168</v>
+        <v>174.2175411523156</v>
       </c>
       <c r="J17" t="n">
-        <v>697.6413746184168</v>
+        <v>174.2175411523156</v>
       </c>
       <c r="K17" t="n">
-        <v>697.6413746184168</v>
+        <v>174.2175411523156</v>
       </c>
       <c r="L17" t="n">
-        <v>697.6413746184168</v>
+        <v>174.2175411523156</v>
       </c>
       <c r="M17" t="n">
-        <v>697.6413746184168</v>
+        <v>174.2175411523156</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>13975.91217992739</v>
+        <v>6875.513524717951</v>
       </c>
     </row>
     <row r="18">
@@ -1375,37 +1375,37 @@
         <v>43221</v>
       </c>
       <c r="C18" t="n">
-        <v>13708.4434870201</v>
+        <v>6912.452638862643</v>
       </c>
       <c r="D18" t="n">
-        <v>13375.44050970026</v>
+        <v>6656.362683997433</v>
       </c>
       <c r="E18" t="n">
-        <v>16855.70798019939</v>
+        <v>8320.248431239675</v>
       </c>
       <c r="F18" t="n">
-        <v>13708.4434870201</v>
+        <v>6912.452638862643</v>
       </c>
       <c r="G18" t="n">
-        <v>13708.4434870201</v>
+        <v>6912.452638862643</v>
       </c>
       <c r="H18" t="n">
-        <v>1440.556461788435</v>
+        <v>533.9837278122798</v>
       </c>
       <c r="I18" t="n">
-        <v>1440.556461788435</v>
+        <v>533.9837278122798</v>
       </c>
       <c r="J18" t="n">
-        <v>1440.556461788435</v>
+        <v>533.9837278122798</v>
       </c>
       <c r="K18" t="n">
-        <v>1440.556461788435</v>
+        <v>533.9837278122798</v>
       </c>
       <c r="L18" t="n">
-        <v>1440.556461788435</v>
+        <v>533.9837278122798</v>
       </c>
       <c r="M18" t="n">
-        <v>1440.556461788435</v>
+        <v>533.9837278122798</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>15148.99994880854</v>
+        <v>7446.436366674922</v>
       </c>
     </row>
     <row r="19">
@@ -1428,37 +1428,37 @@
         <v>43252</v>
       </c>
       <c r="C19" t="n">
-        <v>14152.95525809998</v>
+        <v>7130.647848754884</v>
       </c>
       <c r="D19" t="n">
-        <v>11582.70319669601</v>
+        <v>6517.833050250819</v>
       </c>
       <c r="E19" t="n">
-        <v>15010.60549099025</v>
+        <v>8093.882356986188</v>
       </c>
       <c r="F19" t="n">
-        <v>14152.95525809998</v>
+        <v>7130.647848754884</v>
       </c>
       <c r="G19" t="n">
-        <v>14152.95525809998</v>
+        <v>7130.647848754884</v>
       </c>
       <c r="H19" t="n">
-        <v>-903.0245955988921</v>
+        <v>161.5214537026245</v>
       </c>
       <c r="I19" t="n">
-        <v>-903.0245955988921</v>
+        <v>161.5214537026245</v>
       </c>
       <c r="J19" t="n">
-        <v>-903.0245955988921</v>
+        <v>161.5214537026245</v>
       </c>
       <c r="K19" t="n">
-        <v>-903.0245955988921</v>
+        <v>161.5214537026245</v>
       </c>
       <c r="L19" t="n">
-        <v>-903.0245955988921</v>
+        <v>161.5214537026245</v>
       </c>
       <c r="M19" t="n">
-        <v>-903.0245955988921</v>
+        <v>161.5214537026245</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>13249.93066250109</v>
+        <v>7292.169302457509</v>
       </c>
     </row>
     <row r="20">
@@ -1481,37 +1481,37 @@
         <v>43282</v>
       </c>
       <c r="C20" t="n">
-        <v>14583.12793979018</v>
+        <v>7341.80450348931</v>
       </c>
       <c r="D20" t="n">
-        <v>12782.9051390883</v>
+        <v>6336.93729503086</v>
       </c>
       <c r="E20" t="n">
-        <v>16100.11216882655</v>
+        <v>7938.798841245605</v>
       </c>
       <c r="F20" t="n">
-        <v>14583.12793979018</v>
+        <v>7341.80450348931</v>
       </c>
       <c r="G20" t="n">
-        <v>14583.12793979018</v>
+        <v>7341.80450348931</v>
       </c>
       <c r="H20" t="n">
-        <v>-191.1659119471973</v>
+        <v>-208.5250628522113</v>
       </c>
       <c r="I20" t="n">
-        <v>-191.1659119471973</v>
+        <v>-208.5250628522113</v>
       </c>
       <c r="J20" t="n">
-        <v>-191.1659119471973</v>
+        <v>-208.5250628522113</v>
       </c>
       <c r="K20" t="n">
-        <v>-191.1659119471973</v>
+        <v>-208.5250628522113</v>
       </c>
       <c r="L20" t="n">
-        <v>-191.1659119471973</v>
+        <v>-208.5250628522113</v>
       </c>
       <c r="M20" t="n">
-        <v>-191.1659119471973</v>
+        <v>-208.5250628522113</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>14391.96202784299</v>
+        <v>7133.279440637099</v>
       </c>
     </row>
     <row r="21">
@@ -1534,37 +1534,37 @@
         <v>43313</v>
       </c>
       <c r="C21" t="n">
-        <v>15027.6397104238</v>
+        <v>7559.999716065759</v>
       </c>
       <c r="D21" t="n">
-        <v>13507.15514653893</v>
+        <v>6679.914522131447</v>
       </c>
       <c r="E21" t="n">
-        <v>16759.31278672772</v>
+        <v>8375.884918142687</v>
       </c>
       <c r="F21" t="n">
-        <v>15027.6397104238</v>
+        <v>7559.999716065759</v>
       </c>
       <c r="G21" t="n">
-        <v>15027.6397104238</v>
+        <v>7559.999716065759</v>
       </c>
       <c r="H21" t="n">
-        <v>145.0933983553257</v>
+        <v>-42.73910010042459</v>
       </c>
       <c r="I21" t="n">
-        <v>145.0933983553257</v>
+        <v>-42.73910010042459</v>
       </c>
       <c r="J21" t="n">
-        <v>145.0933983553257</v>
+        <v>-42.73910010042459</v>
       </c>
       <c r="K21" t="n">
-        <v>145.0933983553257</v>
+        <v>-42.73910010042459</v>
       </c>
       <c r="L21" t="n">
-        <v>145.0933983553257</v>
+        <v>-42.73910010042459</v>
       </c>
       <c r="M21" t="n">
-        <v>145.0933983553257</v>
+        <v>-42.73910010042459</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>15172.73310877913</v>
+        <v>7517.260615965335</v>
       </c>
     </row>
     <row r="22">
@@ -1587,37 +1587,37 @@
         <v>43344</v>
       </c>
       <c r="C22" t="n">
-        <v>15472.15148105743</v>
+        <v>7778.194928642209</v>
       </c>
       <c r="D22" t="n">
-        <v>13665.23274527533</v>
+        <v>6795.147963130834</v>
       </c>
       <c r="E22" t="n">
-        <v>17101.58626426912</v>
+        <v>8399.62512898577</v>
       </c>
       <c r="F22" t="n">
-        <v>15472.15148105743</v>
+        <v>7778.194928642209</v>
       </c>
       <c r="G22" t="n">
-        <v>15472.15148105743</v>
+        <v>7778.194928642209</v>
       </c>
       <c r="H22" t="n">
-        <v>-97.37379396574056</v>
+        <v>-165.9431382726699</v>
       </c>
       <c r="I22" t="n">
-        <v>-97.37379396574056</v>
+        <v>-165.9431382726699</v>
       </c>
       <c r="J22" t="n">
-        <v>-97.37379396574056</v>
+        <v>-165.9431382726699</v>
       </c>
       <c r="K22" t="n">
-        <v>-97.37379396574056</v>
+        <v>-165.9431382726699</v>
       </c>
       <c r="L22" t="n">
-        <v>-97.37379396574056</v>
+        <v>-165.9431382726699</v>
       </c>
       <c r="M22" t="n">
-        <v>-97.37379396574056</v>
+        <v>-165.9431382726699</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>15374.77768709169</v>
+        <v>7612.251790369539</v>
       </c>
     </row>
     <row r="23">
@@ -1640,37 +1640,37 @@
         <v>43374</v>
       </c>
       <c r="C23" t="n">
-        <v>15902.32416175789</v>
+        <v>7989.351582680617</v>
       </c>
       <c r="D23" t="n">
-        <v>15424.09833819869</v>
+        <v>7597.239408288428</v>
       </c>
       <c r="E23" t="n">
-        <v>18905.76193117446</v>
+        <v>9270.583766774169</v>
       </c>
       <c r="F23" t="n">
-        <v>15902.32416175789</v>
+        <v>7989.351582680617</v>
       </c>
       <c r="G23" t="n">
-        <v>15902.32416175789</v>
+        <v>7989.351582680617</v>
       </c>
       <c r="H23" t="n">
-        <v>1236.463130932977</v>
+        <v>503.7055603945682</v>
       </c>
       <c r="I23" t="n">
-        <v>1236.463130932977</v>
+        <v>503.7055603945682</v>
       </c>
       <c r="J23" t="n">
-        <v>1236.463130932977</v>
+        <v>503.7055603945682</v>
       </c>
       <c r="K23" t="n">
-        <v>1236.463130932977</v>
+        <v>503.7055603945682</v>
       </c>
       <c r="L23" t="n">
-        <v>1236.463130932977</v>
+        <v>503.7055603945682</v>
       </c>
       <c r="M23" t="n">
-        <v>1236.463130932977</v>
+        <v>503.7055603945682</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>17138.78729269086</v>
+        <v>8493.057143075184</v>
       </c>
     </row>
     <row r="24">
@@ -1693,37 +1693,37 @@
         <v>43405</v>
       </c>
       <c r="C24" t="n">
-        <v>16346.83593181504</v>
+        <v>8207.546791853641</v>
       </c>
       <c r="D24" t="n">
-        <v>13321.46174069794</v>
+        <v>6688.495191200041</v>
       </c>
       <c r="E24" t="n">
-        <v>16739.12830512162</v>
+        <v>8309.546750358319</v>
       </c>
       <c r="F24" t="n">
-        <v>16346.83593181504</v>
+        <v>8207.546791853641</v>
       </c>
       <c r="G24" t="n">
-        <v>16346.83593181504</v>
+        <v>8207.546791853641</v>
       </c>
       <c r="H24" t="n">
-        <v>-1248.026553646652</v>
+        <v>-732.2052818924097</v>
       </c>
       <c r="I24" t="n">
-        <v>-1248.026553646652</v>
+        <v>-732.2052818924097</v>
       </c>
       <c r="J24" t="n">
-        <v>-1248.026553646652</v>
+        <v>-732.2052818924097</v>
       </c>
       <c r="K24" t="n">
-        <v>-1248.026553646652</v>
+        <v>-732.2052818924097</v>
       </c>
       <c r="L24" t="n">
-        <v>-1248.026553646652</v>
+        <v>-732.2052818924097</v>
       </c>
       <c r="M24" t="n">
-        <v>-1248.026553646652</v>
+        <v>-732.2052818924097</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>15098.80937816838</v>
+        <v>7475.341509961232</v>
       </c>
     </row>
     <row r="25">
@@ -1746,37 +1746,37 @@
         <v>43435</v>
       </c>
       <c r="C25" t="n">
-        <v>16777.00861236714</v>
+        <v>8418.70343928916</v>
       </c>
       <c r="D25" t="n">
-        <v>12898.93899528685</v>
+        <v>6368.91733736906</v>
       </c>
       <c r="E25" t="n">
-        <v>16332.30670567482</v>
+        <v>8079.214264975882</v>
       </c>
       <c r="F25" t="n">
-        <v>16777.00861236714</v>
+        <v>8418.70343928916</v>
       </c>
       <c r="G25" t="n">
-        <v>16777.00861236714</v>
+        <v>8418.70343928916</v>
       </c>
       <c r="H25" t="n">
-        <v>-2221.51661249633</v>
+        <v>-1212.074245480729</v>
       </c>
       <c r="I25" t="n">
-        <v>-2221.51661249633</v>
+        <v>-1212.074245480729</v>
       </c>
       <c r="J25" t="n">
-        <v>-2221.51661249633</v>
+        <v>-1212.074245480729</v>
       </c>
       <c r="K25" t="n">
-        <v>-2221.51661249633</v>
+        <v>-1212.074245480729</v>
       </c>
       <c r="L25" t="n">
-        <v>-2221.51661249633</v>
+        <v>-1212.074245480729</v>
       </c>
       <c r="M25" t="n">
-        <v>-2221.51661249633</v>
+        <v>-1212.074245480729</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>14555.49199987081</v>
+        <v>7206.629193808431</v>
       </c>
     </row>
     <row r="26">
@@ -1799,37 +1799,37 @@
         <v>43466</v>
       </c>
       <c r="C26" t="n">
-        <v>17221.52038227098</v>
+        <v>8636.898641639196</v>
       </c>
       <c r="D26" t="n">
-        <v>17480.82329586587</v>
+        <v>8665.843283126447</v>
       </c>
       <c r="E26" t="n">
-        <v>20635.40975501302</v>
+        <v>10339.08647211991</v>
       </c>
       <c r="F26" t="n">
-        <v>17221.52038227098</v>
+        <v>8636.898641639196</v>
       </c>
       <c r="G26" t="n">
-        <v>17221.52038227098</v>
+        <v>8636.898641639196</v>
       </c>
       <c r="H26" t="n">
-        <v>1901.457166372056</v>
+        <v>857.2298390324314</v>
       </c>
       <c r="I26" t="n">
-        <v>1901.457166372056</v>
+        <v>857.2298390324314</v>
       </c>
       <c r="J26" t="n">
-        <v>1901.457166372056</v>
+        <v>857.2298390324314</v>
       </c>
       <c r="K26" t="n">
-        <v>1901.457166372056</v>
+        <v>857.2298390324314</v>
       </c>
       <c r="L26" t="n">
-        <v>1901.457166372056</v>
+        <v>857.2298390324314</v>
       </c>
       <c r="M26" t="n">
-        <v>1901.457166372056</v>
+        <v>857.2298390324314</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>19122.97754864304</v>
+        <v>9494.128480671628</v>
       </c>
     </row>
     <row r="27">
@@ -1852,37 +1852,37 @@
         <v>43497</v>
       </c>
       <c r="C27" t="n">
-        <v>17666.03215237106</v>
+        <v>8855.093844333307</v>
       </c>
       <c r="D27" t="n">
-        <v>14649.23289676317</v>
+        <v>7323.183484569719</v>
       </c>
       <c r="E27" t="n">
-        <v>17930.96384638712</v>
+        <v>8977.486857899052</v>
       </c>
       <c r="F27" t="n">
-        <v>17666.03215237106</v>
+        <v>8855.093844333307</v>
       </c>
       <c r="G27" t="n">
-        <v>17666.03215237106</v>
+        <v>8855.093844333307</v>
       </c>
       <c r="H27" t="n">
-        <v>-1369.266196191381</v>
+        <v>-776.992550784342</v>
       </c>
       <c r="I27" t="n">
-        <v>-1369.266196191381</v>
+        <v>-776.992550784342</v>
       </c>
       <c r="J27" t="n">
-        <v>-1369.266196191381</v>
+        <v>-776.992550784342</v>
       </c>
       <c r="K27" t="n">
-        <v>-1369.266196191381</v>
+        <v>-776.992550784342</v>
       </c>
       <c r="L27" t="n">
-        <v>-1369.266196191381</v>
+        <v>-776.992550784342</v>
       </c>
       <c r="M27" t="n">
-        <v>-1369.266196191381</v>
+        <v>-776.992550784342</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>16296.76595617968</v>
+        <v>8078.101293548965</v>
       </c>
     </row>
     <row r="28">
@@ -1905,37 +1905,37 @@
         <v>43525</v>
       </c>
       <c r="C28" t="n">
-        <v>18067.52665439692</v>
+        <v>9052.173382250567</v>
       </c>
       <c r="D28" t="n">
-        <v>15802.50584826999</v>
+        <v>7638.001095897042</v>
       </c>
       <c r="E28" t="n">
-        <v>19132.42469179761</v>
+        <v>9355.925808526828</v>
       </c>
       <c r="F28" t="n">
-        <v>18067.52665439692</v>
+        <v>9052.173382250567</v>
       </c>
       <c r="G28" t="n">
-        <v>18067.52665439692</v>
+        <v>9052.173382250567</v>
       </c>
       <c r="H28" t="n">
-        <v>-691.2284013733963</v>
+        <v>-573.4351224765884</v>
       </c>
       <c r="I28" t="n">
-        <v>-691.2284013733963</v>
+        <v>-573.4351224765884</v>
       </c>
       <c r="J28" t="n">
-        <v>-691.2284013733963</v>
+        <v>-573.4351224765884</v>
       </c>
       <c r="K28" t="n">
-        <v>-691.2284013733963</v>
+        <v>-573.4351224765884</v>
       </c>
       <c r="L28" t="n">
-        <v>-691.2284013733963</v>
+        <v>-573.4351224765884</v>
       </c>
       <c r="M28" t="n">
-        <v>-691.2284013733963</v>
+        <v>-573.4351224765884</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>17376.29825302353</v>
+        <v>8478.738259773978</v>
       </c>
     </row>
     <row r="29">
@@ -1958,37 +1958,37 @@
         <v>43556</v>
       </c>
       <c r="C29" t="n">
-        <v>18512.03842449699</v>
+        <v>9270.368584944676</v>
       </c>
       <c r="D29" t="n">
-        <v>17197.45661615576</v>
+        <v>8432.5349543229</v>
       </c>
       <c r="E29" t="n">
-        <v>20624.95255142168</v>
+        <v>10118.30597092318</v>
       </c>
       <c r="F29" t="n">
-        <v>18512.03842449699</v>
+        <v>9270.368584944676</v>
       </c>
       <c r="G29" t="n">
-        <v>18512.03842449699</v>
+        <v>9270.368584944676</v>
       </c>
       <c r="H29" t="n">
-        <v>457.1002944538656</v>
+        <v>-12.94297393045884</v>
       </c>
       <c r="I29" t="n">
-        <v>457.1002944538656</v>
+        <v>-12.94297393045884</v>
       </c>
       <c r="J29" t="n">
-        <v>457.1002944538656</v>
+        <v>-12.94297393045884</v>
       </c>
       <c r="K29" t="n">
-        <v>457.1002944538656</v>
+        <v>-12.94297393045884</v>
       </c>
       <c r="L29" t="n">
-        <v>457.1002944538656</v>
+        <v>-12.94297393045884</v>
       </c>
       <c r="M29" t="n">
-        <v>457.1002944538656</v>
+        <v>-12.94297393045884</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>18969.13871895086</v>
+        <v>9257.425611014216</v>
       </c>
     </row>
     <row r="30">
@@ -2011,37 +2011,37 @@
         <v>43586</v>
       </c>
       <c r="C30" t="n">
-        <v>18942.21110290817</v>
+        <v>9481.518685122277</v>
       </c>
       <c r="D30" t="n">
-        <v>19820.24573291232</v>
+        <v>9592.829807950793</v>
       </c>
       <c r="E30" t="n">
-        <v>23031.35360275606</v>
+        <v>11330.8074152572</v>
       </c>
       <c r="F30" t="n">
-        <v>18942.21110290817</v>
+        <v>9481.518685122277</v>
       </c>
       <c r="G30" t="n">
-        <v>18942.21110290817</v>
+        <v>9481.518685122277</v>
       </c>
       <c r="H30" t="n">
-        <v>2493.72028974064</v>
+        <v>987.9517584493059</v>
       </c>
       <c r="I30" t="n">
-        <v>2493.72028974064</v>
+        <v>987.9517584493059</v>
       </c>
       <c r="J30" t="n">
-        <v>2493.72028974064</v>
+        <v>987.9517584493059</v>
       </c>
       <c r="K30" t="n">
-        <v>2493.72028974064</v>
+        <v>987.9517584493059</v>
       </c>
       <c r="L30" t="n">
-        <v>2493.72028974064</v>
+        <v>987.9517584493059</v>
       </c>
       <c r="M30" t="n">
-        <v>2493.72028974064</v>
+        <v>987.9517584493059</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>21435.93139264881</v>
+        <v>10469.47044357158</v>
       </c>
     </row>
     <row r="31">
@@ -2064,37 +2064,37 @@
         <v>43617</v>
       </c>
       <c r="C31" t="n">
-        <v>19386.72287059972</v>
+        <v>9699.707121972464</v>
       </c>
       <c r="D31" t="n">
-        <v>16365.36692396974</v>
+        <v>9018.588138852039</v>
       </c>
       <c r="E31" t="n">
-        <v>19611.46627442509</v>
+        <v>10715.46878924442</v>
       </c>
       <c r="F31" t="n">
-        <v>19386.72287059972</v>
+        <v>9699.707121972464</v>
       </c>
       <c r="G31" t="n">
-        <v>19386.72287059972</v>
+        <v>9699.707121972464</v>
       </c>
       <c r="H31" t="n">
-        <v>-1369.22330364033</v>
+        <v>183.1738991334701</v>
       </c>
       <c r="I31" t="n">
-        <v>-1369.22330364033</v>
+        <v>183.1738991334701</v>
       </c>
       <c r="J31" t="n">
-        <v>-1369.22330364033</v>
+        <v>183.1738991334701</v>
       </c>
       <c r="K31" t="n">
-        <v>-1369.22330364033</v>
+        <v>183.1738991334701</v>
       </c>
       <c r="L31" t="n">
-        <v>-1369.22330364033</v>
+        <v>183.1738991334701</v>
       </c>
       <c r="M31" t="n">
-        <v>-1369.22330364033</v>
+        <v>183.1738991334701</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>18017.49956695939</v>
+        <v>9882.881021105934</v>
       </c>
     </row>
     <row r="32">
@@ -2117,37 +2117,37 @@
         <v>43647</v>
       </c>
       <c r="C32" t="n">
-        <v>19816.87457442971</v>
+        <v>9910.829034387471</v>
       </c>
       <c r="D32" t="n">
-        <v>18145.96926442559</v>
+        <v>8862.966619657129</v>
       </c>
       <c r="E32" t="n">
-        <v>21421.21142818235</v>
+        <v>10500.1335699767</v>
       </c>
       <c r="F32" t="n">
-        <v>19816.87457442971</v>
+        <v>9910.829034387471</v>
       </c>
       <c r="G32" t="n">
-        <v>19816.87457442971</v>
+        <v>9910.829034387471</v>
       </c>
       <c r="H32" t="n">
-        <v>-79.40280618451408</v>
+        <v>-213.2861633866756</v>
       </c>
       <c r="I32" t="n">
-        <v>-79.40280618451408</v>
+        <v>-213.2861633866756</v>
       </c>
       <c r="J32" t="n">
-        <v>-79.40280618451408</v>
+        <v>-213.2861633866756</v>
       </c>
       <c r="K32" t="n">
-        <v>-79.40280618451408</v>
+        <v>-213.2861633866756</v>
       </c>
       <c r="L32" t="n">
-        <v>-79.40280618451408</v>
+        <v>-213.2861633866756</v>
       </c>
       <c r="M32" t="n">
-        <v>-79.40280618451408</v>
+        <v>-213.2861633866756</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>19737.4717682452</v>
+        <v>9697.542871000795</v>
       </c>
     </row>
     <row r="33">
@@ -2170,37 +2170,37 @@
         <v>43678</v>
       </c>
       <c r="C33" t="n">
-        <v>20261.36466838737</v>
+        <v>10128.98834388298</v>
       </c>
       <c r="D33" t="n">
-        <v>18858.61295680992</v>
+        <v>9223.11781030718</v>
       </c>
       <c r="E33" t="n">
-        <v>22139.91470705319</v>
+        <v>10933.96244364259</v>
       </c>
       <c r="F33" t="n">
-        <v>20261.36466838737</v>
+        <v>10128.98834388298</v>
       </c>
       <c r="G33" t="n">
-        <v>20261.36466838737</v>
+        <v>10128.98834388298</v>
       </c>
       <c r="H33" t="n">
-        <v>223.1758589637917</v>
+        <v>-50.74224400736584</v>
       </c>
       <c r="I33" t="n">
-        <v>223.1758589637917</v>
+        <v>-50.74224400736584</v>
       </c>
       <c r="J33" t="n">
-        <v>223.1758589637917</v>
+        <v>-50.74224400736584</v>
       </c>
       <c r="K33" t="n">
-        <v>223.1758589637917</v>
+        <v>-50.74224400736584</v>
       </c>
       <c r="L33" t="n">
-        <v>223.1758589637917</v>
+        <v>-50.74224400736584</v>
       </c>
       <c r="M33" t="n">
-        <v>223.1758589637917</v>
+        <v>-50.74224400736584</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>20484.54052735116</v>
+        <v>10078.24609987561</v>
       </c>
     </row>
     <row r="34">
@@ -2223,37 +2223,37 @@
         <v>43709</v>
       </c>
       <c r="C34" t="n">
-        <v>20705.8547567332</v>
+        <v>10347.05626974108</v>
       </c>
       <c r="D34" t="n">
-        <v>18315.90395604099</v>
+        <v>9099.862354346062</v>
       </c>
       <c r="E34" t="n">
-        <v>21793.1154778675</v>
+        <v>10823.32452931855</v>
       </c>
       <c r="F34" t="n">
-        <v>20705.8547567332</v>
+        <v>10347.05626974108</v>
       </c>
       <c r="G34" t="n">
-        <v>20705.8547567332</v>
+        <v>10347.05626974108</v>
       </c>
       <c r="H34" t="n">
-        <v>-599.3081961356394</v>
+        <v>-452.5827801208518</v>
       </c>
       <c r="I34" t="n">
-        <v>-599.3081961356394</v>
+        <v>-452.5827801208518</v>
       </c>
       <c r="J34" t="n">
-        <v>-599.3081961356394</v>
+        <v>-452.5827801208518</v>
       </c>
       <c r="K34" t="n">
-        <v>-599.3081961356394</v>
+        <v>-452.5827801208518</v>
       </c>
       <c r="L34" t="n">
-        <v>-599.3081961356394</v>
+        <v>-452.5827801208518</v>
       </c>
       <c r="M34" t="n">
-        <v>-599.3081961356394</v>
+        <v>-452.5827801208518</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>20106.54656059756</v>
+        <v>9894.47348962023</v>
       </c>
     </row>
     <row r="35">
@@ -2276,37 +2276,37 @@
         <v>43739</v>
       </c>
       <c r="C35" t="n">
-        <v>21136.00645513239</v>
+        <v>10558.08974637796</v>
       </c>
       <c r="D35" t="n">
-        <v>21208.18699165057</v>
+        <v>10402.2654209386</v>
       </c>
       <c r="E35" t="n">
-        <v>24508.13473454364</v>
+        <v>12152.09640067475</v>
       </c>
       <c r="F35" t="n">
-        <v>21136.00645513239</v>
+        <v>10558.08974637796</v>
       </c>
       <c r="G35" t="n">
-        <v>21136.00645513239</v>
+        <v>10558.08974637796</v>
       </c>
       <c r="H35" t="n">
-        <v>1706.192897067422</v>
+        <v>721.2733329877593</v>
       </c>
       <c r="I35" t="n">
-        <v>1706.192897067422</v>
+        <v>721.2733329877593</v>
       </c>
       <c r="J35" t="n">
-        <v>1706.192897067422</v>
+        <v>721.2733329877593</v>
       </c>
       <c r="K35" t="n">
-        <v>1706.192897067422</v>
+        <v>721.2733329877593</v>
       </c>
       <c r="L35" t="n">
-        <v>1706.192897067422</v>
+        <v>721.2733329877593</v>
       </c>
       <c r="M35" t="n">
-        <v>1706.192897067422</v>
+        <v>721.2733329877593</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>22842.19935219982</v>
+        <v>11279.36307936572</v>
       </c>
     </row>
     <row r="36">
@@ -2329,37 +2329,37 @@
         <v>43770</v>
       </c>
       <c r="C36" t="n">
-        <v>21580.44232403922</v>
+        <v>10776.04066528379</v>
       </c>
       <c r="D36" t="n">
-        <v>18314.83564753358</v>
+        <v>9127.407721132564</v>
       </c>
       <c r="E36" t="n">
-        <v>21676.27049308408</v>
+        <v>10755.86475152424</v>
       </c>
       <c r="F36" t="n">
-        <v>21580.44232403922</v>
+        <v>10776.04066528379</v>
       </c>
       <c r="G36" t="n">
-        <v>21580.44232403922</v>
+        <v>10776.04066528379</v>
       </c>
       <c r="H36" t="n">
-        <v>-1456.798636020787</v>
+        <v>-830.5769409702596</v>
       </c>
       <c r="I36" t="n">
-        <v>-1456.798636020787</v>
+        <v>-830.5769409702596</v>
       </c>
       <c r="J36" t="n">
-        <v>-1456.798636020787</v>
+        <v>-830.5769409702596</v>
       </c>
       <c r="K36" t="n">
-        <v>-1456.798636020787</v>
+        <v>-830.5769409702596</v>
       </c>
       <c r="L36" t="n">
-        <v>-1456.798636020787</v>
+        <v>-830.5769409702596</v>
       </c>
       <c r="M36" t="n">
-        <v>-1456.798636020787</v>
+        <v>-830.5769409702596</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>20123.64368801843</v>
+        <v>9945.463724313529</v>
       </c>
     </row>
     <row r="37">
@@ -2382,37 +2382,37 @@
         <v>43800</v>
       </c>
       <c r="C37" t="n">
-        <v>22010.54155201356</v>
+        <v>10986.9609093862</v>
       </c>
       <c r="D37" t="n">
-        <v>17716.28310933324</v>
+        <v>8720.164039864896</v>
       </c>
       <c r="E37" t="n">
-        <v>21139.61596475176</v>
+        <v>10507.25350232377</v>
       </c>
       <c r="F37" t="n">
-        <v>22010.54155201356</v>
+        <v>10986.9609093862</v>
       </c>
       <c r="G37" t="n">
-        <v>22010.54155201356</v>
+        <v>10986.9609093862</v>
       </c>
       <c r="H37" t="n">
-        <v>-2601.404031378449</v>
+        <v>-1373.274693328844</v>
       </c>
       <c r="I37" t="n">
-        <v>-2601.404031378449</v>
+        <v>-1373.274693328844</v>
       </c>
       <c r="J37" t="n">
-        <v>-2601.404031378449</v>
+        <v>-1373.274693328844</v>
       </c>
       <c r="K37" t="n">
-        <v>-2601.404031378449</v>
+        <v>-1373.274693328844</v>
       </c>
       <c r="L37" t="n">
-        <v>-2601.404031378449</v>
+        <v>-1373.274693328844</v>
       </c>
       <c r="M37" t="n">
-        <v>-2601.404031378449</v>
+        <v>-1373.274693328844</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>19409.13752063511</v>
+        <v>9613.68621605736</v>
       </c>
     </row>
     <row r="38">
@@ -2435,37 +2435,37 @@
         <v>43831</v>
       </c>
       <c r="C38" t="n">
-        <v>22454.97491138143</v>
+        <v>11204.69369782621</v>
       </c>
       <c r="D38" t="n">
-        <v>23677.53686199693</v>
+        <v>11669.31441575582</v>
       </c>
       <c r="E38" t="n">
-        <v>26996.36509579065</v>
+        <v>13429.49087968049</v>
       </c>
       <c r="F38" t="n">
-        <v>22454.97491138143</v>
+        <v>11204.69369782621</v>
       </c>
       <c r="G38" t="n">
-        <v>22454.97491138143</v>
+        <v>11204.69369782621</v>
       </c>
       <c r="H38" t="n">
-        <v>2854.850139968656</v>
+        <v>1370.93318688979</v>
       </c>
       <c r="I38" t="n">
-        <v>2854.850139968656</v>
+        <v>1370.93318688979</v>
       </c>
       <c r="J38" t="n">
-        <v>2854.850139968656</v>
+        <v>1370.93318688979</v>
       </c>
       <c r="K38" t="n">
-        <v>2854.850139968656</v>
+        <v>1370.93318688979</v>
       </c>
       <c r="L38" t="n">
-        <v>2854.850139968656</v>
+        <v>1370.93318688979</v>
       </c>
       <c r="M38" t="n">
-        <v>2854.850139968656</v>
+        <v>1370.93318688979</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>25309.82505135008</v>
+        <v>12575.626884716</v>
       </c>
     </row>
     <row r="39">
@@ -2488,37 +2488,37 @@
         <v>43862</v>
       </c>
       <c r="C39" t="n">
-        <v>22899.40827074929</v>
+        <v>11422.42648626622</v>
       </c>
       <c r="D39" t="n">
-        <v>19841.68863232093</v>
+        <v>9806.390264509044</v>
       </c>
       <c r="E39" t="n">
-        <v>23217.43850556238</v>
+        <v>11531.6528963257</v>
       </c>
       <c r="F39" t="n">
-        <v>22899.40827074929</v>
+        <v>11422.42648626622</v>
       </c>
       <c r="G39" t="n">
-        <v>22899.40827074929</v>
+        <v>11422.42648626622</v>
       </c>
       <c r="H39" t="n">
-        <v>-1389.24802267148</v>
+        <v>-744.51994881689</v>
       </c>
       <c r="I39" t="n">
-        <v>-1389.24802267148</v>
+        <v>-744.51994881689</v>
       </c>
       <c r="J39" t="n">
-        <v>-1389.24802267148</v>
+        <v>-744.51994881689</v>
       </c>
       <c r="K39" t="n">
-        <v>-1389.24802267148</v>
+        <v>-744.51994881689</v>
       </c>
       <c r="L39" t="n">
-        <v>-1389.24802267148</v>
+        <v>-744.51994881689</v>
       </c>
       <c r="M39" t="n">
-        <v>-1389.24802267148</v>
+        <v>-744.51994881689</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>21510.16024807781</v>
+        <v>10677.90653744933</v>
       </c>
     </row>
     <row r="40">
@@ -2541,37 +2541,37 @@
         <v>43891</v>
       </c>
       <c r="C40" t="n">
-        <v>23315.16681852849</v>
+        <v>11625.95308379242</v>
       </c>
       <c r="D40" t="n">
-        <v>23222.0775411281</v>
+        <v>11479.54773886237</v>
       </c>
       <c r="E40" t="n">
-        <v>26497.82975183872</v>
+        <v>13138.50641449909</v>
       </c>
       <c r="F40" t="n">
-        <v>23315.16681852849</v>
+        <v>11625.95308379242</v>
       </c>
       <c r="G40" t="n">
-        <v>23315.16681852849</v>
+        <v>11625.95308379242</v>
       </c>
       <c r="H40" t="n">
-        <v>1482.235582006194</v>
+        <v>696.7086987866066</v>
       </c>
       <c r="I40" t="n">
-        <v>1482.235582006194</v>
+        <v>696.7086987866066</v>
       </c>
       <c r="J40" t="n">
-        <v>1482.235582006194</v>
+        <v>696.7086987866066</v>
       </c>
       <c r="K40" t="n">
-        <v>1482.235582006194</v>
+        <v>696.7086987866066</v>
       </c>
       <c r="L40" t="n">
-        <v>1482.235582006194</v>
+        <v>696.7086987866066</v>
       </c>
       <c r="M40" t="n">
-        <v>1482.235582006194</v>
+        <v>696.7086987866066</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24797.40240053468</v>
+        <v>12322.66178257903</v>
       </c>
     </row>
     <row r="41">
@@ -2594,37 +2594,37 @@
         <v>43922</v>
       </c>
       <c r="C41" t="n">
-        <v>23759.5983696028</v>
+        <v>11843.5159983894</v>
       </c>
       <c r="D41" t="n">
-        <v>23354.41810305071</v>
+        <v>11595.076569407</v>
       </c>
       <c r="E41" t="n">
-        <v>26753.91406027122</v>
+        <v>13311.12411600549</v>
       </c>
       <c r="F41" t="n">
-        <v>23759.5983696028</v>
+        <v>11843.5159983894</v>
       </c>
       <c r="G41" t="n">
-        <v>23759.5983696028</v>
+        <v>11843.5159983894</v>
       </c>
       <c r="H41" t="n">
-        <v>1247.682797059137</v>
+        <v>585.0974540466392</v>
       </c>
       <c r="I41" t="n">
-        <v>1247.682797059137</v>
+        <v>585.0974540466392</v>
       </c>
       <c r="J41" t="n">
-        <v>1247.682797059137</v>
+        <v>585.0974540466392</v>
       </c>
       <c r="K41" t="n">
-        <v>1247.682797059137</v>
+        <v>585.0974540466392</v>
       </c>
       <c r="L41" t="n">
-        <v>1247.682797059137</v>
+        <v>585.0974540466392</v>
       </c>
       <c r="M41" t="n">
-        <v>1247.682797059137</v>
+        <v>585.0974540466392</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>25007.28116666194</v>
+        <v>12428.61345243604</v>
       </c>
     </row>
     <row r="42">
@@ -2647,37 +2647,37 @@
         <v>43952</v>
       </c>
       <c r="C42" t="n">
-        <v>24189.36487974894</v>
+        <v>12053.92563143777</v>
       </c>
       <c r="D42" t="n">
-        <v>21797.69433902457</v>
+        <v>10828.15295277309</v>
       </c>
       <c r="E42" t="n">
-        <v>25262.00409151984</v>
+        <v>12570.31668124593</v>
       </c>
       <c r="F42" t="n">
-        <v>24189.36487974894</v>
+        <v>12053.92563143777</v>
       </c>
       <c r="G42" t="n">
-        <v>24189.36487974894</v>
+        <v>12053.92563143777</v>
       </c>
       <c r="H42" t="n">
-        <v>-666.454589546364</v>
+        <v>-359.9542516569527</v>
       </c>
       <c r="I42" t="n">
-        <v>-666.454589546364</v>
+        <v>-359.9542516569527</v>
       </c>
       <c r="J42" t="n">
-        <v>-666.454589546364</v>
+        <v>-359.9542516569527</v>
       </c>
       <c r="K42" t="n">
-        <v>-666.454589546364</v>
+        <v>-359.9542516569527</v>
       </c>
       <c r="L42" t="n">
-        <v>-666.454589546364</v>
+        <v>-359.9542516569527</v>
       </c>
       <c r="M42" t="n">
-        <v>-666.454589546364</v>
+        <v>-359.9542516569527</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>23522.91029020257</v>
+        <v>11693.97137978081</v>
       </c>
     </row>
     <row r="43">
@@ -2700,37 +2700,37 @@
         <v>43983</v>
       </c>
       <c r="C43" t="n">
-        <v>24633.45694023329</v>
+        <v>12271.34891892108</v>
       </c>
       <c r="D43" t="n">
-        <v>23011.11515556476</v>
+        <v>11570.33172422424</v>
       </c>
       <c r="E43" t="n">
-        <v>26201.32197205435</v>
+        <v>13244.86614244736</v>
       </c>
       <c r="F43" t="n">
-        <v>24633.45694023329</v>
+        <v>12271.34891892108</v>
       </c>
       <c r="G43" t="n">
-        <v>24633.45694023329</v>
+        <v>12271.34891892108</v>
       </c>
       <c r="H43" t="n">
-        <v>-4.356684923104504</v>
+        <v>102.6962480393898</v>
       </c>
       <c r="I43" t="n">
-        <v>-4.356684923104504</v>
+        <v>102.6962480393898</v>
       </c>
       <c r="J43" t="n">
-        <v>-4.356684923104504</v>
+        <v>102.6962480393898</v>
       </c>
       <c r="K43" t="n">
-        <v>-4.356684923104504</v>
+        <v>102.6962480393898</v>
       </c>
       <c r="L43" t="n">
-        <v>-4.356684923104504</v>
+        <v>102.6962480393898</v>
       </c>
       <c r="M43" t="n">
-        <v>-4.356684923104504</v>
+        <v>102.6962480393898</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24629.10025531019</v>
+        <v>12374.04516696047</v>
       </c>
     </row>
     <row r="44">
@@ -2753,37 +2753,37 @@
         <v>44013</v>
       </c>
       <c r="C44" t="n">
-        <v>24524.36157853444</v>
+        <v>12240.81626909541</v>
       </c>
       <c r="D44" t="n">
-        <v>22433.11312574265</v>
+        <v>11215.26207278892</v>
       </c>
       <c r="E44" t="n">
-        <v>25896.09094296453</v>
+        <v>12859.84578716041</v>
       </c>
       <c r="F44" t="n">
-        <v>24524.36157853444</v>
+        <v>12240.81626909541</v>
       </c>
       <c r="G44" t="n">
-        <v>24524.36157853444</v>
+        <v>12240.81626909541</v>
       </c>
       <c r="H44" t="n">
-        <v>-410.9397309442445</v>
+        <v>-209.1400663418824</v>
       </c>
       <c r="I44" t="n">
-        <v>-410.9397309442445</v>
+        <v>-209.1400663418824</v>
       </c>
       <c r="J44" t="n">
-        <v>-410.9397309442445</v>
+        <v>-209.1400663418824</v>
       </c>
       <c r="K44" t="n">
-        <v>-410.9397309442445</v>
+        <v>-209.1400663418824</v>
       </c>
       <c r="L44" t="n">
-        <v>-410.9397309442445</v>
+        <v>-209.1400663418824</v>
       </c>
       <c r="M44" t="n">
-        <v>-410.9397309442445</v>
+        <v>-209.1400663418824</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>24113.42184759019</v>
+        <v>12031.67620275352</v>
       </c>
     </row>
     <row r="45">
@@ -2806,37 +2806,37 @@
         <v>44044</v>
       </c>
       <c r="C45" t="n">
-        <v>24411.62970477896</v>
+        <v>12209.26586427554</v>
       </c>
       <c r="D45" t="n">
-        <v>22670.82034571807</v>
+        <v>11323.56282412173</v>
       </c>
       <c r="E45" t="n">
-        <v>26120.69066155297</v>
+        <v>12991.49679385796</v>
       </c>
       <c r="F45" t="n">
-        <v>24411.62970477896</v>
+        <v>12209.26586427554</v>
       </c>
       <c r="G45" t="n">
-        <v>24411.62970477896</v>
+        <v>12209.26586427554</v>
       </c>
       <c r="H45" t="n">
-        <v>-31.65170845269945</v>
+        <v>-40.06621425862002</v>
       </c>
       <c r="I45" t="n">
-        <v>-31.65170845269945</v>
+        <v>-40.06621425862002</v>
       </c>
       <c r="J45" t="n">
-        <v>-31.65170845269945</v>
+        <v>-40.06621425862002</v>
       </c>
       <c r="K45" t="n">
-        <v>-31.65170845269945</v>
+        <v>-40.06621425862002</v>
       </c>
       <c r="L45" t="n">
-        <v>-31.65170845269945</v>
+        <v>-40.06621425862002</v>
       </c>
       <c r="M45" t="n">
-        <v>-31.65170845269945</v>
+        <v>-40.06621425862002</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>24379.97799632626</v>
+        <v>12169.19965001692</v>
       </c>
     </row>
     <row r="46">
@@ -2859,37 +2859,37 @@
         <v>44075</v>
       </c>
       <c r="C46" t="n">
-        <v>24298.56218976541</v>
+        <v>12177.65241868089</v>
       </c>
       <c r="D46" t="n">
-        <v>23550.92030249214</v>
+        <v>11779.89401452522</v>
       </c>
       <c r="E46" t="n">
-        <v>26808.85884845984</v>
+        <v>13362.33853226789</v>
       </c>
       <c r="F46" t="n">
-        <v>24298.56218976541</v>
+        <v>12177.65241868089</v>
       </c>
       <c r="G46" t="n">
-        <v>24298.56218976541</v>
+        <v>12177.65241868089</v>
       </c>
       <c r="H46" t="n">
-        <v>917.218541699205</v>
+        <v>413.433105258794</v>
       </c>
       <c r="I46" t="n">
-        <v>917.218541699205</v>
+        <v>413.433105258794</v>
       </c>
       <c r="J46" t="n">
-        <v>917.218541699205</v>
+        <v>413.433105258794</v>
       </c>
       <c r="K46" t="n">
-        <v>917.218541699205</v>
+        <v>413.433105258794</v>
       </c>
       <c r="L46" t="n">
-        <v>917.218541699205</v>
+        <v>413.433105258794</v>
       </c>
       <c r="M46" t="n">
-        <v>917.218541699205</v>
+        <v>413.433105258794</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>25215.78073146461</v>
+        <v>12591.08552393969</v>
       </c>
     </row>
     <row r="47">
@@ -2912,37 +2912,37 @@
         <v>44105</v>
       </c>
       <c r="C47" t="n">
-        <v>24189.14201394584</v>
+        <v>12147.05876165382</v>
       </c>
       <c r="D47" t="n">
-        <v>22826.96695151946</v>
+        <v>11437.33746810661</v>
       </c>
       <c r="E47" t="n">
-        <v>26133.38361587571</v>
+        <v>13053.65673827437</v>
       </c>
       <c r="F47" t="n">
-        <v>24189.14201394584</v>
+        <v>12147.05876165382</v>
       </c>
       <c r="G47" t="n">
-        <v>24189.14201394584</v>
+        <v>12147.05876165382</v>
       </c>
       <c r="H47" t="n">
-        <v>304.8466650168721</v>
+        <v>75.82219048457118</v>
       </c>
       <c r="I47" t="n">
-        <v>304.8466650168721</v>
+        <v>75.82219048457118</v>
       </c>
       <c r="J47" t="n">
-        <v>304.8466650168721</v>
+        <v>75.82219048457118</v>
       </c>
       <c r="K47" t="n">
-        <v>304.8466650168721</v>
+        <v>75.82219048457118</v>
       </c>
       <c r="L47" t="n">
-        <v>304.8466650168721</v>
+        <v>75.82219048457118</v>
       </c>
       <c r="M47" t="n">
-        <v>304.8466650168721</v>
+        <v>75.82219048457118</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>24493.98867896271</v>
+        <v>12222.88095213839</v>
       </c>
     </row>
     <row r="48">
@@ -2965,37 +2965,37 @@
         <v>44136</v>
       </c>
       <c r="C48" t="n">
-        <v>24075.98026358671</v>
+        <v>12115.390055033</v>
       </c>
       <c r="D48" t="n">
-        <v>21481.19005074806</v>
+        <v>10764.27968099671</v>
       </c>
       <c r="E48" t="n">
-        <v>24958.73005226793</v>
+        <v>12461.62368773071</v>
       </c>
       <c r="F48" t="n">
-        <v>24075.98026358671</v>
+        <v>12115.390055033</v>
       </c>
       <c r="G48" t="n">
-        <v>24075.98026358671</v>
+        <v>12115.390055033</v>
       </c>
       <c r="H48" t="n">
-        <v>-846.7969790027868</v>
+        <v>-539.8015414248097</v>
       </c>
       <c r="I48" t="n">
-        <v>-846.7969790027868</v>
+        <v>-539.8015414248097</v>
       </c>
       <c r="J48" t="n">
-        <v>-846.7969790027868</v>
+        <v>-539.8015414248097</v>
       </c>
       <c r="K48" t="n">
-        <v>-846.7969790027868</v>
+        <v>-539.8015414248097</v>
       </c>
       <c r="L48" t="n">
-        <v>-846.7969790027868</v>
+        <v>-539.8015414248097</v>
       </c>
       <c r="M48" t="n">
-        <v>-846.7969790027868</v>
+        <v>-539.8015414248097</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>23229.18328458392</v>
+        <v>11575.58851360819</v>
       </c>
     </row>
     <row r="49">
@@ -3018,37 +3018,37 @@
         <v>44166</v>
       </c>
       <c r="C49" t="n">
-        <v>23966.46889227142</v>
+        <v>12084.7429195935</v>
       </c>
       <c r="D49" t="n">
-        <v>20894.59518643911</v>
+        <v>10425.81445260047</v>
       </c>
       <c r="E49" t="n">
-        <v>24300.36492931957</v>
+        <v>12037.82067969049</v>
       </c>
       <c r="F49" t="n">
-        <v>23966.46889227142</v>
+        <v>12084.7429195935</v>
       </c>
       <c r="G49" t="n">
-        <v>23966.46889227142</v>
+        <v>12084.7429195935</v>
       </c>
       <c r="H49" t="n">
-        <v>-1416.959820779273</v>
+        <v>-865.1445729100489</v>
       </c>
       <c r="I49" t="n">
-        <v>-1416.959820779273</v>
+        <v>-865.1445729100489</v>
       </c>
       <c r="J49" t="n">
-        <v>-1416.959820779273</v>
+        <v>-865.1445729100489</v>
       </c>
       <c r="K49" t="n">
-        <v>-1416.959820779273</v>
+        <v>-865.1445729100489</v>
       </c>
       <c r="L49" t="n">
-        <v>-1416.959820779273</v>
+        <v>-865.1445729100489</v>
       </c>
       <c r="M49" t="n">
-        <v>-1416.959820779273</v>
+        <v>-865.1445729100489</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>22549.50907149215</v>
+        <v>11219.59834668345</v>
       </c>
     </row>
     <row r="50">
@@ -3071,37 +3071,37 @@
         <v>44197</v>
       </c>
       <c r="C50" t="n">
-        <v>23853.05077510329</v>
+        <v>12053.06155704241</v>
       </c>
       <c r="D50" t="n">
-        <v>22133.73854393037</v>
+        <v>11016.45527115689</v>
       </c>
       <c r="E50" t="n">
-        <v>25426.40151881838</v>
+        <v>12751.89056115269</v>
       </c>
       <c r="F50" t="n">
-        <v>23853.05077510329</v>
+        <v>12053.06155704241</v>
       </c>
       <c r="G50" t="n">
-        <v>23853.05077510329</v>
+        <v>12053.06155704241</v>
       </c>
       <c r="H50" t="n">
-        <v>-2.065412870901376</v>
+        <v>-169.1411768432101</v>
       </c>
       <c r="I50" t="n">
-        <v>-2.065412870901376</v>
+        <v>-169.1411768432101</v>
       </c>
       <c r="J50" t="n">
-        <v>-2.065412870901376</v>
+        <v>-169.1411768432101</v>
       </c>
       <c r="K50" t="n">
-        <v>-2.065412870901376</v>
+        <v>-169.1411768432101</v>
       </c>
       <c r="L50" t="n">
-        <v>-2.065412870901376</v>
+        <v>-169.1411768432101</v>
       </c>
       <c r="M50" t="n">
-        <v>-2.065412870901376</v>
+        <v>-169.1411768432101</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>23850.98536223239</v>
+        <v>11883.9203801992</v>
       </c>
     </row>
     <row r="51">
@@ -3124,37 +3124,37 @@
         <v>44228</v>
       </c>
       <c r="C51" t="n">
-        <v>23739.63265793517</v>
+        <v>12021.38019449132</v>
       </c>
       <c r="D51" t="n">
-        <v>20621.62313679589</v>
+        <v>10332.66003785603</v>
       </c>
       <c r="E51" t="n">
-        <v>24035.40954680747</v>
+        <v>11952.21897169908</v>
       </c>
       <c r="F51" t="n">
-        <v>23739.63265793517</v>
+        <v>12021.38019449132</v>
       </c>
       <c r="G51" t="n">
-        <v>23739.63265793517</v>
+        <v>12021.38019449132</v>
       </c>
       <c r="H51" t="n">
-        <v>-1391.208996605964</v>
+        <v>-878.1979053116968</v>
       </c>
       <c r="I51" t="n">
-        <v>-1391.208996605964</v>
+        <v>-878.1979053116968</v>
       </c>
       <c r="J51" t="n">
-        <v>-1391.208996605964</v>
+        <v>-878.1979053116968</v>
       </c>
       <c r="K51" t="n">
-        <v>-1391.208996605964</v>
+        <v>-878.1979053116968</v>
       </c>
       <c r="L51" t="n">
-        <v>-1391.208996605964</v>
+        <v>-878.1979053116968</v>
       </c>
       <c r="M51" t="n">
-        <v>-1391.208996605964</v>
+        <v>-878.1979053116968</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>22348.42366132921</v>
+        <v>11143.18228917963</v>
       </c>
     </row>
     <row r="52">
@@ -3177,37 +3177,37 @@
         <v>44256</v>
       </c>
       <c r="C52" t="n">
-        <v>23637.10410267885</v>
+        <v>11992.76320704148</v>
       </c>
       <c r="D52" t="n">
-        <v>22639.99820971482</v>
+        <v>11409.27524477601</v>
       </c>
       <c r="E52" t="n">
-        <v>26049.62505326146</v>
+        <v>13130.85225039678</v>
       </c>
       <c r="F52" t="n">
-        <v>23637.10410267885</v>
+        <v>11992.76320704148</v>
       </c>
       <c r="G52" t="n">
-        <v>23637.10410267885</v>
+        <v>11992.76320704148</v>
       </c>
       <c r="H52" t="n">
-        <v>758.0808305184491</v>
+        <v>275.01820219358</v>
       </c>
       <c r="I52" t="n">
-        <v>758.0808305184491</v>
+        <v>275.01820219358</v>
       </c>
       <c r="J52" t="n">
-        <v>758.0808305184491</v>
+        <v>275.01820219358</v>
       </c>
       <c r="K52" t="n">
-        <v>758.0808305184491</v>
+        <v>275.01820219358</v>
       </c>
       <c r="L52" t="n">
-        <v>758.0808305184491</v>
+        <v>275.01820219358</v>
       </c>
       <c r="M52" t="n">
-        <v>758.0808305184491</v>
+        <v>275.01820219358</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>24395.1849331973</v>
+        <v>12267.78140923506</v>
       </c>
     </row>
     <row r="53">
@@ -3230,37 +3230,37 @@
         <v>44287</v>
       </c>
       <c r="C53" t="n">
-        <v>23523.59034507364</v>
+        <v>11961.08011379344</v>
       </c>
       <c r="D53" t="n">
-        <v>22775.86230217646</v>
+        <v>11459.43326171626</v>
       </c>
       <c r="E53" t="n">
-        <v>26283.93962525937</v>
+        <v>13174.8815953196</v>
       </c>
       <c r="F53" t="n">
-        <v>23523.59034507364</v>
+        <v>11961.08011379344</v>
       </c>
       <c r="G53" t="n">
-        <v>23523.59034507364</v>
+        <v>11961.08011379344</v>
       </c>
       <c r="H53" t="n">
-        <v>961.256456565602</v>
+        <v>373.6483429509613</v>
       </c>
       <c r="I53" t="n">
-        <v>961.256456565602</v>
+        <v>373.6483429509613</v>
       </c>
       <c r="J53" t="n">
-        <v>961.256456565602</v>
+        <v>373.6483429509613</v>
       </c>
       <c r="K53" t="n">
-        <v>961.256456565602</v>
+        <v>373.6483429509613</v>
       </c>
       <c r="L53" t="n">
-        <v>961.256456565602</v>
+        <v>373.6483429509613</v>
       </c>
       <c r="M53" t="n">
-        <v>961.256456565602</v>
+        <v>373.6483429509613</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>24484.84680163924</v>
+        <v>12334.7284567444</v>
       </c>
     </row>
     <row r="54">
@@ -3283,37 +3283,37 @@
         <v>44317</v>
       </c>
       <c r="C54" t="n">
-        <v>23413.70808276728</v>
+        <v>11930.4187043057</v>
       </c>
       <c r="D54" t="n">
-        <v>22092.16156559979</v>
+        <v>11169.9916687901</v>
       </c>
       <c r="E54" t="n">
-        <v>25583.49866803141</v>
+        <v>12874.87408415901</v>
       </c>
       <c r="F54" t="n">
-        <v>23413.70808276728</v>
+        <v>11930.4187043057</v>
       </c>
       <c r="G54" t="n">
-        <v>23413.70808276728</v>
+        <v>11930.4187043057</v>
       </c>
       <c r="H54" t="n">
-        <v>386.8156494912976</v>
+        <v>84.51733433868253</v>
       </c>
       <c r="I54" t="n">
-        <v>386.8156494912976</v>
+        <v>84.51733433868253</v>
       </c>
       <c r="J54" t="n">
-        <v>386.8156494912976</v>
+        <v>84.51733433868253</v>
       </c>
       <c r="K54" t="n">
-        <v>386.8156494912976</v>
+        <v>84.51733433868253</v>
       </c>
       <c r="L54" t="n">
-        <v>386.8156494912976</v>
+        <v>84.51733433868253</v>
       </c>
       <c r="M54" t="n">
-        <v>386.8156494912976</v>
+        <v>84.51733433868253</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>23800.52373225857</v>
+        <v>12014.93603864439</v>
       </c>
     </row>
     <row r="55">
@@ -3336,37 +3336,37 @@
         <v>44348</v>
       </c>
       <c r="C55" t="n">
-        <v>23300.16307838403</v>
+        <v>11898.73524783504</v>
       </c>
       <c r="D55" t="n">
-        <v>21105.02152347407</v>
+        <v>11165.85136695615</v>
       </c>
       <c r="E55" t="n">
-        <v>24556.85925729991</v>
+        <v>12837.80001190125</v>
       </c>
       <c r="F55" t="n">
-        <v>23300.16307838403</v>
+        <v>11898.73524783504</v>
       </c>
       <c r="G55" t="n">
-        <v>23300.16307838403</v>
+        <v>11898.73524783504</v>
       </c>
       <c r="H55" t="n">
-        <v>-448.0059329288324</v>
+        <v>134.6375625249327</v>
       </c>
       <c r="I55" t="n">
-        <v>-448.0059329288324</v>
+        <v>134.6375625249327</v>
       </c>
       <c r="J55" t="n">
-        <v>-448.0059329288324</v>
+        <v>134.6375625249327</v>
       </c>
       <c r="K55" t="n">
-        <v>-448.0059329288324</v>
+        <v>134.6375625249327</v>
       </c>
       <c r="L55" t="n">
-        <v>-448.0059329288324</v>
+        <v>134.6375625249327</v>
       </c>
       <c r="M55" t="n">
-        <v>-448.0059329288324</v>
+        <v>134.6375625249327</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>22852.1571454552</v>
+        <v>12033.37281035998</v>
       </c>
     </row>
     <row r="56">
@@ -3389,37 +3389,37 @@
         <v>44378</v>
       </c>
       <c r="C56" t="n">
-        <v>23190.28081607767</v>
+        <v>11868.07383834731</v>
       </c>
       <c r="D56" t="n">
-        <v>21163.15719078808</v>
+        <v>10826.78561741321</v>
       </c>
       <c r="E56" t="n">
-        <v>24676.93797420036</v>
+        <v>12456.43402687212</v>
       </c>
       <c r="F56" t="n">
-        <v>23190.28081607767</v>
+        <v>11868.07383834731</v>
       </c>
       <c r="G56" t="n">
-        <v>23190.28081607767</v>
+        <v>11868.07383834731</v>
       </c>
       <c r="H56" t="n">
-        <v>-301.6924089046597</v>
+        <v>-207.1453788001717</v>
       </c>
       <c r="I56" t="n">
-        <v>-301.6924089046597</v>
+        <v>-207.1453788001717</v>
       </c>
       <c r="J56" t="n">
-        <v>-301.6924089046597</v>
+        <v>-207.1453788001717</v>
       </c>
       <c r="K56" t="n">
-        <v>-301.6924089046597</v>
+        <v>-207.1453788001717</v>
       </c>
       <c r="L56" t="n">
-        <v>-301.6924089046597</v>
+        <v>-207.1453788001717</v>
       </c>
       <c r="M56" t="n">
-        <v>-301.6924089046597</v>
+        <v>-207.1453788001717</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>22888.58840717301</v>
+        <v>11660.92845954714</v>
       </c>
     </row>
     <row r="57">
@@ -3442,37 +3442,37 @@
         <v>44409</v>
       </c>
       <c r="C57" t="n">
-        <v>23076.73581169442</v>
+        <v>11836.39038187665</v>
       </c>
       <c r="D57" t="n">
-        <v>21483.47053472397</v>
+        <v>10993.57472549197</v>
       </c>
       <c r="E57" t="n">
-        <v>24906.36377731814</v>
+        <v>12593.34173235374</v>
       </c>
       <c r="F57" t="n">
-        <v>23076.73581169442</v>
+        <v>11836.39038187665</v>
       </c>
       <c r="G57" t="n">
-        <v>23076.73581169442</v>
+        <v>11836.39038187665</v>
       </c>
       <c r="H57" t="n">
-        <v>60.15814294268801</v>
+        <v>-39.15100728595921</v>
       </c>
       <c r="I57" t="n">
-        <v>60.15814294268801</v>
+        <v>-39.15100728595921</v>
       </c>
       <c r="J57" t="n">
-        <v>60.15814294268801</v>
+        <v>-39.15100728595921</v>
       </c>
       <c r="K57" t="n">
-        <v>60.15814294268801</v>
+        <v>-39.15100728595921</v>
       </c>
       <c r="L57" t="n">
-        <v>60.15814294268801</v>
+        <v>-39.15100728595921</v>
       </c>
       <c r="M57" t="n">
-        <v>60.15814294268801</v>
+        <v>-39.15100728595921</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>23136.89395463711</v>
+        <v>11797.23937459069</v>
       </c>
     </row>
     <row r="58">
@@ -3495,37 +3495,37 @@
         <v>44440</v>
       </c>
       <c r="C58" t="n">
-        <v>22963.19080731118</v>
+        <v>11804.70692540599</v>
       </c>
       <c r="D58" t="n">
-        <v>21709.7226252779</v>
+        <v>11106.90466127393</v>
       </c>
       <c r="E58" t="n">
-        <v>25058.61849235495</v>
+        <v>12750.68184334601</v>
       </c>
       <c r="F58" t="n">
-        <v>22963.19080731118</v>
+        <v>11804.70692540599</v>
       </c>
       <c r="G58" t="n">
-        <v>22963.19080731118</v>
+        <v>11804.70692540599</v>
       </c>
       <c r="H58" t="n">
-        <v>408.2881584069142</v>
+        <v>122.8281024466888</v>
       </c>
       <c r="I58" t="n">
-        <v>408.2881584069142</v>
+        <v>122.8281024466888</v>
       </c>
       <c r="J58" t="n">
-        <v>408.2881584069142</v>
+        <v>122.8281024466888</v>
       </c>
       <c r="K58" t="n">
-        <v>408.2881584069142</v>
+        <v>122.8281024466888</v>
       </c>
       <c r="L58" t="n">
-        <v>408.2881584069142</v>
+        <v>122.8281024466888</v>
       </c>
       <c r="M58" t="n">
-        <v>408.2881584069142</v>
+        <v>122.8281024466888</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>23371.4789657181</v>
+        <v>11927.53502785267</v>
       </c>
     </row>
     <row r="59">
@@ -3548,37 +3548,37 @@
         <v>44470</v>
       </c>
       <c r="C59" t="n">
-        <v>22853.30854500482</v>
+        <v>11774.04551591825</v>
       </c>
       <c r="D59" t="n">
-        <v>21932.68987548868</v>
+        <v>11250.3164316113</v>
       </c>
       <c r="E59" t="n">
-        <v>25313.39299898421</v>
+        <v>12944.89799689091</v>
       </c>
       <c r="F59" t="n">
-        <v>22853.30854500482</v>
+        <v>11774.04551591825</v>
       </c>
       <c r="G59" t="n">
-        <v>22853.30854500482</v>
+        <v>11774.04551591825</v>
       </c>
       <c r="H59" t="n">
-        <v>769.2373626674269</v>
+        <v>288.5112900066606</v>
       </c>
       <c r="I59" t="n">
-        <v>769.2373626674269</v>
+        <v>288.5112900066606</v>
       </c>
       <c r="J59" t="n">
-        <v>769.2373626674269</v>
+        <v>288.5112900066606</v>
       </c>
       <c r="K59" t="n">
-        <v>769.2373626674269</v>
+        <v>288.5112900066606</v>
       </c>
       <c r="L59" t="n">
-        <v>769.2373626674269</v>
+        <v>288.5112900066606</v>
       </c>
       <c r="M59" t="n">
-        <v>769.2373626674269</v>
+        <v>288.5112900066606</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>23622.54590767224</v>
+        <v>12062.55680592491</v>
       </c>
     </row>
     <row r="60">
@@ -3601,37 +3601,37 @@
         <v>44501</v>
       </c>
       <c r="C60" t="n">
-        <v>22739.76354062157</v>
+        <v>11742.36205944759</v>
       </c>
       <c r="D60" t="n">
-        <v>20011.22586106051</v>
+        <v>10247.69923940547</v>
       </c>
       <c r="E60" t="n">
-        <v>23372.62688692189</v>
+        <v>11963.07111693843</v>
       </c>
       <c r="F60" t="n">
-        <v>22739.76354062157</v>
+        <v>11742.36205944759</v>
       </c>
       <c r="G60" t="n">
-        <v>22739.76354062157</v>
+        <v>11742.36205944759</v>
       </c>
       <c r="H60" t="n">
-        <v>-1044.616878620666</v>
+        <v>-635.2447119355735</v>
       </c>
       <c r="I60" t="n">
-        <v>-1044.616878620666</v>
+        <v>-635.2447119355735</v>
       </c>
       <c r="J60" t="n">
-        <v>-1044.616878620666</v>
+        <v>-635.2447119355735</v>
       </c>
       <c r="K60" t="n">
-        <v>-1044.616878620666</v>
+        <v>-635.2447119355735</v>
       </c>
       <c r="L60" t="n">
-        <v>-1044.616878620666</v>
+        <v>-635.2447119355735</v>
       </c>
       <c r="M60" t="n">
-        <v>-1044.616878620666</v>
+        <v>-635.2447119355735</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>21695.14666200091</v>
+        <v>11107.11734751202</v>
       </c>
     </row>
     <row r="61">
@@ -3654,37 +3654,37 @@
         <v>44531</v>
       </c>
       <c r="C61" t="n">
-        <v>22629.88127831521</v>
+        <v>11711.70064995985</v>
       </c>
       <c r="D61" t="n">
-        <v>19136.20493472952</v>
+        <v>9845.907355882317</v>
       </c>
       <c r="E61" t="n">
-        <v>22484.76353865296</v>
+        <v>11545.14516779563</v>
       </c>
       <c r="F61" t="n">
-        <v>22629.88127831521</v>
+        <v>11711.70064995985</v>
       </c>
       <c r="G61" t="n">
-        <v>22629.88127831521</v>
+        <v>11711.70064995985</v>
       </c>
       <c r="H61" t="n">
-        <v>-1826.634517314415</v>
+        <v>-1042.681171971995</v>
       </c>
       <c r="I61" t="n">
-        <v>-1826.634517314415</v>
+        <v>-1042.681171971995</v>
       </c>
       <c r="J61" t="n">
-        <v>-1826.634517314415</v>
+        <v>-1042.681171971995</v>
       </c>
       <c r="K61" t="n">
-        <v>-1826.634517314415</v>
+        <v>-1042.681171971995</v>
       </c>
       <c r="L61" t="n">
-        <v>-1826.634517314415</v>
+        <v>-1042.681171971995</v>
       </c>
       <c r="M61" t="n">
-        <v>-1826.634517314415</v>
+        <v>-1042.681171971995</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>20803.2467610008</v>
+        <v>10669.01947798786</v>
       </c>
     </row>
     <row r="62">
@@ -3707,37 +3707,37 @@
         <v>44562</v>
       </c>
       <c r="C62" t="n">
-        <v>22516.33627393196</v>
+        <v>11680.01719348919</v>
       </c>
       <c r="D62" t="n">
-        <v>21866.33114706453</v>
+        <v>11156.39717476688</v>
       </c>
       <c r="E62" t="n">
-        <v>25191.23464955293</v>
+        <v>12901.41014143684</v>
       </c>
       <c r="F62" t="n">
-        <v>22516.33627393196</v>
+        <v>11680.01719348919</v>
       </c>
       <c r="G62" t="n">
-        <v>22516.33627393196</v>
+        <v>11680.01719348919</v>
       </c>
       <c r="H62" t="n">
-        <v>948.817795958389</v>
+        <v>343.6817024246883</v>
       </c>
       <c r="I62" t="n">
-        <v>948.817795958389</v>
+        <v>343.6817024246883</v>
       </c>
       <c r="J62" t="n">
-        <v>948.817795958389</v>
+        <v>343.6817024246883</v>
       </c>
       <c r="K62" t="n">
-        <v>948.817795958389</v>
+        <v>343.6817024246883</v>
       </c>
       <c r="L62" t="n">
-        <v>948.817795958389</v>
+        <v>343.6817024246883</v>
       </c>
       <c r="M62" t="n">
-        <v>948.817795958389</v>
+        <v>343.6817024246883</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>23465.15406989035</v>
+        <v>12023.69889591388</v>
       </c>
     </row>
     <row r="63">
@@ -3760,37 +3760,37 @@
         <v>44593</v>
       </c>
       <c r="C63" t="n">
-        <v>22402.79126954872</v>
+        <v>11648.33373701853</v>
       </c>
       <c r="D63" t="n">
-        <v>19383.16213283875</v>
+        <v>9916.790766462114</v>
       </c>
       <c r="E63" t="n">
-        <v>22821.46214253985</v>
+        <v>11622.60158475779</v>
       </c>
       <c r="F63" t="n">
-        <v>22402.79126954872</v>
+        <v>11648.33373701853</v>
       </c>
       <c r="G63" t="n">
-        <v>22402.79126954872</v>
+        <v>11648.33373701853</v>
       </c>
       <c r="H63" t="n">
-        <v>-1369.953872893291</v>
+        <v>-821.5870138454012</v>
       </c>
       <c r="I63" t="n">
-        <v>-1369.953872893291</v>
+        <v>-821.5870138454012</v>
       </c>
       <c r="J63" t="n">
-        <v>-1369.953872893291</v>
+        <v>-821.5870138454012</v>
       </c>
       <c r="K63" t="n">
-        <v>-1369.953872893291</v>
+        <v>-821.5870138454012</v>
       </c>
       <c r="L63" t="n">
-        <v>-1369.953872893291</v>
+        <v>-821.5870138454012</v>
       </c>
       <c r="M63" t="n">
-        <v>-1369.953872893291</v>
+        <v>-821.5870138454012</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>21032.83739665544</v>
+        <v>10826.74672317313</v>
       </c>
     </row>
     <row r="64">
@@ -3813,37 +3813,37 @@
         <v>44621</v>
       </c>
       <c r="C64" t="n">
-        <v>22300.23449139611</v>
+        <v>11619.71642149665</v>
       </c>
       <c r="D64" t="n">
-        <v>20591.17913936269</v>
+        <v>10683.75478588645</v>
       </c>
       <c r="E64" t="n">
-        <v>23915.96989882996</v>
+        <v>12252.74495352607</v>
       </c>
       <c r="F64" t="n">
-        <v>22300.23449139611</v>
+        <v>11619.71642149665</v>
       </c>
       <c r="G64" t="n">
-        <v>22300.23449139611</v>
+        <v>11619.71642149665</v>
       </c>
       <c r="H64" t="n">
-        <v>33.27690208912684</v>
+        <v>-148.5525413846127</v>
       </c>
       <c r="I64" t="n">
-        <v>33.27690208912684</v>
+        <v>-148.5525413846127</v>
       </c>
       <c r="J64" t="n">
-        <v>33.27690208912684</v>
+        <v>-148.5525413846127</v>
       </c>
       <c r="K64" t="n">
-        <v>33.27690208912684</v>
+        <v>-148.5525413846127</v>
       </c>
       <c r="L64" t="n">
-        <v>33.27690208912684</v>
+        <v>-148.5525413846127</v>
       </c>
       <c r="M64" t="n">
-        <v>33.27690208912684</v>
+        <v>-148.5525413846127</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>22333.51139348524</v>
+        <v>11471.16388011203</v>
       </c>
     </row>
     <row r="65">
@@ -3866,37 +3866,37 @@
         <v>44652</v>
       </c>
       <c r="C65" t="n">
-        <v>22186.68948701287</v>
+        <v>11588.03296502598</v>
       </c>
       <c r="D65" t="n">
-        <v>21134.95814144807</v>
+        <v>10915.01445174465</v>
       </c>
       <c r="E65" t="n">
-        <v>24636.85567035702</v>
+        <v>12594.46130594782</v>
       </c>
       <c r="F65" t="n">
-        <v>22186.68948701287</v>
+        <v>11588.03296502598</v>
       </c>
       <c r="G65" t="n">
-        <v>22186.68948701287</v>
+        <v>11588.03296502598</v>
       </c>
       <c r="H65" t="n">
-        <v>697.6413746169742</v>
+        <v>174.2175411518465</v>
       </c>
       <c r="I65" t="n">
-        <v>697.6413746169742</v>
+        <v>174.2175411518465</v>
       </c>
       <c r="J65" t="n">
-        <v>697.6413746169742</v>
+        <v>174.2175411518465</v>
       </c>
       <c r="K65" t="n">
-        <v>697.6413746169742</v>
+        <v>174.2175411518465</v>
       </c>
       <c r="L65" t="n">
-        <v>697.6413746169742</v>
+        <v>174.2175411518465</v>
       </c>
       <c r="M65" t="n">
-        <v>697.6413746169742</v>
+        <v>174.2175411518465</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>22884.33086162985</v>
+        <v>11762.25050617783</v>
       </c>
     </row>
     <row r="66">
@@ -3919,37 +3919,37 @@
         <v>44682</v>
       </c>
       <c r="C66" t="n">
-        <v>22076.80722470651</v>
+        <v>11557.37155553825</v>
       </c>
       <c r="D66" t="n">
-        <v>21855.32521232593</v>
+        <v>11235.89798606447</v>
       </c>
       <c r="E66" t="n">
-        <v>25241.24393015025</v>
+        <v>12937.11275650313</v>
       </c>
       <c r="F66" t="n">
-        <v>22076.80722470651</v>
+        <v>11557.37155553825</v>
       </c>
       <c r="G66" t="n">
-        <v>22076.80722470651</v>
+        <v>11557.37155553825</v>
       </c>
       <c r="H66" t="n">
-        <v>1440.556461791529</v>
+        <v>533.9837278134091</v>
       </c>
       <c r="I66" t="n">
-        <v>1440.556461791529</v>
+        <v>533.9837278134091</v>
       </c>
       <c r="J66" t="n">
-        <v>1440.556461791529</v>
+        <v>533.9837278134091</v>
       </c>
       <c r="K66" t="n">
-        <v>1440.556461791529</v>
+        <v>533.9837278134091</v>
       </c>
       <c r="L66" t="n">
-        <v>1440.556461791529</v>
+        <v>533.9837278134091</v>
       </c>
       <c r="M66" t="n">
-        <v>1440.556461791529</v>
+        <v>533.9837278134091</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>23517.36368649804</v>
+        <v>12091.35528335166</v>
       </c>
     </row>
     <row r="67">
@@ -3972,37 +3972,37 @@
         <v>44713</v>
       </c>
       <c r="C67" t="n">
-        <v>21963.26222032326</v>
+        <v>11525.68809906759</v>
       </c>
       <c r="D67" t="n">
-        <v>19343.37874430828</v>
+        <v>10841.19841161027</v>
       </c>
       <c r="E67" t="n">
-        <v>22741.19300423814</v>
+        <v>12554.79509599444</v>
       </c>
       <c r="F67" t="n">
-        <v>21963.26222032326</v>
+        <v>11525.68809906759</v>
       </c>
       <c r="G67" t="n">
-        <v>21963.26222032326</v>
+        <v>11525.68809906759</v>
       </c>
       <c r="H67" t="n">
-        <v>-903.024595593342</v>
+        <v>161.5214537043091</v>
       </c>
       <c r="I67" t="n">
-        <v>-903.024595593342</v>
+        <v>161.5214537043091</v>
       </c>
       <c r="J67" t="n">
-        <v>-903.024595593342</v>
+        <v>161.5214537043091</v>
       </c>
       <c r="K67" t="n">
-        <v>-903.024595593342</v>
+        <v>161.5214537043091</v>
       </c>
       <c r="L67" t="n">
-        <v>-903.024595593342</v>
+        <v>161.5214537043091</v>
       </c>
       <c r="M67" t="n">
-        <v>-903.024595593342</v>
+        <v>161.5214537043091</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>21060.23762472992</v>
+        <v>11687.2095527719</v>
       </c>
     </row>
     <row r="68">
@@ -4025,37 +4025,37 @@
         <v>44743</v>
       </c>
       <c r="C68" t="n">
-        <v>21853.3799580169</v>
+        <v>11495.02668957985</v>
       </c>
       <c r="D68" t="n">
-        <v>19976.82122907222</v>
+        <v>10427.46683125352</v>
       </c>
       <c r="E68" t="n">
-        <v>23384.63650944366</v>
+        <v>12128.79063459858</v>
       </c>
       <c r="F68" t="n">
-        <v>21848.01893999947</v>
+        <v>11493.09107785574</v>
       </c>
       <c r="G68" t="n">
-        <v>21856.66723114013</v>
+        <v>11497.00390858201</v>
       </c>
       <c r="H68" t="n">
-        <v>-191.165911948354</v>
+        <v>-208.5250628528783</v>
       </c>
       <c r="I68" t="n">
-        <v>-191.165911948354</v>
+        <v>-208.5250628528783</v>
       </c>
       <c r="J68" t="n">
-        <v>-191.165911948354</v>
+        <v>-208.5250628528783</v>
       </c>
       <c r="K68" t="n">
-        <v>-191.165911948354</v>
+        <v>-208.5250628528783</v>
       </c>
       <c r="L68" t="n">
-        <v>-191.165911948354</v>
+        <v>-208.5250628528783</v>
       </c>
       <c r="M68" t="n">
-        <v>-191.165911948354</v>
+        <v>-208.5250628528783</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>21662.21404606854</v>
+        <v>11286.50162672697</v>
       </c>
     </row>
     <row r="69">
@@ -4078,37 +4078,37 @@
         <v>44774</v>
       </c>
       <c r="C69" t="n">
-        <v>21739.83495363365</v>
+        <v>11463.34323310919</v>
       </c>
       <c r="D69" t="n">
-        <v>20230.02044809205</v>
+        <v>10538.1534482156</v>
       </c>
       <c r="E69" t="n">
-        <v>23554.1945408702</v>
+        <v>12281.32206326337</v>
       </c>
       <c r="F69" t="n">
-        <v>21709.85309451336</v>
+        <v>11450.36328557731</v>
       </c>
       <c r="G69" t="n">
-        <v>21761.42183424853</v>
+        <v>11474.64562768569</v>
       </c>
       <c r="H69" t="n">
-        <v>145.093398352808</v>
+        <v>-42.73910010150484</v>
       </c>
       <c r="I69" t="n">
-        <v>145.093398352808</v>
+        <v>-42.73910010150484</v>
       </c>
       <c r="J69" t="n">
-        <v>145.093398352808</v>
+        <v>-42.73910010150484</v>
       </c>
       <c r="K69" t="n">
-        <v>145.093398352808</v>
+        <v>-42.73910010150484</v>
       </c>
       <c r="L69" t="n">
-        <v>145.093398352808</v>
+        <v>-42.73910010150484</v>
       </c>
       <c r="M69" t="n">
-        <v>145.093398352808</v>
+        <v>-42.73910010150484</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>21884.92835198646</v>
+        <v>11420.60413300769</v>
       </c>
     </row>
     <row r="70">
@@ -4131,37 +4131,37 @@
         <v>44805</v>
       </c>
       <c r="C70" t="n">
-        <v>21626.28994925041</v>
+        <v>11431.65977663853</v>
       </c>
       <c r="D70" t="n">
-        <v>19872.18378951239</v>
+        <v>10443.2097534591</v>
       </c>
       <c r="E70" t="n">
-        <v>23294.16473089555</v>
+        <v>12080.37999436845</v>
       </c>
       <c r="F70" t="n">
-        <v>21560.56891754812</v>
+        <v>11403.80773821177</v>
       </c>
       <c r="G70" t="n">
-        <v>21680.49350009871</v>
+        <v>11456.7311158224</v>
       </c>
       <c r="H70" t="n">
-        <v>-97.37379397054097</v>
+        <v>-165.9431382747949</v>
       </c>
       <c r="I70" t="n">
-        <v>-97.37379397054097</v>
+        <v>-165.9431382747949</v>
       </c>
       <c r="J70" t="n">
-        <v>-97.37379397054097</v>
+        <v>-165.9431382747949</v>
       </c>
       <c r="K70" t="n">
-        <v>-97.37379397054097</v>
+        <v>-165.9431382747949</v>
       </c>
       <c r="L70" t="n">
-        <v>-97.37379397054097</v>
+        <v>-165.9431382747949</v>
       </c>
       <c r="M70" t="n">
-        <v>-97.37379397054097</v>
+        <v>-165.9431382747949</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>21528.91615527987</v>
+        <v>11265.71663836374</v>
       </c>
     </row>
     <row r="71">
@@ -4184,37 +4184,37 @@
         <v>44835</v>
       </c>
       <c r="C71" t="n">
-        <v>21516.40768694405</v>
+        <v>11400.99836715079</v>
       </c>
       <c r="D71" t="n">
-        <v>21138.38151676012</v>
+        <v>11068.36517310752</v>
       </c>
       <c r="E71" t="n">
-        <v>24366.77095170603</v>
+        <v>12708.92569242961</v>
       </c>
       <c r="F71" t="n">
-        <v>21400.18042731659</v>
+        <v>11357.4281870894</v>
       </c>
       <c r="G71" t="n">
-        <v>21601.54824708382</v>
+        <v>11441.74159026228</v>
       </c>
       <c r="H71" t="n">
-        <v>1236.463130928738</v>
+        <v>503.7055603922861</v>
       </c>
       <c r="I71" t="n">
-        <v>1236.463130928738</v>
+        <v>503.7055603922861</v>
       </c>
       <c r="J71" t="n">
-        <v>1236.463130928738</v>
+        <v>503.7055603922861</v>
       </c>
       <c r="K71" t="n">
-        <v>1236.463130928738</v>
+        <v>503.7055603922861</v>
       </c>
       <c r="L71" t="n">
-        <v>1236.463130928738</v>
+        <v>503.7055603922861</v>
       </c>
       <c r="M71" t="n">
-        <v>1236.463130928738</v>
+        <v>503.7055603922861</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>22752.87081787279</v>
+        <v>11904.70392754308</v>
       </c>
     </row>
     <row r="72">
@@ -4237,37 +4237,37 @@
         <v>44866</v>
       </c>
       <c r="C72" t="n">
-        <v>21402.8626825608</v>
+        <v>11369.31491068014</v>
       </c>
       <c r="D72" t="n">
-        <v>18535.3087257377</v>
+        <v>9705.69808096053</v>
       </c>
       <c r="E72" t="n">
-        <v>21864.15083739475</v>
+        <v>11462.75242661952</v>
       </c>
       <c r="F72" t="n">
-        <v>21243.4287811746</v>
+        <v>11307.15180328891</v>
       </c>
       <c r="G72" t="n">
-        <v>21524.38857592259</v>
+        <v>11427.73143317785</v>
       </c>
       <c r="H72" t="n">
-        <v>-1248.026553648137</v>
+        <v>-732.2052818932513</v>
       </c>
       <c r="I72" t="n">
-        <v>-1248.026553648137</v>
+        <v>-732.2052818932513</v>
       </c>
       <c r="J72" t="n">
-        <v>-1248.026553648137</v>
+        <v>-732.2052818932513</v>
       </c>
       <c r="K72" t="n">
-        <v>-1248.026553648137</v>
+        <v>-732.2052818932513</v>
       </c>
       <c r="L72" t="n">
-        <v>-1248.026553648137</v>
+        <v>-732.2052818932513</v>
       </c>
       <c r="M72" t="n">
-        <v>-1248.026553648137</v>
+        <v>-732.2052818932513</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>20154.83612891267</v>
+        <v>10637.10962878688</v>
       </c>
     </row>
     <row r="73">
@@ -4290,37 +4290,37 @@
         <v>44896</v>
       </c>
       <c r="C73" t="n">
-        <v>21292.98042025444</v>
+        <v>11338.6535011924</v>
       </c>
       <c r="D73" t="n">
-        <v>17324.61489122195</v>
+        <v>9272.194657650809</v>
       </c>
       <c r="E73" t="n">
-        <v>20820.77770328309</v>
+        <v>10991.84368258627</v>
       </c>
       <c r="F73" t="n">
-        <v>21083.16313710992</v>
+        <v>11253.95805567172</v>
       </c>
       <c r="G73" t="n">
-        <v>21455.52699532297</v>
+        <v>11418.77254052314</v>
       </c>
       <c r="H73" t="n">
-        <v>-2221.516612493162</v>
+        <v>-1212.074245479506</v>
       </c>
       <c r="I73" t="n">
-        <v>-2221.516612493162</v>
+        <v>-1212.074245479506</v>
       </c>
       <c r="J73" t="n">
-        <v>-2221.516612493162</v>
+        <v>-1212.074245479506</v>
       </c>
       <c r="K73" t="n">
-        <v>-2221.516612493162</v>
+        <v>-1212.074245479506</v>
       </c>
       <c r="L73" t="n">
-        <v>-2221.516612493162</v>
+        <v>-1212.074245479506</v>
       </c>
       <c r="M73" t="n">
-        <v>-2221.516612493162</v>
+        <v>-1212.074245479506</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>19071.46380776128</v>
+        <v>10126.57925571289</v>
       </c>
     </row>
     <row r="74">
@@ -4343,37 +4343,37 @@
         <v>44927</v>
       </c>
       <c r="C74" t="n">
-        <v>21179.43541587119</v>
+        <v>11306.97004472174</v>
       </c>
       <c r="D74" t="n">
-        <v>21325.37640219256</v>
+        <v>11338.58915049911</v>
       </c>
       <c r="E74" t="n">
-        <v>24799.28394696932</v>
+        <v>13056.20269923234</v>
       </c>
       <c r="F74" t="n">
-        <v>20916.31009836184</v>
+        <v>11202.70794812566</v>
       </c>
       <c r="G74" t="n">
-        <v>21395.45097688208</v>
+        <v>11411.72772740593</v>
       </c>
       <c r="H74" t="n">
-        <v>1901.457166372301</v>
+        <v>857.2298390317658</v>
       </c>
       <c r="I74" t="n">
-        <v>1901.457166372301</v>
+        <v>857.2298390317658</v>
       </c>
       <c r="J74" t="n">
-        <v>1901.457166372301</v>
+        <v>857.2298390317658</v>
       </c>
       <c r="K74" t="n">
-        <v>1901.457166372301</v>
+        <v>857.2298390317658</v>
       </c>
       <c r="L74" t="n">
-        <v>1901.457166372301</v>
+        <v>857.2298390317658</v>
       </c>
       <c r="M74" t="n">
-        <v>1901.457166372301</v>
+        <v>857.2298390317658</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>23080.89258224349</v>
+        <v>12164.1998837535</v>
       </c>
     </row>
     <row r="75">
@@ -4396,37 +4396,37 @@
         <v>44958</v>
       </c>
       <c r="C75" t="n">
-        <v>21065.89041148795</v>
+        <v>11275.28658825108</v>
       </c>
       <c r="D75" t="n">
-        <v>17846.61421127393</v>
+        <v>9620.418545046135</v>
       </c>
       <c r="E75" t="n">
-        <v>21476.02917951951</v>
+        <v>11326.65353156143</v>
       </c>
       <c r="F75" t="n">
-        <v>20741.86938460551</v>
+        <v>11146.89115782108</v>
       </c>
       <c r="G75" t="n">
-        <v>21345.4484251573</v>
+        <v>11406.81288994443</v>
       </c>
       <c r="H75" t="n">
-        <v>-1369.266196190354</v>
+        <v>-776.9925507826729</v>
       </c>
       <c r="I75" t="n">
-        <v>-1369.266196190354</v>
+        <v>-776.9925507826729</v>
       </c>
       <c r="J75" t="n">
-        <v>-1369.266196190354</v>
+        <v>-776.9925507826729</v>
       </c>
       <c r="K75" t="n">
-        <v>-1369.266196190354</v>
+        <v>-776.9925507826729</v>
       </c>
       <c r="L75" t="n">
-        <v>-1369.266196190354</v>
+        <v>-776.9925507826729</v>
       </c>
       <c r="M75" t="n">
-        <v>-1369.266196190354</v>
+        <v>-776.9925507826729</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>19696.6242152976</v>
+        <v>10498.2940374684</v>
       </c>
     </row>
     <row r="76">
@@ -4449,37 +4449,37 @@
         <v>44986</v>
       </c>
       <c r="C76" t="n">
-        <v>20963.33363333535</v>
+        <v>11246.66927272919</v>
       </c>
       <c r="D76" t="n">
-        <v>18575.31283341497</v>
+        <v>9758.950984868598</v>
       </c>
       <c r="E76" t="n">
-        <v>21892.56713157636</v>
+        <v>11521.68622799845</v>
       </c>
       <c r="F76" t="n">
-        <v>20585.67297460186</v>
+        <v>11097.9381537602</v>
       </c>
       <c r="G76" t="n">
-        <v>21291.9730902492</v>
+        <v>11398.54300209503</v>
       </c>
       <c r="H76" t="n">
-        <v>-691.2284013742947</v>
+        <v>-573.435122476109</v>
       </c>
       <c r="I76" t="n">
-        <v>-691.2284013742947</v>
+        <v>-573.435122476109</v>
       </c>
       <c r="J76" t="n">
-        <v>-691.2284013742947</v>
+        <v>-573.435122476109</v>
       </c>
       <c r="K76" t="n">
-        <v>-691.2284013742947</v>
+        <v>-573.435122476109</v>
       </c>
       <c r="L76" t="n">
-        <v>-691.2284013742947</v>
+        <v>-573.435122476109</v>
       </c>
       <c r="M76" t="n">
-        <v>-691.2284013742947</v>
+        <v>-573.435122476109</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>20272.10523196105</v>
+        <v>10673.23415025308</v>
       </c>
     </row>
     <row r="77">
@@ -4502,37 +4502,37 @@
         <v>45017</v>
       </c>
       <c r="C77" t="n">
-        <v>20849.7886289521</v>
+        <v>11214.98581625853</v>
       </c>
       <c r="D77" t="n">
-        <v>19606.89902806135</v>
+        <v>10398.45850663876</v>
       </c>
       <c r="E77" t="n">
-        <v>22951.9551612303</v>
+        <v>12060.99581613009</v>
       </c>
       <c r="F77" t="n">
-        <v>20397.92045791405</v>
+        <v>11033.25537753984</v>
       </c>
       <c r="G77" t="n">
-        <v>21226.57696863839</v>
+        <v>11387.73285144852</v>
       </c>
       <c r="H77" t="n">
-        <v>457.1002944579892</v>
+        <v>-12.9429739286</v>
       </c>
       <c r="I77" t="n">
-        <v>457.1002944579892</v>
+        <v>-12.9429739286</v>
       </c>
       <c r="J77" t="n">
-        <v>457.1002944579892</v>
+        <v>-12.9429739286</v>
       </c>
       <c r="K77" t="n">
-        <v>457.1002944579892</v>
+        <v>-12.9429739286</v>
       </c>
       <c r="L77" t="n">
-        <v>457.1002944579892</v>
+        <v>-12.9429739286</v>
       </c>
       <c r="M77" t="n">
-        <v>457.1002944579892</v>
+        <v>-12.9429739286</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>21306.88892341009</v>
+        <v>11202.04284232993</v>
       </c>
     </row>
     <row r="78">
@@ -4555,37 +4555,37 @@
         <v>45047</v>
       </c>
       <c r="C78" t="n">
-        <v>20739.90636664574</v>
+        <v>11184.32440677079</v>
       </c>
       <c r="D78" t="n">
-        <v>21452.04304760548</v>
+        <v>11299.63169493774</v>
       </c>
       <c r="E78" t="n">
-        <v>25091.79350576598</v>
+        <v>13054.21233075204</v>
       </c>
       <c r="F78" t="n">
-        <v>20214.72297607774</v>
+        <v>10973.26838140942</v>
       </c>
       <c r="G78" t="n">
-        <v>21185.05973822406</v>
+        <v>11379.27830867215</v>
       </c>
       <c r="H78" t="n">
-        <v>2493.720289735936</v>
+        <v>987.9517584468889</v>
       </c>
       <c r="I78" t="n">
-        <v>2493.720289735936</v>
+        <v>987.9517584468889</v>
       </c>
       <c r="J78" t="n">
-        <v>2493.720289735936</v>
+        <v>987.9517584468889</v>
       </c>
       <c r="K78" t="n">
-        <v>2493.720289735936</v>
+        <v>987.9517584468889</v>
       </c>
       <c r="L78" t="n">
-        <v>2493.720289735936</v>
+        <v>987.9517584468889</v>
       </c>
       <c r="M78" t="n">
-        <v>2493.720289735936</v>
+        <v>987.9517584468889</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>23233.62665638167</v>
+        <v>12172.27616521768</v>
       </c>
     </row>
     <row r="79">
@@ -4608,37 +4608,37 @@
         <v>45078</v>
       </c>
       <c r="C79" t="n">
-        <v>20626.36136226249</v>
+        <v>11152.64095030013</v>
       </c>
       <c r="D79" t="n">
-        <v>17470.33113638623</v>
+        <v>10482.28226787744</v>
       </c>
       <c r="E79" t="n">
-        <v>20997.89920371942</v>
+        <v>12258.04030269656</v>
       </c>
       <c r="F79" t="n">
-        <v>20029.10668182792</v>
+        <v>10911.37028134504</v>
       </c>
       <c r="G79" t="n">
-        <v>21146.17671728434</v>
+        <v>11377.39937187034</v>
       </c>
       <c r="H79" t="n">
-        <v>-1369.223303634826</v>
+        <v>183.1738991367341</v>
       </c>
       <c r="I79" t="n">
-        <v>-1369.223303634826</v>
+        <v>183.1738991367341</v>
       </c>
       <c r="J79" t="n">
-        <v>-1369.223303634826</v>
+        <v>183.1738991367341</v>
       </c>
       <c r="K79" t="n">
-        <v>-1369.223303634826</v>
+        <v>183.1738991367341</v>
       </c>
       <c r="L79" t="n">
-        <v>-1369.223303634826</v>
+        <v>183.1738991367341</v>
       </c>
       <c r="M79" t="n">
-        <v>-1369.223303634826</v>
+        <v>183.1738991367341</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>19257.13805862767</v>
+        <v>11335.81484943687</v>
       </c>
     </row>
     <row r="80">
@@ -4661,37 +4661,37 @@
         <v>45108</v>
       </c>
       <c r="C80" t="n">
-        <v>20516.47909995613</v>
+        <v>11121.9795408124</v>
       </c>
       <c r="D80" t="n">
-        <v>18539.06802979324</v>
+        <v>10011.55949686719</v>
       </c>
       <c r="E80" t="n">
-        <v>22266.79455478519</v>
+        <v>11721.82131748407</v>
       </c>
       <c r="F80" t="n">
-        <v>19843.18591914659</v>
+        <v>10845.47664621614</v>
       </c>
       <c r="G80" t="n">
-        <v>21111.29672985089</v>
+        <v>11382.86835371715</v>
       </c>
       <c r="H80" t="n">
-        <v>-79.40280618471702</v>
+        <v>-213.2861633867873</v>
       </c>
       <c r="I80" t="n">
-        <v>-79.40280618471702</v>
+        <v>-213.2861633867873</v>
       </c>
       <c r="J80" t="n">
-        <v>-79.40280618471702</v>
+        <v>-213.2861633867873</v>
       </c>
       <c r="K80" t="n">
-        <v>-79.40280618471702</v>
+        <v>-213.2861633867873</v>
       </c>
       <c r="L80" t="n">
-        <v>-79.40280618471702</v>
+        <v>-213.2861633867873</v>
       </c>
       <c r="M80" t="n">
-        <v>-79.40280618471702</v>
+        <v>-213.2861633867873</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>20437.07629377141</v>
+        <v>10908.69337742561</v>
       </c>
     </row>
     <row r="81">
@@ -4714,37 +4714,37 @@
         <v>45139</v>
       </c>
       <c r="C81" t="n">
-        <v>20402.93409557289</v>
+        <v>11090.29608434174</v>
       </c>
       <c r="D81" t="n">
-        <v>18739.91576245727</v>
+        <v>10090.9284277206</v>
       </c>
       <c r="E81" t="n">
-        <v>22526.61334829012</v>
+        <v>11994.40726934834</v>
       </c>
       <c r="F81" t="n">
-        <v>19666.76585607522</v>
+        <v>10777.37865391151</v>
       </c>
       <c r="G81" t="n">
-        <v>21061.11655780479</v>
+        <v>11384.63873551735</v>
       </c>
       <c r="H81" t="n">
-        <v>223.1758589612814</v>
+        <v>-50.74224400848387</v>
       </c>
       <c r="I81" t="n">
-        <v>223.1758589612814</v>
+        <v>-50.74224400848387</v>
       </c>
       <c r="J81" t="n">
-        <v>223.1758589612814</v>
+        <v>-50.74224400848387</v>
       </c>
       <c r="K81" t="n">
-        <v>223.1758589612814</v>
+        <v>-50.74224400848387</v>
       </c>
       <c r="L81" t="n">
-        <v>223.1758589612814</v>
+        <v>-50.74224400848387</v>
       </c>
       <c r="M81" t="n">
-        <v>223.1758589612814</v>
+        <v>-50.74224400848387</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>20626.10995453417</v>
+        <v>11039.55384033325</v>
       </c>
     </row>
     <row r="82">
@@ -4767,37 +4767,37 @@
         <v>45170</v>
       </c>
       <c r="C82" t="n">
-        <v>20289.38909118965</v>
+        <v>11058.61262787108</v>
       </c>
       <c r="D82" t="n">
-        <v>17735.680092739</v>
+        <v>9683.496407506558</v>
       </c>
       <c r="E82" t="n">
-        <v>21518.05699242298</v>
+        <v>11536.03156846797</v>
       </c>
       <c r="F82" t="n">
-        <v>19458.61612234799</v>
+        <v>10706.18864840807</v>
       </c>
       <c r="G82" t="n">
-        <v>21044.973762047</v>
+        <v>11390.64801178401</v>
       </c>
       <c r="H82" t="n">
-        <v>-599.3081961343721</v>
+        <v>-452.5827801200935</v>
       </c>
       <c r="I82" t="n">
-        <v>-599.3081961343721</v>
+        <v>-452.5827801200935</v>
       </c>
       <c r="J82" t="n">
-        <v>-599.3081961343721</v>
+        <v>-452.5827801200935</v>
       </c>
       <c r="K82" t="n">
-        <v>-599.3081961343721</v>
+        <v>-452.5827801200935</v>
       </c>
       <c r="L82" t="n">
-        <v>-599.3081961343721</v>
+        <v>-452.5827801200935</v>
       </c>
       <c r="M82" t="n">
-        <v>-599.3081961343721</v>
+        <v>-452.5827801200935</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>19690.08089505527</v>
+        <v>10606.02984775098</v>
       </c>
     </row>
     <row r="83">
@@ -4820,37 +4820,37 @@
         <v>45200</v>
       </c>
       <c r="C83" t="n">
-        <v>20179.50682888328</v>
+        <v>11027.95121838334</v>
       </c>
       <c r="D83" t="n">
-        <v>19874.66702500824</v>
+        <v>10771.95830174837</v>
       </c>
       <c r="E83" t="n">
-        <v>23865.74582965967</v>
+        <v>12616.37093896518</v>
       </c>
       <c r="F83" t="n">
-        <v>19261.85497766912</v>
+        <v>10640.64053644047</v>
       </c>
       <c r="G83" t="n">
-        <v>20997.82514975868</v>
+        <v>11399.58948515311</v>
       </c>
       <c r="H83" t="n">
-        <v>1706.19289706705</v>
+        <v>721.2733329893317</v>
       </c>
       <c r="I83" t="n">
-        <v>1706.19289706705</v>
+        <v>721.2733329893317</v>
       </c>
       <c r="J83" t="n">
-        <v>1706.19289706705</v>
+        <v>721.2733329893317</v>
       </c>
       <c r="K83" t="n">
-        <v>1706.19289706705</v>
+        <v>721.2733329893317</v>
       </c>
       <c r="L83" t="n">
-        <v>1706.19289706705</v>
+        <v>721.2733329893317</v>
       </c>
       <c r="M83" t="n">
-        <v>1706.19289706705</v>
+        <v>721.2733329893317</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -4862,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>21885.69972595033</v>
+        <v>11749.22455137267</v>
       </c>
     </row>
     <row r="84">
@@ -4873,37 +4873,37 @@
         <v>45231</v>
       </c>
       <c r="C84" t="n">
-        <v>20065.96182450003</v>
+        <v>10996.26776191268</v>
       </c>
       <c r="D84" t="n">
-        <v>16731.72622320606</v>
+        <v>9240.042685646595</v>
       </c>
       <c r="E84" t="n">
-        <v>20589.54826366926</v>
+        <v>11080.40648686551</v>
       </c>
       <c r="F84" t="n">
-        <v>19054.17974979434</v>
+        <v>10570.43451196812</v>
       </c>
       <c r="G84" t="n">
-        <v>20957.70010484395</v>
+        <v>11400.29286575803</v>
       </c>
       <c r="H84" t="n">
-        <v>-1456.798636015505</v>
+        <v>-830.5769409680627</v>
       </c>
       <c r="I84" t="n">
-        <v>-1456.798636015505</v>
+        <v>-830.5769409680627</v>
       </c>
       <c r="J84" t="n">
-        <v>-1456.798636015505</v>
+        <v>-830.5769409680627</v>
       </c>
       <c r="K84" t="n">
-        <v>-1456.798636015505</v>
+        <v>-830.5769409680627</v>
       </c>
       <c r="L84" t="n">
-        <v>-1456.798636015505</v>
+        <v>-830.5769409680627</v>
       </c>
       <c r="M84" t="n">
-        <v>-1456.798636015505</v>
+        <v>-830.5769409680627</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
@@ -4915,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>18609.16318848453</v>
+        <v>10165.69082094462</v>
       </c>
     </row>
   </sheetData>
